--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831126D4-B7F6-473E-B309-E66CCA7046EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE03AE0-6C28-4133-A0AA-EC6336F13FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>Tatum 25+PTS</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Garland 4+ reb</t>
+  </si>
+  <si>
+    <t>Garland 10+ pts</t>
+  </si>
+  <si>
+    <t>mobley 10+ pts</t>
+  </si>
+  <si>
+    <t>strus 10+ pts</t>
+  </si>
+  <si>
+    <t>KCP 10+ pts</t>
+  </si>
+  <si>
+    <t>Gordon 10+ pts</t>
   </si>
 </sst>
 </file>
@@ -394,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1.06</v>
@@ -453,6 +477,13 @@
         <f>E2/D2-1</f>
         <v>0.1132075471698113</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>IF(G2="Yes",E2*C2-C2,-C2)</f>
+        <v>0.89999999999999947</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -473,6 +504,139 @@
       <c r="F3" s="2">
         <f>E3/D3-1</f>
         <v>0.25174825174825188</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <f>IF(G3="Yes",E3*C3-C3,-C3)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.71</v>
+      </c>
+      <c r="E4">
+        <v>3.6</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F9" si="0">E4/D4-1</f>
+        <v>0.32841328413284132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.02</v>
+      </c>
+      <c r="E5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8039215686274606E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.03</v>
+      </c>
+      <c r="E6">
+        <v>1.24</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20388349514563098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.25</v>
+      </c>
+      <c r="E7">
+        <v>1.83</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46399999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1.6</v>
+      </c>
+      <c r="E8">
+        <v>2.35</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.08</v>
+      </c>
+      <c r="E9">
+        <v>1.23</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13888888888888884</v>
       </c>
     </row>
   </sheetData>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE03AE0-6C28-4133-A0AA-EC6336F13FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60746B3B-5A71-4D15-A273-99B275656BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,42 @@
   </si>
   <si>
     <t>Gordon 10+ pts</t>
+  </si>
+  <si>
+    <t>Kawhi 20+ pts</t>
+  </si>
+  <si>
+    <t>Austin Reeves 15+ pts</t>
+  </si>
+  <si>
+    <t>Rui Hachimura 4+ rebs</t>
+  </si>
+  <si>
+    <t>Lebron 20+ pts</t>
+  </si>
+  <si>
+    <t>D'angelo Russel 6+ assits</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>10+ pts</t>
+  </si>
+  <si>
+    <t>15+ pts</t>
+  </si>
+  <si>
+    <t>6+ rebs</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
   </si>
 </sst>
 </file>
@@ -418,225 +454,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="7" width="16.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45381</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.06</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.18</v>
       </c>
-      <c r="F2" s="2">
-        <f>E2/D2-1</f>
+      <c r="G2" s="2">
+        <f>F2/E2-1</f>
         <v>0.1132075471698113</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
-        <f>IF(G2="Yes",E2*C2-C2,-C2)</f>
+      <c r="I2">
+        <f>IF(H2="Yes",F2*D2-D2,-D2)</f>
         <v>0.89999999999999947</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45381</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>1.43</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.79</v>
       </c>
-      <c r="F3" s="2">
-        <f>E3/D3-1</f>
+      <c r="G3" s="2">
+        <f>F3/E3-1</f>
         <v>0.25174825174825188</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3">
-        <f>IF(G3="Yes",E3*C3-C3,-C3)</f>
+      <c r="I3">
+        <f>IF(H3="Yes",F3*D3-D3,-D3)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45382</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>2.71</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3.6</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F9" si="0">E4/D4-1</f>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G18" si="0">F4/E4-1</f>
         <v>0.32841328413284132</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45382</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1.02</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>9.8039215686274606E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45382</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1.03</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>0.20388349514563098</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45382</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1.25</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.83</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>0.46399999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45382</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>1.6</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.35</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>0.46875</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45382</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1.08</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.23</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>0.13888888888888884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F10">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22807017543859653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1.48</v>
+      </c>
+      <c r="F11">
+        <v>1.74</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17567567567567566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>1.71</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.3</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1711711711711712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1.42</v>
+      </c>
+      <c r="F14">
+        <v>2.1</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47887323943661975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1.34</v>
+      </c>
+      <c r="F15">
+        <v>1.51</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12686567164179108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1.04</v>
+      </c>
+      <c r="F16">
+        <v>1.32</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2.57</v>
+      </c>
+      <c r="F17">
+        <v>3.3</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28404669260700399</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.06</v>
+      </c>
+      <c r="F18">
+        <v>1.56</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47169811320754707</v>
       </c>
     </row>
   </sheetData>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60746B3B-5A71-4D15-A273-99B275656BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A59BCCF-7828-42AD-93AC-03EE2DCDAED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -50,9 +53,6 @@
     <t>Net Result</t>
   </si>
   <si>
-    <t>Tatum 20+ PTs</t>
-  </si>
-  <si>
     <t>Calculated Exp Payout</t>
   </si>
   <si>
@@ -65,48 +65,12 @@
     <t>Hit?</t>
   </si>
   <si>
-    <t>Tatum 25+PTS</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>Garland 4+ reb</t>
-  </si>
-  <si>
-    <t>Garland 10+ pts</t>
-  </si>
-  <si>
-    <t>mobley 10+ pts</t>
-  </si>
-  <si>
-    <t>strus 10+ pts</t>
-  </si>
-  <si>
-    <t>KCP 10+ pts</t>
-  </si>
-  <si>
-    <t>Gordon 10+ pts</t>
-  </si>
-  <si>
-    <t>Kawhi 20+ pts</t>
-  </si>
-  <si>
-    <t>Austin Reeves 15+ pts</t>
-  </si>
-  <si>
-    <t>Rui Hachimura 4+ rebs</t>
-  </si>
-  <si>
-    <t>Lebron 20+ pts</t>
-  </si>
-  <si>
-    <t>D'angelo Russel 6+ assits</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
@@ -126,12 +90,120 @@
   </si>
   <si>
     <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>nikola vucevic</t>
+  </si>
+  <si>
+    <t>coby white</t>
+  </si>
+  <si>
+    <t>4+ asts</t>
+  </si>
+  <si>
+    <t>2+ asts</t>
+  </si>
+  <si>
+    <t>dillon brooks</t>
+  </si>
+  <si>
+    <t>chet holmgren</t>
+  </si>
+  <si>
+    <t>jalen williams</t>
+  </si>
+  <si>
+    <t>20+ pts</t>
+  </si>
+  <si>
+    <t>6+ asts</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>4+ rebs</t>
+  </si>
+  <si>
+    <t>25+ pts</t>
+  </si>
+  <si>
+    <t>6+ assists</t>
+  </si>
+  <si>
+    <t>D'angelo Russel</t>
+  </si>
+  <si>
+    <t>Tatum</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>mobley</t>
+  </si>
+  <si>
+    <t>strus</t>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Kawhi</t>
+  </si>
+  <si>
+    <t>Austin Reeves</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Lebron</t>
+  </si>
+  <si>
+    <t>jrue holiday</t>
+  </si>
+  <si>
+    <t>Miles bridges</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,12 +220,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,10 +253,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,31 +558,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -504,7 +591,10 @@
         <v>45381</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -520,7 +610,7 @@
         <v>0.1132075471698113</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <f>IF(H2="Yes",F2*D2-D2,-D2)</f>
@@ -532,7 +622,10 @@
         <v>45381</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -548,7 +641,7 @@
         <v>0.25174825174825188</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <f>IF(H3="Yes",F3*D3-D3,-D3)</f>
@@ -560,7 +653,10 @@
         <v>45382</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -572,8 +668,15 @@
         <v>3.6</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G18" si="0">F4/E4-1</f>
+        <f t="shared" ref="G4:G41" si="0">F4/E4-1</f>
         <v>0.32841328413284132</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I41" si="1">IF(H4="Yes",F4*D4-D4,-D4)</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -581,6 +684,9 @@
         <v>45382</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
@@ -596,16 +702,26 @@
         <f t="shared" si="0"/>
         <v>9.8039215686274606E-2</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45382</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1.03</v>
@@ -617,13 +733,23 @@
         <f t="shared" si="0"/>
         <v>0.20388349514563098</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45382</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -638,13 +764,23 @@
         <f t="shared" si="0"/>
         <v>0.46399999999999997</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45382</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -659,13 +795,23 @@
         <f t="shared" si="0"/>
         <v>0.46875</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45382</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -680,13 +826,23 @@
         <f t="shared" si="0"/>
         <v>0.13888888888888884</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45382</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -701,10 +857,23 @@
         <f t="shared" si="0"/>
         <v>0.22807017543859653</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999991</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45382</v>
+      </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -719,10 +888,23 @@
         <f t="shared" si="0"/>
         <v>0.17567567567567566</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45382</v>
+      </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -737,10 +919,23 @@
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45382</v>
+      </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -755,10 +950,23 @@
         <f t="shared" si="0"/>
         <v>0.1711711711711712</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45382</v>
+      </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -773,13 +981,23 @@
         <f t="shared" si="0"/>
         <v>0.47887323943661975</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45382</v>
+      </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -794,13 +1012,23 @@
         <f t="shared" si="0"/>
         <v>0.12686567164179108</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45382</v>
+      </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -815,13 +1043,23 @@
         <f t="shared" si="0"/>
         <v>0.26923076923076916</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45382</v>
+      </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -836,13 +1074,23 @@
         <f t="shared" si="0"/>
         <v>0.28404669260700399</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45382</v>
+      </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -857,8 +1105,748 @@
         <f t="shared" si="0"/>
         <v>0.47169811320754707</v>
       </c>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.22</v>
+      </c>
+      <c r="F19">
+        <v>1.77</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45081967213114749</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F20">
+        <v>1.31</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18018018018018012</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F21">
+        <v>3.3</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59420289855072461</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F22">
+        <v>1.31</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13913043478260878</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1.25</v>
+      </c>
+      <c r="F23">
+        <v>1.45</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1.03</v>
+      </c>
+      <c r="F24">
+        <v>1.17</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13592233009708732</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1.43</v>
+      </c>
+      <c r="F26">
+        <v>1.74</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21678321678321688</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F27">
+        <v>1.43</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23275862068965525</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F28">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21890547263681603</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1.39</v>
+      </c>
+      <c r="F29">
+        <v>1.71</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23021582733812962</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1.02</v>
+      </c>
+      <c r="F30">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12745098039215685</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1.39</v>
+      </c>
+      <c r="F31">
+        <v>1.77</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27338129496402885</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1.7</v>
+      </c>
+      <c r="F32">
+        <v>1.95</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14705882352941169</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1.52</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421062</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1.45</v>
+      </c>
+      <c r="F34">
+        <v>1.77</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22068965517241379</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F35">
+        <v>1.43</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26548672566371678</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.42999999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2.41</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24481327800829877</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1.26</v>
+      </c>
+      <c r="F37">
+        <v>1.61</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2777777777777779</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1.08</v>
+      </c>
+      <c r="F38">
+        <v>1.24</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1.8</v>
+      </c>
+      <c r="F39">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333339</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1.3</v>
+      </c>
+      <c r="F40">
+        <v>1.59</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22307692307692317</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1.75</v>
+      </c>
+      <c r="F41">
+        <v>2.25</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428581</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f>SUM(D2:D49)</f>
+        <v>45</v>
+      </c>
+      <c r="I50">
+        <f>SUM(I2:I49)+D50</f>
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="3">
+        <f>I50/D50-1</f>
+        <v>-5.3333333333333344E-2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A59BCCF-7828-42AD-93AC-03EE2DCDAED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7020D3F-C182-418B-AF25-A9DB44B45288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -195,6 +195,48 @@
   </si>
   <si>
     <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ washington </t>
+  </si>
+  <si>
+    <t>Derrick Jones Jr</t>
+  </si>
+  <si>
+    <t>2+ 3's</t>
+  </si>
+  <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>2+ 3s</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Damian Lillard</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Kris Murray</t>
+  </si>
+  <si>
+    <t>day over day % change</t>
   </si>
 </sst>
 </file>
@@ -541,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,9 +597,10 @@
     <col min="4" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="8" width="16.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -585,8 +628,11 @@
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45381</v>
       </c>
@@ -616,8 +662,12 @@
         <f>IF(H2="Yes",F2*D2-D2,-D2)</f>
         <v>0.89999999999999947</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="str">
+        <f>IF(NOT(A2=A3),(SUMIFS(I:I, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45381</v>
       </c>
@@ -647,8 +697,12 @@
         <f>IF(H3="Yes",F3*D3-D3,-D3)</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <f>IF(NOT(A3=A4),(SUMIFS(I:I, A:A, A3)+SUMIFS(D:D, A:A, A3))/SUMIFS(D:D, A:A, A3)-1,"")</f>
+        <v>-1.6666666666666718E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45382</v>
       </c>
@@ -668,18 +722,22 @@
         <v>3.6</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G41" si="0">F4/E4-1</f>
+        <f t="shared" ref="G4:G69" si="0">F4/E4-1</f>
         <v>0.32841328413284132</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I41" si="1">IF(H4="Yes",F4*D4-D4,-D4)</f>
+        <f t="shared" ref="I4:I67" si="1">IF(H4="Yes",F4*D4-D4,-D4)</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="str">
+        <f t="shared" ref="J4:J67" si="2">IF(NOT(A4=A5),(SUMIFS(I:I, A:A, A4)+SUMIFS(D:D, A:A, A4))/SUMIFS(D:D, A:A, A4)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45382</v>
       </c>
@@ -709,8 +767,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45382</v>
       </c>
@@ -740,8 +802,12 @@
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45382</v>
       </c>
@@ -771,8 +837,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45382</v>
       </c>
@@ -802,8 +872,12 @@
         <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45382</v>
       </c>
@@ -833,8 +907,12 @@
         <f t="shared" si="1"/>
         <v>0.22999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45382</v>
       </c>
@@ -864,8 +942,12 @@
         <f t="shared" si="1"/>
         <v>0.39999999999999991</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45382</v>
       </c>
@@ -895,8 +977,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45382</v>
       </c>
@@ -926,8 +1012,12 @@
         <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45382</v>
       </c>
@@ -957,8 +1047,12 @@
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45382</v>
       </c>
@@ -988,8 +1082,12 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45382</v>
       </c>
@@ -1019,8 +1117,12 @@
         <f t="shared" si="1"/>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45382</v>
       </c>
@@ -1050,8 +1152,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45382</v>
       </c>
@@ -1081,8 +1187,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45382</v>
       </c>
@@ -1112,8 +1222,12 @@
         <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45382</v>
       </c>
@@ -1143,8 +1257,12 @@
         <f t="shared" si="1"/>
         <v>0.77</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45382</v>
       </c>
@@ -1174,8 +1292,12 @@
         <f t="shared" si="1"/>
         <v>0.31000000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45382</v>
       </c>
@@ -1205,8 +1327,12 @@
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45382</v>
       </c>
@@ -1236,8 +1362,12 @@
         <f t="shared" si="1"/>
         <v>0.31000000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45382</v>
       </c>
@@ -1267,8 +1397,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45382</v>
       </c>
@@ -1298,8 +1432,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45382</v>
       </c>
@@ -1329,8 +1467,12 @@
         <f t="shared" si="1"/>
         <v>1.2999999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45382</v>
       </c>
@@ -1360,8 +1502,12 @@
         <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14041666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45383</v>
       </c>
@@ -1391,8 +1537,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45383</v>
       </c>
@@ -1422,8 +1572,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45383</v>
       </c>
@@ -1453,8 +1607,12 @@
         <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45383</v>
       </c>
@@ -1484,8 +1642,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45383</v>
       </c>
@@ -1515,8 +1677,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45383</v>
       </c>
@@ -1546,8 +1712,12 @@
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45383</v>
       </c>
@@ -1577,8 +1747,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45383</v>
       </c>
@@ -1608,8 +1782,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45383</v>
       </c>
@@ -1639,8 +1817,12 @@
         <f t="shared" si="1"/>
         <v>0.42999999999999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45383</v>
       </c>
@@ -1670,8 +1852,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45383</v>
       </c>
@@ -1701,8 +1887,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45383</v>
       </c>
@@ -1732,8 +1922,12 @@
         <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45383</v>
       </c>
@@ -1763,8 +1957,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45383</v>
       </c>
@@ -1794,8 +1992,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45383</v>
       </c>
@@ -1825,28 +2027,1026 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1.79</v>
+      </c>
+      <c r="F42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22905027932960897</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1.72</v>
+      </c>
+      <c r="F43">
+        <v>4.8</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7906976744186047</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1.6</v>
+      </c>
+      <c r="F44">
+        <v>1.91</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19374999999999987</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1.42</v>
+      </c>
+      <c r="F45">
+        <v>1.63</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.147887323943662</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1.53</v>
+      </c>
+      <c r="F46">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33986928104575154</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1.39</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43884892086330951</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1.7</v>
+      </c>
+      <c r="F48">
+        <v>2.25</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32352941176470584</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1.25</v>
+      </c>
+      <c r="F49">
+        <v>1.57</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
       <c r="D50">
-        <f>SUM(D2:D49)</f>
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F50">
+        <v>1.63</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42982456140350878</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I50">
-        <f>SUM(I2:I49)+D50</f>
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="I51" s="3">
-        <f>I50/D50-1</f>
-        <v>-5.3333333333333344E-2</v>
-      </c>
-      <c r="J51" t="s">
+        <f t="shared" si="1"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1.37</v>
+      </c>
+      <c r="F51">
+        <v>1.8</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31386861313868608</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1.24</v>
+      </c>
+      <c r="F52">
+        <v>1.69</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36290322580645151</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1.33</v>
+      </c>
+      <c r="F53">
+        <v>1.74</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30827067669172914</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>0.74</v>
+      </c>
+      <c r="J53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>2.15</v>
+      </c>
+      <c r="F54">
+        <v>4.7</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1860465116279073</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="J54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1.32</v>
+      </c>
+      <c r="F55">
+        <v>1.63</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23484848484848464</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1.23</v>
+      </c>
+      <c r="F56">
+        <v>1.67</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35772357723577231</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1.19</v>
+      </c>
+      <c r="F57">
+        <v>1.48</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24369747899159666</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1.82</v>
+      </c>
+      <c r="F58">
+        <v>3.3</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81318681318681296</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1.23</v>
+      </c>
+      <c r="F59">
+        <v>1.48</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20325203252032531</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1.26</v>
+      </c>
+      <c r="F60">
+        <v>1.48</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17460317460317465</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1.86</v>
+      </c>
+      <c r="F61">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37096774193548376</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1.25</v>
+      </c>
+      <c r="F62">
+        <v>1.5</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1.19</v>
+      </c>
+      <c r="F63">
+        <v>1.77</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48739495798319332</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>0.77</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1.47</v>
+      </c>
+      <c r="F64">
+        <v>1.95</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32653061224489788</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1.37</v>
+      </c>
+      <c r="F65">
+        <v>1.63</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18978102189780999</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1.56</v>
+      </c>
+      <c r="F66">
+        <v>1.8</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1.5</v>
+      </c>
+      <c r="F67">
+        <v>1.8</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1.24</v>
+      </c>
+      <c r="F68">
+        <v>1.45</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16935483870967749</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I69" si="3">IF(H68="Yes",F68*D68-D68,-D68)</f>
+        <v>-1</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f t="shared" ref="J68:J69" si="4">IF(NOT(A68=A69),(SUMIFS(I:I, A:A, A68)+SUMIFS(D:D, A:A, A68))/SUMIFS(D:D, A:A, A68)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F69">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18357487922705329</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="4"/>
+        <v>0.17428571428571416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f>SUM(D2:D79)</f>
+        <v>73</v>
+      </c>
+      <c r="I80">
+        <f>SUM(I2:I79)+D80</f>
+        <v>75.48</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I81" s="3">
+        <f>I80/D80-1</f>
+        <v>3.3972602739726021E-2</v>
+      </c>
+      <c r="J81" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7020D3F-C182-418B-AF25-A9DB44B45288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C08E1D-FCF2-4CE1-8BDB-6013399CCF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +259,66 @@
   </si>
   <si>
     <t>day over day % change</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>evan Mobley</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Mikal bridges</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>kcp</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Jaden McDanieels</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>push</t>
   </si>
 </sst>
 </file>
@@ -583,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +804,7 @@
         <v>3.6</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G69" si="0">F4/E4-1</f>
+        <f t="shared" ref="G4:G76" si="0">F4/E4-1</f>
         <v>0.32841328413284132</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -733,7 +815,7 @@
         <v>-1</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" ref="J4:J67" si="2">IF(NOT(A4=A5),(SUMIFS(I:I, A:A, A4)+SUMIFS(D:D, A:A, A4))/SUMIFS(D:D, A:A, A4)-1,"")</f>
+        <f>IF(NOT(A4=A5),(SUMIFS(I:I, A:A, A4)+SUMIFS(D:D, A:A, A4))/SUMIFS(D:D, A:A, A4)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -768,7 +850,7 @@
         <v>-1</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A5=A6),(SUMIFS(I:I, A:A, A5)+SUMIFS(D:D, A:A, A5))/SUMIFS(D:D, A:A, A5)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -803,7 +885,7 @@
         <v>0.48</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A6=A7),(SUMIFS(I:I, A:A, A6)+SUMIFS(D:D, A:A, A6))/SUMIFS(D:D, A:A, A6)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +920,7 @@
         <v>-1</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A7=A8),(SUMIFS(I:I, A:A, A7)+SUMIFS(D:D, A:A, A7))/SUMIFS(D:D, A:A, A7)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -873,7 +955,7 @@
         <v>1.35</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A8=A9),(SUMIFS(I:I, A:A, A8)+SUMIFS(D:D, A:A, A8))/SUMIFS(D:D, A:A, A8)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -908,7 +990,7 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A9=A10),(SUMIFS(I:I, A:A, A9)+SUMIFS(D:D, A:A, A9))/SUMIFS(D:D, A:A, A9)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -943,7 +1025,7 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A10=A11),(SUMIFS(I:I, A:A, A10)+SUMIFS(D:D, A:A, A10))/SUMIFS(D:D, A:A, A10)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -978,7 +1060,7 @@
         <v>-1</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A11=A12),(SUMIFS(I:I, A:A, A11)+SUMIFS(D:D, A:A, A11))/SUMIFS(D:D, A:A, A11)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1095,7 @@
         <v>0.71</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A12=A13),(SUMIFS(I:I, A:A, A12)+SUMIFS(D:D, A:A, A12))/SUMIFS(D:D, A:A, A12)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1048,7 +1130,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A13=A14),(SUMIFS(I:I, A:A, A13)+SUMIFS(D:D, A:A, A13))/SUMIFS(D:D, A:A, A13)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1083,7 +1165,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A14=A15),(SUMIFS(I:I, A:A, A14)+SUMIFS(D:D, A:A, A14))/SUMIFS(D:D, A:A, A14)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1118,7 +1200,7 @@
         <v>0.51</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A15=A16),(SUMIFS(I:I, A:A, A15)+SUMIFS(D:D, A:A, A15))/SUMIFS(D:D, A:A, A15)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1153,7 +1235,7 @@
         <v>-1</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A16=A17),(SUMIFS(I:I, A:A, A16)+SUMIFS(D:D, A:A, A16))/SUMIFS(D:D, A:A, A16)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1270,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A17=A18),(SUMIFS(I:I, A:A, A17)+SUMIFS(D:D, A:A, A17))/SUMIFS(D:D, A:A, A17)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1223,7 +1305,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A18=A19),(SUMIFS(I:I, A:A, A18)+SUMIFS(D:D, A:A, A18))/SUMIFS(D:D, A:A, A18)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1258,7 +1340,7 @@
         <v>0.77</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A19=A20),(SUMIFS(I:I, A:A, A19)+SUMIFS(D:D, A:A, A19))/SUMIFS(D:D, A:A, A19)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1293,7 +1375,7 @@
         <v>0.31000000000000005</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A20=A21),(SUMIFS(I:I, A:A, A20)+SUMIFS(D:D, A:A, A20))/SUMIFS(D:D, A:A, A20)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1328,7 +1410,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A21=A22),(SUMIFS(I:I, A:A, A21)+SUMIFS(D:D, A:A, A21))/SUMIFS(D:D, A:A, A21)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1363,7 +1445,7 @@
         <v>0.31000000000000005</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A22=A23),(SUMIFS(I:I, A:A, A22)+SUMIFS(D:D, A:A, A22))/SUMIFS(D:D, A:A, A22)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1398,7 +1480,7 @@
         <v>-1</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A23=A24),(SUMIFS(I:I, A:A, A23)+SUMIFS(D:D, A:A, A23))/SUMIFS(D:D, A:A, A23)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1433,7 +1515,7 @@
         <v>-1</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A24=A25),(SUMIFS(I:I, A:A, A24)+SUMIFS(D:D, A:A, A24))/SUMIFS(D:D, A:A, A24)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1468,7 +1550,7 @@
         <v>1.2999999999999998</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A25=A26),(SUMIFS(I:I, A:A, A25)+SUMIFS(D:D, A:A, A25))/SUMIFS(D:D, A:A, A25)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1503,7 +1585,7 @@
         <v>0.74</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A26=A27),(SUMIFS(I:I, A:A, A26)+SUMIFS(D:D, A:A, A26))/SUMIFS(D:D, A:A, A26)-1,"")</f>
         <v>0.14041666666666663</v>
       </c>
     </row>
@@ -1538,7 +1620,7 @@
         <v>-1</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A27=A28),(SUMIFS(I:I, A:A, A27)+SUMIFS(D:D, A:A, A27))/SUMIFS(D:D, A:A, A27)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1573,7 +1655,7 @@
         <v>-1</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A28=A29),(SUMIFS(I:I, A:A, A28)+SUMIFS(D:D, A:A, A28))/SUMIFS(D:D, A:A, A28)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1608,7 +1690,7 @@
         <v>0.71</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A29=A30),(SUMIFS(I:I, A:A, A29)+SUMIFS(D:D, A:A, A29))/SUMIFS(D:D, A:A, A29)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1643,7 +1725,7 @@
         <v>-1</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A30=A31),(SUMIFS(I:I, A:A, A30)+SUMIFS(D:D, A:A, A30))/SUMIFS(D:D, A:A, A30)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1678,7 +1760,7 @@
         <v>-1</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A31=A32),(SUMIFS(I:I, A:A, A31)+SUMIFS(D:D, A:A, A31))/SUMIFS(D:D, A:A, A31)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1713,7 +1795,7 @@
         <v>0.95</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A32=A33),(SUMIFS(I:I, A:A, A32)+SUMIFS(D:D, A:A, A32))/SUMIFS(D:D, A:A, A32)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1748,7 +1830,7 @@
         <v>-1</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A33=A34),(SUMIFS(I:I, A:A, A33)+SUMIFS(D:D, A:A, A33))/SUMIFS(D:D, A:A, A33)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1783,7 +1865,7 @@
         <v>-1</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A34=A35),(SUMIFS(I:I, A:A, A34)+SUMIFS(D:D, A:A, A34))/SUMIFS(D:D, A:A, A34)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1818,7 +1900,7 @@
         <v>0.42999999999999994</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A35=A36),(SUMIFS(I:I, A:A, A35)+SUMIFS(D:D, A:A, A35))/SUMIFS(D:D, A:A, A35)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1853,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A36=A37),(SUMIFS(I:I, A:A, A36)+SUMIFS(D:D, A:A, A36))/SUMIFS(D:D, A:A, A36)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1888,7 +1970,7 @@
         <v>-1</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A37=A38),(SUMIFS(I:I, A:A, A37)+SUMIFS(D:D, A:A, A37))/SUMIFS(D:D, A:A, A37)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1923,7 +2005,7 @@
         <v>0.24</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A38=A39),(SUMIFS(I:I, A:A, A38)+SUMIFS(D:D, A:A, A38))/SUMIFS(D:D, A:A, A38)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1958,7 +2040,7 @@
         <v>-1</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A39=A40),(SUMIFS(I:I, A:A, A39)+SUMIFS(D:D, A:A, A39))/SUMIFS(D:D, A:A, A39)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1993,7 +2075,7 @@
         <v>-1</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A40=A41),(SUMIFS(I:I, A:A, A40)+SUMIFS(D:D, A:A, A40))/SUMIFS(D:D, A:A, A40)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2028,7 +2110,7 @@
         <v>-1</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A41=A42),(SUMIFS(I:I, A:A, A41)+SUMIFS(D:D, A:A, A41))/SUMIFS(D:D, A:A, A41)-1,"")</f>
         <v>-0.378</v>
       </c>
     </row>
@@ -2063,7 +2145,7 @@
         <v>-1</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A42=A43),(SUMIFS(I:I, A:A, A42)+SUMIFS(D:D, A:A, A42))/SUMIFS(D:D, A:A, A42)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2098,7 +2180,7 @@
         <v>-1</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A43=A44),(SUMIFS(I:I, A:A, A43)+SUMIFS(D:D, A:A, A43))/SUMIFS(D:D, A:A, A43)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2133,7 +2215,7 @@
         <v>-1</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A44=A45),(SUMIFS(I:I, A:A, A44)+SUMIFS(D:D, A:A, A44))/SUMIFS(D:D, A:A, A44)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2250,7 @@
         <v>0.62999999999999989</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A45=A46),(SUMIFS(I:I, A:A, A45)+SUMIFS(D:D, A:A, A45))/SUMIFS(D:D, A:A, A45)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2203,7 +2285,7 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A46=A47),(SUMIFS(I:I, A:A, A46)+SUMIFS(D:D, A:A, A46))/SUMIFS(D:D, A:A, A46)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2238,7 +2320,7 @@
         <v>-1</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A47=A48),(SUMIFS(I:I, A:A, A47)+SUMIFS(D:D, A:A, A47))/SUMIFS(D:D, A:A, A47)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2273,7 +2355,7 @@
         <v>-1</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A48=A49),(SUMIFS(I:I, A:A, A48)+SUMIFS(D:D, A:A, A48))/SUMIFS(D:D, A:A, A48)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2308,7 +2390,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A49=A50),(SUMIFS(I:I, A:A, A49)+SUMIFS(D:D, A:A, A49))/SUMIFS(D:D, A:A, A49)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2343,7 +2425,7 @@
         <v>0.62999999999999989</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A50=A51),(SUMIFS(I:I, A:A, A50)+SUMIFS(D:D, A:A, A50))/SUMIFS(D:D, A:A, A50)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2378,7 +2460,7 @@
         <v>0.8</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A51=A52),(SUMIFS(I:I, A:A, A51)+SUMIFS(D:D, A:A, A51))/SUMIFS(D:D, A:A, A51)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2413,7 +2495,7 @@
         <v>0.69</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A52=A53),(SUMIFS(I:I, A:A, A52)+SUMIFS(D:D, A:A, A52))/SUMIFS(D:D, A:A, A52)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2448,7 +2530,7 @@
         <v>0.74</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A53=A54),(SUMIFS(I:I, A:A, A53)+SUMIFS(D:D, A:A, A53))/SUMIFS(D:D, A:A, A53)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2483,7 +2565,7 @@
         <v>3.7</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A54=A55),(SUMIFS(I:I, A:A, A54)+SUMIFS(D:D, A:A, A54))/SUMIFS(D:D, A:A, A54)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2518,7 +2600,7 @@
         <v>0.62999999999999989</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A55=A56),(SUMIFS(I:I, A:A, A55)+SUMIFS(D:D, A:A, A55))/SUMIFS(D:D, A:A, A55)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2553,7 +2635,7 @@
         <v>-1</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A56=A57),(SUMIFS(I:I, A:A, A56)+SUMIFS(D:D, A:A, A56))/SUMIFS(D:D, A:A, A56)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2588,7 +2670,7 @@
         <v>0.48</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A57=A58),(SUMIFS(I:I, A:A, A57)+SUMIFS(D:D, A:A, A57))/SUMIFS(D:D, A:A, A57)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2623,7 +2705,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A58=A59),(SUMIFS(I:I, A:A, A58)+SUMIFS(D:D, A:A, A58))/SUMIFS(D:D, A:A, A58)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2658,7 +2740,7 @@
         <v>0.48</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A59=A60),(SUMIFS(I:I, A:A, A59)+SUMIFS(D:D, A:A, A59))/SUMIFS(D:D, A:A, A59)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2693,7 +2775,7 @@
         <v>0.48</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A60=A61),(SUMIFS(I:I, A:A, A60)+SUMIFS(D:D, A:A, A60))/SUMIFS(D:D, A:A, A60)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2728,7 +2810,7 @@
         <v>-1</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A61=A62),(SUMIFS(I:I, A:A, A61)+SUMIFS(D:D, A:A, A61))/SUMIFS(D:D, A:A, A61)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2763,7 +2845,7 @@
         <v>0.5</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A62=A63),(SUMIFS(I:I, A:A, A62)+SUMIFS(D:D, A:A, A62))/SUMIFS(D:D, A:A, A62)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2880,7 @@
         <v>0.77</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A63=A64),(SUMIFS(I:I, A:A, A63)+SUMIFS(D:D, A:A, A63))/SUMIFS(D:D, A:A, A63)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2833,7 +2915,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A64=A65),(SUMIFS(I:I, A:A, A64)+SUMIFS(D:D, A:A, A64))/SUMIFS(D:D, A:A, A64)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2868,7 +2950,7 @@
         <v>0.62999999999999989</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A65=A66),(SUMIFS(I:I, A:A, A65)+SUMIFS(D:D, A:A, A65))/SUMIFS(D:D, A:A, A65)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2903,7 +2985,7 @@
         <v>-1</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A66=A67),(SUMIFS(I:I, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2938,7 +3020,7 @@
         <v>0.8</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A67=A68),(SUMIFS(I:I, A:A, A67)+SUMIFS(D:D, A:A, A67))/SUMIFS(D:D, A:A, A67)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2968,12 +3050,12 @@
       <c r="H68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I68">
-        <f t="shared" ref="I68:I69" si="3">IF(H68="Yes",F68*D68-D68,-D68)</f>
+      <c r="I68" cm="1">
+        <f t="array" ref="I68">_xlfn.IFS(H68="Yes",F68*D68-D68,H68="no",-D68,H68="push",0)</f>
         <v>-1</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f t="shared" ref="J68:J69" si="4">IF(NOT(A68=A69),(SUMIFS(I:I, A:A, A68)+SUMIFS(D:D, A:A, A68))/SUMIFS(D:D, A:A, A68)-1,"")</f>
+        <f>IF(NOT(A68=A69),(SUMIFS(I:I, A:A, A68)+SUMIFS(D:D, A:A, A68))/SUMIFS(D:D, A:A, A68)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3000,41 +3082,1417 @@
         <f t="shared" si="0"/>
         <v>0.18357487922705329</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+      <c r="H69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" cm="1">
+        <f t="array" ref="I69">_xlfn.IFS(H69="Yes",F69*D69-D69,H69="no",-D69,H69="push",0)</f>
+        <v>1.4500000000000002</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17428571428571416</v>
+        <f>IF(NOT(A69=A70),(SUMIFS(I:I, A:A, A69)+SUMIFS(D:D, A:A, A69))/SUMIFS(D:D, A:A, A69)-1,"")</f>
+        <v>0.26178571428571429</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45392</v>
       </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>2.6</v>
+      </c>
+      <c r="F70">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57692307692307665</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" cm="1">
+        <f t="array" ref="I70">_xlfn.IFS(H70="Yes",F70*D70-D70,H70="no",-D70,H70="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <f t="shared" ref="J70:J109" si="2">IF(NOT(A70=A71),(SUMIFS(I:I, A:A, A70)+SUMIFS(D:D, A:A, A70))/SUMIFS(D:D, A:A, A70)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1.3</v>
+      </c>
+      <c r="F71">
+        <v>1.69</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" cm="1">
+        <f t="array" ref="I71">_xlfn.IFS(H71="Yes",F71*D71-D71,H71="no",-D71,H71="push",0)</f>
+        <v>0.69</v>
+      </c>
+      <c r="J71" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F72">
+        <v>1.29</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13157894736842124</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" cm="1">
+        <f t="array" ref="I72">_xlfn.IFS(H72="Yes",F72*D72-D72,H72="no",-D72,H72="push",0)</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="J72" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1.6</v>
+      </c>
+      <c r="F73">
+        <v>2.15</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34374999999999978</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" cm="1">
+        <f t="array" ref="I73">_xlfn.IFS(H73="Yes",F73*D73-D73,H73="no",-D73,H73="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J73" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1.2</v>
+      </c>
+      <c r="F74">
+        <v>1.42</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" cm="1">
+        <f t="array" ref="I74">_xlfn.IFS(H74="Yes",F74*D74-D74,H74="no",-D74,H74="push",0)</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="J74" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27499999999999991</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" cm="1">
+        <f t="array" ref="I75">_xlfn.IFS(H75="Yes",F75*D75-D75,H75="no",-D75,H75="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J75" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1.2</v>
+      </c>
+      <c r="F76">
+        <v>1.45</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" cm="1">
+        <f t="array" ref="I76">_xlfn.IFS(H76="Yes",F76*D76-D76,H76="no",-D76,H76="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J76" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1.17</v>
+      </c>
+      <c r="F77">
+        <v>1.42</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" ref="G77:G108" si="3">F77/E77-1</f>
+        <v>0.21367521367521358</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" cm="1">
+        <f t="array" ref="I77">_xlfn.IFS(H77="Yes",F77*D77-D77,H77="no",-D77,H77="push",0)</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="J77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1.28</v>
+      </c>
+      <c r="F78">
+        <v>1.59</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2421875</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" cm="1">
+        <f t="array" ref="I78">_xlfn.IFS(H78="Yes",F78*D78-D78,H78="no",-D78,H78="push",0)</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="J78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1.44</v>
+      </c>
+      <c r="F79">
+        <v>1.71</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" cm="1">
+        <f t="array" ref="I79">_xlfn.IFS(H79="Yes",F79*D79-D79,H79="no",-D79,H79="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J79" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
       <c r="D80">
-        <f>SUM(D2:D79)</f>
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1.96</v>
+      </c>
+      <c r="F80">
+        <v>2.6</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3265306122448981</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" cm="1">
+        <f t="array" ref="I80">_xlfn.IFS(H80="Yes",F80*D80-D80,H80="no",-D80,H80="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1.3</v>
+      </c>
+      <c r="F81">
+        <v>1.65</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26923076923076916</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" cm="1">
+        <f t="array" ref="I81">_xlfn.IFS(H81="Yes",F81*D81-D81,H81="no",-D81,H81="push",0)</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="J81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B82" t="s">
         <v>73</v>
       </c>
-      <c r="I80">
-        <f>SUM(I2:I79)+D80</f>
-        <v>75.48</v>
-      </c>
-    </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I81" s="3">
-        <f>I80/D80-1</f>
-        <v>3.3972602739726021E-2</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1.59</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25786163522012573</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" cm="1">
+        <f t="array" ref="I82">_xlfn.IFS(H82="Yes",F82*D82-D82,H82="no",-D82,H82="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1.59</v>
+      </c>
+      <c r="F83">
+        <v>2.15</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="3"/>
+        <v>0.35220125786163514</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" cm="1">
+        <f t="array" ref="I83">_xlfn.IFS(H83="Yes",F83*D83-D83,H83="no",-D83,H83="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J83" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F84">
+        <v>1.34</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21818181818181825</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84" cm="1">
+        <f t="array" ref="I84">_xlfn.IFS(H84="Yes",F84*D84-D84,H84="no",-D84,H84="push",0)</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1.25</v>
+      </c>
+      <c r="F85">
+        <v>1.5</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" cm="1">
+        <f t="array" ref="I85">_xlfn.IFS(H85="Yes",F85*D85-D85,H85="no",-D85,H85="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J85" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>1.77</v>
+      </c>
+      <c r="F86">
+        <v>2.1</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18644067796610164</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" cm="1">
+        <f t="array" ref="I86">_xlfn.IFS(H86="Yes",F86*D86-D86,H86="no",-D86,H86="push",0)</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="J86" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1.48</v>
+      </c>
+      <c r="F87">
+        <v>1.69</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14189189189189189</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" cm="1">
+        <f t="array" ref="I87">_xlfn.IFS(H87="Yes",F87*D87-D87,H87="no",-D87,H87="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J87" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1.45</v>
+      </c>
+      <c r="F88">
+        <v>2.1</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="3"/>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" cm="1">
+        <f t="array" ref="I88">_xlfn.IFS(H88="Yes",F88*D88-D88,H88="no",-D88,H88="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J88" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1.52</v>
+      </c>
+      <c r="F89">
+        <v>2.75</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="3"/>
+        <v>0.80921052631578938</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" cm="1">
+        <f t="array" ref="I89">_xlfn.IFS(H89="Yes",F89*D89-D89,H89="no",-D89,H89="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J89" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1.56</v>
+      </c>
+      <c r="F90">
+        <v>2.9</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85897435897435881</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" cm="1">
+        <f t="array" ref="I90">_xlfn.IFS(H90="Yes",F90*D90-D90,H90="no",-D90,H90="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J90" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1.45</v>
+      </c>
+      <c r="F91">
+        <v>1.67</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15172413793103456</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" cm="1">
+        <f t="array" ref="I91">_xlfn.IFS(H91="Yes",F91*D91-D91,H91="no",-D91,H91="push",0)</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="J91" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1.08</v>
+      </c>
+      <c r="F92">
+        <v>1.25</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15740740740740744</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" cm="1">
+        <f t="array" ref="I92">_xlfn.IFS(H92="Yes",F92*D92-D92,H92="no",-D92,H92="push",0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J92" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>3.3</v>
+      </c>
+      <c r="F93">
+        <v>4.5</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36363636363636376</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" cm="1">
+        <f t="array" ref="I93">_xlfn.IFS(H93="Yes",F93*D93-D93,H93="no",-D93,H93="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J93" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1.24</v>
+      </c>
+      <c r="F94">
+        <v>1.42</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14516129032258052</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" cm="1">
+        <f t="array" ref="I94">_xlfn.IFS(H94="Yes",F94*D94-D94,H94="no",-D94,H94="push",0)</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="J94" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1.36</v>
+      </c>
+      <c r="F95">
+        <v>1.61</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18382352941176472</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" cm="1">
+        <f t="array" ref="I95">_xlfn.IFS(H95="Yes",F95*D95-D95,H95="no",-D95,H95="push",0)</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="J95" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1.73</v>
+      </c>
+      <c r="F96">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="3"/>
+        <v>0.32947976878612706</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" cm="1">
+        <f t="array" ref="I96">_xlfn.IFS(H96="Yes",F96*D96-D96,H96="no",-D96,H96="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J96" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>3.06</v>
+      </c>
+      <c r="F97">
+        <v>3.8</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24183006535947715</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" cm="1">
+        <f t="array" ref="I97">_xlfn.IFS(H97="Yes",F97*D97-D97,H97="no",-D97,H97="push",0)</f>
+        <v>2.8</v>
+      </c>
+      <c r="J97" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>3.61</v>
+      </c>
+      <c r="F98">
+        <v>6.5</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="3"/>
+        <v>0.80055401662049874</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" cm="1">
+        <f t="array" ref="I98">_xlfn.IFS(H98="Yes",F98*D98-D98,H98="no",-D98,H98="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J98" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1.24</v>
+      </c>
+      <c r="F99">
+        <v>1.61</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29838709677419373</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" cm="1">
+        <f t="array" ref="I99">_xlfn.IFS(H99="Yes",F99*D99-D99,H99="no",-D99,H99="push",0)</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="J99" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1.34</v>
+      </c>
+      <c r="F100">
+        <v>1.67</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24626865671641784</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" cm="1">
+        <f t="array" ref="I100">_xlfn.IFS(H100="Yes",F100*D100-D100,H100="no",-D100,H100="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J100" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1.54</v>
+      </c>
+      <c r="F101">
+        <v>2.25</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46103896103896091</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" cm="1">
+        <f t="array" ref="I101">_xlfn.IFS(H101="Yes",F101*D101-D101,H101="no",-D101,H101="push",0)</f>
+        <v>1.25</v>
+      </c>
+      <c r="J101" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1.39</v>
+      </c>
+      <c r="F102">
+        <v>1.83</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31654676258992831</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" cm="1">
+        <f t="array" ref="I102">_xlfn.IFS(H102="Yes",F102*D102-D102,H102="no",-D102,H102="push",0)</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="J102" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1.23</v>
+      </c>
+      <c r="F103">
+        <v>1.54</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2520325203252034</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" cm="1">
+        <f t="array" ref="I103">_xlfn.IFS(H103="Yes",F103*D103-D103,H103="no",-D103,H103="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J103" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1.21</v>
+      </c>
+      <c r="F104">
+        <v>1.57</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29752066115702491</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" cm="1">
+        <f t="array" ref="I104">_xlfn.IFS(H104="Yes",F104*D104-D104,H104="no",-D104,H104="push",0)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="J104" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1.49</v>
+      </c>
+      <c r="F105">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="3"/>
+        <v>0.37583892617449655</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" cm="1">
+        <f t="array" ref="I105">_xlfn.IFS(H105="Yes",F105*D105-D105,H105="no",-D105,H105="push",0)</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="J105" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1.31</v>
+      </c>
+      <c r="F106">
+        <v>1.51</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15267175572519087</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" cm="1">
+        <f t="array" ref="I106">_xlfn.IFS(H106="Yes",F106*D106-D106,H106="no",-D106,H106="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J106" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1.47</v>
+      </c>
+      <c r="F107">
+        <v>1.71</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16326530612244894</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" cm="1">
+        <f t="array" ref="I107">_xlfn.IFS(H107="Yes",F107*D107-D107,H107="no",-D107,H107="push",0)</f>
+        <v>0.71</v>
+      </c>
+      <c r="J107" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F108">
+        <v>3.3</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" cm="1">
+        <f t="array" ref="I108">_xlfn.IFS(H108="Yes",F108*D108-D108,H108="no",-D108,H108="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.4390243902438997E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45393</v>
+      </c>
+      <c r="I109" t="e" cm="1">
+        <f t="array" ref="I109">_xlfn.IFS(H109="Yes",F109*D109-D109,H109="no",-D109,H109="push",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J109" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <f>SUM(D2:D101)</f>
+        <v>107</v>
+      </c>
+      <c r="I133">
+        <f>SUM(I2:I99)+D133</f>
+        <v>107.65</v>
+      </c>
+    </row>
+    <row r="134" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I134" s="3">
+        <f>I133/D133-1</f>
+        <v>6.0747663551401487E-3</v>
+      </c>
+      <c r="J134" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C08E1D-FCF2-4CE1-8BDB-6013399CCF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E8FF7-BC94-4FFC-BE17-85F50722F44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="0" windowWidth="27405" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -319,6 +319,57 @@
   </si>
   <si>
     <t>push</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Miles McBridge</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Josh Giddey</t>
   </si>
 </sst>
 </file>
@@ -665,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,7 +3176,7 @@
         <v>-1</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f t="shared" ref="J70:J109" si="2">IF(NOT(A70=A71),(SUMIFS(I:I, A:A, A70)+SUMIFS(D:D, A:A, A70))/SUMIFS(D:D, A:A, A70)-1,"")</f>
+        <f>IF(NOT(A70=A71),(SUMIFS(I:I, A:A, A70)+SUMIFS(D:D, A:A, A70))/SUMIFS(D:D, A:A, A70)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3160,7 +3211,7 @@
         <v>0.69</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A71=A72),(SUMIFS(I:I, A:A, A71)+SUMIFS(D:D, A:A, A71))/SUMIFS(D:D, A:A, A71)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3195,7 +3246,7 @@
         <v>0.29000000000000004</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A72=A73),(SUMIFS(I:I, A:A, A72)+SUMIFS(D:D, A:A, A72))/SUMIFS(D:D, A:A, A72)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3230,7 +3281,7 @@
         <v>-1</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A73=A74),(SUMIFS(I:I, A:A, A73)+SUMIFS(D:D, A:A, A73))/SUMIFS(D:D, A:A, A73)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3265,7 +3316,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A74=A75),(SUMIFS(I:I, A:A, A74)+SUMIFS(D:D, A:A, A74))/SUMIFS(D:D, A:A, A74)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3300,7 +3351,7 @@
         <v>-1</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A75=A76),(SUMIFS(I:I, A:A, A75)+SUMIFS(D:D, A:A, A75))/SUMIFS(D:D, A:A, A75)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3335,7 +3386,7 @@
         <v>-1</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A76=A77),(SUMIFS(I:I, A:A, A76)+SUMIFS(D:D, A:A, A76))/SUMIFS(D:D, A:A, A76)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3359,7 +3410,7 @@
         <v>1.42</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" ref="G77:G108" si="3">F77/E77-1</f>
+        <f t="shared" ref="G77:G150" si="2">F77/E77-1</f>
         <v>0.21367521367521358</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -3370,7 +3421,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A77=A78),(SUMIFS(I:I, A:A, A77)+SUMIFS(D:D, A:A, A77))/SUMIFS(D:D, A:A, A77)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3394,7 +3445,7 @@
         <v>1.59</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2421875</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -3405,7 +3456,7 @@
         <v>0.59000000000000008</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A78=A79),(SUMIFS(I:I, A:A, A78)+SUMIFS(D:D, A:A, A78))/SUMIFS(D:D, A:A, A78)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3429,7 +3480,7 @@
         <v>1.71</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -3440,7 +3491,7 @@
         <v>-1</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A79=A80),(SUMIFS(I:I, A:A, A79)+SUMIFS(D:D, A:A, A79))/SUMIFS(D:D, A:A, A79)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3464,7 +3515,7 @@
         <v>2.6</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.3265306122448981</v>
       </c>
       <c r="H80" s="2" t="s">
@@ -3475,7 +3526,7 @@
         <v>-1</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A80=A81),(SUMIFS(I:I, A:A, A80)+SUMIFS(D:D, A:A, A80))/SUMIFS(D:D, A:A, A80)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3499,7 +3550,7 @@
         <v>1.65</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.26923076923076916</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -3510,7 +3561,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A81=A82),(SUMIFS(I:I, A:A, A81)+SUMIFS(D:D, A:A, A81))/SUMIFS(D:D, A:A, A81)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3534,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.25786163522012573</v>
       </c>
       <c r="H82" s="2" t="s">
@@ -3545,7 +3596,7 @@
         <v>-1</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A82=A83),(SUMIFS(I:I, A:A, A82)+SUMIFS(D:D, A:A, A82))/SUMIFS(D:D, A:A, A82)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3569,7 +3620,7 @@
         <v>2.15</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.35220125786163514</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -3580,7 +3631,7 @@
         <v>-1</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A83=A84),(SUMIFS(I:I, A:A, A83)+SUMIFS(D:D, A:A, A83))/SUMIFS(D:D, A:A, A83)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3604,7 +3655,7 @@
         <v>1.34</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.21818181818181825</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -3615,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A84=A85),(SUMIFS(I:I, A:A, A84)+SUMIFS(D:D, A:A, A84))/SUMIFS(D:D, A:A, A84)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3639,7 +3690,7 @@
         <v>1.5</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -3650,7 +3701,7 @@
         <v>-1</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A85=A86),(SUMIFS(I:I, A:A, A85)+SUMIFS(D:D, A:A, A85))/SUMIFS(D:D, A:A, A85)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3674,7 +3725,7 @@
         <v>2.1</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.18644067796610164</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -3685,7 +3736,7 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A86=A87),(SUMIFS(I:I, A:A, A86)+SUMIFS(D:D, A:A, A86))/SUMIFS(D:D, A:A, A86)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3709,7 +3760,7 @@
         <v>1.69</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.14189189189189189</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -3720,7 +3771,7 @@
         <v>-1</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A87=A88),(SUMIFS(I:I, A:A, A87)+SUMIFS(D:D, A:A, A87))/SUMIFS(D:D, A:A, A87)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3744,7 +3795,7 @@
         <v>2.1</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.44827586206896552</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -3755,7 +3806,7 @@
         <v>-1</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A88=A89),(SUMIFS(I:I, A:A, A88)+SUMIFS(D:D, A:A, A88))/SUMIFS(D:D, A:A, A88)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3779,7 +3830,7 @@
         <v>2.75</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.80921052631578938</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -3790,7 +3841,7 @@
         <v>-1</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A89=A90),(SUMIFS(I:I, A:A, A89)+SUMIFS(D:D, A:A, A89))/SUMIFS(D:D, A:A, A89)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3814,7 +3865,7 @@
         <v>2.9</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.85897435897435881</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -3825,7 +3876,7 @@
         <v>-1</v>
       </c>
       <c r="J90" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A90=A91),(SUMIFS(I:I, A:A, A90)+SUMIFS(D:D, A:A, A90))/SUMIFS(D:D, A:A, A90)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3849,7 +3900,7 @@
         <v>1.67</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.15172413793103456</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -3860,7 +3911,7 @@
         <v>0.66999999999999993</v>
       </c>
       <c r="J91" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A91=A92),(SUMIFS(I:I, A:A, A91)+SUMIFS(D:D, A:A, A91))/SUMIFS(D:D, A:A, A91)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3884,7 +3935,7 @@
         <v>1.25</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.15740740740740744</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -3895,7 +3946,7 @@
         <v>0.25</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A92=A93),(SUMIFS(I:I, A:A, A92)+SUMIFS(D:D, A:A, A92))/SUMIFS(D:D, A:A, A92)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3919,7 +3970,7 @@
         <v>4.5</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.36363636363636376</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -3930,7 +3981,7 @@
         <v>-1</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A93=A94),(SUMIFS(I:I, A:A, A93)+SUMIFS(D:D, A:A, A93))/SUMIFS(D:D, A:A, A93)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3954,7 +4005,7 @@
         <v>1.42</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.14516129032258052</v>
       </c>
       <c r="H94" s="2" t="s">
@@ -3965,7 +4016,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J94" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A94=A95),(SUMIFS(I:I, A:A, A94)+SUMIFS(D:D, A:A, A94))/SUMIFS(D:D, A:A, A94)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3989,7 +4040,7 @@
         <v>1.61</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.18382352941176472</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -4000,7 +4051,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J95" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A95=A96),(SUMIFS(I:I, A:A, A95)+SUMIFS(D:D, A:A, A95))/SUMIFS(D:D, A:A, A95)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4024,7 +4075,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.32947976878612706</v>
       </c>
       <c r="H96" s="2" t="s">
@@ -4035,7 +4086,7 @@
         <v>-1</v>
       </c>
       <c r="J96" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A96=A97),(SUMIFS(I:I, A:A, A96)+SUMIFS(D:D, A:A, A96))/SUMIFS(D:D, A:A, A96)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4059,7 +4110,7 @@
         <v>3.8</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.24183006535947715</v>
       </c>
       <c r="H97" s="2" t="s">
@@ -4070,7 +4121,7 @@
         <v>2.8</v>
       </c>
       <c r="J97" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A97=A98),(SUMIFS(I:I, A:A, A97)+SUMIFS(D:D, A:A, A97))/SUMIFS(D:D, A:A, A97)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4094,7 +4145,7 @@
         <v>6.5</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.80055401662049874</v>
       </c>
       <c r="H98" s="2" t="s">
@@ -4105,7 +4156,7 @@
         <v>-1</v>
       </c>
       <c r="J98" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A98=A99),(SUMIFS(I:I, A:A, A98)+SUMIFS(D:D, A:A, A98))/SUMIFS(D:D, A:A, A98)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4129,7 +4180,7 @@
         <v>1.61</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.29838709677419373</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -4140,7 +4191,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A99=A100),(SUMIFS(I:I, A:A, A99)+SUMIFS(D:D, A:A, A99))/SUMIFS(D:D, A:A, A99)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4164,7 +4215,7 @@
         <v>1.67</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.24626865671641784</v>
       </c>
       <c r="H100" s="2" t="s">
@@ -4175,7 +4226,7 @@
         <v>-1</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A100=A101),(SUMIFS(I:I, A:A, A100)+SUMIFS(D:D, A:A, A100))/SUMIFS(D:D, A:A, A100)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4199,7 +4250,7 @@
         <v>2.25</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.46103896103896091</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -4210,7 +4261,7 @@
         <v>1.25</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A101=A102),(SUMIFS(I:I, A:A, A101)+SUMIFS(D:D, A:A, A101))/SUMIFS(D:D, A:A, A101)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4234,7 +4285,7 @@
         <v>1.83</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.31654676258992831</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -4245,7 +4296,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="J102" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A102=A103),(SUMIFS(I:I, A:A, A102)+SUMIFS(D:D, A:A, A102))/SUMIFS(D:D, A:A, A102)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4269,7 +4320,7 @@
         <v>1.54</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2520325203252034</v>
       </c>
       <c r="H103" s="2" t="s">
@@ -4280,7 +4331,7 @@
         <v>-1</v>
       </c>
       <c r="J103" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A103=A104),(SUMIFS(I:I, A:A, A103)+SUMIFS(D:D, A:A, A103))/SUMIFS(D:D, A:A, A103)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4304,7 +4355,7 @@
         <v>1.57</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.29752066115702491</v>
       </c>
       <c r="H104" s="2" t="s">
@@ -4315,7 +4366,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="J104" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A104=A105),(SUMIFS(I:I, A:A, A104)+SUMIFS(D:D, A:A, A104))/SUMIFS(D:D, A:A, A104)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4339,7 +4390,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.37583892617449655</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -4350,7 +4401,7 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="J105" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A105=A106),(SUMIFS(I:I, A:A, A105)+SUMIFS(D:D, A:A, A105))/SUMIFS(D:D, A:A, A105)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4374,7 +4425,7 @@
         <v>1.51</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.15267175572519087</v>
       </c>
       <c r="H106" s="2" t="s">
@@ -4385,7 +4436,7 @@
         <v>-1</v>
       </c>
       <c r="J106" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A106=A107),(SUMIFS(I:I, A:A, A106)+SUMIFS(D:D, A:A, A106))/SUMIFS(D:D, A:A, A106)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4409,7 +4460,7 @@
         <v>1.71</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.16326530612244894</v>
       </c>
       <c r="H107" s="2" t="s">
@@ -4420,7 +4471,7 @@
         <v>0.71</v>
       </c>
       <c r="J107" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A107=A108),(SUMIFS(I:I, A:A, A107)+SUMIFS(D:D, A:A, A107))/SUMIFS(D:D, A:A, A107)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4444,7 +4495,7 @@
         <v>3.3</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.49999999999999978</v>
       </c>
       <c r="H108" s="2" t="s">
@@ -4455,7 +4506,7 @@
         <v>-1</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(A108=A109),(SUMIFS(I:I, A:A, A108)+SUMIFS(D:D, A:A, A108))/SUMIFS(D:D, A:A, A108)-1,"")</f>
         <v>-9.4390243902438997E-2</v>
       </c>
     </row>
@@ -4463,31 +4514,1326 @@
       <c r="A109" s="1">
         <v>45393</v>
       </c>
-      <c r="I109" t="e" cm="1">
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1.6</v>
+      </c>
+      <c r="F109">
+        <v>2.1</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" cm="1">
         <f t="array" ref="I109">_xlfn.IFS(H109="Yes",F109*D109-D109,H109="no",-D109,H109="push",0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J109" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="133" spans="4:10" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="J109" s="2" t="str">
+        <f>IF(NOT(A109=A110),(SUMIFS(I:I, A:A, A109)+SUMIFS(D:D, A:A, A109))/SUMIFS(D:D, A:A, A109)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B110" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1.3</v>
+      </c>
+      <c r="F110">
+        <v>1.63</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25384615384615361</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" cm="1">
+        <f t="array" ref="I110">_xlfn.IFS(H110="Yes",F110*D110-D110,H110="no",-D110,H110="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J110" s="2" t="str">
+        <f>IF(NOT(A110=A111),(SUMIFS(I:I, A:A, A110)+SUMIFS(D:D, A:A, A110))/SUMIFS(D:D, A:A, A110)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1.3</v>
+      </c>
+      <c r="F111">
+        <v>1.77</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36153846153846159</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" cm="1">
+        <f t="array" ref="I111">_xlfn.IFS(H111="Yes",F111*D111-D111,H111="no",-D111,H111="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J111" s="2" t="str">
+        <f>IF(NOT(A111=A112),(SUMIFS(I:I, A:A, A111)+SUMIFS(D:D, A:A, A111))/SUMIFS(D:D, A:A, A111)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1.4</v>
+      </c>
+      <c r="F112">
+        <v>1.86</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32857142857142874</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" cm="1">
+        <f t="array" ref="I112">_xlfn.IFS(H112="Yes",F112*D112-D112,H112="no",-D112,H112="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J112" s="2" t="str">
+        <f>IF(NOT(A112=A113),(SUMIFS(I:I, A:A, A112)+SUMIFS(D:D, A:A, A112))/SUMIFS(D:D, A:A, A112)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B113" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1.4</v>
+      </c>
+      <c r="F113">
+        <v>1.71</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22142857142857153</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" cm="1">
+        <f t="array" ref="I113">_xlfn.IFS(H113="Yes",F113*D113-D113,H113="no",-D113,H113="push",0)</f>
+        <v>0.71</v>
+      </c>
+      <c r="J113" s="2" t="str">
+        <f>IF(NOT(A113=A114),(SUMIFS(I:I, A:A, A113)+SUMIFS(D:D, A:A, A113))/SUMIFS(D:D, A:A, A113)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B114" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>2.8</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" cm="1">
+        <f t="array" ref="I114">_xlfn.IFS(H114="Yes",F114*D114-D114,H114="no",-D114,H114="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J114" s="2" t="str">
+        <f>IF(NOT(A114=A115),(SUMIFS(I:I, A:A, A114)+SUMIFS(D:D, A:A, A114))/SUMIFS(D:D, A:A, A114)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>2.75</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" cm="1">
+        <f t="array" ref="I115">_xlfn.IFS(H115="Yes",F115*D115-D115,H115="no",-D115,H115="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J115" s="2" t="str">
+        <f>IF(NOT(A115=A116),(SUMIFS(I:I, A:A, A115)+SUMIFS(D:D, A:A, A115))/SUMIFS(D:D, A:A, A115)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1.3</v>
+      </c>
+      <c r="F116">
+        <v>1.57</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20769230769230762</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" cm="1">
+        <f t="array" ref="I116">_xlfn.IFS(H116="Yes",F116*D116-D116,H116="no",-D116,H116="push",0)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="J116" s="2" t="str">
+        <f>IF(NOT(A116=A117),(SUMIFS(I:I, A:A, A116)+SUMIFS(D:D, A:A, A116))/SUMIFS(D:D, A:A, A116)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B117" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1.6</v>
+      </c>
+      <c r="F117">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G117" s="2">
+        <f t="shared" si="2"/>
+        <v>0.28124999999999978</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" cm="1">
+        <f t="array" ref="I117">_xlfn.IFS(H117="Yes",F117*D117-D117,H117="no",-D117,H117="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J117" s="2" t="str">
+        <f>IF(NOT(A117=A118),(SUMIFS(I:I, A:A, A117)+SUMIFS(D:D, A:A, A117))/SUMIFS(D:D, A:A, A117)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B118" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1.5</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" cm="1">
+        <f t="array" ref="I118">_xlfn.IFS(H118="Yes",F118*D118-D118,H118="no",-D118,H118="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J118" s="2" t="str">
+        <f>IF(NOT(A118=A119),(SUMIFS(I:I, A:A, A118)+SUMIFS(D:D, A:A, A118))/SUMIFS(D:D, A:A, A118)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B119" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1.4</v>
+      </c>
+      <c r="F119">
+        <v>1.87</v>
+      </c>
+      <c r="G119" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33571428571428585</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I119" cm="1">
+        <f t="array" ref="I119">_xlfn.IFS(H119="Yes",F120*D119-D119,H119="no",-D119,H119="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J119" s="2" t="str">
+        <f>IF(NOT(A119=A120),(SUMIFS(I:I, A:A, A119)+SUMIFS(D:D, A:A, A119))/SUMIFS(D:D, A:A, A119)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1.3</v>
+      </c>
+      <c r="F120">
+        <v>1.8</v>
+      </c>
+      <c r="G120" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" cm="1">
+        <f t="array" ref="I120">_xlfn.IFS(H120="Yes",F121*D120-D120,H120="no",-D120,H120="push",0)</f>
+        <v>0.51</v>
+      </c>
+      <c r="J120" s="2" t="str">
+        <f>IF(NOT(A120=A121),(SUMIFS(I:I, A:A, A120)+SUMIFS(D:D, A:A, A120))/SUMIFS(D:D, A:A, A120)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1.2</v>
+      </c>
+      <c r="F121">
+        <v>1.51</v>
+      </c>
+      <c r="G121" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2583333333333333</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I121" cm="1">
+        <f t="array" ref="I121">_xlfn.IFS(H121="Yes",F122*D121-D121,H121="no",-D121,H121="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J121" s="2" t="str">
+        <f>IF(NOT(A121=A122),(SUMIFS(I:I, A:A, A121)+SUMIFS(D:D, A:A, A121))/SUMIFS(D:D, A:A, A121)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>2.75</v>
+      </c>
+      <c r="G122" s="2">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I122" cm="1">
+        <f t="array" ref="I122">_xlfn.IFS(H122="Yes",F123*D122-D122,H122="no",-D122,H122="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J122" s="2" t="str">
+        <f>IF(NOT(A122=A123),(SUMIFS(I:I, A:A, A122)+SUMIFS(D:D, A:A, A122))/SUMIFS(D:D, A:A, A122)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1.36</v>
+      </c>
+      <c r="F123">
+        <v>1.69</v>
+      </c>
+      <c r="G123" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24264705882352922</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I123" cm="1">
+        <f t="array" ref="I123">_xlfn.IFS(H123="Yes",F124*D123-D123,H123="no",-D123,H123="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J123" s="2" t="str">
+        <f>IF(NOT(A123=A124),(SUMIFS(I:I, A:A, A123)+SUMIFS(D:D, A:A, A123))/SUMIFS(D:D, A:A, A123)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B124" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1.75</v>
+      </c>
+      <c r="F124">
+        <v>2.1</v>
+      </c>
+      <c r="G124" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" cm="1">
+        <f t="array" ref="I124">_xlfn.IFS(H124="Yes",#REF!*D124-D124,H124="no",-D124,H124="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J124" s="2" t="str">
+        <f>IF(NOT(A124=A125),(SUMIFS(I:I, A:A, A124)+SUMIFS(D:D, A:A, A124))/SUMIFS(D:D, A:A, A124)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B125" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>2.65</v>
+      </c>
+      <c r="G125" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" cm="1">
+        <f t="array" ref="I125">_xlfn.IFS(H125="Yes",F125*D125-D125,H125="no",-D125,H125="push",0)</f>
+        <v>1.65</v>
+      </c>
+      <c r="J125" s="2" t="str">
+        <f>IF(NOT(A125=A126),(SUMIFS(I:I, A:A, A125)+SUMIFS(D:D, A:A, A125))/SUMIFS(D:D, A:A, A125)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B126" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1.63</v>
+      </c>
+      <c r="F126">
+        <v>1.95</v>
+      </c>
+      <c r="G126" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19631901840490795</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" cm="1">
+        <f t="array" ref="I126">_xlfn.IFS(H126="Yes",F126*D126-D126,H126="no",-D126,H126="push",0)</f>
+        <v>0.95</v>
+      </c>
+      <c r="J126" s="2" t="str">
+        <f>IF(NOT(A126=A127),(SUMIFS(I:I, A:A, A126)+SUMIFS(D:D, A:A, A126))/SUMIFS(D:D, A:A, A126)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B127" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1.21</v>
+      </c>
+      <c r="F127">
+        <v>1.37</v>
+      </c>
+      <c r="G127" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13223140495867791</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" cm="1">
+        <f t="array" ref="I127">_xlfn.IFS(H127="Yes",F127*D127-D127,H127="no",-D127,H127="push",0)</f>
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="J127" s="2" t="str">
+        <f>IF(NOT(A127=A128),(SUMIFS(I:I, A:A, A127)+SUMIFS(D:D, A:A, A127))/SUMIFS(D:D, A:A, A127)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1.2</v>
+      </c>
+      <c r="F128">
+        <v>1.59</v>
+      </c>
+      <c r="G128" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32500000000000018</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" cm="1">
+        <f t="array" ref="I128">_xlfn.IFS(H128="Yes",F128*D128-D128,H128="no",-D128,H128="push",0)</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="J128" s="2" t="str">
+        <f>IF(NOT(A128=A129),(SUMIFS(I:I, A:A, A128)+SUMIFS(D:D, A:A, A128))/SUMIFS(D:D, A:A, A128)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B129" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G129" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I129" cm="1">
+        <f t="array" ref="I129">_xlfn.IFS(H129="Yes",F129*D129-D129,H129="no",-D129,H129="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J129" s="2">
+        <f>IF(NOT(A129=A130),(SUMIFS(I:I, A:A, A129)+SUMIFS(D:D, A:A, A129))/SUMIFS(D:D, A:A, A129)-1,"")</f>
+        <v>-0.411904761904762</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B130" t="s">
+        <v>75</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1.28</v>
+      </c>
+      <c r="F130">
+        <v>1.51</v>
+      </c>
+      <c r="G130" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1796875</v>
+      </c>
+      <c r="J130" s="2">
+        <f>IF(NOT(A130=A158),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1.58</v>
+      </c>
+      <c r="F131">
+        <v>1.8</v>
+      </c>
+      <c r="G131" s="2">
+        <f t="shared" si="2"/>
+        <v>0.139240506329114</v>
+      </c>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1.41</v>
+      </c>
+      <c r="F132">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G132" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8085106382978724</v>
+      </c>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" t="s">
+        <v>56</v>
+      </c>
       <c r="D133">
-        <f>SUM(D2:D101)</f>
-        <v>107</v>
-      </c>
-      <c r="I133">
-        <f>SUM(I2:I99)+D133</f>
-        <v>107.65</v>
-      </c>
-    </row>
-    <row r="134" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="I134" s="3">
-        <f>I133/D133-1</f>
-        <v>6.0747663551401487E-3</v>
-      </c>
-      <c r="J134" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1.6</v>
+      </c>
+      <c r="F133">
+        <v>2.1</v>
+      </c>
+      <c r="G133" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3125</v>
+      </c>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" t="s">
+        <v>75</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F134">
+        <v>1.51</v>
+      </c>
+      <c r="G134" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37272727272727257</v>
+      </c>
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" t="s">
+        <v>97</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1.56</v>
+      </c>
+      <c r="F135">
+        <v>1.95</v>
+      </c>
+      <c r="G135" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1.94</v>
+      </c>
+      <c r="F136">
+        <v>2.65</v>
+      </c>
+      <c r="G136" s="2">
+        <f t="shared" si="2"/>
+        <v>0.365979381443299</v>
+      </c>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" t="s">
+        <v>77</v>
+      </c>
+      <c r="C137" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1.46</v>
+      </c>
+      <c r="F137">
+        <v>1.83</v>
+      </c>
+      <c r="G137" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2534246575342467</v>
+      </c>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1.17</v>
+      </c>
+      <c r="F138">
+        <v>1.31</v>
+      </c>
+      <c r="G138" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11965811965811968</v>
+      </c>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1.23</v>
+      </c>
+      <c r="F139">
+        <v>1.67</v>
+      </c>
+      <c r="G139" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35772357723577231</v>
+      </c>
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1.37</v>
+      </c>
+      <c r="F140">
+        <v>1.71</v>
+      </c>
+      <c r="G140" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24817518248175174</v>
+      </c>
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" t="s">
+        <v>66</v>
+      </c>
+      <c r="C141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1.34</v>
+      </c>
+      <c r="F141">
+        <v>1.54</v>
+      </c>
+      <c r="G141" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14925373134328357</v>
+      </c>
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>2.36</v>
+      </c>
+      <c r="F142">
+        <v>3.7</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" si="2"/>
+        <v>0.56779661016949179</v>
+      </c>
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1.18</v>
+      </c>
+      <c r="F143">
+        <v>1.63</v>
+      </c>
+      <c r="G143" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3813559322033897</v>
+      </c>
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" t="s">
+        <v>99</v>
+      </c>
+      <c r="C144" t="s">
+        <v>56</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1.58</v>
+      </c>
+      <c r="F144">
+        <v>2.34</v>
+      </c>
+      <c r="G144" s="2">
+        <f t="shared" si="2"/>
+        <v>0.481012658227848</v>
+      </c>
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1.49</v>
+      </c>
+      <c r="F145">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G145" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37583892617449655</v>
+      </c>
+      <c r="J145" s="2"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1.61</v>
+      </c>
+      <c r="F146">
+        <v>1.91</v>
+      </c>
+      <c r="G146" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18633540372670798</v>
+      </c>
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1.58</v>
+      </c>
+      <c r="F147">
+        <v>1.83</v>
+      </c>
+      <c r="G147" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15822784810126578</v>
+      </c>
+      <c r="J147" s="2"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" t="s">
+        <v>100</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>2.77</v>
+      </c>
+      <c r="F148">
+        <v>3.2</v>
+      </c>
+      <c r="G148" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15523465703971118</v>
+      </c>
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1.53</v>
+      </c>
+      <c r="F149">
+        <v>1.74</v>
+      </c>
+      <c r="G149" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13725490196078427</v>
+      </c>
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150" t="s">
+        <v>56</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1.5</v>
+      </c>
+      <c r="F150">
+        <v>2.1</v>
+      </c>
+      <c r="G150" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" t="s">
+        <v>78</v>
+      </c>
+      <c r="C151" t="s">
+        <v>56</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1.56</v>
+      </c>
+      <c r="F151">
+        <v>2.7</v>
+      </c>
+      <c r="G151" s="2">
+        <f t="shared" ref="G151:G154" si="3">F151/E151-1</f>
+        <v>0.73076923076923084</v>
+      </c>
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" t="s">
+        <v>102</v>
+      </c>
+      <c r="C152" t="s">
+        <v>56</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>2.04</v>
+      </c>
+      <c r="F152">
+        <v>3.9</v>
+      </c>
+      <c r="G152" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91176470588235281</v>
+      </c>
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" t="s">
+        <v>63</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1.42</v>
+      </c>
+      <c r="F153">
+        <v>1.61</v>
+      </c>
+      <c r="G153" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13380281690140849</v>
+      </c>
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="J157" s="2"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <f>SUM(D2:D159)</f>
+        <v>159</v>
+      </c>
+      <c r="I160">
+        <f>SUM(I2:I159)+D160</f>
+        <v>151.41</v>
+      </c>
+    </row>
+    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I161" s="3">
+        <f>I160/D160-1</f>
+        <v>-4.7735849056603774E-2</v>
+      </c>
+      <c r="J161" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E8FF7-BC94-4FFC-BE17-85F50722F44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34604F14-F146-456F-91AD-A61EEFC9FE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="0" windowWidth="27405" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$154</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -150,9 +150,6 @@
     <t>25+ pts</t>
   </si>
   <si>
-    <t>6+ assists</t>
-  </si>
-  <si>
     <t>D'angelo Russel</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   </si>
   <si>
     <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>De'aaron Fox</t>
   </si>
 </sst>
 </file>
@@ -716,10 +716,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J161"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -770,7 +772,7 @@
         <v>45381</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -805,7 +807,7 @@
         <v>45381</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -840,7 +842,7 @@
         <v>45382</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -875,7 +877,7 @@
         <v>45382</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -910,7 +912,7 @@
         <v>45382</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -945,7 +947,7 @@
         <v>45382</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -980,7 +982,7 @@
         <v>45382</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1015,7 +1017,7 @@
         <v>45382</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1050,7 +1052,7 @@
         <v>45382</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -1085,7 +1087,7 @@
         <v>45382</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1120,7 +1122,7 @@
         <v>45382</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1155,7 +1157,7 @@
         <v>45382</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -1185,15 +1187,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45382</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1430,7 +1432,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45382</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45382</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>45383</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1680,7 +1682,7 @@
         <v>45383</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
@@ -1715,7 +1717,7 @@
         <v>45383</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
@@ -1750,7 +1752,7 @@
         <v>45383</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1785,7 +1787,7 @@
         <v>45383</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1815,12 +1817,12 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45383</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -1850,12 +1852,12 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45383</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
@@ -1890,7 +1892,7 @@
         <v>45383</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1925,7 +1927,7 @@
         <v>45383</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -1960,7 +1962,7 @@
         <v>45383</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1995,7 +1997,7 @@
         <v>45383</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2030,7 +2032,7 @@
         <v>45383</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -2065,7 +2067,7 @@
         <v>45383</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -2095,12 +2097,12 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45383</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -2130,12 +2132,12 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45383</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
@@ -2170,7 +2172,7 @@
         <v>45391</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2205,10 +2207,10 @@
         <v>45391</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2240,7 +2242,7 @@
         <v>45391</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -2275,7 +2277,7 @@
         <v>45391</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2310,10 +2312,10 @@
         <v>45391</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2340,12 +2342,12 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45391</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
@@ -2380,7 +2382,7 @@
         <v>45391</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2415,7 +2417,7 @@
         <v>45391</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -2450,7 +2452,7 @@
         <v>45391</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -2485,7 +2487,7 @@
         <v>45391</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -2520,10 +2522,10 @@
         <v>45391</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2555,7 +2557,7 @@
         <v>45391</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -2590,7 +2592,7 @@
         <v>45391</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2625,10 +2627,10 @@
         <v>45391</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2660,7 +2662,7 @@
         <v>45391</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -2695,7 +2697,7 @@
         <v>45391</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -2733,7 +2735,7 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2765,10 +2767,10 @@
         <v>45391</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2795,12 +2797,12 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45391</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
@@ -2830,7 +2832,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45391</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>45391</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2905,10 +2907,10 @@
         <v>45391</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2940,7 +2942,7 @@
         <v>45391</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -2975,7 +2977,7 @@
         <v>45391</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -3010,10 +3012,10 @@
         <v>45391</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3045,7 +3047,7 @@
         <v>45391</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -3075,12 +3077,12 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45391</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -3115,10 +3117,10 @@
         <v>45391</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3150,7 +3152,7 @@
         <v>45392</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3185,7 +3187,7 @@
         <v>45392</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -3215,12 +3217,12 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45392</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
@@ -3250,12 +3252,12 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45392</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
@@ -3290,10 +3292,10 @@
         <v>45392</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3325,10 +3327,10 @@
         <v>45392</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3360,7 +3362,7 @@
         <v>45392</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3395,7 +3397,7 @@
         <v>45392</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -3425,12 +3427,12 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45392</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
         <v>19</v>
@@ -3460,12 +3462,12 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45392</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
@@ -3495,12 +3497,12 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45392</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
         <v>25</v>
@@ -3535,10 +3537,10 @@
         <v>45392</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3570,10 +3572,10 @@
         <v>45392</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3605,10 +3607,10 @@
         <v>45392</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3640,7 +3642,7 @@
         <v>45392</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -3659,7 +3661,7 @@
         <v>0.21818181818181825</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I84" cm="1">
         <f t="array" ref="I84">_xlfn.IFS(H84="Yes",F84*D84-D84,H84="no",-D84,H84="push",0)</f>
@@ -3675,7 +3677,7 @@
         <v>45392</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -3710,7 +3712,7 @@
         <v>45392</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -3740,7 +3742,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45392</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -3818,7 +3820,7 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3850,10 +3852,10 @@
         <v>45392</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3920,7 +3922,7 @@
         <v>45392</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -3955,7 +3957,7 @@
         <v>45392</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -3990,7 +3992,7 @@
         <v>45392</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4025,7 +4027,7 @@
         <v>45392</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4060,7 +4062,7 @@
         <v>45392</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4095,7 +4097,7 @@
         <v>45392</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4130,7 +4132,7 @@
         <v>45392</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4165,10 +4167,10 @@
         <v>45392</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -4200,10 +4202,10 @@
         <v>45392</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -4235,7 +4237,7 @@
         <v>45392</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -4270,10 +4272,10 @@
         <v>45392</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -4305,7 +4307,7 @@
         <v>45392</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -4340,7 +4342,7 @@
         <v>45392</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -4375,7 +4377,7 @@
         <v>45392</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -4405,12 +4407,12 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45392</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
@@ -4440,12 +4442,12 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45392</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
@@ -4475,12 +4477,12 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45392</v>
       </c>
       <c r="B108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -4515,7 +4517,7 @@
         <v>45393</v>
       </c>
       <c r="B109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -4550,7 +4552,7 @@
         <v>45393</v>
       </c>
       <c r="B110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -4585,7 +4587,7 @@
         <v>45393</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -4620,10 +4622,10 @@
         <v>45393</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -4655,10 +4657,10 @@
         <v>45393</v>
       </c>
       <c r="B113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -4690,7 +4692,7 @@
         <v>45393</v>
       </c>
       <c r="B114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -4720,12 +4722,12 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45393</v>
       </c>
       <c r="B115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
@@ -4760,7 +4762,7 @@
         <v>45393</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -4795,7 +4797,7 @@
         <v>45393</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -4830,7 +4832,7 @@
         <v>45393</v>
       </c>
       <c r="B118" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -4865,10 +4867,10 @@
         <v>45393</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -4900,10 +4902,10 @@
         <v>45393</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -4935,10 +4937,10 @@
         <v>45393</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5008,7 +5010,7 @@
         <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -5040,10 +5042,10 @@
         <v>45393</v>
       </c>
       <c r="B124" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -5075,7 +5077,7 @@
         <v>45393</v>
       </c>
       <c r="B125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -5110,10 +5112,10 @@
         <v>45393</v>
       </c>
       <c r="B126" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5145,7 +5147,7 @@
         <v>45393</v>
       </c>
       <c r="B127" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -5180,7 +5182,7 @@
         <v>45393</v>
       </c>
       <c r="B128" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -5215,10 +5217,10 @@
         <v>45393</v>
       </c>
       <c r="B129" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -5250,7 +5252,7 @@
         <v>45394</v>
       </c>
       <c r="B130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5268,15 +5270,24 @@
         <f t="shared" si="2"/>
         <v>0.1796875</v>
       </c>
-      <c r="J130" s="2">
-        <f>IF(NOT(A130=A158),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
-        <v>0</v>
+      <c r="H130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" cm="1">
+        <f t="array" ref="I130">_xlfn.IFS(H130="Yes",F130*D130-D130,H130="no",-D130,H130="push",0)</f>
+        <v>0.51</v>
+      </c>
+      <c r="J130" s="2" t="str">
+        <f>IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>45394</v>
+      </c>
       <c r="B131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5294,15 +5305,27 @@
         <f t="shared" si="2"/>
         <v>0.139240506329114</v>
       </c>
-      <c r="J131" s="2"/>
+      <c r="H131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I131" cm="1">
+        <f t="array" ref="I131">_xlfn.IFS(H131="Yes",F131*D131-D131,H131="no",-D131,H131="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J131" s="2" t="str">
+        <f>IF(NOT(A131=A132),(SUMIFS(I:I, A:A, A131)+SUMIFS(D:D, A:A, A131))/SUMIFS(D:D, A:A, A131)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>45394</v>
+      </c>
       <c r="B132" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -5317,15 +5340,27 @@
         <f t="shared" si="2"/>
         <v>0.8085106382978724</v>
       </c>
-      <c r="J132" s="2"/>
+      <c r="H132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I132" cm="1">
+        <f t="array" ref="I132">_xlfn.IFS(H132="Yes",F132*D132-D132,H132="no",-D132,H132="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J132" s="2" t="str">
+        <f>IF(NOT(A132=A133),(SUMIFS(I:I, A:A, A132)+SUMIFS(D:D, A:A, A132))/SUMIFS(D:D, A:A, A132)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1">
+        <v>45394</v>
+      </c>
       <c r="B133" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -5340,12 +5375,24 @@
         <f t="shared" si="2"/>
         <v>0.3125</v>
       </c>
-      <c r="J133" s="2"/>
+      <c r="H133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" cm="1">
+        <f t="array" ref="I133">_xlfn.IFS(H133="Yes",F133*D133-D133,H133="no",-D133,H133="push",0)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J133" s="2" t="str">
+        <f>IF(NOT(A133=A134),(SUMIFS(I:I, A:A, A133)+SUMIFS(D:D, A:A, A133))/SUMIFS(D:D, A:A, A133)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1">
+        <v>45394</v>
+      </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -5363,12 +5410,24 @@
         <f t="shared" si="2"/>
         <v>0.37272727272727257</v>
       </c>
-      <c r="J134" s="2"/>
+      <c r="H134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" cm="1">
+        <f t="array" ref="I134">_xlfn.IFS(H134="Yes",F134*D134-D134,H134="no",-D134,H134="push",0)</f>
+        <v>0.51</v>
+      </c>
+      <c r="J134" s="2" t="str">
+        <f>IF(NOT(A134=A135),(SUMIFS(I:I, A:A, A134)+SUMIFS(D:D, A:A, A134))/SUMIFS(D:D, A:A, A134)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1">
+        <v>45394</v>
+      </c>
       <c r="B135" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -5386,12 +5445,24 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J135" s="2"/>
+      <c r="H135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I135" cm="1">
+        <f t="array" ref="I135">_xlfn.IFS(H135="Yes",F135*D135-D135,H135="no",-D135,H135="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J135" s="2" t="str">
+        <f>IF(NOT(A135=A136),(SUMIFS(I:I, A:A, A135)+SUMIFS(D:D, A:A, A135))/SUMIFS(D:D, A:A, A135)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>45394</v>
+      </c>
       <c r="B136" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -5409,15 +5480,27 @@
         <f t="shared" si="2"/>
         <v>0.365979381443299</v>
       </c>
-      <c r="J136" s="2"/>
+      <c r="H136" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I136" cm="1">
+        <f t="array" ref="I136">_xlfn.IFS(H136="Yes",F136*D136-D136,H136="no",-D136,H136="push",0)</f>
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="str">
+        <f>IF(NOT(A136=A137),(SUMIFS(I:I, A:A, A136)+SUMIFS(D:D, A:A, A136))/SUMIFS(D:D, A:A, A136)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>45394</v>
+      </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -5432,12 +5515,24 @@
         <f t="shared" si="2"/>
         <v>0.2534246575342467</v>
       </c>
-      <c r="J137" s="2"/>
+      <c r="H137" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I137" cm="1">
+        <f t="array" ref="I137">_xlfn.IFS(H137="Yes",F137*D137-D137,H137="no",-D137,H137="push",0)</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="str">
+        <f>IF(NOT(A137=A138),(SUMIFS(I:I, A:A, A137)+SUMIFS(D:D, A:A, A137))/SUMIFS(D:D, A:A, A137)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>45394</v>
+      </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -5455,15 +5550,27 @@
         <f t="shared" si="2"/>
         <v>0.11965811965811968</v>
       </c>
-      <c r="J138" s="2"/>
+      <c r="H138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" cm="1">
+        <f t="array" ref="I138">_xlfn.IFS(H138="Yes",F138*D138-D138,H138="no",-D138,H138="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J138" s="2" t="str">
+        <f>IF(NOT(A138=A139),(SUMIFS(I:I, A:A, A138)+SUMIFS(D:D, A:A, A138))/SUMIFS(D:D, A:A, A138)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>45394</v>
+      </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -5478,12 +5585,24 @@
         <f t="shared" si="2"/>
         <v>0.35772357723577231</v>
       </c>
-      <c r="J139" s="2"/>
+      <c r="H139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I139" cm="1">
+        <f t="array" ref="I139">_xlfn.IFS(H139="Yes",F139*D139-D139,H139="no",-D139,H139="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J139" s="2" t="str">
+        <f>IF(NOT(A139=A140),(SUMIFS(I:I, A:A, A139)+SUMIFS(D:D, A:A, A139))/SUMIFS(D:D, A:A, A139)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>45394</v>
+      </c>
       <c r="B140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -5501,12 +5620,24 @@
         <f t="shared" si="2"/>
         <v>0.24817518248175174</v>
       </c>
-      <c r="J140" s="2"/>
+      <c r="H140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" cm="1">
+        <f t="array" ref="I140">_xlfn.IFS(H140="Yes",F140*D140-D140,H140="no",-D140,H140="push",0)</f>
+        <v>0.71</v>
+      </c>
+      <c r="J140" s="2" t="str">
+        <f>IF(NOT(A140=A141),(SUMIFS(I:I, A:A, A140)+SUMIFS(D:D, A:A, A140))/SUMIFS(D:D, A:A, A140)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1">
+        <v>45394</v>
+      </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -5524,12 +5655,24 @@
         <f t="shared" si="2"/>
         <v>0.14925373134328357</v>
       </c>
-      <c r="J141" s="2"/>
+      <c r="H141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" cm="1">
+        <f t="array" ref="I141">_xlfn.IFS(H141="Yes",F141*D141-D141,H141="no",-D141,H141="push",0)</f>
+        <v>0.54</v>
+      </c>
+      <c r="J141" s="2" t="str">
+        <f>IF(NOT(A141=A142),(SUMIFS(I:I, A:A, A141)+SUMIFS(D:D, A:A, A141))/SUMIFS(D:D, A:A, A141)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1">
+        <v>45394</v>
+      </c>
       <c r="B142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -5547,15 +5690,27 @@
         <f t="shared" si="2"/>
         <v>0.56779661016949179</v>
       </c>
-      <c r="J142" s="2"/>
+      <c r="H142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" cm="1">
+        <f t="array" ref="I142">_xlfn.IFS(H142="Yes",F142*D142-D142,H142="no",-D142,H142="push",0)</f>
+        <v>2.7</v>
+      </c>
+      <c r="J142" s="2" t="str">
+        <f>IF(NOT(A142=A143),(SUMIFS(I:I, A:A, A142)+SUMIFS(D:D, A:A, A142))/SUMIFS(D:D, A:A, A142)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1">
+        <v>45394</v>
+      </c>
       <c r="B143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -5570,15 +5725,27 @@
         <f t="shared" si="2"/>
         <v>0.3813559322033897</v>
       </c>
-      <c r="J143" s="2"/>
+      <c r="H143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" cm="1">
+        <f t="array" ref="I143">_xlfn.IFS(H143="Yes",F143*D143-D143,H143="no",-D143,H143="push",0)</f>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="J143" s="2" t="str">
+        <f>IF(NOT(A143=A144),(SUMIFS(I:I, A:A, A143)+SUMIFS(D:D, A:A, A143))/SUMIFS(D:D, A:A, A143)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1">
+        <v>45394</v>
+      </c>
       <c r="B144" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -5593,12 +5760,24 @@
         <f t="shared" si="2"/>
         <v>0.481012658227848</v>
       </c>
-      <c r="J144" s="2"/>
+      <c r="H144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I144" cm="1">
+        <f t="array" ref="I144">_xlfn.IFS(H144="Yes",F144*D144-D144,H144="no",-D144,H144="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J144" s="2" t="str">
+        <f>IF(NOT(A144=A145),(SUMIFS(I:I, A:A, A144)+SUMIFS(D:D, A:A, A144))/SUMIFS(D:D, A:A, A144)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1">
+        <v>45394</v>
+      </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -5616,12 +5795,24 @@
         <f t="shared" si="2"/>
         <v>0.37583892617449655</v>
       </c>
-      <c r="J145" s="2"/>
+      <c r="H145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" cm="1">
+        <f t="array" ref="I145">_xlfn.IFS(H145="Yes",F145*D145-D145,H145="no",-D145,H145="push",0)</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="J145" s="2" t="str">
+        <f>IF(NOT(A145=A146),(SUMIFS(I:I, A:A, A145)+SUMIFS(D:D, A:A, A145))/SUMIFS(D:D, A:A, A145)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1">
+        <v>45394</v>
+      </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -5639,15 +5830,27 @@
         <f t="shared" si="2"/>
         <v>0.18633540372670798</v>
       </c>
-      <c r="J146" s="2"/>
+      <c r="H146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I146" cm="1">
+        <f t="array" ref="I146">_xlfn.IFS(H146="Yes",F146*D146-D146,H146="no",-D146,H146="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J146" s="2" t="str">
+        <f>IF(NOT(A146=A147),(SUMIFS(I:I, A:A, A146)+SUMIFS(D:D, A:A, A146))/SUMIFS(D:D, A:A, A146)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1">
+        <v>45394</v>
+      </c>
       <c r="B147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -5662,12 +5865,24 @@
         <f t="shared" si="2"/>
         <v>0.15822784810126578</v>
       </c>
-      <c r="J147" s="2"/>
+      <c r="H147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" cm="1">
+        <f t="array" ref="I147">_xlfn.IFS(H147="Yes",F147*D147-D147,H147="no",-D147,H147="push",0)</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="J147" s="2" t="str">
+        <f>IF(NOT(A147=A148),(SUMIFS(I:I, A:A, A147)+SUMIFS(D:D, A:A, A147))/SUMIFS(D:D, A:A, A147)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1">
+        <v>45394</v>
+      </c>
       <c r="B148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -5685,15 +5900,27 @@
         <f t="shared" si="2"/>
         <v>0.15523465703971118</v>
       </c>
-      <c r="J148" s="2"/>
+      <c r="H148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I148" cm="1">
+        <f t="array" ref="I148">_xlfn.IFS(H148="Yes",F148*D148-D148,H148="no",-D148,H148="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J148" s="2" t="str">
+        <f>IF(NOT(A148=A149),(SUMIFS(I:I, A:A, A148)+SUMIFS(D:D, A:A, A148))/SUMIFS(D:D, A:A, A148)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1">
+        <v>45394</v>
+      </c>
       <c r="B149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -5708,15 +5935,27 @@
         <f t="shared" si="2"/>
         <v>0.13725490196078427</v>
       </c>
-      <c r="J149" s="2"/>
+      <c r="H149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" cm="1">
+        <f t="array" ref="I149">_xlfn.IFS(H149="Yes",F149*D149-D149,H149="no",-D149,H149="push",0)</f>
+        <v>0.74</v>
+      </c>
+      <c r="J149" s="2" t="str">
+        <f>IF(NOT(A149=A150),(SUMIFS(I:I, A:A, A149)+SUMIFS(D:D, A:A, A149))/SUMIFS(D:D, A:A, A149)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1">
+        <v>45394</v>
+      </c>
       <c r="B150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -5731,15 +5970,27 @@
         <f t="shared" si="2"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="J150" s="2"/>
+      <c r="H150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I150" cm="1">
+        <f t="array" ref="I150">_xlfn.IFS(H150="Yes",F150*D150-D150,H150="no",-D150,H150="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J150" s="2" t="str">
+        <f>IF(NOT(A150=A151),(SUMIFS(I:I, A:A, A150)+SUMIFS(D:D, A:A, A150))/SUMIFS(D:D, A:A, A150)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1">
+        <v>45394</v>
+      </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -5751,18 +6002,30 @@
         <v>2.7</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" ref="G151:G154" si="3">F151/E151-1</f>
+        <f t="shared" ref="G151:G158" si="3">F151/E151-1</f>
         <v>0.73076923076923084</v>
       </c>
-      <c r="J151" s="2"/>
+      <c r="H151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I151" cm="1">
+        <f t="array" ref="I151">_xlfn.IFS(H151="Yes",F151*D151-D151,H151="no",-D151,H151="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J151" s="2" t="str">
+        <f>IF(NOT(A151=A152),(SUMIFS(I:I, A:A, A151)+SUMIFS(D:D, A:A, A151))/SUMIFS(D:D, A:A, A151)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>45394</v>
+      </c>
       <c r="B152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -5777,12 +6040,24 @@
         <f t="shared" si="3"/>
         <v>0.91176470588235281</v>
       </c>
-      <c r="J152" s="2"/>
+      <c r="H152" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I152" cm="1">
+        <f t="array" ref="I152">_xlfn.IFS(H152="Yes",F152*D152-D152,H152="no",-D152,H152="push",0)</f>
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="str">
+        <f>IF(NOT(A152=A153),(SUMIFS(I:I, A:A, A152)+SUMIFS(D:D, A:A, A152))/SUMIFS(D:D, A:A, A152)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1">
+        <v>45394</v>
+      </c>
       <c r="B153" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -5800,45 +6075,228 @@
         <f t="shared" si="3"/>
         <v>0.13380281690140849</v>
       </c>
-      <c r="J153" s="2"/>
+      <c r="H153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" cm="1">
+        <f t="array" ref="I153">_xlfn.IFS(H153="Yes",F153*D153-D153,H153="no",-D153,H153="push",0)</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="J153" s="2">
+        <f>IF(NOT(A153=A154),(SUMIFS(I:I, A:A, A153)+SUMIFS(D:D, A:A, A153))/SUMIFS(D:D, A:A, A153)-1,"")</f>
+        <v>-2.9166666666666785E-3</v>
+      </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="J154" s="2"/>
+      <c r="A154" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>1.44</v>
+      </c>
+      <c r="F154">
+        <v>1.83</v>
+      </c>
+      <c r="G154" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27083333333333348</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I154" cm="1">
+        <f t="array" ref="I154">_xlfn.IFS(H154="Yes",F154*D154-D154,H154="no",-D154,H154="push",0)</f>
+        <v>-2</v>
+      </c>
+      <c r="J154" s="2" t="str">
+        <f>IF(NOT(A154=A155),(SUMIFS(I:I, A:A, A154)+SUMIFS(D:D, A:A, A154))/SUMIFS(D:D, A:A, A154)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="J155" s="2"/>
+      <c r="A155" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B155" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>1.2</v>
+      </c>
+      <c r="F155">
+        <v>1.61</v>
+      </c>
+      <c r="G155" s="2">
+        <f t="shared" si="3"/>
+        <v>0.34166666666666679</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" cm="1">
+        <f t="array" ref="I155">_xlfn.IFS(H155="Yes",F155*D155-D155,H155="no",-D155,H155="push",0)</f>
+        <v>1.2200000000000002</v>
+      </c>
+      <c r="J155" s="2" t="str">
+        <f>IF(NOT(A155=A156),(SUMIFS(I:I, A:A, A155)+SUMIFS(D:D, A:A, A155))/SUMIFS(D:D, A:A, A155)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="J156" s="2"/>
+      <c r="A156" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B156" t="s">
+        <v>49</v>
+      </c>
+      <c r="C156" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>1.49</v>
+      </c>
+      <c r="F156">
+        <v>2.25</v>
+      </c>
+      <c r="G156" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51006711409395966</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" cm="1">
+        <f t="array" ref="I156">_xlfn.IFS(H156="Yes",F156*D156-D156,H156="no",-D156,H156="push",0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="J156" s="2" t="str">
+        <f>IF(NOT(A156=A157),(SUMIFS(I:I, A:A, A156)+SUMIFS(D:D, A:A, A156))/SUMIFS(D:D, A:A, A156)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="J157" s="2"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D160">
-        <f>SUM(D2:D159)</f>
-        <v>159</v>
-      </c>
-      <c r="I160">
-        <f>SUM(I2:I159)+D160</f>
-        <v>151.41</v>
-      </c>
-    </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I161" s="3">
-        <f>I160/D160-1</f>
-        <v>-4.7735849056603774E-2</v>
-      </c>
-      <c r="J161" t="s">
+      <c r="A157" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>2.25</v>
+      </c>
+      <c r="F157">
+        <v>3.7</v>
+      </c>
+      <c r="G157" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6444444444444446</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" cm="1">
+        <f t="array" ref="I157">_xlfn.IFS(H157="Yes",F157*D157-D157,H157="no",-D157,H157="push",0)</f>
+        <v>5.4</v>
+      </c>
+      <c r="J157" s="2" t="str">
+        <f>IF(NOT(A157=A158),(SUMIFS(I:I, A:A, A157)+SUMIFS(D:D, A:A, A157))/SUMIFS(D:D, A:A, A157)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B158" t="s">
+        <v>102</v>
+      </c>
+      <c r="C158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>1.24</v>
+      </c>
+      <c r="F158">
+        <v>1.43</v>
+      </c>
+      <c r="G158" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15322580645161277</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I158" cm="1">
+        <f t="array" ref="I158">_xlfn.IFS(H158="Yes",F158*D158-D158,H158="no",-D158,H158="push",0)</f>
+        <v>-2</v>
+      </c>
+      <c r="J158" s="2">
+        <f>IF(NOT(A158=A159),(SUMIFS(I:I, A:A, A158)+SUMIFS(D:D, A:A, A158))/SUMIFS(D:D, A:A, A158)-1,"")</f>
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <f>SUM(D2:D163)</f>
+        <v>169</v>
+      </c>
+      <c r="I164">
+        <f>SUM(I2:I163)+D164</f>
+        <v>166.46</v>
+      </c>
+    </row>
+    <row r="165" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I165" s="3">
+        <f>I164/D164-1</f>
+        <v>-1.5029585798816525E-2</v>
+      </c>
+      <c r="J165" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I154" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="10+ pts"/>
+        <filter val="15+ pts"/>
+        <filter val="2+ 3s"/>
+        <filter val="2+ 3's"/>
+        <filter val="2+ asts"/>
+        <filter val="20+ pts"/>
+        <filter val="25+ pts"/>
+        <filter val="4+ rebs"/>
+        <filter val="6+ rebs"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34604F14-F146-456F-91AD-A61EEFC9FE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98C4494-0936-4AAF-AFA7-476A7C0CFA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -370,6 +370,18 @@
   </si>
   <si>
     <t>De'aaron Fox</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Javonte Green</t>
+  </si>
+  <si>
+    <t>Jaime Jaquez Jr.</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
   </si>
 </sst>
 </file>
@@ -716,12 +728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +809,7 @@
         <v>0.89999999999999947</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f>IF(NOT(A2=A3),(SUMIFS(I:I, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
+        <f t="shared" ref="J2:J33" si="0">IF(NOT(A2=A3),(SUMIFS(I:I, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -833,7 +844,7 @@
         <v>-1</v>
       </c>
       <c r="J3" s="2">
-        <f>IF(NOT(A3=A4),(SUMIFS(I:I, A:A, A3)+SUMIFS(D:D, A:A, A3))/SUMIFS(D:D, A:A, A3)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>-1.6666666666666718E-2</v>
       </c>
     </row>
@@ -857,18 +868,18 @@
         <v>3.6</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G76" si="0">F4/E4-1</f>
+        <f t="shared" ref="G4:G76" si="1">F4/E4-1</f>
         <v>0.32841328413284132</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="1">IF(H4="Yes",F4*D4-D4,-D4)</f>
+        <f t="shared" ref="I4:I67" si="2">IF(H4="Yes",F4*D4-D4,-D4)</f>
         <v>-1</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f>IF(NOT(A4=A5),(SUMIFS(I:I, A:A, A4)+SUMIFS(D:D, A:A, A4))/SUMIFS(D:D, A:A, A4)-1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -892,18 +903,18 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>9.8039215686274606E-2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9.8039215686274606E-2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f>IF(NOT(A5=A6),(SUMIFS(I:I, A:A, A5)+SUMIFS(D:D, A:A, A5))/SUMIFS(D:D, A:A, A5)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -927,18 +938,18 @@
         <v>1.24</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20388349514563098</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="J6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.20388349514563098</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f>IF(NOT(A6=A7),(SUMIFS(I:I, A:A, A6)+SUMIFS(D:D, A:A, A6))/SUMIFS(D:D, A:A, A6)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -962,18 +973,18 @@
         <v>1.83</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46399999999999997</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.46399999999999997</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f>IF(NOT(A7=A8),(SUMIFS(I:I, A:A, A7)+SUMIFS(D:D, A:A, A7))/SUMIFS(D:D, A:A, A7)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -997,18 +1008,18 @@
         <v>2.35</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46875</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+      <c r="J8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.46875</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>1.35</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f>IF(NOT(A8=A9),(SUMIFS(I:I, A:A, A8)+SUMIFS(D:D, A:A, A8))/SUMIFS(D:D, A:A, A8)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1032,18 +1043,18 @@
         <v>1.23</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="J9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.13888888888888884</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f>IF(NOT(A9=A10),(SUMIFS(I:I, A:A, A9)+SUMIFS(D:D, A:A, A9))/SUMIFS(D:D, A:A, A9)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1067,18 +1078,18 @@
         <v>1.4</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22807017543859653</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.22807017543859653</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J10" s="2" t="str">
-        <f>IF(NOT(A10=A11),(SUMIFS(I:I, A:A, A10)+SUMIFS(D:D, A:A, A10))/SUMIFS(D:D, A:A, A10)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1102,18 +1113,18 @@
         <v>1.74</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17567567567567566</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.17567567567567566</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f>IF(NOT(A11=A12),(SUMIFS(I:I, A:A, A11)+SUMIFS(D:D, A:A, A11))/SUMIFS(D:D, A:A, A11)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1137,18 +1148,18 @@
         <v>1.71</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+      <c r="J12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.1399999999999999</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0.71</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f>IF(NOT(A12=A13),(SUMIFS(I:I, A:A, A12)+SUMIFS(D:D, A:A, A12))/SUMIFS(D:D, A:A, A12)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1172,22 +1183,22 @@
         <v>1.3</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1711711711711712</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.1711711711711712</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f>IF(NOT(A13=A14),(SUMIFS(I:I, A:A, A13)+SUMIFS(D:D, A:A, A13))/SUMIFS(D:D, A:A, A13)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45382</v>
       </c>
@@ -1207,18 +1218,18 @@
         <v>2.1</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47887323943661975</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.47887323943661975</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f>IF(NOT(A14=A15),(SUMIFS(I:I, A:A, A14)+SUMIFS(D:D, A:A, A14))/SUMIFS(D:D, A:A, A14)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1242,18 +1253,18 @@
         <v>1.51</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12686567164179108</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="J15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.12686567164179108</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0.51</v>
-      </c>
-      <c r="J15" s="2" t="str">
-        <f>IF(NOT(A15=A16),(SUMIFS(I:I, A:A, A15)+SUMIFS(D:D, A:A, A15))/SUMIFS(D:D, A:A, A15)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1277,18 +1288,18 @@
         <v>1.32</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26923076923076916</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.26923076923076916</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J16" s="2" t="str">
-        <f>IF(NOT(A16=A17),(SUMIFS(I:I, A:A, A16)+SUMIFS(D:D, A:A, A16))/SUMIFS(D:D, A:A, A16)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1312,18 +1323,18 @@
         <v>3.3</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28404669260700399</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.28404669260700399</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f>IF(NOT(A17=A18),(SUMIFS(I:I, A:A, A17)+SUMIFS(D:D, A:A, A17))/SUMIFS(D:D, A:A, A17)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1347,18 +1358,18 @@
         <v>1.56</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47169811320754707</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.47169811320754707</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J18" s="2" t="str">
-        <f>IF(NOT(A18=A19),(SUMIFS(I:I, A:A, A18)+SUMIFS(D:D, A:A, A18))/SUMIFS(D:D, A:A, A18)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1382,18 +1393,18 @@
         <v>1.77</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45081967213114749</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+      <c r="J19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.45081967213114749</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0.77</v>
-      </c>
-      <c r="J19" s="2" t="str">
-        <f>IF(NOT(A19=A20),(SUMIFS(I:I, A:A, A19)+SUMIFS(D:D, A:A, A19))/SUMIFS(D:D, A:A, A19)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1417,22 +1428,22 @@
         <v>1.31</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18018018018018012</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="J20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.18018018018018012</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="J20" s="2" t="str">
-        <f>IF(NOT(A20=A21),(SUMIFS(I:I, A:A, A20)+SUMIFS(D:D, A:A, A20))/SUMIFS(D:D, A:A, A20)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45382</v>
       </c>
@@ -1452,18 +1463,18 @@
         <v>3.3</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59420289855072461</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.59420289855072461</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J21" s="2" t="str">
-        <f>IF(NOT(A21=A22),(SUMIFS(I:I, A:A, A21)+SUMIFS(D:D, A:A, A21))/SUMIFS(D:D, A:A, A21)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1487,18 +1498,18 @@
         <v>1.31</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13913043478260878</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="J22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.13913043478260878</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="J22" s="2" t="str">
-        <f>IF(NOT(A22=A23),(SUMIFS(I:I, A:A, A22)+SUMIFS(D:D, A:A, A22))/SUMIFS(D:D, A:A, A22)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1522,18 +1533,18 @@
         <v>1.45</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.15999999999999992</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J23" s="2" t="str">
-        <f>IF(NOT(A23=A24),(SUMIFS(I:I, A:A, A23)+SUMIFS(D:D, A:A, A23))/SUMIFS(D:D, A:A, A23)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1557,18 +1568,18 @@
         <v>1.17</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13592233009708732</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.13592233009708732</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J24" s="2" t="str">
-        <f>IF(NOT(A24=A25),(SUMIFS(I:I, A:A, A24)+SUMIFS(D:D, A:A, A24))/SUMIFS(D:D, A:A, A24)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1592,22 +1603,22 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="J25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999998</v>
-      </c>
-      <c r="J25" s="2" t="str">
-        <f>IF(NOT(A25=A26),(SUMIFS(I:I, A:A, A25)+SUMIFS(D:D, A:A, A25))/SUMIFS(D:D, A:A, A25)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45382</v>
       </c>
@@ -1627,18 +1638,18 @@
         <v>1.74</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21678321678321688</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>0.21678321678321688</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>0.74</v>
-      </c>
-      <c r="J26" s="2">
-        <f>IF(NOT(A26=A27),(SUMIFS(I:I, A:A, A26)+SUMIFS(D:D, A:A, A26))/SUMIFS(D:D, A:A, A26)-1,"")</f>
         <v>0.14041666666666663</v>
       </c>
     </row>
@@ -1662,18 +1673,18 @@
         <v>1.43</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23275862068965525</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.23275862068965525</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J27" s="2" t="str">
-        <f>IF(NOT(A27=A28),(SUMIFS(I:I, A:A, A27)+SUMIFS(D:D, A:A, A27))/SUMIFS(D:D, A:A, A27)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1697,18 +1708,18 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21890547263681603</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.21890547263681603</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J28" s="2" t="str">
-        <f>IF(NOT(A28=A29),(SUMIFS(I:I, A:A, A28)+SUMIFS(D:D, A:A, A28))/SUMIFS(D:D, A:A, A28)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1732,18 +1743,18 @@
         <v>1.71</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23021582733812962</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+      <c r="J29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.23021582733812962</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>0.71</v>
-      </c>
-      <c r="J29" s="2" t="str">
-        <f>IF(NOT(A29=A30),(SUMIFS(I:I, A:A, A29)+SUMIFS(D:D, A:A, A29))/SUMIFS(D:D, A:A, A29)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1767,18 +1778,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12745098039215685</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.12745098039215685</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J30" s="2" t="str">
-        <f>IF(NOT(A30=A31),(SUMIFS(I:I, A:A, A30)+SUMIFS(D:D, A:A, A30))/SUMIFS(D:D, A:A, A30)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1802,22 +1813,22 @@
         <v>1.77</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27338129496402885</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.27338129496402885</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J31" s="2" t="str">
-        <f>IF(NOT(A31=A32),(SUMIFS(I:I, A:A, A31)+SUMIFS(D:D, A:A, A31))/SUMIFS(D:D, A:A, A31)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45383</v>
       </c>
@@ -1837,22 +1848,22 @@
         <v>1.95</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14705882352941169</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="J32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.14705882352941169</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="J32" s="2" t="str">
-        <f>IF(NOT(A32=A33),(SUMIFS(I:I, A:A, A32)+SUMIFS(D:D, A:A, A32))/SUMIFS(D:D, A:A, A32)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45383</v>
       </c>
@@ -1872,18 +1883,18 @@
         <v>2</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31578947368421062</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.31578947368421062</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J33" s="2" t="str">
-        <f>IF(NOT(A33=A34),(SUMIFS(I:I, A:A, A33)+SUMIFS(D:D, A:A, A33))/SUMIFS(D:D, A:A, A33)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1907,18 +1918,18 @@
         <v>1.77</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22068965517241379</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f>IF(NOT(A34=A35),(SUMIFS(I:I, A:A, A34)+SUMIFS(D:D, A:A, A34))/SUMIFS(D:D, A:A, A34)-1,"")</f>
+        <f t="shared" ref="J34:J65" si="3">IF(NOT(A34=A35),(SUMIFS(I:I, A:A, A34)+SUMIFS(D:D, A:A, A34))/SUMIFS(D:D, A:A, A34)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1942,18 +1953,18 @@
         <v>1.43</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26548672566371678</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42999999999999994</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f>IF(NOT(A35=A36),(SUMIFS(I:I, A:A, A35)+SUMIFS(D:D, A:A, A35))/SUMIFS(D:D, A:A, A35)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1977,18 +1988,18 @@
         <v>3</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24481327800829877</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f>IF(NOT(A36=A37),(SUMIFS(I:I, A:A, A36)+SUMIFS(D:D, A:A, A36))/SUMIFS(D:D, A:A, A36)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2012,18 +2023,18 @@
         <v>1.61</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2777777777777779</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f>IF(NOT(A37=A38),(SUMIFS(I:I, A:A, A37)+SUMIFS(D:D, A:A, A37))/SUMIFS(D:D, A:A, A37)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2047,18 +2058,18 @@
         <v>1.24</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f>IF(NOT(A38=A39),(SUMIFS(I:I, A:A, A38)+SUMIFS(D:D, A:A, A38))/SUMIFS(D:D, A:A, A38)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2082,22 +2093,22 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23333333333333339</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f>IF(NOT(A39=A40),(SUMIFS(I:I, A:A, A39)+SUMIFS(D:D, A:A, A39))/SUMIFS(D:D, A:A, A39)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45383</v>
       </c>
@@ -2117,22 +2128,22 @@
         <v>1.59</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22307692307692317</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f>IF(NOT(A40=A41),(SUMIFS(I:I, A:A, A40)+SUMIFS(D:D, A:A, A40))/SUMIFS(D:D, A:A, A40)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45383</v>
       </c>
@@ -2152,18 +2163,18 @@
         <v>2.25</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28571428571428581</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J41" s="2">
-        <f>IF(NOT(A41=A42),(SUMIFS(I:I, A:A, A41)+SUMIFS(D:D, A:A, A41))/SUMIFS(D:D, A:A, A41)-1,"")</f>
+        <f t="shared" si="3"/>
         <v>-0.378</v>
       </c>
     </row>
@@ -2187,18 +2198,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22905027932960897</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f>IF(NOT(A42=A43),(SUMIFS(I:I, A:A, A42)+SUMIFS(D:D, A:A, A42))/SUMIFS(D:D, A:A, A42)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2222,18 +2233,18 @@
         <v>4.8</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7906976744186047</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f>IF(NOT(A43=A44),(SUMIFS(I:I, A:A, A43)+SUMIFS(D:D, A:A, A43))/SUMIFS(D:D, A:A, A43)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2257,18 +2268,18 @@
         <v>1.91</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19374999999999987</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f>IF(NOT(A44=A45),(SUMIFS(I:I, A:A, A44)+SUMIFS(D:D, A:A, A44))/SUMIFS(D:D, A:A, A44)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2292,18 +2303,18 @@
         <v>1.63</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.147887323943662</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f>IF(NOT(A45=A46),(SUMIFS(I:I, A:A, A45)+SUMIFS(D:D, A:A, A45))/SUMIFS(D:D, A:A, A45)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2327,22 +2338,22 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33986928104575154</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f>IF(NOT(A46=A47),(SUMIFS(I:I, A:A, A46)+SUMIFS(D:D, A:A, A46))/SUMIFS(D:D, A:A, A46)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45391</v>
       </c>
@@ -2362,18 +2373,18 @@
         <v>2</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43884892086330951</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f>IF(NOT(A47=A48),(SUMIFS(I:I, A:A, A47)+SUMIFS(D:D, A:A, A47))/SUMIFS(D:D, A:A, A47)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2397,18 +2408,18 @@
         <v>2.25</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32352941176470584</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f>IF(NOT(A48=A49),(SUMIFS(I:I, A:A, A48)+SUMIFS(D:D, A:A, A48))/SUMIFS(D:D, A:A, A48)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2432,18 +2443,18 @@
         <v>1.57</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25600000000000001</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f>IF(NOT(A49=A50),(SUMIFS(I:I, A:A, A49)+SUMIFS(D:D, A:A, A49))/SUMIFS(D:D, A:A, A49)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2467,18 +2478,18 @@
         <v>1.63</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42982456140350878</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f>IF(NOT(A50=A51),(SUMIFS(I:I, A:A, A50)+SUMIFS(D:D, A:A, A50))/SUMIFS(D:D, A:A, A50)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2502,18 +2513,18 @@
         <v>1.8</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31386861313868608</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f>IF(NOT(A51=A52),(SUMIFS(I:I, A:A, A51)+SUMIFS(D:D, A:A, A51))/SUMIFS(D:D, A:A, A51)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2537,18 +2548,18 @@
         <v>1.69</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36290322580645151</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f>IF(NOT(A52=A53),(SUMIFS(I:I, A:A, A52)+SUMIFS(D:D, A:A, A52))/SUMIFS(D:D, A:A, A52)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2572,18 +2583,18 @@
         <v>1.74</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30827067669172914</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f>IF(NOT(A53=A54),(SUMIFS(I:I, A:A, A53)+SUMIFS(D:D, A:A, A53))/SUMIFS(D:D, A:A, A53)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2607,18 +2618,18 @@
         <v>4.7</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1860465116279073</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f>IF(NOT(A54=A55),(SUMIFS(I:I, A:A, A54)+SUMIFS(D:D, A:A, A54))/SUMIFS(D:D, A:A, A54)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2642,18 +2653,18 @@
         <v>1.63</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23484848484848464</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f>IF(NOT(A55=A56),(SUMIFS(I:I, A:A, A55)+SUMIFS(D:D, A:A, A55))/SUMIFS(D:D, A:A, A55)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2677,18 +2688,18 @@
         <v>1.67</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35772357723577231</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f>IF(NOT(A56=A57),(SUMIFS(I:I, A:A, A56)+SUMIFS(D:D, A:A, A56))/SUMIFS(D:D, A:A, A56)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2712,18 +2723,18 @@
         <v>1.48</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24369747899159666</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f>IF(NOT(A57=A58),(SUMIFS(I:I, A:A, A57)+SUMIFS(D:D, A:A, A57))/SUMIFS(D:D, A:A, A57)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2747,18 +2758,18 @@
         <v>3.3</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81318681318681296</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f>IF(NOT(A58=A59),(SUMIFS(I:I, A:A, A58)+SUMIFS(D:D, A:A, A58))/SUMIFS(D:D, A:A, A58)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2782,22 +2793,22 @@
         <v>1.48</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20325203252032531</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f>IF(NOT(A59=A60),(SUMIFS(I:I, A:A, A59)+SUMIFS(D:D, A:A, A59))/SUMIFS(D:D, A:A, A59)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45391</v>
       </c>
@@ -2817,22 +2828,22 @@
         <v>1.48</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17460317460317465</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f>IF(NOT(A60=A61),(SUMIFS(I:I, A:A, A60)+SUMIFS(D:D, A:A, A60))/SUMIFS(D:D, A:A, A60)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45391</v>
       </c>
@@ -2852,18 +2863,18 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37096774193548376</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f>IF(NOT(A61=A62),(SUMIFS(I:I, A:A, A61)+SUMIFS(D:D, A:A, A61))/SUMIFS(D:D, A:A, A61)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2887,18 +2898,18 @@
         <v>1.5</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f>IF(NOT(A62=A63),(SUMIFS(I:I, A:A, A62)+SUMIFS(D:D, A:A, A62))/SUMIFS(D:D, A:A, A62)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2922,18 +2933,18 @@
         <v>1.77</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48739495798319332</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f>IF(NOT(A63=A64),(SUMIFS(I:I, A:A, A63)+SUMIFS(D:D, A:A, A63))/SUMIFS(D:D, A:A, A63)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2957,18 +2968,18 @@
         <v>1.95</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32653061224489788</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f>IF(NOT(A64=A65),(SUMIFS(I:I, A:A, A64)+SUMIFS(D:D, A:A, A64))/SUMIFS(D:D, A:A, A64)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2992,18 +3003,18 @@
         <v>1.63</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18978102189780999</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f>IF(NOT(A65=A66),(SUMIFS(I:I, A:A, A65)+SUMIFS(D:D, A:A, A65))/SUMIFS(D:D, A:A, A65)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3027,18 +3038,18 @@
         <v>1.8</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15384615384615374</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f>IF(NOT(A66=A67),(SUMIFS(I:I, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
+        <f t="shared" ref="J66:J97" si="4">IF(NOT(A66=A67),(SUMIFS(I:I, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3062,22 +3073,22 @@
         <v>1.8</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f>IF(NOT(A67=A68),(SUMIFS(I:I, A:A, A67)+SUMIFS(D:D, A:A, A67))/SUMIFS(D:D, A:A, A67)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45391</v>
       </c>
@@ -3097,7 +3108,7 @@
         <v>1.45</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16935483870967749</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -3108,7 +3119,7 @@
         <v>-1</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f>IF(NOT(A68=A69),(SUMIFS(I:I, A:A, A68)+SUMIFS(D:D, A:A, A68))/SUMIFS(D:D, A:A, A68)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3132,7 +3143,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18357487922705329</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -3143,7 +3154,7 @@
         <v>1.4500000000000002</v>
       </c>
       <c r="J69" s="2">
-        <f>IF(NOT(A69=A70),(SUMIFS(I:I, A:A, A69)+SUMIFS(D:D, A:A, A69))/SUMIFS(D:D, A:A, A69)-1,"")</f>
+        <f t="shared" si="4"/>
         <v>0.26178571428571429</v>
       </c>
     </row>
@@ -3167,7 +3178,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57692307692307665</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -3178,7 +3189,7 @@
         <v>-1</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f>IF(NOT(A70=A71),(SUMIFS(I:I, A:A, A70)+SUMIFS(D:D, A:A, A70))/SUMIFS(D:D, A:A, A70)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3202,7 +3213,7 @@
         <v>1.69</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -3213,11 +3224,11 @@
         <v>0.69</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f>IF(NOT(A71=A72),(SUMIFS(I:I, A:A, A71)+SUMIFS(D:D, A:A, A71))/SUMIFS(D:D, A:A, A71)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45392</v>
       </c>
@@ -3237,7 +3248,7 @@
         <v>1.29</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13157894736842124</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -3248,11 +3259,11 @@
         <v>0.29000000000000004</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f>IF(NOT(A72=A73),(SUMIFS(I:I, A:A, A72)+SUMIFS(D:D, A:A, A72))/SUMIFS(D:D, A:A, A72)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45392</v>
       </c>
@@ -3272,7 +3283,7 @@
         <v>2.15</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34374999999999978</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -3283,7 +3294,7 @@
         <v>-1</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f>IF(NOT(A73=A74),(SUMIFS(I:I, A:A, A73)+SUMIFS(D:D, A:A, A73))/SUMIFS(D:D, A:A, A73)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3307,7 +3318,7 @@
         <v>1.42</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18333333333333335</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -3318,7 +3329,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f>IF(NOT(A74=A75),(SUMIFS(I:I, A:A, A74)+SUMIFS(D:D, A:A, A74))/SUMIFS(D:D, A:A, A74)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3342,7 +3353,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27499999999999991</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -3353,7 +3364,7 @@
         <v>-1</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f>IF(NOT(A75=A76),(SUMIFS(I:I, A:A, A75)+SUMIFS(D:D, A:A, A75))/SUMIFS(D:D, A:A, A75)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3377,7 +3388,7 @@
         <v>1.45</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -3388,7 +3399,7 @@
         <v>-1</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f>IF(NOT(A76=A77),(SUMIFS(I:I, A:A, A76)+SUMIFS(D:D, A:A, A76))/SUMIFS(D:D, A:A, A76)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3412,7 +3423,7 @@
         <v>1.42</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" ref="G77:G150" si="2">F77/E77-1</f>
+        <f t="shared" ref="G77:G150" si="5">F77/E77-1</f>
         <v>0.21367521367521358</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -3423,11 +3434,11 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f>IF(NOT(A77=A78),(SUMIFS(I:I, A:A, A77)+SUMIFS(D:D, A:A, A77))/SUMIFS(D:D, A:A, A77)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45392</v>
       </c>
@@ -3447,7 +3458,7 @@
         <v>1.59</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2421875</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -3458,11 +3469,11 @@
         <v>0.59000000000000008</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f>IF(NOT(A78=A79),(SUMIFS(I:I, A:A, A78)+SUMIFS(D:D, A:A, A78))/SUMIFS(D:D, A:A, A78)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45392</v>
       </c>
@@ -3482,7 +3493,7 @@
         <v>1.71</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1875</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -3493,11 +3504,11 @@
         <v>-1</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f>IF(NOT(A79=A80),(SUMIFS(I:I, A:A, A79)+SUMIFS(D:D, A:A, A79))/SUMIFS(D:D, A:A, A79)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45392</v>
       </c>
@@ -3517,7 +3528,7 @@
         <v>2.6</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3265306122448981</v>
       </c>
       <c r="H80" s="2" t="s">
@@ -3528,7 +3539,7 @@
         <v>-1</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f>IF(NOT(A80=A81),(SUMIFS(I:I, A:A, A80)+SUMIFS(D:D, A:A, A80))/SUMIFS(D:D, A:A, A80)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3552,7 +3563,7 @@
         <v>1.65</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.26923076923076916</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -3563,7 +3574,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f>IF(NOT(A81=A82),(SUMIFS(I:I, A:A, A81)+SUMIFS(D:D, A:A, A81))/SUMIFS(D:D, A:A, A81)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3587,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.25786163522012573</v>
       </c>
       <c r="H82" s="2" t="s">
@@ -3598,7 +3609,7 @@
         <v>-1</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f>IF(NOT(A82=A83),(SUMIFS(I:I, A:A, A82)+SUMIFS(D:D, A:A, A82))/SUMIFS(D:D, A:A, A82)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3622,7 +3633,7 @@
         <v>2.15</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.35220125786163514</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -3633,7 +3644,7 @@
         <v>-1</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f>IF(NOT(A83=A84),(SUMIFS(I:I, A:A, A83)+SUMIFS(D:D, A:A, A83))/SUMIFS(D:D, A:A, A83)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3657,7 +3668,7 @@
         <v>1.34</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21818181818181825</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -3668,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f>IF(NOT(A84=A85),(SUMIFS(I:I, A:A, A84)+SUMIFS(D:D, A:A, A84))/SUMIFS(D:D, A:A, A84)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3692,7 +3703,7 @@
         <v>1.5</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -3703,7 +3714,7 @@
         <v>-1</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f>IF(NOT(A85=A86),(SUMIFS(I:I, A:A, A85)+SUMIFS(D:D, A:A, A85))/SUMIFS(D:D, A:A, A85)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3727,7 +3738,7 @@
         <v>2.1</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18644067796610164</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -3738,11 +3749,11 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f>IF(NOT(A86=A87),(SUMIFS(I:I, A:A, A86)+SUMIFS(D:D, A:A, A86))/SUMIFS(D:D, A:A, A86)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45392</v>
       </c>
@@ -3762,7 +3773,7 @@
         <v>1.69</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.14189189189189189</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -3773,7 +3784,7 @@
         <v>-1</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f>IF(NOT(A87=A88),(SUMIFS(I:I, A:A, A87)+SUMIFS(D:D, A:A, A87))/SUMIFS(D:D, A:A, A87)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3797,7 +3808,7 @@
         <v>2.1</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.44827586206896552</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -3808,7 +3819,7 @@
         <v>-1</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f>IF(NOT(A88=A89),(SUMIFS(I:I, A:A, A88)+SUMIFS(D:D, A:A, A88))/SUMIFS(D:D, A:A, A88)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3832,7 +3843,7 @@
         <v>2.75</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.80921052631578938</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -3843,7 +3854,7 @@
         <v>-1</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f>IF(NOT(A89=A90),(SUMIFS(I:I, A:A, A89)+SUMIFS(D:D, A:A, A89))/SUMIFS(D:D, A:A, A89)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3867,7 +3878,7 @@
         <v>2.9</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85897435897435881</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -3878,7 +3889,7 @@
         <v>-1</v>
       </c>
       <c r="J90" s="2" t="str">
-        <f>IF(NOT(A90=A91),(SUMIFS(I:I, A:A, A90)+SUMIFS(D:D, A:A, A90))/SUMIFS(D:D, A:A, A90)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3902,7 +3913,7 @@
         <v>1.67</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15172413793103456</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -3913,7 +3924,7 @@
         <v>0.66999999999999993</v>
       </c>
       <c r="J91" s="2" t="str">
-        <f>IF(NOT(A91=A92),(SUMIFS(I:I, A:A, A91)+SUMIFS(D:D, A:A, A91))/SUMIFS(D:D, A:A, A91)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3937,7 +3948,7 @@
         <v>1.25</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15740740740740744</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -3948,7 +3959,7 @@
         <v>0.25</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f>IF(NOT(A92=A93),(SUMIFS(I:I, A:A, A92)+SUMIFS(D:D, A:A, A92))/SUMIFS(D:D, A:A, A92)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3972,7 +3983,7 @@
         <v>4.5</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.36363636363636376</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -3983,7 +3994,7 @@
         <v>-1</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f>IF(NOT(A93=A94),(SUMIFS(I:I, A:A, A93)+SUMIFS(D:D, A:A, A93))/SUMIFS(D:D, A:A, A93)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4007,7 +4018,7 @@
         <v>1.42</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.14516129032258052</v>
       </c>
       <c r="H94" s="2" t="s">
@@ -4018,7 +4029,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J94" s="2" t="str">
-        <f>IF(NOT(A94=A95),(SUMIFS(I:I, A:A, A94)+SUMIFS(D:D, A:A, A94))/SUMIFS(D:D, A:A, A94)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4042,7 +4053,7 @@
         <v>1.61</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18382352941176472</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -4053,7 +4064,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J95" s="2" t="str">
-        <f>IF(NOT(A95=A96),(SUMIFS(I:I, A:A, A95)+SUMIFS(D:D, A:A, A95))/SUMIFS(D:D, A:A, A95)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4077,7 +4088,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32947976878612706</v>
       </c>
       <c r="H96" s="2" t="s">
@@ -4088,7 +4099,7 @@
         <v>-1</v>
       </c>
       <c r="J96" s="2" t="str">
-        <f>IF(NOT(A96=A97),(SUMIFS(I:I, A:A, A96)+SUMIFS(D:D, A:A, A96))/SUMIFS(D:D, A:A, A96)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4112,7 +4123,7 @@
         <v>3.8</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24183006535947715</v>
       </c>
       <c r="H97" s="2" t="s">
@@ -4123,7 +4134,7 @@
         <v>2.8</v>
       </c>
       <c r="J97" s="2" t="str">
-        <f>IF(NOT(A97=A98),(SUMIFS(I:I, A:A, A97)+SUMIFS(D:D, A:A, A97))/SUMIFS(D:D, A:A, A97)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4147,7 +4158,7 @@
         <v>6.5</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.80055401662049874</v>
       </c>
       <c r="H98" s="2" t="s">
@@ -4158,7 +4169,7 @@
         <v>-1</v>
       </c>
       <c r="J98" s="2" t="str">
-        <f>IF(NOT(A98=A99),(SUMIFS(I:I, A:A, A98)+SUMIFS(D:D, A:A, A98))/SUMIFS(D:D, A:A, A98)-1,"")</f>
+        <f t="shared" ref="J98:J129" si="6">IF(NOT(A98=A99),(SUMIFS(I:I, A:A, A98)+SUMIFS(D:D, A:A, A98))/SUMIFS(D:D, A:A, A98)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4182,7 +4193,7 @@
         <v>1.61</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.29838709677419373</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -4193,7 +4204,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f>IF(NOT(A99=A100),(SUMIFS(I:I, A:A, A99)+SUMIFS(D:D, A:A, A99))/SUMIFS(D:D, A:A, A99)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4217,7 +4228,7 @@
         <v>1.67</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24626865671641784</v>
       </c>
       <c r="H100" s="2" t="s">
@@ -4228,7 +4239,7 @@
         <v>-1</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f>IF(NOT(A100=A101),(SUMIFS(I:I, A:A, A100)+SUMIFS(D:D, A:A, A100))/SUMIFS(D:D, A:A, A100)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4252,7 +4263,7 @@
         <v>2.25</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.46103896103896091</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -4263,7 +4274,7 @@
         <v>1.25</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f>IF(NOT(A101=A102),(SUMIFS(I:I, A:A, A101)+SUMIFS(D:D, A:A, A101))/SUMIFS(D:D, A:A, A101)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4287,7 +4298,7 @@
         <v>1.83</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.31654676258992831</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -4298,7 +4309,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="J102" s="2" t="str">
-        <f>IF(NOT(A102=A103),(SUMIFS(I:I, A:A, A102)+SUMIFS(D:D, A:A, A102))/SUMIFS(D:D, A:A, A102)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4322,7 +4333,7 @@
         <v>1.54</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2520325203252034</v>
       </c>
       <c r="H103" s="2" t="s">
@@ -4333,7 +4344,7 @@
         <v>-1</v>
       </c>
       <c r="J103" s="2" t="str">
-        <f>IF(NOT(A103=A104),(SUMIFS(I:I, A:A, A103)+SUMIFS(D:D, A:A, A103))/SUMIFS(D:D, A:A, A103)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4357,7 +4368,7 @@
         <v>1.57</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.29752066115702491</v>
       </c>
       <c r="H104" s="2" t="s">
@@ -4368,7 +4379,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="J104" s="2" t="str">
-        <f>IF(NOT(A104=A105),(SUMIFS(I:I, A:A, A104)+SUMIFS(D:D, A:A, A104))/SUMIFS(D:D, A:A, A104)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4392,7 +4403,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.37583892617449655</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -4403,11 +4414,11 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="J105" s="2" t="str">
-        <f>IF(NOT(A105=A106),(SUMIFS(I:I, A:A, A105)+SUMIFS(D:D, A:A, A105))/SUMIFS(D:D, A:A, A105)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45392</v>
       </c>
@@ -4427,7 +4438,7 @@
         <v>1.51</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15267175572519087</v>
       </c>
       <c r="H106" s="2" t="s">
@@ -4438,11 +4449,11 @@
         <v>-1</v>
       </c>
       <c r="J106" s="2" t="str">
-        <f>IF(NOT(A106=A107),(SUMIFS(I:I, A:A, A106)+SUMIFS(D:D, A:A, A106))/SUMIFS(D:D, A:A, A106)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45392</v>
       </c>
@@ -4462,7 +4473,7 @@
         <v>1.71</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16326530612244894</v>
       </c>
       <c r="H107" s="2" t="s">
@@ -4473,11 +4484,11 @@
         <v>0.71</v>
       </c>
       <c r="J107" s="2" t="str">
-        <f>IF(NOT(A107=A108),(SUMIFS(I:I, A:A, A107)+SUMIFS(D:D, A:A, A107))/SUMIFS(D:D, A:A, A107)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45392</v>
       </c>
@@ -4497,7 +4508,7 @@
         <v>3.3</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49999999999999978</v>
       </c>
       <c r="H108" s="2" t="s">
@@ -4508,7 +4519,7 @@
         <v>-1</v>
       </c>
       <c r="J108" s="2">
-        <f>IF(NOT(A108=A109),(SUMIFS(I:I, A:A, A108)+SUMIFS(D:D, A:A, A108))/SUMIFS(D:D, A:A, A108)-1,"")</f>
+        <f t="shared" si="6"/>
         <v>-9.4390243902438997E-2</v>
       </c>
     </row>
@@ -4532,7 +4543,7 @@
         <v>2.1</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3125</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -4543,7 +4554,7 @@
         <v>-1</v>
       </c>
       <c r="J109" s="2" t="str">
-        <f>IF(NOT(A109=A110),(SUMIFS(I:I, A:A, A109)+SUMIFS(D:D, A:A, A109))/SUMIFS(D:D, A:A, A109)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4567,7 +4578,7 @@
         <v>1.63</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.25384615384615361</v>
       </c>
       <c r="H110" s="2" t="s">
@@ -4578,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="J110" s="2" t="str">
-        <f>IF(NOT(A110=A111),(SUMIFS(I:I, A:A, A110)+SUMIFS(D:D, A:A, A110))/SUMIFS(D:D, A:A, A110)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4602,7 +4613,7 @@
         <v>1.77</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.36153846153846159</v>
       </c>
       <c r="H111" s="2" t="s">
@@ -4613,7 +4624,7 @@
         <v>-1</v>
       </c>
       <c r="J111" s="2" t="str">
-        <f>IF(NOT(A111=A112),(SUMIFS(I:I, A:A, A111)+SUMIFS(D:D, A:A, A111))/SUMIFS(D:D, A:A, A111)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4637,7 +4648,7 @@
         <v>1.86</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32857142857142874</v>
       </c>
       <c r="H112" s="2" t="s">
@@ -4648,7 +4659,7 @@
         <v>-1</v>
       </c>
       <c r="J112" s="2" t="str">
-        <f>IF(NOT(A112=A113),(SUMIFS(I:I, A:A, A112)+SUMIFS(D:D, A:A, A112))/SUMIFS(D:D, A:A, A112)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4672,7 +4683,7 @@
         <v>1.71</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22142857142857153</v>
       </c>
       <c r="H113" s="2" t="s">
@@ -4683,7 +4694,7 @@
         <v>0.71</v>
       </c>
       <c r="J113" s="2" t="str">
-        <f>IF(NOT(A113=A114),(SUMIFS(I:I, A:A, A113)+SUMIFS(D:D, A:A, A113))/SUMIFS(D:D, A:A, A113)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4707,7 +4718,7 @@
         <v>2.8</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H114" s="2" t="s">
@@ -4718,11 +4729,11 @@
         <v>-1</v>
       </c>
       <c r="J114" s="2" t="str">
-        <f>IF(NOT(A114=A115),(SUMIFS(I:I, A:A, A114)+SUMIFS(D:D, A:A, A114))/SUMIFS(D:D, A:A, A114)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45393</v>
       </c>
@@ -4742,7 +4753,7 @@
         <v>2.75</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="H115" s="2" t="s">
@@ -4753,7 +4764,7 @@
         <v>-1</v>
       </c>
       <c r="J115" s="2" t="str">
-        <f>IF(NOT(A115=A116),(SUMIFS(I:I, A:A, A115)+SUMIFS(D:D, A:A, A115))/SUMIFS(D:D, A:A, A115)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4777,7 +4788,7 @@
         <v>1.57</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20769230769230762</v>
       </c>
       <c r="H116" s="2" t="s">
@@ -4788,7 +4799,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="J116" s="2" t="str">
-        <f>IF(NOT(A116=A117),(SUMIFS(I:I, A:A, A116)+SUMIFS(D:D, A:A, A116))/SUMIFS(D:D, A:A, A116)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4812,7 +4823,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.28124999999999978</v>
       </c>
       <c r="H117" s="2" t="s">
@@ -4823,7 +4834,7 @@
         <v>-1</v>
       </c>
       <c r="J117" s="2" t="str">
-        <f>IF(NOT(A117=A118),(SUMIFS(I:I, A:A, A117)+SUMIFS(D:D, A:A, A117))/SUMIFS(D:D, A:A, A117)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4847,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H118" s="2" t="s">
@@ -4858,7 +4869,7 @@
         <v>-1</v>
       </c>
       <c r="J118" s="2" t="str">
-        <f>IF(NOT(A118=A119),(SUMIFS(I:I, A:A, A118)+SUMIFS(D:D, A:A, A118))/SUMIFS(D:D, A:A, A118)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4882,7 +4893,7 @@
         <v>1.87</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.33571428571428585</v>
       </c>
       <c r="H119" s="2" t="s">
@@ -4893,7 +4904,7 @@
         <v>-1</v>
       </c>
       <c r="J119" s="2" t="str">
-        <f>IF(NOT(A119=A120),(SUMIFS(I:I, A:A, A119)+SUMIFS(D:D, A:A, A119))/SUMIFS(D:D, A:A, A119)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4917,7 +4928,7 @@
         <v>1.8</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.38461538461538458</v>
       </c>
       <c r="H120" s="2" t="s">
@@ -4928,7 +4939,7 @@
         <v>0.51</v>
       </c>
       <c r="J120" s="2" t="str">
-        <f>IF(NOT(A120=A121),(SUMIFS(I:I, A:A, A120)+SUMIFS(D:D, A:A, A120))/SUMIFS(D:D, A:A, A120)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4952,7 +4963,7 @@
         <v>1.51</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2583333333333333</v>
       </c>
       <c r="H121" s="2" t="s">
@@ -4963,7 +4974,7 @@
         <v>-1</v>
       </c>
       <c r="J121" s="2" t="str">
-        <f>IF(NOT(A121=A122),(SUMIFS(I:I, A:A, A121)+SUMIFS(D:D, A:A, A121))/SUMIFS(D:D, A:A, A121)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4987,7 +4998,7 @@
         <v>2.75</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="H122" s="2" t="s">
@@ -4998,7 +5009,7 @@
         <v>-1</v>
       </c>
       <c r="J122" s="2" t="str">
-        <f>IF(NOT(A122=A123),(SUMIFS(I:I, A:A, A122)+SUMIFS(D:D, A:A, A122))/SUMIFS(D:D, A:A, A122)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5022,7 +5033,7 @@
         <v>1.69</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24264705882352922</v>
       </c>
       <c r="H123" s="2" t="s">
@@ -5033,7 +5044,7 @@
         <v>-1</v>
       </c>
       <c r="J123" s="2" t="str">
-        <f>IF(NOT(A123=A124),(SUMIFS(I:I, A:A, A123)+SUMIFS(D:D, A:A, A123))/SUMIFS(D:D, A:A, A123)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5057,7 +5068,7 @@
         <v>2.1</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H124" s="2" t="s">
@@ -5068,7 +5079,7 @@
         <v>-1</v>
       </c>
       <c r="J124" s="2" t="str">
-        <f>IF(NOT(A124=A125),(SUMIFS(I:I, A:A, A124)+SUMIFS(D:D, A:A, A124))/SUMIFS(D:D, A:A, A124)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5092,7 +5103,7 @@
         <v>2.65</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32499999999999996</v>
       </c>
       <c r="H125" s="2" t="s">
@@ -5103,7 +5114,7 @@
         <v>1.65</v>
       </c>
       <c r="J125" s="2" t="str">
-        <f>IF(NOT(A125=A126),(SUMIFS(I:I, A:A, A125)+SUMIFS(D:D, A:A, A125))/SUMIFS(D:D, A:A, A125)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5127,7 +5138,7 @@
         <v>1.95</v>
       </c>
       <c r="G126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.19631901840490795</v>
       </c>
       <c r="H126" s="2" t="s">
@@ -5138,7 +5149,7 @@
         <v>0.95</v>
       </c>
       <c r="J126" s="2" t="str">
-        <f>IF(NOT(A126=A127),(SUMIFS(I:I, A:A, A126)+SUMIFS(D:D, A:A, A126))/SUMIFS(D:D, A:A, A126)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5162,7 +5173,7 @@
         <v>1.37</v>
       </c>
       <c r="G127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13223140495867791</v>
       </c>
       <c r="H127" s="2" t="s">
@@ -5173,7 +5184,7 @@
         <v>0.37000000000000011</v>
       </c>
       <c r="J127" s="2" t="str">
-        <f>IF(NOT(A127=A128),(SUMIFS(I:I, A:A, A127)+SUMIFS(D:D, A:A, A127))/SUMIFS(D:D, A:A, A127)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5197,7 +5208,7 @@
         <v>1.59</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32500000000000018</v>
       </c>
       <c r="H128" s="2" t="s">
@@ -5208,7 +5219,7 @@
         <v>0.59000000000000008</v>
       </c>
       <c r="J128" s="2" t="str">
-        <f>IF(NOT(A128=A129),(SUMIFS(I:I, A:A, A128)+SUMIFS(D:D, A:A, A128))/SUMIFS(D:D, A:A, A128)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5232,7 +5243,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22500000000000009</v>
       </c>
       <c r="H129" s="2" t="s">
@@ -5243,7 +5254,7 @@
         <v>-1</v>
       </c>
       <c r="J129" s="2">
-        <f>IF(NOT(A129=A130),(SUMIFS(I:I, A:A, A129)+SUMIFS(D:D, A:A, A129))/SUMIFS(D:D, A:A, A129)-1,"")</f>
+        <f t="shared" si="6"/>
         <v>-0.411904761904762</v>
       </c>
     </row>
@@ -5267,7 +5278,7 @@
         <v>1.51</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1796875</v>
       </c>
       <c r="H130" s="2" t="s">
@@ -5278,7 +5289,7 @@
         <v>0.51</v>
       </c>
       <c r="J130" s="2" t="str">
-        <f>IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
+        <f t="shared" ref="J130:J161" si="7">IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5302,7 +5313,7 @@
         <v>1.8</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.139240506329114</v>
       </c>
       <c r="H131" s="2" t="s">
@@ -5313,7 +5324,7 @@
         <v>-1</v>
       </c>
       <c r="J131" s="2" t="str">
-        <f>IF(NOT(A131=A132),(SUMIFS(I:I, A:A, A131)+SUMIFS(D:D, A:A, A131))/SUMIFS(D:D, A:A, A131)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5337,7 +5348,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.8085106382978724</v>
       </c>
       <c r="H132" s="2" t="s">
@@ -5348,7 +5359,7 @@
         <v>-1</v>
       </c>
       <c r="J132" s="2" t="str">
-        <f>IF(NOT(A132=A133),(SUMIFS(I:I, A:A, A132)+SUMIFS(D:D, A:A, A132))/SUMIFS(D:D, A:A, A132)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5372,7 +5383,7 @@
         <v>2.1</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3125</v>
       </c>
       <c r="H133" s="2" t="s">
@@ -5383,7 +5394,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J133" s="2" t="str">
-        <f>IF(NOT(A133=A134),(SUMIFS(I:I, A:A, A133)+SUMIFS(D:D, A:A, A133))/SUMIFS(D:D, A:A, A133)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5407,7 +5418,7 @@
         <v>1.51</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.37272727272727257</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -5418,7 +5429,7 @@
         <v>0.51</v>
       </c>
       <c r="J134" s="2" t="str">
-        <f>IF(NOT(A134=A135),(SUMIFS(I:I, A:A, A134)+SUMIFS(D:D, A:A, A134))/SUMIFS(D:D, A:A, A134)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5442,7 +5453,7 @@
         <v>1.95</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="H135" s="2" t="s">
@@ -5453,7 +5464,7 @@
         <v>-1</v>
       </c>
       <c r="J135" s="2" t="str">
-        <f>IF(NOT(A135=A136),(SUMIFS(I:I, A:A, A135)+SUMIFS(D:D, A:A, A135))/SUMIFS(D:D, A:A, A135)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5477,7 +5488,7 @@
         <v>2.65</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.365979381443299</v>
       </c>
       <c r="H136" s="2" t="s">
@@ -5488,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="str">
-        <f>IF(NOT(A136=A137),(SUMIFS(I:I, A:A, A136)+SUMIFS(D:D, A:A, A136))/SUMIFS(D:D, A:A, A136)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5512,7 +5523,7 @@
         <v>1.83</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2534246575342467</v>
       </c>
       <c r="H137" s="2" t="s">
@@ -5523,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="str">
-        <f>IF(NOT(A137=A138),(SUMIFS(I:I, A:A, A137)+SUMIFS(D:D, A:A, A137))/SUMIFS(D:D, A:A, A137)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5547,7 +5558,7 @@
         <v>1.31</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11965811965811968</v>
       </c>
       <c r="H138" s="2" t="s">
@@ -5558,7 +5569,7 @@
         <v>-1</v>
       </c>
       <c r="J138" s="2" t="str">
-        <f>IF(NOT(A138=A139),(SUMIFS(I:I, A:A, A138)+SUMIFS(D:D, A:A, A138))/SUMIFS(D:D, A:A, A138)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5582,7 +5593,7 @@
         <v>1.67</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.35772357723577231</v>
       </c>
       <c r="H139" s="2" t="s">
@@ -5593,7 +5604,7 @@
         <v>-1</v>
       </c>
       <c r="J139" s="2" t="str">
-        <f>IF(NOT(A139=A140),(SUMIFS(I:I, A:A, A139)+SUMIFS(D:D, A:A, A139))/SUMIFS(D:D, A:A, A139)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5617,7 +5628,7 @@
         <v>1.71</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24817518248175174</v>
       </c>
       <c r="H140" s="2" t="s">
@@ -5628,7 +5639,7 @@
         <v>0.71</v>
       </c>
       <c r="J140" s="2" t="str">
-        <f>IF(NOT(A140=A141),(SUMIFS(I:I, A:A, A140)+SUMIFS(D:D, A:A, A140))/SUMIFS(D:D, A:A, A140)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5652,7 +5663,7 @@
         <v>1.54</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.14925373134328357</v>
       </c>
       <c r="H141" s="2" t="s">
@@ -5663,7 +5674,7 @@
         <v>0.54</v>
       </c>
       <c r="J141" s="2" t="str">
-        <f>IF(NOT(A141=A142),(SUMIFS(I:I, A:A, A141)+SUMIFS(D:D, A:A, A141))/SUMIFS(D:D, A:A, A141)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5687,7 +5698,7 @@
         <v>3.7</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.56779661016949179</v>
       </c>
       <c r="H142" s="2" t="s">
@@ -5698,7 +5709,7 @@
         <v>2.7</v>
       </c>
       <c r="J142" s="2" t="str">
-        <f>IF(NOT(A142=A143),(SUMIFS(I:I, A:A, A142)+SUMIFS(D:D, A:A, A142))/SUMIFS(D:D, A:A, A142)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5722,7 +5733,7 @@
         <v>1.63</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3813559322033897</v>
       </c>
       <c r="H143" s="2" t="s">
@@ -5733,7 +5744,7 @@
         <v>0.62999999999999989</v>
       </c>
       <c r="J143" s="2" t="str">
-        <f>IF(NOT(A143=A144),(SUMIFS(I:I, A:A, A143)+SUMIFS(D:D, A:A, A143))/SUMIFS(D:D, A:A, A143)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5757,7 +5768,7 @@
         <v>2.34</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.481012658227848</v>
       </c>
       <c r="H144" s="2" t="s">
@@ -5768,7 +5779,7 @@
         <v>-1</v>
       </c>
       <c r="J144" s="2" t="str">
-        <f>IF(NOT(A144=A145),(SUMIFS(I:I, A:A, A144)+SUMIFS(D:D, A:A, A144))/SUMIFS(D:D, A:A, A144)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5792,7 +5803,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.37583892617449655</v>
       </c>
       <c r="H145" s="2" t="s">
@@ -5803,7 +5814,7 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="J145" s="2" t="str">
-        <f>IF(NOT(A145=A146),(SUMIFS(I:I, A:A, A145)+SUMIFS(D:D, A:A, A145))/SUMIFS(D:D, A:A, A145)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5827,7 +5838,7 @@
         <v>1.91</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18633540372670798</v>
       </c>
       <c r="H146" s="2" t="s">
@@ -5838,7 +5849,7 @@
         <v>-1</v>
       </c>
       <c r="J146" s="2" t="str">
-        <f>IF(NOT(A146=A147),(SUMIFS(I:I, A:A, A146)+SUMIFS(D:D, A:A, A146))/SUMIFS(D:D, A:A, A146)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5862,7 +5873,7 @@
         <v>1.83</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15822784810126578</v>
       </c>
       <c r="H147" s="2" t="s">
@@ -5873,7 +5884,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="J147" s="2" t="str">
-        <f>IF(NOT(A147=A148),(SUMIFS(I:I, A:A, A147)+SUMIFS(D:D, A:A, A147))/SUMIFS(D:D, A:A, A147)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5897,7 +5908,7 @@
         <v>3.2</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15523465703971118</v>
       </c>
       <c r="H148" s="2" t="s">
@@ -5908,7 +5919,7 @@
         <v>-1</v>
       </c>
       <c r="J148" s="2" t="str">
-        <f>IF(NOT(A148=A149),(SUMIFS(I:I, A:A, A148)+SUMIFS(D:D, A:A, A148))/SUMIFS(D:D, A:A, A148)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5932,7 +5943,7 @@
         <v>1.74</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13725490196078427</v>
       </c>
       <c r="H149" s="2" t="s">
@@ -5943,7 +5954,7 @@
         <v>0.74</v>
       </c>
       <c r="J149" s="2" t="str">
-        <f>IF(NOT(A149=A150),(SUMIFS(I:I, A:A, A149)+SUMIFS(D:D, A:A, A149))/SUMIFS(D:D, A:A, A149)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5967,7 +5978,7 @@
         <v>2.1</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="H150" s="2" t="s">
@@ -5978,7 +5989,7 @@
         <v>-1</v>
       </c>
       <c r="J150" s="2" t="str">
-        <f>IF(NOT(A150=A151),(SUMIFS(I:I, A:A, A150)+SUMIFS(D:D, A:A, A150))/SUMIFS(D:D, A:A, A150)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6002,7 +6013,7 @@
         <v>2.7</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" ref="G151:G158" si="3">F151/E151-1</f>
+        <f t="shared" ref="G151:G164" si="8">F151/E151-1</f>
         <v>0.73076923076923084</v>
       </c>
       <c r="H151" s="2" t="s">
@@ -6013,7 +6024,7 @@
         <v>-1</v>
       </c>
       <c r="J151" s="2" t="str">
-        <f>IF(NOT(A151=A152),(SUMIFS(I:I, A:A, A151)+SUMIFS(D:D, A:A, A151))/SUMIFS(D:D, A:A, A151)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6037,7 +6048,7 @@
         <v>3.9</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.91176470588235281</v>
       </c>
       <c r="H152" s="2" t="s">
@@ -6048,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="str">
-        <f>IF(NOT(A152=A153),(SUMIFS(I:I, A:A, A152)+SUMIFS(D:D, A:A, A152))/SUMIFS(D:D, A:A, A152)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6072,7 +6083,7 @@
         <v>1.61</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.13380281690140849</v>
       </c>
       <c r="H153" s="2" t="s">
@@ -6083,7 +6094,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J153" s="2">
-        <f>IF(NOT(A153=A154),(SUMIFS(I:I, A:A, A153)+SUMIFS(D:D, A:A, A153))/SUMIFS(D:D, A:A, A153)-1,"")</f>
+        <f t="shared" si="7"/>
         <v>-2.9166666666666785E-3</v>
       </c>
     </row>
@@ -6107,7 +6118,7 @@
         <v>1.83</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.27083333333333348</v>
       </c>
       <c r="H154" s="2" t="s">
@@ -6118,7 +6129,7 @@
         <v>-2</v>
       </c>
       <c r="J154" s="2" t="str">
-        <f>IF(NOT(A154=A155),(SUMIFS(I:I, A:A, A154)+SUMIFS(D:D, A:A, A154))/SUMIFS(D:D, A:A, A154)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6142,7 +6153,7 @@
         <v>1.61</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.34166666666666679</v>
       </c>
       <c r="H155" s="2" t="s">
@@ -6153,7 +6164,7 @@
         <v>1.2200000000000002</v>
       </c>
       <c r="J155" s="2" t="str">
-        <f>IF(NOT(A155=A156),(SUMIFS(I:I, A:A, A155)+SUMIFS(D:D, A:A, A155))/SUMIFS(D:D, A:A, A155)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6177,7 +6188,7 @@
         <v>2.25</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.51006711409395966</v>
       </c>
       <c r="H156" s="2" t="s">
@@ -6188,7 +6199,7 @@
         <v>2.5</v>
       </c>
       <c r="J156" s="2" t="str">
-        <f>IF(NOT(A156=A157),(SUMIFS(I:I, A:A, A156)+SUMIFS(D:D, A:A, A156))/SUMIFS(D:D, A:A, A156)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6212,7 +6223,7 @@
         <v>3.7</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.6444444444444446</v>
       </c>
       <c r="H157" s="2" t="s">
@@ -6223,7 +6234,7 @@
         <v>5.4</v>
       </c>
       <c r="J157" s="2" t="str">
-        <f>IF(NOT(A157=A158),(SUMIFS(I:I, A:A, A157)+SUMIFS(D:D, A:A, A157))/SUMIFS(D:D, A:A, A157)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6247,7 +6258,7 @@
         <v>1.43</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.15322580645161277</v>
       </c>
       <c r="H158" s="2" t="s">
@@ -6258,45 +6269,229 @@
         <v>-2</v>
       </c>
       <c r="J158" s="2">
-        <f>IF(NOT(A158=A159),(SUMIFS(I:I, A:A, A158)+SUMIFS(D:D, A:A, A158))/SUMIFS(D:D, A:A, A158)-1,"")</f>
+        <f t="shared" si="7"/>
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="164" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B159" t="s">
+        <v>91</v>
+      </c>
+      <c r="C159" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>1.63</v>
+      </c>
+      <c r="F159">
+        <v>1.87</v>
+      </c>
+      <c r="G159" s="2">
+        <f t="shared" si="8"/>
+        <v>0.14723926380368102</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I159" cm="1">
+        <f t="array" ref="I159">_xlfn.IFS(H159="Yes",F159*D159-D159,H159="no",-D159,H159="push",0)</f>
+        <v>-2</v>
+      </c>
+      <c r="J159" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B160" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>1.05</v>
+      </c>
+      <c r="F160">
+        <v>1.26</v>
+      </c>
+      <c r="G160" s="2">
+        <f t="shared" si="8"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" cm="1">
+        <f t="array" ref="I160">_xlfn.IFS(H160="Yes",F160*D160-D160,H160="no",-D160,H160="push",0)</f>
+        <v>0.52</v>
+      </c>
+      <c r="J160" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B161" t="s">
+        <v>93</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>1.21</v>
+      </c>
+      <c r="F161">
+        <v>1.38</v>
+      </c>
+      <c r="G161" s="2">
+        <f t="shared" si="8"/>
+        <v>0.14049586776859502</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I161" cm="1">
+        <f t="array" ref="I161">_xlfn.IFS(H161="Yes",F161*D161-D161,H161="no",-D161,H161="push",0)</f>
+        <v>-2</v>
+      </c>
+      <c r="J161" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B162" t="s">
+        <v>104</v>
+      </c>
+      <c r="C162" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F162">
+        <v>1.57</v>
+      </c>
+      <c r="G162" s="2">
+        <f t="shared" si="8"/>
+        <v>0.38938053097345149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B163" t="s">
+        <v>105</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1.39</v>
+      </c>
+      <c r="F163">
+        <v>1.65</v>
+      </c>
+      <c r="G163" s="2">
+        <f t="shared" si="8"/>
+        <v>0.18705035971223016</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B164" t="s">
+        <v>106</v>
+      </c>
+      <c r="C164" t="s">
+        <v>27</v>
+      </c>
       <c r="D164">
-        <f>SUM(D2:D163)</f>
-        <v>169</v>
-      </c>
-      <c r="I164">
-        <f>SUM(I2:I163)+D164</f>
-        <v>166.46</v>
-      </c>
-    </row>
-    <row r="165" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="I165" s="3">
-        <f>I164/D164-1</f>
-        <v>-1.5029585798816525E-2</v>
-      </c>
-      <c r="J165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1.17</v>
+      </c>
+      <c r="F164">
+        <v>1.45</v>
+      </c>
+      <c r="G164" s="2">
+        <f t="shared" si="8"/>
+        <v>0.23931623931623935</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <f>SUM(D2:D173)</f>
+        <v>178</v>
+      </c>
+      <c r="I174">
+        <f>SUM(I2:I173)+D174</f>
+        <v>171.98</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I175" s="3">
+        <f>I174/D174-1</f>
+        <v>-3.3820224719101177E-2</v>
+      </c>
+      <c r="J175" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I154" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="10+ pts"/>
-        <filter val="15+ pts"/>
-        <filter val="2+ 3s"/>
-        <filter val="2+ 3's"/>
-        <filter val="2+ asts"/>
-        <filter val="20+ pts"/>
-        <filter val="25+ pts"/>
-        <filter val="4+ rebs"/>
-        <filter val="6+ rebs"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I159" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98C4494-0936-4AAF-AFA7-476A7C0CFA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF72C6A-B68B-4B4B-9BD1-CA012852C196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -382,6 +382,15 @@
   </si>
   <si>
     <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
   </si>
 </sst>
 </file>
@@ -728,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +818,7 @@
         <v>0.89999999999999947</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J33" si="0">IF(NOT(A2=A3),(SUMIFS(I:I, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
+        <f>IF(NOT(A2=A3),(SUMIFS(I:I, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -844,7 +853,7 @@
         <v>-1</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A3=A4),(SUMIFS(I:I, A:A, A3)+SUMIFS(D:D, A:A, A3))/SUMIFS(D:D, A:A, A3)-1,"")</f>
         <v>-1.6666666666666718E-2</v>
       </c>
     </row>
@@ -868,18 +877,18 @@
         <v>3.6</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G76" si="1">F4/E4-1</f>
+        <f t="shared" ref="G4:G76" si="0">F4/E4-1</f>
         <v>0.32841328413284132</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="2">IF(H4="Yes",F4*D4-D4,-D4)</f>
+        <f t="shared" ref="I4:I67" si="1">IF(H4="Yes",F4*D4-D4,-D4)</f>
         <v>-1</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A4=A5),(SUMIFS(I:I, A:A, A4)+SUMIFS(D:D, A:A, A4))/SUMIFS(D:D, A:A, A4)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -903,18 +912,18 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8039215686274606E-2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>9.8039215686274606E-2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A5=A6),(SUMIFS(I:I, A:A, A5)+SUMIFS(D:D, A:A, A5))/SUMIFS(D:D, A:A, A5)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -938,18 +947,18 @@
         <v>1.24</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20388349514563098</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>0.20388349514563098</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A6=A7),(SUMIFS(I:I, A:A, A6)+SUMIFS(D:D, A:A, A6))/SUMIFS(D:D, A:A, A6)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -973,18 +982,18 @@
         <v>1.83</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46399999999999997</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>0.46399999999999997</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A7=A8),(SUMIFS(I:I, A:A, A7)+SUMIFS(D:D, A:A, A7))/SUMIFS(D:D, A:A, A7)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1008,18 +1017,18 @@
         <v>2.35</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>0.46875</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A8=A9),(SUMIFS(I:I, A:A, A8)+SUMIFS(D:D, A:A, A8))/SUMIFS(D:D, A:A, A8)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1043,18 +1052,18 @@
         <v>1.23</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>0.13888888888888884</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A9=A10),(SUMIFS(I:I, A:A, A9)+SUMIFS(D:D, A:A, A9))/SUMIFS(D:D, A:A, A9)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1078,18 +1087,18 @@
         <v>1.4</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22807017543859653</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
-        <v>0.22807017543859653</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A10=A11),(SUMIFS(I:I, A:A, A10)+SUMIFS(D:D, A:A, A10))/SUMIFS(D:D, A:A, A10)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1113,18 +1122,18 @@
         <v>1.74</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17567567567567566</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>0.17567567567567566</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A11=A12),(SUMIFS(I:I, A:A, A11)+SUMIFS(D:D, A:A, A11))/SUMIFS(D:D, A:A, A11)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1148,18 +1157,18 @@
         <v>1.71</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
-        <v>0.1399999999999999</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A12=A13),(SUMIFS(I:I, A:A, A12)+SUMIFS(D:D, A:A, A12))/SUMIFS(D:D, A:A, A12)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1183,18 +1192,18 @@
         <v>1.3</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1711711711711712</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>0.1711711711711712</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A13=A14),(SUMIFS(I:I, A:A, A13)+SUMIFS(D:D, A:A, A13))/SUMIFS(D:D, A:A, A13)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1218,18 +1227,18 @@
         <v>2.1</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47887323943661975</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
-        <v>0.47887323943661975</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A14=A15),(SUMIFS(I:I, A:A, A14)+SUMIFS(D:D, A:A, A14))/SUMIFS(D:D, A:A, A14)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1253,18 +1262,18 @@
         <v>1.51</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12686567164179108</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="1"/>
-        <v>0.12686567164179108</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
         <v>0.51</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A15=A16),(SUMIFS(I:I, A:A, A15)+SUMIFS(D:D, A:A, A15))/SUMIFS(D:D, A:A, A15)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1288,18 +1297,18 @@
         <v>1.32</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26923076923076916</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
-        <v>0.26923076923076916</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A16=A17),(SUMIFS(I:I, A:A, A16)+SUMIFS(D:D, A:A, A16))/SUMIFS(D:D, A:A, A16)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1323,18 +1332,18 @@
         <v>3.3</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28404669260700399</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="1"/>
-        <v>0.28404669260700399</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A17=A18),(SUMIFS(I:I, A:A, A17)+SUMIFS(D:D, A:A, A17))/SUMIFS(D:D, A:A, A17)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1358,18 +1367,18 @@
         <v>1.56</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47169811320754707</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="1"/>
-        <v>0.47169811320754707</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A18=A19),(SUMIFS(I:I, A:A, A18)+SUMIFS(D:D, A:A, A18))/SUMIFS(D:D, A:A, A18)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1393,18 +1402,18 @@
         <v>1.77</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45081967213114749</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="1"/>
-        <v>0.45081967213114749</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
         <v>0.77</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A19=A20),(SUMIFS(I:I, A:A, A19)+SUMIFS(D:D, A:A, A19))/SUMIFS(D:D, A:A, A19)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1428,18 +1437,18 @@
         <v>1.31</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18018018018018012</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="1"/>
-        <v>0.18018018018018012</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A20=A21),(SUMIFS(I:I, A:A, A20)+SUMIFS(D:D, A:A, A20))/SUMIFS(D:D, A:A, A20)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1463,18 +1472,18 @@
         <v>3.3</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59420289855072461</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="1"/>
-        <v>0.59420289855072461</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A21=A22),(SUMIFS(I:I, A:A, A21)+SUMIFS(D:D, A:A, A21))/SUMIFS(D:D, A:A, A21)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1498,18 +1507,18 @@
         <v>1.31</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13913043478260878</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="1"/>
-        <v>0.13913043478260878</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A22=A23),(SUMIFS(I:I, A:A, A22)+SUMIFS(D:D, A:A, A22))/SUMIFS(D:D, A:A, A22)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1533,18 +1542,18 @@
         <v>1.45</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="1"/>
-        <v>0.15999999999999992</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A23=A24),(SUMIFS(I:I, A:A, A23)+SUMIFS(D:D, A:A, A23))/SUMIFS(D:D, A:A, A23)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1568,18 +1577,18 @@
         <v>1.17</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13592233009708732</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="1"/>
-        <v>0.13592233009708732</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A24=A25),(SUMIFS(I:I, A:A, A24)+SUMIFS(D:D, A:A, A24))/SUMIFS(D:D, A:A, A24)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1603,18 +1612,18 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="1"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
         <v>1.2999999999999998</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A25=A26),(SUMIFS(I:I, A:A, A25)+SUMIFS(D:D, A:A, A25))/SUMIFS(D:D, A:A, A25)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1638,18 +1647,18 @@
         <v>1.74</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21678321678321688</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="1"/>
-        <v>0.21678321678321688</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
         <v>0.74</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A26=A27),(SUMIFS(I:I, A:A, A26)+SUMIFS(D:D, A:A, A26))/SUMIFS(D:D, A:A, A26)-1,"")</f>
         <v>0.14041666666666663</v>
       </c>
     </row>
@@ -1673,18 +1682,18 @@
         <v>1.43</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23275862068965525</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="1"/>
-        <v>0.23275862068965525</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A27=A28),(SUMIFS(I:I, A:A, A27)+SUMIFS(D:D, A:A, A27))/SUMIFS(D:D, A:A, A27)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1708,18 +1717,18 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21890547263681603</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="1"/>
-        <v>0.21890547263681603</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A28=A29),(SUMIFS(I:I, A:A, A28)+SUMIFS(D:D, A:A, A28))/SUMIFS(D:D, A:A, A28)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1743,18 +1752,18 @@
         <v>1.71</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23021582733812962</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="1"/>
-        <v>0.23021582733812962</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A29=A30),(SUMIFS(I:I, A:A, A29)+SUMIFS(D:D, A:A, A29))/SUMIFS(D:D, A:A, A29)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1778,18 +1787,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12745098039215685</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="1"/>
-        <v>0.12745098039215685</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A30=A31),(SUMIFS(I:I, A:A, A30)+SUMIFS(D:D, A:A, A30))/SUMIFS(D:D, A:A, A30)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1813,18 +1822,18 @@
         <v>1.77</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27338129496402885</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="1"/>
-        <v>0.27338129496402885</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A31=A32),(SUMIFS(I:I, A:A, A31)+SUMIFS(D:D, A:A, A31))/SUMIFS(D:D, A:A, A31)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1848,18 +1857,18 @@
         <v>1.95</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14705882352941169</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="1"/>
-        <v>0.14705882352941169</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A32=A33),(SUMIFS(I:I, A:A, A32)+SUMIFS(D:D, A:A, A32))/SUMIFS(D:D, A:A, A32)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1883,18 +1892,18 @@
         <v>2</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421062</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="1"/>
-        <v>0.31578947368421062</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A33=A34),(SUMIFS(I:I, A:A, A33)+SUMIFS(D:D, A:A, A33))/SUMIFS(D:D, A:A, A33)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1918,18 +1927,18 @@
         <v>1.77</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22068965517241379</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="1"/>
-        <v>0.22068965517241379</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" ref="J34:J65" si="3">IF(NOT(A34=A35),(SUMIFS(I:I, A:A, A34)+SUMIFS(D:D, A:A, A34))/SUMIFS(D:D, A:A, A34)-1,"")</f>
+        <f>IF(NOT(A34=A35),(SUMIFS(I:I, A:A, A34)+SUMIFS(D:D, A:A, A34))/SUMIFS(D:D, A:A, A34)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1953,18 +1962,18 @@
         <v>1.43</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26548672566371678</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="1"/>
-        <v>0.26548672566371678</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="2"/>
         <v>0.42999999999999994</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A35=A36),(SUMIFS(I:I, A:A, A35)+SUMIFS(D:D, A:A, A35))/SUMIFS(D:D, A:A, A35)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1988,18 +1997,18 @@
         <v>3</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24481327800829877</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="1"/>
-        <v>0.24481327800829877</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A36=A37),(SUMIFS(I:I, A:A, A36)+SUMIFS(D:D, A:A, A36))/SUMIFS(D:D, A:A, A36)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2023,18 +2032,18 @@
         <v>1.61</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2777777777777779</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="1"/>
-        <v>0.2777777777777779</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A37=A38),(SUMIFS(I:I, A:A, A37)+SUMIFS(D:D, A:A, A37))/SUMIFS(D:D, A:A, A37)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2058,18 +2067,18 @@
         <v>1.24</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="1"/>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A38=A39),(SUMIFS(I:I, A:A, A38)+SUMIFS(D:D, A:A, A38))/SUMIFS(D:D, A:A, A38)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2093,18 +2102,18 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333339</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="1"/>
-        <v>0.23333333333333339</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A39=A40),(SUMIFS(I:I, A:A, A39)+SUMIFS(D:D, A:A, A39))/SUMIFS(D:D, A:A, A39)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2128,18 +2137,18 @@
         <v>1.59</v>
       </c>
       <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22307692307692317</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="1"/>
-        <v>0.22307692307692317</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A40=A41),(SUMIFS(I:I, A:A, A40)+SUMIFS(D:D, A:A, A40))/SUMIFS(D:D, A:A, A40)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2163,18 +2172,18 @@
         <v>2.25</v>
       </c>
       <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428581</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="1"/>
-        <v>0.28571428571428581</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A41=A42),(SUMIFS(I:I, A:A, A41)+SUMIFS(D:D, A:A, A41))/SUMIFS(D:D, A:A, A41)-1,"")</f>
         <v>-0.378</v>
       </c>
     </row>
@@ -2198,18 +2207,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22905027932960897</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="1"/>
-        <v>0.22905027932960897</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A42=A43),(SUMIFS(I:I, A:A, A42)+SUMIFS(D:D, A:A, A42))/SUMIFS(D:D, A:A, A42)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2233,18 +2242,18 @@
         <v>4.8</v>
       </c>
       <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7906976744186047</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="1"/>
-        <v>1.7906976744186047</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A43=A44),(SUMIFS(I:I, A:A, A43)+SUMIFS(D:D, A:A, A43))/SUMIFS(D:D, A:A, A43)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2268,18 +2277,18 @@
         <v>1.91</v>
       </c>
       <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19374999999999987</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="1"/>
-        <v>0.19374999999999987</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A44=A45),(SUMIFS(I:I, A:A, A44)+SUMIFS(D:D, A:A, A44))/SUMIFS(D:D, A:A, A44)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2303,18 +2312,18 @@
         <v>1.63</v>
       </c>
       <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.147887323943662</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="1"/>
-        <v>0.147887323943662</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A45=A46),(SUMIFS(I:I, A:A, A45)+SUMIFS(D:D, A:A, A45))/SUMIFS(D:D, A:A, A45)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2338,18 +2347,18 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33986928104575154</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="1"/>
-        <v>0.33986928104575154</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="2"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A46=A47),(SUMIFS(I:I, A:A, A46)+SUMIFS(D:D, A:A, A46))/SUMIFS(D:D, A:A, A46)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2373,18 +2382,18 @@
         <v>2</v>
       </c>
       <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43884892086330951</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="1"/>
-        <v>0.43884892086330951</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A47=A48),(SUMIFS(I:I, A:A, A47)+SUMIFS(D:D, A:A, A47))/SUMIFS(D:D, A:A, A47)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2408,18 +2417,18 @@
         <v>2.25</v>
       </c>
       <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32352941176470584</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="1"/>
-        <v>0.32352941176470584</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A48=A49),(SUMIFS(I:I, A:A, A48)+SUMIFS(D:D, A:A, A48))/SUMIFS(D:D, A:A, A48)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2443,18 +2452,18 @@
         <v>1.57</v>
       </c>
       <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="1"/>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="2"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A49=A50),(SUMIFS(I:I, A:A, A49)+SUMIFS(D:D, A:A, A49))/SUMIFS(D:D, A:A, A49)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2478,18 +2487,18 @@
         <v>1.63</v>
       </c>
       <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42982456140350878</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="1"/>
-        <v>0.42982456140350878</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A50=A51),(SUMIFS(I:I, A:A, A50)+SUMIFS(D:D, A:A, A50))/SUMIFS(D:D, A:A, A50)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2513,18 +2522,18 @@
         <v>1.8</v>
       </c>
       <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31386861313868608</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="1"/>
-        <v>0.31386861313868608</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A51=A52),(SUMIFS(I:I, A:A, A51)+SUMIFS(D:D, A:A, A51))/SUMIFS(D:D, A:A, A51)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2548,18 +2557,18 @@
         <v>1.69</v>
       </c>
       <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36290322580645151</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="1"/>
-        <v>0.36290322580645151</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="2"/>
         <v>0.69</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A52=A53),(SUMIFS(I:I, A:A, A52)+SUMIFS(D:D, A:A, A52))/SUMIFS(D:D, A:A, A52)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2583,18 +2592,18 @@
         <v>1.74</v>
       </c>
       <c r="G53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30827067669172914</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="1"/>
-        <v>0.30827067669172914</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="2"/>
         <v>0.74</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A53=A54),(SUMIFS(I:I, A:A, A53)+SUMIFS(D:D, A:A, A53))/SUMIFS(D:D, A:A, A53)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2618,18 +2627,18 @@
         <v>4.7</v>
       </c>
       <c r="G54" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1860465116279073</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="1"/>
-        <v>1.1860465116279073</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A54=A55),(SUMIFS(I:I, A:A, A54)+SUMIFS(D:D, A:A, A54))/SUMIFS(D:D, A:A, A54)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2653,18 +2662,18 @@
         <v>1.63</v>
       </c>
       <c r="G55" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23484848484848464</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="1"/>
-        <v>0.23484848484848464</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A55=A56),(SUMIFS(I:I, A:A, A55)+SUMIFS(D:D, A:A, A55))/SUMIFS(D:D, A:A, A55)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2688,18 +2697,18 @@
         <v>1.67</v>
       </c>
       <c r="G56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35772357723577231</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="1"/>
-        <v>0.35772357723577231</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A56=A57),(SUMIFS(I:I, A:A, A56)+SUMIFS(D:D, A:A, A56))/SUMIFS(D:D, A:A, A56)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2723,18 +2732,18 @@
         <v>1.48</v>
       </c>
       <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24369747899159666</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="1"/>
-        <v>0.24369747899159666</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A57=A58),(SUMIFS(I:I, A:A, A57)+SUMIFS(D:D, A:A, A57))/SUMIFS(D:D, A:A, A57)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2758,18 +2767,18 @@
         <v>3.3</v>
       </c>
       <c r="G58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81318681318681296</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="1"/>
-        <v>0.81318681318681296</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A58=A59),(SUMIFS(I:I, A:A, A58)+SUMIFS(D:D, A:A, A58))/SUMIFS(D:D, A:A, A58)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2793,18 +2802,18 @@
         <v>1.48</v>
       </c>
       <c r="G59" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20325203252032531</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="1"/>
-        <v>0.20325203252032531</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A59=A60),(SUMIFS(I:I, A:A, A59)+SUMIFS(D:D, A:A, A59))/SUMIFS(D:D, A:A, A59)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2828,18 +2837,18 @@
         <v>1.48</v>
       </c>
       <c r="G60" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17460317460317465</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="1"/>
-        <v>0.17460317460317465</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A60=A61),(SUMIFS(I:I, A:A, A60)+SUMIFS(D:D, A:A, A60))/SUMIFS(D:D, A:A, A60)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2863,18 +2872,18 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G61" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37096774193548376</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="1"/>
-        <v>0.37096774193548376</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A61=A62),(SUMIFS(I:I, A:A, A61)+SUMIFS(D:D, A:A, A61))/SUMIFS(D:D, A:A, A61)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2898,18 +2907,18 @@
         <v>1.5</v>
       </c>
       <c r="G62" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A62=A63),(SUMIFS(I:I, A:A, A62)+SUMIFS(D:D, A:A, A62))/SUMIFS(D:D, A:A, A62)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2933,18 +2942,18 @@
         <v>1.77</v>
       </c>
       <c r="G63" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48739495798319332</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="1"/>
-        <v>0.48739495798319332</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="2"/>
         <v>0.77</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A63=A64),(SUMIFS(I:I, A:A, A63)+SUMIFS(D:D, A:A, A63))/SUMIFS(D:D, A:A, A63)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -2968,18 +2977,18 @@
         <v>1.95</v>
       </c>
       <c r="G64" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32653061224489788</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="1"/>
-        <v>0.32653061224489788</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A64=A65),(SUMIFS(I:I, A:A, A64)+SUMIFS(D:D, A:A, A64))/SUMIFS(D:D, A:A, A64)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3003,18 +3012,18 @@
         <v>1.63</v>
       </c>
       <c r="G65" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18978102189780999</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="1"/>
-        <v>0.18978102189780999</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A65=A66),(SUMIFS(I:I, A:A, A65)+SUMIFS(D:D, A:A, A65))/SUMIFS(D:D, A:A, A65)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3038,18 +3047,18 @@
         <v>1.8</v>
       </c>
       <c r="G66" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="1"/>
-        <v>0.15384615384615374</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" ref="J66:J97" si="4">IF(NOT(A66=A67),(SUMIFS(I:I, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
+        <f>IF(NOT(A66=A67),(SUMIFS(I:I, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3073,18 +3082,18 @@
         <v>1.8</v>
       </c>
       <c r="G67" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A67=A68),(SUMIFS(I:I, A:A, A67)+SUMIFS(D:D, A:A, A67))/SUMIFS(D:D, A:A, A67)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3108,7 +3117,7 @@
         <v>1.45</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16935483870967749</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -3119,7 +3128,7 @@
         <v>-1</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A68=A69),(SUMIFS(I:I, A:A, A68)+SUMIFS(D:D, A:A, A68))/SUMIFS(D:D, A:A, A68)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3143,7 +3152,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.18357487922705329</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -3154,7 +3163,7 @@
         <v>1.4500000000000002</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A69=A70),(SUMIFS(I:I, A:A, A69)+SUMIFS(D:D, A:A, A69))/SUMIFS(D:D, A:A, A69)-1,"")</f>
         <v>0.26178571428571429</v>
       </c>
     </row>
@@ -3178,7 +3187,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.57692307692307665</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -3189,7 +3198,7 @@
         <v>-1</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A70=A71),(SUMIFS(I:I, A:A, A70)+SUMIFS(D:D, A:A, A70))/SUMIFS(D:D, A:A, A70)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3213,7 +3222,7 @@
         <v>1.69</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -3224,7 +3233,7 @@
         <v>0.69</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A71=A72),(SUMIFS(I:I, A:A, A71)+SUMIFS(D:D, A:A, A71))/SUMIFS(D:D, A:A, A71)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3248,7 +3257,7 @@
         <v>1.29</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13157894736842124</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -3259,7 +3268,7 @@
         <v>0.29000000000000004</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A72=A73),(SUMIFS(I:I, A:A, A72)+SUMIFS(D:D, A:A, A72))/SUMIFS(D:D, A:A, A72)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3283,7 +3292,7 @@
         <v>2.15</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.34374999999999978</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -3294,7 +3303,7 @@
         <v>-1</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A73=A74),(SUMIFS(I:I, A:A, A73)+SUMIFS(D:D, A:A, A73))/SUMIFS(D:D, A:A, A73)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3318,7 +3327,7 @@
         <v>1.42</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.18333333333333335</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -3329,7 +3338,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A74=A75),(SUMIFS(I:I, A:A, A74)+SUMIFS(D:D, A:A, A74))/SUMIFS(D:D, A:A, A74)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3353,7 +3362,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.27499999999999991</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -3364,7 +3373,7 @@
         <v>-1</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A75=A76),(SUMIFS(I:I, A:A, A75)+SUMIFS(D:D, A:A, A75))/SUMIFS(D:D, A:A, A75)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3388,7 +3397,7 @@
         <v>1.45</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -3399,7 +3408,7 @@
         <v>-1</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A76=A77),(SUMIFS(I:I, A:A, A76)+SUMIFS(D:D, A:A, A76))/SUMIFS(D:D, A:A, A76)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3423,7 +3432,7 @@
         <v>1.42</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" ref="G77:G150" si="5">F77/E77-1</f>
+        <f t="shared" ref="G77:G150" si="2">F77/E77-1</f>
         <v>0.21367521367521358</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -3434,7 +3443,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A77=A78),(SUMIFS(I:I, A:A, A77)+SUMIFS(D:D, A:A, A77))/SUMIFS(D:D, A:A, A77)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3458,7 +3467,7 @@
         <v>1.59</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.2421875</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -3469,7 +3478,7 @@
         <v>0.59000000000000008</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A78=A79),(SUMIFS(I:I, A:A, A78)+SUMIFS(D:D, A:A, A78))/SUMIFS(D:D, A:A, A78)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3493,7 +3502,7 @@
         <v>1.71</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -3504,7 +3513,7 @@
         <v>-1</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A79=A80),(SUMIFS(I:I, A:A, A79)+SUMIFS(D:D, A:A, A79))/SUMIFS(D:D, A:A, A79)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3528,7 +3537,7 @@
         <v>2.6</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.3265306122448981</v>
       </c>
       <c r="H80" s="2" t="s">
@@ -3539,7 +3548,7 @@
         <v>-1</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A80=A81),(SUMIFS(I:I, A:A, A80)+SUMIFS(D:D, A:A, A80))/SUMIFS(D:D, A:A, A80)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3563,7 +3572,7 @@
         <v>1.65</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.26923076923076916</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -3574,7 +3583,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A81=A82),(SUMIFS(I:I, A:A, A81)+SUMIFS(D:D, A:A, A81))/SUMIFS(D:D, A:A, A81)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3598,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.25786163522012573</v>
       </c>
       <c r="H82" s="2" t="s">
@@ -3609,7 +3618,7 @@
         <v>-1</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A82=A83),(SUMIFS(I:I, A:A, A82)+SUMIFS(D:D, A:A, A82))/SUMIFS(D:D, A:A, A82)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3633,7 +3642,7 @@
         <v>2.15</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.35220125786163514</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -3644,7 +3653,7 @@
         <v>-1</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A83=A84),(SUMIFS(I:I, A:A, A83)+SUMIFS(D:D, A:A, A83))/SUMIFS(D:D, A:A, A83)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3668,7 +3677,7 @@
         <v>1.34</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.21818181818181825</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -3679,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A84=A85),(SUMIFS(I:I, A:A, A84)+SUMIFS(D:D, A:A, A84))/SUMIFS(D:D, A:A, A84)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3703,7 +3712,7 @@
         <v>1.5</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -3714,7 +3723,7 @@
         <v>-1</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A85=A86),(SUMIFS(I:I, A:A, A85)+SUMIFS(D:D, A:A, A85))/SUMIFS(D:D, A:A, A85)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3738,7 +3747,7 @@
         <v>2.1</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.18644067796610164</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -3749,7 +3758,7 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A86=A87),(SUMIFS(I:I, A:A, A86)+SUMIFS(D:D, A:A, A86))/SUMIFS(D:D, A:A, A86)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3773,7 +3782,7 @@
         <v>1.69</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.14189189189189189</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -3784,7 +3793,7 @@
         <v>-1</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A87=A88),(SUMIFS(I:I, A:A, A87)+SUMIFS(D:D, A:A, A87))/SUMIFS(D:D, A:A, A87)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3808,7 +3817,7 @@
         <v>2.1</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.44827586206896552</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -3819,7 +3828,7 @@
         <v>-1</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A88=A89),(SUMIFS(I:I, A:A, A88)+SUMIFS(D:D, A:A, A88))/SUMIFS(D:D, A:A, A88)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3843,7 +3852,7 @@
         <v>2.75</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.80921052631578938</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -3854,7 +3863,7 @@
         <v>-1</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A89=A90),(SUMIFS(I:I, A:A, A89)+SUMIFS(D:D, A:A, A89))/SUMIFS(D:D, A:A, A89)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3878,7 +3887,7 @@
         <v>2.9</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.85897435897435881</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -3889,7 +3898,7 @@
         <v>-1</v>
       </c>
       <c r="J90" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A90=A91),(SUMIFS(I:I, A:A, A90)+SUMIFS(D:D, A:A, A90))/SUMIFS(D:D, A:A, A90)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3913,7 +3922,7 @@
         <v>1.67</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.15172413793103456</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -3924,7 +3933,7 @@
         <v>0.66999999999999993</v>
       </c>
       <c r="J91" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A91=A92),(SUMIFS(I:I, A:A, A91)+SUMIFS(D:D, A:A, A91))/SUMIFS(D:D, A:A, A91)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3948,7 +3957,7 @@
         <v>1.25</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.15740740740740744</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -3959,7 +3968,7 @@
         <v>0.25</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A92=A93),(SUMIFS(I:I, A:A, A92)+SUMIFS(D:D, A:A, A92))/SUMIFS(D:D, A:A, A92)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3983,7 +3992,7 @@
         <v>4.5</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.36363636363636376</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -3994,7 +4003,7 @@
         <v>-1</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A93=A94),(SUMIFS(I:I, A:A, A93)+SUMIFS(D:D, A:A, A93))/SUMIFS(D:D, A:A, A93)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4027,7 @@
         <v>1.42</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.14516129032258052</v>
       </c>
       <c r="H94" s="2" t="s">
@@ -4029,7 +4038,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J94" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A94=A95),(SUMIFS(I:I, A:A, A94)+SUMIFS(D:D, A:A, A94))/SUMIFS(D:D, A:A, A94)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4053,7 +4062,7 @@
         <v>1.61</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.18382352941176472</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -4064,7 +4073,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J95" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A95=A96),(SUMIFS(I:I, A:A, A95)+SUMIFS(D:D, A:A, A95))/SUMIFS(D:D, A:A, A95)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4088,7 +4097,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.32947976878612706</v>
       </c>
       <c r="H96" s="2" t="s">
@@ -4099,7 +4108,7 @@
         <v>-1</v>
       </c>
       <c r="J96" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A96=A97),(SUMIFS(I:I, A:A, A96)+SUMIFS(D:D, A:A, A96))/SUMIFS(D:D, A:A, A96)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4123,7 +4132,7 @@
         <v>3.8</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.24183006535947715</v>
       </c>
       <c r="H97" s="2" t="s">
@@ -4134,7 +4143,7 @@
         <v>2.8</v>
       </c>
       <c r="J97" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(A97=A98),(SUMIFS(I:I, A:A, A97)+SUMIFS(D:D, A:A, A97))/SUMIFS(D:D, A:A, A97)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4158,7 +4167,7 @@
         <v>6.5</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.80055401662049874</v>
       </c>
       <c r="H98" s="2" t="s">
@@ -4169,7 +4178,7 @@
         <v>-1</v>
       </c>
       <c r="J98" s="2" t="str">
-        <f t="shared" ref="J98:J129" si="6">IF(NOT(A98=A99),(SUMIFS(I:I, A:A, A98)+SUMIFS(D:D, A:A, A98))/SUMIFS(D:D, A:A, A98)-1,"")</f>
+        <f>IF(NOT(A98=A99),(SUMIFS(I:I, A:A, A98)+SUMIFS(D:D, A:A, A98))/SUMIFS(D:D, A:A, A98)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4193,7 +4202,7 @@
         <v>1.61</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.29838709677419373</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -4204,7 +4213,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A99=A100),(SUMIFS(I:I, A:A, A99)+SUMIFS(D:D, A:A, A99))/SUMIFS(D:D, A:A, A99)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4228,7 +4237,7 @@
         <v>1.67</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.24626865671641784</v>
       </c>
       <c r="H100" s="2" t="s">
@@ -4239,7 +4248,7 @@
         <v>-1</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A100=A101),(SUMIFS(I:I, A:A, A100)+SUMIFS(D:D, A:A, A100))/SUMIFS(D:D, A:A, A100)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4263,7 +4272,7 @@
         <v>2.25</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.46103896103896091</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -4274,7 +4283,7 @@
         <v>1.25</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A101=A102),(SUMIFS(I:I, A:A, A101)+SUMIFS(D:D, A:A, A101))/SUMIFS(D:D, A:A, A101)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4298,7 +4307,7 @@
         <v>1.83</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.31654676258992831</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -4309,7 +4318,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="J102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A102=A103),(SUMIFS(I:I, A:A, A102)+SUMIFS(D:D, A:A, A102))/SUMIFS(D:D, A:A, A102)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4333,7 +4342,7 @@
         <v>1.54</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.2520325203252034</v>
       </c>
       <c r="H103" s="2" t="s">
@@ -4344,7 +4353,7 @@
         <v>-1</v>
       </c>
       <c r="J103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A103=A104),(SUMIFS(I:I, A:A, A103)+SUMIFS(D:D, A:A, A103))/SUMIFS(D:D, A:A, A103)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4368,7 +4377,7 @@
         <v>1.57</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.29752066115702491</v>
       </c>
       <c r="H104" s="2" t="s">
@@ -4379,7 +4388,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="J104" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A104=A105),(SUMIFS(I:I, A:A, A104)+SUMIFS(D:D, A:A, A104))/SUMIFS(D:D, A:A, A104)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4403,7 +4412,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.37583892617449655</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -4414,7 +4423,7 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="J105" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A105=A106),(SUMIFS(I:I, A:A, A105)+SUMIFS(D:D, A:A, A105))/SUMIFS(D:D, A:A, A105)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4438,7 +4447,7 @@
         <v>1.51</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.15267175572519087</v>
       </c>
       <c r="H106" s="2" t="s">
@@ -4449,7 +4458,7 @@
         <v>-1</v>
       </c>
       <c r="J106" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A106=A107),(SUMIFS(I:I, A:A, A106)+SUMIFS(D:D, A:A, A106))/SUMIFS(D:D, A:A, A106)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4473,7 +4482,7 @@
         <v>1.71</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.16326530612244894</v>
       </c>
       <c r="H107" s="2" t="s">
@@ -4484,7 +4493,7 @@
         <v>0.71</v>
       </c>
       <c r="J107" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A107=A108),(SUMIFS(I:I, A:A, A107)+SUMIFS(D:D, A:A, A107))/SUMIFS(D:D, A:A, A107)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4508,7 +4517,7 @@
         <v>3.3</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.49999999999999978</v>
       </c>
       <c r="H108" s="2" t="s">
@@ -4519,7 +4528,7 @@
         <v>-1</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A108=A109),(SUMIFS(I:I, A:A, A108)+SUMIFS(D:D, A:A, A108))/SUMIFS(D:D, A:A, A108)-1,"")</f>
         <v>-9.4390243902438997E-2</v>
       </c>
     </row>
@@ -4543,7 +4552,7 @@
         <v>2.1</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.3125</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -4554,7 +4563,7 @@
         <v>-1</v>
       </c>
       <c r="J109" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A109=A110),(SUMIFS(I:I, A:A, A109)+SUMIFS(D:D, A:A, A109))/SUMIFS(D:D, A:A, A109)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4578,7 +4587,7 @@
         <v>1.63</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.25384615384615361</v>
       </c>
       <c r="H110" s="2" t="s">
@@ -4589,7 +4598,7 @@
         <v>-1</v>
       </c>
       <c r="J110" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A110=A111),(SUMIFS(I:I, A:A, A110)+SUMIFS(D:D, A:A, A110))/SUMIFS(D:D, A:A, A110)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4613,7 +4622,7 @@
         <v>1.77</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.36153846153846159</v>
       </c>
       <c r="H111" s="2" t="s">
@@ -4624,7 +4633,7 @@
         <v>-1</v>
       </c>
       <c r="J111" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A111=A112),(SUMIFS(I:I, A:A, A111)+SUMIFS(D:D, A:A, A111))/SUMIFS(D:D, A:A, A111)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4648,7 +4657,7 @@
         <v>1.86</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.32857142857142874</v>
       </c>
       <c r="H112" s="2" t="s">
@@ -4659,7 +4668,7 @@
         <v>-1</v>
       </c>
       <c r="J112" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A112=A113),(SUMIFS(I:I, A:A, A112)+SUMIFS(D:D, A:A, A112))/SUMIFS(D:D, A:A, A112)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4683,7 +4692,7 @@
         <v>1.71</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.22142857142857153</v>
       </c>
       <c r="H113" s="2" t="s">
@@ -4694,7 +4703,7 @@
         <v>0.71</v>
       </c>
       <c r="J113" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A113=A114),(SUMIFS(I:I, A:A, A113)+SUMIFS(D:D, A:A, A113))/SUMIFS(D:D, A:A, A113)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4718,7 +4727,7 @@
         <v>2.8</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H114" s="2" t="s">
@@ -4729,7 +4738,7 @@
         <v>-1</v>
       </c>
       <c r="J114" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A114=A115),(SUMIFS(I:I, A:A, A114)+SUMIFS(D:D, A:A, A114))/SUMIFS(D:D, A:A, A114)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4753,7 +4762,7 @@
         <v>2.75</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="H115" s="2" t="s">
@@ -4764,7 +4773,7 @@
         <v>-1</v>
       </c>
       <c r="J115" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A115=A116),(SUMIFS(I:I, A:A, A115)+SUMIFS(D:D, A:A, A115))/SUMIFS(D:D, A:A, A115)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4788,7 +4797,7 @@
         <v>1.57</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.20769230769230762</v>
       </c>
       <c r="H116" s="2" t="s">
@@ -4799,7 +4808,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="J116" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A116=A117),(SUMIFS(I:I, A:A, A116)+SUMIFS(D:D, A:A, A116))/SUMIFS(D:D, A:A, A116)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4823,7 +4832,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.28124999999999978</v>
       </c>
       <c r="H117" s="2" t="s">
@@ -4834,7 +4843,7 @@
         <v>-1</v>
       </c>
       <c r="J117" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A117=A118),(SUMIFS(I:I, A:A, A117)+SUMIFS(D:D, A:A, A117))/SUMIFS(D:D, A:A, A117)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4858,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H118" s="2" t="s">
@@ -4869,7 +4878,7 @@
         <v>-1</v>
       </c>
       <c r="J118" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A118=A119),(SUMIFS(I:I, A:A, A118)+SUMIFS(D:D, A:A, A118))/SUMIFS(D:D, A:A, A118)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4893,7 +4902,7 @@
         <v>1.87</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.33571428571428585</v>
       </c>
       <c r="H119" s="2" t="s">
@@ -4904,7 +4913,7 @@
         <v>-1</v>
       </c>
       <c r="J119" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A119=A120),(SUMIFS(I:I, A:A, A119)+SUMIFS(D:D, A:A, A119))/SUMIFS(D:D, A:A, A119)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4928,7 +4937,7 @@
         <v>1.8</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.38461538461538458</v>
       </c>
       <c r="H120" s="2" t="s">
@@ -4939,7 +4948,7 @@
         <v>0.51</v>
       </c>
       <c r="J120" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A120=A121),(SUMIFS(I:I, A:A, A120)+SUMIFS(D:D, A:A, A120))/SUMIFS(D:D, A:A, A120)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4963,7 +4972,7 @@
         <v>1.51</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.2583333333333333</v>
       </c>
       <c r="H121" s="2" t="s">
@@ -4974,7 +4983,7 @@
         <v>-1</v>
       </c>
       <c r="J121" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A121=A122),(SUMIFS(I:I, A:A, A121)+SUMIFS(D:D, A:A, A121))/SUMIFS(D:D, A:A, A121)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4998,7 +5007,7 @@
         <v>2.75</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="H122" s="2" t="s">
@@ -5009,7 +5018,7 @@
         <v>-1</v>
       </c>
       <c r="J122" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A122=A123),(SUMIFS(I:I, A:A, A122)+SUMIFS(D:D, A:A, A122))/SUMIFS(D:D, A:A, A122)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5033,7 +5042,7 @@
         <v>1.69</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.24264705882352922</v>
       </c>
       <c r="H123" s="2" t="s">
@@ -5044,7 +5053,7 @@
         <v>-1</v>
       </c>
       <c r="J123" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A123=A124),(SUMIFS(I:I, A:A, A123)+SUMIFS(D:D, A:A, A123))/SUMIFS(D:D, A:A, A123)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5068,7 +5077,7 @@
         <v>2.1</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H124" s="2" t="s">
@@ -5079,7 +5088,7 @@
         <v>-1</v>
       </c>
       <c r="J124" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A124=A125),(SUMIFS(I:I, A:A, A124)+SUMIFS(D:D, A:A, A124))/SUMIFS(D:D, A:A, A124)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5103,7 +5112,7 @@
         <v>2.65</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.32499999999999996</v>
       </c>
       <c r="H125" s="2" t="s">
@@ -5114,7 +5123,7 @@
         <v>1.65</v>
       </c>
       <c r="J125" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A125=A126),(SUMIFS(I:I, A:A, A125)+SUMIFS(D:D, A:A, A125))/SUMIFS(D:D, A:A, A125)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5138,7 +5147,7 @@
         <v>1.95</v>
       </c>
       <c r="G126" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.19631901840490795</v>
       </c>
       <c r="H126" s="2" t="s">
@@ -5149,7 +5158,7 @@
         <v>0.95</v>
       </c>
       <c r="J126" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A126=A127),(SUMIFS(I:I, A:A, A126)+SUMIFS(D:D, A:A, A126))/SUMIFS(D:D, A:A, A126)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5173,7 +5182,7 @@
         <v>1.37</v>
       </c>
       <c r="G127" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.13223140495867791</v>
       </c>
       <c r="H127" s="2" t="s">
@@ -5184,7 +5193,7 @@
         <v>0.37000000000000011</v>
       </c>
       <c r="J127" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A127=A128),(SUMIFS(I:I, A:A, A127)+SUMIFS(D:D, A:A, A127))/SUMIFS(D:D, A:A, A127)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5208,7 +5217,7 @@
         <v>1.59</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.32500000000000018</v>
       </c>
       <c r="H128" s="2" t="s">
@@ -5219,7 +5228,7 @@
         <v>0.59000000000000008</v>
       </c>
       <c r="J128" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A128=A129),(SUMIFS(I:I, A:A, A128)+SUMIFS(D:D, A:A, A128))/SUMIFS(D:D, A:A, A128)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5243,7 +5252,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.22500000000000009</v>
       </c>
       <c r="H129" s="2" t="s">
@@ -5254,7 +5263,7 @@
         <v>-1</v>
       </c>
       <c r="J129" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(NOT(A129=A130),(SUMIFS(I:I, A:A, A129)+SUMIFS(D:D, A:A, A129))/SUMIFS(D:D, A:A, A129)-1,"")</f>
         <v>-0.411904761904762</v>
       </c>
     </row>
@@ -5278,7 +5287,7 @@
         <v>1.51</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.1796875</v>
       </c>
       <c r="H130" s="2" t="s">
@@ -5289,7 +5298,7 @@
         <v>0.51</v>
       </c>
       <c r="J130" s="2" t="str">
-        <f t="shared" ref="J130:J161" si="7">IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
+        <f>IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5313,7 +5322,7 @@
         <v>1.8</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.139240506329114</v>
       </c>
       <c r="H131" s="2" t="s">
@@ -5324,7 +5333,7 @@
         <v>-1</v>
       </c>
       <c r="J131" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A131=A132),(SUMIFS(I:I, A:A, A131)+SUMIFS(D:D, A:A, A131))/SUMIFS(D:D, A:A, A131)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5348,7 +5357,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.8085106382978724</v>
       </c>
       <c r="H132" s="2" t="s">
@@ -5359,7 +5368,7 @@
         <v>-1</v>
       </c>
       <c r="J132" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A132=A133),(SUMIFS(I:I, A:A, A132)+SUMIFS(D:D, A:A, A132))/SUMIFS(D:D, A:A, A132)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5383,7 +5392,7 @@
         <v>2.1</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.3125</v>
       </c>
       <c r="H133" s="2" t="s">
@@ -5394,7 +5403,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J133" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A133=A134),(SUMIFS(I:I, A:A, A133)+SUMIFS(D:D, A:A, A133))/SUMIFS(D:D, A:A, A133)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5418,7 +5427,7 @@
         <v>1.51</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.37272727272727257</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -5429,7 +5438,7 @@
         <v>0.51</v>
       </c>
       <c r="J134" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A134=A135),(SUMIFS(I:I, A:A, A134)+SUMIFS(D:D, A:A, A134))/SUMIFS(D:D, A:A, A134)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5453,7 +5462,7 @@
         <v>1.95</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="H135" s="2" t="s">
@@ -5464,7 +5473,7 @@
         <v>-1</v>
       </c>
       <c r="J135" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A135=A136),(SUMIFS(I:I, A:A, A135)+SUMIFS(D:D, A:A, A135))/SUMIFS(D:D, A:A, A135)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5488,7 +5497,7 @@
         <v>2.65</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.365979381443299</v>
       </c>
       <c r="H136" s="2" t="s">
@@ -5499,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A136=A137),(SUMIFS(I:I, A:A, A136)+SUMIFS(D:D, A:A, A136))/SUMIFS(D:D, A:A, A136)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5523,7 +5532,7 @@
         <v>1.83</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.2534246575342467</v>
       </c>
       <c r="H137" s="2" t="s">
@@ -5534,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A137=A138),(SUMIFS(I:I, A:A, A137)+SUMIFS(D:D, A:A, A137))/SUMIFS(D:D, A:A, A137)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5558,7 +5567,7 @@
         <v>1.31</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.11965811965811968</v>
       </c>
       <c r="H138" s="2" t="s">
@@ -5569,7 +5578,7 @@
         <v>-1</v>
       </c>
       <c r="J138" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A138=A139),(SUMIFS(I:I, A:A, A138)+SUMIFS(D:D, A:A, A138))/SUMIFS(D:D, A:A, A138)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5593,7 +5602,7 @@
         <v>1.67</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.35772357723577231</v>
       </c>
       <c r="H139" s="2" t="s">
@@ -5604,7 +5613,7 @@
         <v>-1</v>
       </c>
       <c r="J139" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A139=A140),(SUMIFS(I:I, A:A, A139)+SUMIFS(D:D, A:A, A139))/SUMIFS(D:D, A:A, A139)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5628,7 +5637,7 @@
         <v>1.71</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.24817518248175174</v>
       </c>
       <c r="H140" s="2" t="s">
@@ -5639,7 +5648,7 @@
         <v>0.71</v>
       </c>
       <c r="J140" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A140=A141),(SUMIFS(I:I, A:A, A140)+SUMIFS(D:D, A:A, A140))/SUMIFS(D:D, A:A, A140)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5663,7 +5672,7 @@
         <v>1.54</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.14925373134328357</v>
       </c>
       <c r="H141" s="2" t="s">
@@ -5674,7 +5683,7 @@
         <v>0.54</v>
       </c>
       <c r="J141" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A141=A142),(SUMIFS(I:I, A:A, A141)+SUMIFS(D:D, A:A, A141))/SUMIFS(D:D, A:A, A141)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5698,7 +5707,7 @@
         <v>3.7</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.56779661016949179</v>
       </c>
       <c r="H142" s="2" t="s">
@@ -5709,7 +5718,7 @@
         <v>2.7</v>
       </c>
       <c r="J142" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A142=A143),(SUMIFS(I:I, A:A, A142)+SUMIFS(D:D, A:A, A142))/SUMIFS(D:D, A:A, A142)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5733,7 +5742,7 @@
         <v>1.63</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.3813559322033897</v>
       </c>
       <c r="H143" s="2" t="s">
@@ -5744,7 +5753,7 @@
         <v>0.62999999999999989</v>
       </c>
       <c r="J143" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A143=A144),(SUMIFS(I:I, A:A, A143)+SUMIFS(D:D, A:A, A143))/SUMIFS(D:D, A:A, A143)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5768,7 +5777,7 @@
         <v>2.34</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.481012658227848</v>
       </c>
       <c r="H144" s="2" t="s">
@@ -5779,7 +5788,7 @@
         <v>-1</v>
       </c>
       <c r="J144" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A144=A145),(SUMIFS(I:I, A:A, A144)+SUMIFS(D:D, A:A, A144))/SUMIFS(D:D, A:A, A144)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5803,7 +5812,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.37583892617449655</v>
       </c>
       <c r="H145" s="2" t="s">
@@ -5814,7 +5823,7 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="J145" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A145=A146),(SUMIFS(I:I, A:A, A145)+SUMIFS(D:D, A:A, A145))/SUMIFS(D:D, A:A, A145)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5838,7 +5847,7 @@
         <v>1.91</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.18633540372670798</v>
       </c>
       <c r="H146" s="2" t="s">
@@ -5849,7 +5858,7 @@
         <v>-1</v>
       </c>
       <c r="J146" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A146=A147),(SUMIFS(I:I, A:A, A146)+SUMIFS(D:D, A:A, A146))/SUMIFS(D:D, A:A, A146)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5873,7 +5882,7 @@
         <v>1.83</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.15822784810126578</v>
       </c>
       <c r="H147" s="2" t="s">
@@ -5884,7 +5893,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="J147" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A147=A148),(SUMIFS(I:I, A:A, A147)+SUMIFS(D:D, A:A, A147))/SUMIFS(D:D, A:A, A147)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5908,7 +5917,7 @@
         <v>3.2</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.15523465703971118</v>
       </c>
       <c r="H148" s="2" t="s">
@@ -5919,7 +5928,7 @@
         <v>-1</v>
       </c>
       <c r="J148" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A148=A149),(SUMIFS(I:I, A:A, A148)+SUMIFS(D:D, A:A, A148))/SUMIFS(D:D, A:A, A148)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5943,7 +5952,7 @@
         <v>1.74</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.13725490196078427</v>
       </c>
       <c r="H149" s="2" t="s">
@@ -5954,7 +5963,7 @@
         <v>0.74</v>
       </c>
       <c r="J149" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A149=A150),(SUMIFS(I:I, A:A, A149)+SUMIFS(D:D, A:A, A149))/SUMIFS(D:D, A:A, A149)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5978,7 +5987,7 @@
         <v>2.1</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="H150" s="2" t="s">
@@ -5989,7 +5998,7 @@
         <v>-1</v>
       </c>
       <c r="J150" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A150=A151),(SUMIFS(I:I, A:A, A150)+SUMIFS(D:D, A:A, A150))/SUMIFS(D:D, A:A, A150)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6013,7 +6022,7 @@
         <v>2.7</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" ref="G151:G164" si="8">F151/E151-1</f>
+        <f t="shared" ref="G151:G172" si="3">F151/E151-1</f>
         <v>0.73076923076923084</v>
       </c>
       <c r="H151" s="2" t="s">
@@ -6024,7 +6033,7 @@
         <v>-1</v>
       </c>
       <c r="J151" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A151=A152),(SUMIFS(I:I, A:A, A151)+SUMIFS(D:D, A:A, A151))/SUMIFS(D:D, A:A, A151)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6048,7 +6057,7 @@
         <v>3.9</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.91176470588235281</v>
       </c>
       <c r="H152" s="2" t="s">
@@ -6059,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A152=A153),(SUMIFS(I:I, A:A, A152)+SUMIFS(D:D, A:A, A152))/SUMIFS(D:D, A:A, A152)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6083,7 +6092,7 @@
         <v>1.61</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.13380281690140849</v>
       </c>
       <c r="H153" s="2" t="s">
@@ -6094,7 +6103,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J153" s="2">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A153=A154),(SUMIFS(I:I, A:A, A153)+SUMIFS(D:D, A:A, A153))/SUMIFS(D:D, A:A, A153)-1,"")</f>
         <v>-2.9166666666666785E-3</v>
       </c>
     </row>
@@ -6118,7 +6127,7 @@
         <v>1.83</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.27083333333333348</v>
       </c>
       <c r="H154" s="2" t="s">
@@ -6129,7 +6138,7 @@
         <v>-2</v>
       </c>
       <c r="J154" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A154=A155),(SUMIFS(I:I, A:A, A154)+SUMIFS(D:D, A:A, A154))/SUMIFS(D:D, A:A, A154)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6153,7 +6162,7 @@
         <v>1.61</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.34166666666666679</v>
       </c>
       <c r="H155" s="2" t="s">
@@ -6164,7 +6173,7 @@
         <v>1.2200000000000002</v>
       </c>
       <c r="J155" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A155=A156),(SUMIFS(I:I, A:A, A155)+SUMIFS(D:D, A:A, A155))/SUMIFS(D:D, A:A, A155)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6188,7 +6197,7 @@
         <v>2.25</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.51006711409395966</v>
       </c>
       <c r="H156" s="2" t="s">
@@ -6199,7 +6208,7 @@
         <v>2.5</v>
       </c>
       <c r="J156" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A156=A157),(SUMIFS(I:I, A:A, A156)+SUMIFS(D:D, A:A, A156))/SUMIFS(D:D, A:A, A156)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6223,7 +6232,7 @@
         <v>3.7</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.6444444444444446</v>
       </c>
       <c r="H157" s="2" t="s">
@@ -6234,7 +6243,7 @@
         <v>5.4</v>
       </c>
       <c r="J157" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A157=A158),(SUMIFS(I:I, A:A, A157)+SUMIFS(D:D, A:A, A157))/SUMIFS(D:D, A:A, A157)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6258,7 +6267,7 @@
         <v>1.43</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.15322580645161277</v>
       </c>
       <c r="H158" s="2" t="s">
@@ -6269,7 +6278,7 @@
         <v>-2</v>
       </c>
       <c r="J158" s="2">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A158=A159),(SUMIFS(I:I, A:A, A158)+SUMIFS(D:D, A:A, A158))/SUMIFS(D:D, A:A, A158)-1,"")</f>
         <v>0.51200000000000001</v>
       </c>
     </row>
@@ -6293,7 +6302,7 @@
         <v>1.87</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.14723926380368102</v>
       </c>
       <c r="H159" s="2" t="s">
@@ -6304,7 +6313,7 @@
         <v>-2</v>
       </c>
       <c r="J159" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A159=A160),(SUMIFS(I:I, A:A, A159)+SUMIFS(D:D, A:A, A159))/SUMIFS(D:D, A:A, A159)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6328,7 +6337,7 @@
         <v>1.26</v>
       </c>
       <c r="G160" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H160" s="2" t="s">
@@ -6339,7 +6348,7 @@
         <v>0.52</v>
       </c>
       <c r="J160" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A160=A161),(SUMIFS(I:I, A:A, A160)+SUMIFS(D:D, A:A, A160))/SUMIFS(D:D, A:A, A160)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6363,7 +6372,7 @@
         <v>1.38</v>
       </c>
       <c r="G161" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.14049586776859502</v>
       </c>
       <c r="H161" s="2" t="s">
@@ -6374,7 +6383,7 @@
         <v>-2</v>
       </c>
       <c r="J161" s="2">
-        <f t="shared" si="7"/>
+        <f>IF(NOT(A161=A162),(SUMIFS(I:I, A:A, A161)+SUMIFS(D:D, A:A, A161))/SUMIFS(D:D, A:A, A161)-1,"")</f>
         <v>-0.58000000000000007</v>
       </c>
     </row>
@@ -6398,8 +6407,19 @@
         <v>1.57</v>
       </c>
       <c r="G162" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.38938053097345149</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I162" cm="1">
+        <f t="array" ref="I162">_xlfn.IFS(H162="Yes",F162*D162-D162,H162="no",-D162,H162="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J162" s="2" t="str">
+        <f>IF(NOT(A162=A163),(SUMIFS(I:I, A:A, A162)+SUMIFS(D:D, A:A, A162))/SUMIFS(D:D, A:A, A162)-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -6422,8 +6442,19 @@
         <v>1.65</v>
       </c>
       <c r="G163" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.18705035971223016</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" cm="1">
+        <f t="array" ref="I163">_xlfn.IFS(H163="Yes",F163*D163-D163,H163="no",-D163,H163="push",0)</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="J163" s="2" t="str">
+        <f>IF(NOT(A163=A164),(SUMIFS(I:I, A:A, A163)+SUMIFS(D:D, A:A, A163))/SUMIFS(D:D, A:A, A163)-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6446,47 +6477,343 @@
         <v>1.45</v>
       </c>
       <c r="G164" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.23931623931623935</v>
       </c>
+      <c r="H164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I164" cm="1">
+        <f t="array" ref="I164">_xlfn.IFS(H164="Yes",F164*D164-D164,H164="no",-D164,H164="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J164" s="2">
+        <f>IF(NOT(A164=A165),(SUMIFS(I:I, A:A, A164)+SUMIFS(D:D, A:A, A164))/SUMIFS(D:D, A:A, A164)-1,"")</f>
+        <v>-0.45000000000000007</v>
+      </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B165" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1.19</v>
+      </c>
+      <c r="F165">
+        <v>1.51</v>
+      </c>
+      <c r="G165" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26890756302521024</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I165" cm="1">
+        <f t="array" ref="I165">_xlfn.IFS(H165="Yes",F165*D165-D165,H165="no",-D165,H165="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J165" s="2" t="str">
+        <f>IF(NOT(A165=A166),(SUMIFS(I:I, A:A, A165)+SUMIFS(D:D, A:A, A165))/SUMIFS(D:D, A:A, A165)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B166" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1.47</v>
+      </c>
+      <c r="F166">
+        <v>1.95</v>
+      </c>
+      <c r="G166" s="2">
+        <f t="shared" si="3"/>
+        <v>0.32653061224489788</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" cm="1">
+        <f t="array" ref="I166">_xlfn.IFS(H166="Yes",F166*D166-D166,H166="no",-D166,H166="push",0)</f>
+        <v>0.95</v>
+      </c>
+      <c r="J166" s="2" t="str">
+        <f>IF(NOT(A166=A167),(SUMIFS(I:I, A:A, A166)+SUMIFS(D:D, A:A, A166))/SUMIFS(D:D, A:A, A166)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B167" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F167">
+        <v>3.4</v>
+      </c>
+      <c r="G167" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53153153153153143</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I167" cm="1">
+        <f t="array" ref="I167">_xlfn.IFS(H167="Yes",F167*D167-D167,H167="no",-D167,H167="push",0)</f>
+        <v>-2</v>
+      </c>
+      <c r="J167" s="2" t="str">
+        <f>IF(NOT(A167=A168),(SUMIFS(I:I, A:A, A167)+SUMIFS(D:D, A:A, A167))/SUMIFS(D:D, A:A, A167)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B168" t="s">
+        <v>107</v>
+      </c>
+      <c r="C168" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1.87</v>
+      </c>
+      <c r="F168">
+        <v>3</v>
+      </c>
+      <c r="G168" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60427807486631013</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" cm="1">
+        <f t="array" ref="I168">_xlfn.IFS(H168="Yes",F168*D168-D168,H168="no",-D168,H168="push",0)</f>
+        <v>2</v>
+      </c>
+      <c r="J168" s="2">
+        <f>IF(NOT(A168=A169),(SUMIFS(I:I, A:A, A168)+SUMIFS(D:D, A:A, A168))/SUMIFS(D:D, A:A, A168)-1,"")</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B169" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F169">
+        <v>1.48</v>
+      </c>
+      <c r="G169" s="2">
+        <f t="shared" si="3"/>
+        <v>0.34545454545454524</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" cm="1">
+        <f t="array" ref="I169">_xlfn.IFS(H169="Yes",F169*D169-D169,H169="no",-D169,H169="push",0)</f>
+        <v>0.48</v>
+      </c>
+      <c r="J169" s="2" t="str">
+        <f t="shared" ref="J169:J172" si="4">IF(NOT(A169=A170),(SUMIFS(I:I, A:A, A169)+SUMIFS(D:D, A:A, A169))/SUMIFS(D:D, A:A, A169)-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B170" t="s">
+        <v>108</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1.43</v>
+      </c>
+      <c r="F170">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G170" s="2">
+        <f t="shared" si="3"/>
+        <v>0.43356643356643354</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I170" cm="1">
+        <f t="array" ref="I170">_xlfn.IFS(H170="Yes",F170*D170-D170,H170="no",-D170,H170="push",0)</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="J170" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B171" t="s">
+        <v>109</v>
+      </c>
+      <c r="C171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1.53</v>
+      </c>
+      <c r="F171">
+        <v>1.8</v>
+      </c>
+      <c r="G171" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I171" cm="1">
+        <f t="array" ref="I171">_xlfn.IFS(H171="Yes",F171*D171-D171,H171="no",-D171,H171="push",0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J171" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B172" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1.82</v>
+      </c>
+      <c r="F172">
+        <v>2.4</v>
+      </c>
+      <c r="G172" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31868131868131866</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I172" cm="1">
+        <f t="array" ref="I172">_xlfn.IFS(H172="Yes",F172*D172-D172,H172="no",-D172,H172="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J172" s="2">
+        <f t="shared" si="4"/>
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45404</v>
+      </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D174">
-        <f>SUM(D2:D173)</f>
-        <v>178</v>
-      </c>
-      <c r="I174">
-        <f>SUM(I2:I173)+D174</f>
-        <v>171.98</v>
-      </c>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I175" s="3">
-        <f>I174/D174-1</f>
-        <v>-3.3820224719101177E-2</v>
-      </c>
-      <c r="J175" t="s">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <f>SUM(D2:D182)</f>
+        <v>187</v>
+      </c>
+      <c r="I183">
+        <f>SUM(I2:I182)+D183</f>
+        <v>180.91</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I184" s="3">
+        <f>I183/D183-1</f>
+        <v>-3.256684491978612E-2</v>
+      </c>
+      <c r="J184" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF72C6A-B68B-4B4B-9BD1-CA012852C196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1FDD44-0EE2-4BB8-A734-521B96A7657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
   </si>
 </sst>
 </file>
@@ -737,11 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I156" sqref="I156"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +821,7 @@
         <v>0.89999999999999947</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f>IF(NOT(A2=A3),(SUMIFS(I:I, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
+        <f t="shared" ref="J2:J33" si="0">IF(NOT(A2=A3),(SUMIFS(I:I, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -853,7 +856,7 @@
         <v>-1</v>
       </c>
       <c r="J3" s="2">
-        <f>IF(NOT(A3=A4),(SUMIFS(I:I, A:A, A3)+SUMIFS(D:D, A:A, A3))/SUMIFS(D:D, A:A, A3)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>-1.6666666666666718E-2</v>
       </c>
     </row>
@@ -877,18 +880,18 @@
         <v>3.6</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G76" si="0">F4/E4-1</f>
+        <f t="shared" ref="G4:G76" si="1">F4/E4-1</f>
         <v>0.32841328413284132</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="1">IF(H4="Yes",F4*D4-D4,-D4)</f>
+        <f t="shared" ref="I4:I67" si="2">IF(H4="Yes",F4*D4-D4,-D4)</f>
         <v>-1</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f>IF(NOT(A4=A5),(SUMIFS(I:I, A:A, A4)+SUMIFS(D:D, A:A, A4))/SUMIFS(D:D, A:A, A4)-1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -912,18 +915,18 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>9.8039215686274606E-2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9.8039215686274606E-2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f>IF(NOT(A5=A6),(SUMIFS(I:I, A:A, A5)+SUMIFS(D:D, A:A, A5))/SUMIFS(D:D, A:A, A5)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -947,18 +950,18 @@
         <v>1.24</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20388349514563098</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="J6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.20388349514563098</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f>IF(NOT(A6=A7),(SUMIFS(I:I, A:A, A6)+SUMIFS(D:D, A:A, A6))/SUMIFS(D:D, A:A, A6)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -982,18 +985,18 @@
         <v>1.83</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46399999999999997</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.46399999999999997</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f>IF(NOT(A7=A8),(SUMIFS(I:I, A:A, A7)+SUMIFS(D:D, A:A, A7))/SUMIFS(D:D, A:A, A7)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1017,18 +1020,18 @@
         <v>2.35</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46875</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+      <c r="J8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.46875</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>1.35</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f>IF(NOT(A8=A9),(SUMIFS(I:I, A:A, A8)+SUMIFS(D:D, A:A, A8))/SUMIFS(D:D, A:A, A8)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1052,18 +1055,18 @@
         <v>1.23</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="J9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.13888888888888884</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f>IF(NOT(A9=A10),(SUMIFS(I:I, A:A, A9)+SUMIFS(D:D, A:A, A9))/SUMIFS(D:D, A:A, A9)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1087,18 +1090,18 @@
         <v>1.4</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22807017543859653</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.22807017543859653</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J10" s="2" t="str">
-        <f>IF(NOT(A10=A11),(SUMIFS(I:I, A:A, A10)+SUMIFS(D:D, A:A, A10))/SUMIFS(D:D, A:A, A10)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1122,18 +1125,18 @@
         <v>1.74</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17567567567567566</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.17567567567567566</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f>IF(NOT(A11=A12),(SUMIFS(I:I, A:A, A11)+SUMIFS(D:D, A:A, A11))/SUMIFS(D:D, A:A, A11)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1157,18 +1160,18 @@
         <v>1.71</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+      <c r="J12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.1399999999999999</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0.71</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f>IF(NOT(A12=A13),(SUMIFS(I:I, A:A, A12)+SUMIFS(D:D, A:A, A12))/SUMIFS(D:D, A:A, A12)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1192,18 +1195,18 @@
         <v>1.3</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1711711711711712</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.1711711711711712</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f>IF(NOT(A13=A14),(SUMIFS(I:I, A:A, A13)+SUMIFS(D:D, A:A, A13))/SUMIFS(D:D, A:A, A13)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1227,18 +1230,18 @@
         <v>2.1</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47887323943661975</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.47887323943661975</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f>IF(NOT(A14=A15),(SUMIFS(I:I, A:A, A14)+SUMIFS(D:D, A:A, A14))/SUMIFS(D:D, A:A, A14)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1262,18 +1265,18 @@
         <v>1.51</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12686567164179108</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="J15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.12686567164179108</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0.51</v>
-      </c>
-      <c r="J15" s="2" t="str">
-        <f>IF(NOT(A15=A16),(SUMIFS(I:I, A:A, A15)+SUMIFS(D:D, A:A, A15))/SUMIFS(D:D, A:A, A15)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1297,18 +1300,18 @@
         <v>1.32</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26923076923076916</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.26923076923076916</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J16" s="2" t="str">
-        <f>IF(NOT(A16=A17),(SUMIFS(I:I, A:A, A16)+SUMIFS(D:D, A:A, A16))/SUMIFS(D:D, A:A, A16)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1332,18 +1335,18 @@
         <v>3.3</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28404669260700399</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.28404669260700399</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f>IF(NOT(A17=A18),(SUMIFS(I:I, A:A, A17)+SUMIFS(D:D, A:A, A17))/SUMIFS(D:D, A:A, A17)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1367,18 +1370,18 @@
         <v>1.56</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47169811320754707</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.47169811320754707</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J18" s="2" t="str">
-        <f>IF(NOT(A18=A19),(SUMIFS(I:I, A:A, A18)+SUMIFS(D:D, A:A, A18))/SUMIFS(D:D, A:A, A18)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1402,18 +1405,18 @@
         <v>1.77</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45081967213114749</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+      <c r="J19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.45081967213114749</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0.77</v>
-      </c>
-      <c r="J19" s="2" t="str">
-        <f>IF(NOT(A19=A20),(SUMIFS(I:I, A:A, A19)+SUMIFS(D:D, A:A, A19))/SUMIFS(D:D, A:A, A19)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1437,18 +1440,18 @@
         <v>1.31</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18018018018018012</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="J20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.18018018018018012</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="J20" s="2" t="str">
-        <f>IF(NOT(A20=A21),(SUMIFS(I:I, A:A, A20)+SUMIFS(D:D, A:A, A20))/SUMIFS(D:D, A:A, A20)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1472,18 +1475,18 @@
         <v>3.3</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59420289855072461</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.59420289855072461</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J21" s="2" t="str">
-        <f>IF(NOT(A21=A22),(SUMIFS(I:I, A:A, A21)+SUMIFS(D:D, A:A, A21))/SUMIFS(D:D, A:A, A21)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1507,18 +1510,18 @@
         <v>1.31</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13913043478260878</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="J22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.13913043478260878</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="J22" s="2" t="str">
-        <f>IF(NOT(A22=A23),(SUMIFS(I:I, A:A, A22)+SUMIFS(D:D, A:A, A22))/SUMIFS(D:D, A:A, A22)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1542,18 +1545,18 @@
         <v>1.45</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.15999999999999992</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J23" s="2" t="str">
-        <f>IF(NOT(A23=A24),(SUMIFS(I:I, A:A, A23)+SUMIFS(D:D, A:A, A23))/SUMIFS(D:D, A:A, A23)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1577,18 +1580,18 @@
         <v>1.17</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13592233009708732</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.13592233009708732</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J24" s="2" t="str">
-        <f>IF(NOT(A24=A25),(SUMIFS(I:I, A:A, A24)+SUMIFS(D:D, A:A, A24))/SUMIFS(D:D, A:A, A24)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1612,18 +1615,18 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="J25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999998</v>
-      </c>
-      <c r="J25" s="2" t="str">
-        <f>IF(NOT(A25=A26),(SUMIFS(I:I, A:A, A25)+SUMIFS(D:D, A:A, A25))/SUMIFS(D:D, A:A, A25)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1647,18 +1650,18 @@
         <v>1.74</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21678321678321688</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>0.21678321678321688</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>0.74</v>
-      </c>
-      <c r="J26" s="2">
-        <f>IF(NOT(A26=A27),(SUMIFS(I:I, A:A, A26)+SUMIFS(D:D, A:A, A26))/SUMIFS(D:D, A:A, A26)-1,"")</f>
         <v>0.14041666666666663</v>
       </c>
     </row>
@@ -1682,18 +1685,18 @@
         <v>1.43</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23275862068965525</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.23275862068965525</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J27" s="2" t="str">
-        <f>IF(NOT(A27=A28),(SUMIFS(I:I, A:A, A27)+SUMIFS(D:D, A:A, A27))/SUMIFS(D:D, A:A, A27)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1717,18 +1720,18 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21890547263681603</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.21890547263681603</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J28" s="2" t="str">
-        <f>IF(NOT(A28=A29),(SUMIFS(I:I, A:A, A28)+SUMIFS(D:D, A:A, A28))/SUMIFS(D:D, A:A, A28)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1752,18 +1755,18 @@
         <v>1.71</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23021582733812962</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+      <c r="J29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.23021582733812962</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>0.71</v>
-      </c>
-      <c r="J29" s="2" t="str">
-        <f>IF(NOT(A29=A30),(SUMIFS(I:I, A:A, A29)+SUMIFS(D:D, A:A, A29))/SUMIFS(D:D, A:A, A29)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1787,18 +1790,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12745098039215685</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.12745098039215685</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J30" s="2" t="str">
-        <f>IF(NOT(A30=A31),(SUMIFS(I:I, A:A, A30)+SUMIFS(D:D, A:A, A30))/SUMIFS(D:D, A:A, A30)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1822,18 +1825,18 @@
         <v>1.77</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27338129496402885</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.27338129496402885</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J31" s="2" t="str">
-        <f>IF(NOT(A31=A32),(SUMIFS(I:I, A:A, A31)+SUMIFS(D:D, A:A, A31))/SUMIFS(D:D, A:A, A31)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1857,18 +1860,18 @@
         <v>1.95</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14705882352941169</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="J32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.14705882352941169</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="J32" s="2" t="str">
-        <f>IF(NOT(A32=A33),(SUMIFS(I:I, A:A, A32)+SUMIFS(D:D, A:A, A32))/SUMIFS(D:D, A:A, A32)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1892,18 +1895,18 @@
         <v>2</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31578947368421062</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.31578947368421062</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J33" s="2" t="str">
-        <f>IF(NOT(A33=A34),(SUMIFS(I:I, A:A, A33)+SUMIFS(D:D, A:A, A33))/SUMIFS(D:D, A:A, A33)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1927,18 +1930,18 @@
         <v>1.77</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22068965517241379</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f>IF(NOT(A34=A35),(SUMIFS(I:I, A:A, A34)+SUMIFS(D:D, A:A, A34))/SUMIFS(D:D, A:A, A34)-1,"")</f>
+        <f t="shared" ref="J34:J65" si="3">IF(NOT(A34=A35),(SUMIFS(I:I, A:A, A34)+SUMIFS(D:D, A:A, A34))/SUMIFS(D:D, A:A, A34)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -1962,18 +1965,18 @@
         <v>1.43</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26548672566371678</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42999999999999994</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f>IF(NOT(A35=A36),(SUMIFS(I:I, A:A, A35)+SUMIFS(D:D, A:A, A35))/SUMIFS(D:D, A:A, A35)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1997,18 +2000,18 @@
         <v>3</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24481327800829877</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f>IF(NOT(A36=A37),(SUMIFS(I:I, A:A, A36)+SUMIFS(D:D, A:A, A36))/SUMIFS(D:D, A:A, A36)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2032,18 +2035,18 @@
         <v>1.61</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2777777777777779</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f>IF(NOT(A37=A38),(SUMIFS(I:I, A:A, A37)+SUMIFS(D:D, A:A, A37))/SUMIFS(D:D, A:A, A37)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2067,18 +2070,18 @@
         <v>1.24</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f>IF(NOT(A38=A39),(SUMIFS(I:I, A:A, A38)+SUMIFS(D:D, A:A, A38))/SUMIFS(D:D, A:A, A38)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2102,18 +2105,18 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23333333333333339</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f>IF(NOT(A39=A40),(SUMIFS(I:I, A:A, A39)+SUMIFS(D:D, A:A, A39))/SUMIFS(D:D, A:A, A39)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2137,18 +2140,18 @@
         <v>1.59</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22307692307692317</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f>IF(NOT(A40=A41),(SUMIFS(I:I, A:A, A40)+SUMIFS(D:D, A:A, A40))/SUMIFS(D:D, A:A, A40)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2172,18 +2175,18 @@
         <v>2.25</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28571428571428581</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J41" s="2">
-        <f>IF(NOT(A41=A42),(SUMIFS(I:I, A:A, A41)+SUMIFS(D:D, A:A, A41))/SUMIFS(D:D, A:A, A41)-1,"")</f>
+        <f t="shared" si="3"/>
         <v>-0.378</v>
       </c>
     </row>
@@ -2207,18 +2210,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22905027932960897</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f>IF(NOT(A42=A43),(SUMIFS(I:I, A:A, A42)+SUMIFS(D:D, A:A, A42))/SUMIFS(D:D, A:A, A42)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2242,18 +2245,18 @@
         <v>4.8</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7906976744186047</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f>IF(NOT(A43=A44),(SUMIFS(I:I, A:A, A43)+SUMIFS(D:D, A:A, A43))/SUMIFS(D:D, A:A, A43)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2277,18 +2280,18 @@
         <v>1.91</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19374999999999987</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f>IF(NOT(A44=A45),(SUMIFS(I:I, A:A, A44)+SUMIFS(D:D, A:A, A44))/SUMIFS(D:D, A:A, A44)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2312,18 +2315,18 @@
         <v>1.63</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.147887323943662</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f>IF(NOT(A45=A46),(SUMIFS(I:I, A:A, A45)+SUMIFS(D:D, A:A, A45))/SUMIFS(D:D, A:A, A45)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2347,18 +2350,18 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33986928104575154</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f>IF(NOT(A46=A47),(SUMIFS(I:I, A:A, A46)+SUMIFS(D:D, A:A, A46))/SUMIFS(D:D, A:A, A46)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2382,18 +2385,18 @@
         <v>2</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43884892086330951</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f>IF(NOT(A47=A48),(SUMIFS(I:I, A:A, A47)+SUMIFS(D:D, A:A, A47))/SUMIFS(D:D, A:A, A47)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2417,18 +2420,18 @@
         <v>2.25</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32352941176470584</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f>IF(NOT(A48=A49),(SUMIFS(I:I, A:A, A48)+SUMIFS(D:D, A:A, A48))/SUMIFS(D:D, A:A, A48)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2452,18 +2455,18 @@
         <v>1.57</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25600000000000001</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f>IF(NOT(A49=A50),(SUMIFS(I:I, A:A, A49)+SUMIFS(D:D, A:A, A49))/SUMIFS(D:D, A:A, A49)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2487,18 +2490,18 @@
         <v>1.63</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42982456140350878</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f>IF(NOT(A50=A51),(SUMIFS(I:I, A:A, A50)+SUMIFS(D:D, A:A, A50))/SUMIFS(D:D, A:A, A50)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2522,18 +2525,18 @@
         <v>1.8</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31386861313868608</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f>IF(NOT(A51=A52),(SUMIFS(I:I, A:A, A51)+SUMIFS(D:D, A:A, A51))/SUMIFS(D:D, A:A, A51)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2557,18 +2560,18 @@
         <v>1.69</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36290322580645151</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f>IF(NOT(A52=A53),(SUMIFS(I:I, A:A, A52)+SUMIFS(D:D, A:A, A52))/SUMIFS(D:D, A:A, A52)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2592,18 +2595,18 @@
         <v>1.74</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30827067669172914</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f>IF(NOT(A53=A54),(SUMIFS(I:I, A:A, A53)+SUMIFS(D:D, A:A, A53))/SUMIFS(D:D, A:A, A53)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2627,18 +2630,18 @@
         <v>4.7</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1860465116279073</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f>IF(NOT(A54=A55),(SUMIFS(I:I, A:A, A54)+SUMIFS(D:D, A:A, A54))/SUMIFS(D:D, A:A, A54)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2662,18 +2665,18 @@
         <v>1.63</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23484848484848464</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f>IF(NOT(A55=A56),(SUMIFS(I:I, A:A, A55)+SUMIFS(D:D, A:A, A55))/SUMIFS(D:D, A:A, A55)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2697,18 +2700,18 @@
         <v>1.67</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35772357723577231</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f>IF(NOT(A56=A57),(SUMIFS(I:I, A:A, A56)+SUMIFS(D:D, A:A, A56))/SUMIFS(D:D, A:A, A56)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2732,18 +2735,18 @@
         <v>1.48</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24369747899159666</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f>IF(NOT(A57=A58),(SUMIFS(I:I, A:A, A57)+SUMIFS(D:D, A:A, A57))/SUMIFS(D:D, A:A, A57)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2767,18 +2770,18 @@
         <v>3.3</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81318681318681296</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f>IF(NOT(A58=A59),(SUMIFS(I:I, A:A, A58)+SUMIFS(D:D, A:A, A58))/SUMIFS(D:D, A:A, A58)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2802,18 +2805,18 @@
         <v>1.48</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20325203252032531</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f>IF(NOT(A59=A60),(SUMIFS(I:I, A:A, A59)+SUMIFS(D:D, A:A, A59))/SUMIFS(D:D, A:A, A59)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2837,18 +2840,18 @@
         <v>1.48</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17460317460317465</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f>IF(NOT(A60=A61),(SUMIFS(I:I, A:A, A60)+SUMIFS(D:D, A:A, A60))/SUMIFS(D:D, A:A, A60)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2872,18 +2875,18 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37096774193548376</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f>IF(NOT(A61=A62),(SUMIFS(I:I, A:A, A61)+SUMIFS(D:D, A:A, A61))/SUMIFS(D:D, A:A, A61)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2907,18 +2910,18 @@
         <v>1.5</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f>IF(NOT(A62=A63),(SUMIFS(I:I, A:A, A62)+SUMIFS(D:D, A:A, A62))/SUMIFS(D:D, A:A, A62)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2942,18 +2945,18 @@
         <v>1.77</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48739495798319332</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f>IF(NOT(A63=A64),(SUMIFS(I:I, A:A, A63)+SUMIFS(D:D, A:A, A63))/SUMIFS(D:D, A:A, A63)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2977,18 +2980,18 @@
         <v>1.95</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32653061224489788</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f>IF(NOT(A64=A65),(SUMIFS(I:I, A:A, A64)+SUMIFS(D:D, A:A, A64))/SUMIFS(D:D, A:A, A64)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3012,18 +3015,18 @@
         <v>1.63</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18978102189780999</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f>IF(NOT(A65=A66),(SUMIFS(I:I, A:A, A65)+SUMIFS(D:D, A:A, A65))/SUMIFS(D:D, A:A, A65)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3047,18 +3050,18 @@
         <v>1.8</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15384615384615374</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f>IF(NOT(A66=A67),(SUMIFS(I:I, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
+        <f t="shared" ref="J66:J97" si="4">IF(NOT(A66=A67),(SUMIFS(I:I, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -3082,18 +3085,18 @@
         <v>1.8</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f>IF(NOT(A67=A68),(SUMIFS(I:I, A:A, A67)+SUMIFS(D:D, A:A, A67))/SUMIFS(D:D, A:A, A67)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3117,7 +3120,7 @@
         <v>1.45</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16935483870967749</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -3128,7 +3131,7 @@
         <v>-1</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f>IF(NOT(A68=A69),(SUMIFS(I:I, A:A, A68)+SUMIFS(D:D, A:A, A68))/SUMIFS(D:D, A:A, A68)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3152,7 +3155,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18357487922705329</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -3163,7 +3166,7 @@
         <v>1.4500000000000002</v>
       </c>
       <c r="J69" s="2">
-        <f>IF(NOT(A69=A70),(SUMIFS(I:I, A:A, A69)+SUMIFS(D:D, A:A, A69))/SUMIFS(D:D, A:A, A69)-1,"")</f>
+        <f t="shared" si="4"/>
         <v>0.26178571428571429</v>
       </c>
     </row>
@@ -3187,7 +3190,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57692307692307665</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -3198,7 +3201,7 @@
         <v>-1</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f>IF(NOT(A70=A71),(SUMIFS(I:I, A:A, A70)+SUMIFS(D:D, A:A, A70))/SUMIFS(D:D, A:A, A70)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3222,7 +3225,7 @@
         <v>1.69</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -3233,7 +3236,7 @@
         <v>0.69</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f>IF(NOT(A71=A72),(SUMIFS(I:I, A:A, A71)+SUMIFS(D:D, A:A, A71))/SUMIFS(D:D, A:A, A71)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3257,7 +3260,7 @@
         <v>1.29</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13157894736842124</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -3268,7 +3271,7 @@
         <v>0.29000000000000004</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f>IF(NOT(A72=A73),(SUMIFS(I:I, A:A, A72)+SUMIFS(D:D, A:A, A72))/SUMIFS(D:D, A:A, A72)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3292,7 +3295,7 @@
         <v>2.15</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34374999999999978</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -3303,7 +3306,7 @@
         <v>-1</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f>IF(NOT(A73=A74),(SUMIFS(I:I, A:A, A73)+SUMIFS(D:D, A:A, A73))/SUMIFS(D:D, A:A, A73)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3327,7 +3330,7 @@
         <v>1.42</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18333333333333335</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -3338,7 +3341,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f>IF(NOT(A74=A75),(SUMIFS(I:I, A:A, A74)+SUMIFS(D:D, A:A, A74))/SUMIFS(D:D, A:A, A74)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3362,7 +3365,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27499999999999991</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -3373,7 +3376,7 @@
         <v>-1</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f>IF(NOT(A75=A76),(SUMIFS(I:I, A:A, A75)+SUMIFS(D:D, A:A, A75))/SUMIFS(D:D, A:A, A75)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3397,7 +3400,7 @@
         <v>1.45</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -3408,7 +3411,7 @@
         <v>-1</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f>IF(NOT(A76=A77),(SUMIFS(I:I, A:A, A76)+SUMIFS(D:D, A:A, A76))/SUMIFS(D:D, A:A, A76)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3432,7 +3435,7 @@
         <v>1.42</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" ref="G77:G150" si="2">F77/E77-1</f>
+        <f t="shared" ref="G77:G150" si="5">F77/E77-1</f>
         <v>0.21367521367521358</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -3443,7 +3446,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f>IF(NOT(A77=A78),(SUMIFS(I:I, A:A, A77)+SUMIFS(D:D, A:A, A77))/SUMIFS(D:D, A:A, A77)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3467,7 +3470,7 @@
         <v>1.59</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2421875</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -3478,7 +3481,7 @@
         <v>0.59000000000000008</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f>IF(NOT(A78=A79),(SUMIFS(I:I, A:A, A78)+SUMIFS(D:D, A:A, A78))/SUMIFS(D:D, A:A, A78)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3502,7 +3505,7 @@
         <v>1.71</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1875</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -3513,7 +3516,7 @@
         <v>-1</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f>IF(NOT(A79=A80),(SUMIFS(I:I, A:A, A79)+SUMIFS(D:D, A:A, A79))/SUMIFS(D:D, A:A, A79)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3537,7 +3540,7 @@
         <v>2.6</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3265306122448981</v>
       </c>
       <c r="H80" s="2" t="s">
@@ -3548,7 +3551,7 @@
         <v>-1</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f>IF(NOT(A80=A81),(SUMIFS(I:I, A:A, A80)+SUMIFS(D:D, A:A, A80))/SUMIFS(D:D, A:A, A80)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3572,7 +3575,7 @@
         <v>1.65</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.26923076923076916</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -3583,7 +3586,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f>IF(NOT(A81=A82),(SUMIFS(I:I, A:A, A81)+SUMIFS(D:D, A:A, A81))/SUMIFS(D:D, A:A, A81)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3607,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.25786163522012573</v>
       </c>
       <c r="H82" s="2" t="s">
@@ -3618,7 +3621,7 @@
         <v>-1</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f>IF(NOT(A82=A83),(SUMIFS(I:I, A:A, A82)+SUMIFS(D:D, A:A, A82))/SUMIFS(D:D, A:A, A82)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3642,7 +3645,7 @@
         <v>2.15</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.35220125786163514</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -3653,7 +3656,7 @@
         <v>-1</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f>IF(NOT(A83=A84),(SUMIFS(I:I, A:A, A83)+SUMIFS(D:D, A:A, A83))/SUMIFS(D:D, A:A, A83)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3677,7 +3680,7 @@
         <v>1.34</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21818181818181825</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -3688,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f>IF(NOT(A84=A85),(SUMIFS(I:I, A:A, A84)+SUMIFS(D:D, A:A, A84))/SUMIFS(D:D, A:A, A84)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3712,7 +3715,7 @@
         <v>1.5</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -3723,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f>IF(NOT(A85=A86),(SUMIFS(I:I, A:A, A85)+SUMIFS(D:D, A:A, A85))/SUMIFS(D:D, A:A, A85)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3747,7 +3750,7 @@
         <v>2.1</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18644067796610164</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -3758,7 +3761,7 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f>IF(NOT(A86=A87),(SUMIFS(I:I, A:A, A86)+SUMIFS(D:D, A:A, A86))/SUMIFS(D:D, A:A, A86)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3782,7 +3785,7 @@
         <v>1.69</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.14189189189189189</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -3793,7 +3796,7 @@
         <v>-1</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f>IF(NOT(A87=A88),(SUMIFS(I:I, A:A, A87)+SUMIFS(D:D, A:A, A87))/SUMIFS(D:D, A:A, A87)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3817,7 +3820,7 @@
         <v>2.1</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.44827586206896552</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -3828,7 +3831,7 @@
         <v>-1</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f>IF(NOT(A88=A89),(SUMIFS(I:I, A:A, A88)+SUMIFS(D:D, A:A, A88))/SUMIFS(D:D, A:A, A88)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3852,7 +3855,7 @@
         <v>2.75</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.80921052631578938</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -3863,7 +3866,7 @@
         <v>-1</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f>IF(NOT(A89=A90),(SUMIFS(I:I, A:A, A89)+SUMIFS(D:D, A:A, A89))/SUMIFS(D:D, A:A, A89)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3887,7 +3890,7 @@
         <v>2.9</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85897435897435881</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -3898,7 +3901,7 @@
         <v>-1</v>
       </c>
       <c r="J90" s="2" t="str">
-        <f>IF(NOT(A90=A91),(SUMIFS(I:I, A:A, A90)+SUMIFS(D:D, A:A, A90))/SUMIFS(D:D, A:A, A90)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3922,7 +3925,7 @@
         <v>1.67</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15172413793103456</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -3933,7 +3936,7 @@
         <v>0.66999999999999993</v>
       </c>
       <c r="J91" s="2" t="str">
-        <f>IF(NOT(A91=A92),(SUMIFS(I:I, A:A, A91)+SUMIFS(D:D, A:A, A91))/SUMIFS(D:D, A:A, A91)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3957,7 +3960,7 @@
         <v>1.25</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15740740740740744</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -3968,7 +3971,7 @@
         <v>0.25</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f>IF(NOT(A92=A93),(SUMIFS(I:I, A:A, A92)+SUMIFS(D:D, A:A, A92))/SUMIFS(D:D, A:A, A92)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3992,7 +3995,7 @@
         <v>4.5</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.36363636363636376</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -4003,7 +4006,7 @@
         <v>-1</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f>IF(NOT(A93=A94),(SUMIFS(I:I, A:A, A93)+SUMIFS(D:D, A:A, A93))/SUMIFS(D:D, A:A, A93)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4027,7 +4030,7 @@
         <v>1.42</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.14516129032258052</v>
       </c>
       <c r="H94" s="2" t="s">
@@ -4038,7 +4041,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="J94" s="2" t="str">
-        <f>IF(NOT(A94=A95),(SUMIFS(I:I, A:A, A94)+SUMIFS(D:D, A:A, A94))/SUMIFS(D:D, A:A, A94)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4062,7 +4065,7 @@
         <v>1.61</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18382352941176472</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -4073,7 +4076,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J95" s="2" t="str">
-        <f>IF(NOT(A95=A96),(SUMIFS(I:I, A:A, A95)+SUMIFS(D:D, A:A, A95))/SUMIFS(D:D, A:A, A95)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4097,7 +4100,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32947976878612706</v>
       </c>
       <c r="H96" s="2" t="s">
@@ -4108,7 +4111,7 @@
         <v>-1</v>
       </c>
       <c r="J96" s="2" t="str">
-        <f>IF(NOT(A96=A97),(SUMIFS(I:I, A:A, A96)+SUMIFS(D:D, A:A, A96))/SUMIFS(D:D, A:A, A96)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4132,7 +4135,7 @@
         <v>3.8</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24183006535947715</v>
       </c>
       <c r="H97" s="2" t="s">
@@ -4143,7 +4146,7 @@
         <v>2.8</v>
       </c>
       <c r="J97" s="2" t="str">
-        <f>IF(NOT(A97=A98),(SUMIFS(I:I, A:A, A97)+SUMIFS(D:D, A:A, A97))/SUMIFS(D:D, A:A, A97)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4167,7 +4170,7 @@
         <v>6.5</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.80055401662049874</v>
       </c>
       <c r="H98" s="2" t="s">
@@ -4178,7 +4181,7 @@
         <v>-1</v>
       </c>
       <c r="J98" s="2" t="str">
-        <f>IF(NOT(A98=A99),(SUMIFS(I:I, A:A, A98)+SUMIFS(D:D, A:A, A98))/SUMIFS(D:D, A:A, A98)-1,"")</f>
+        <f t="shared" ref="J98:J129" si="6">IF(NOT(A98=A99),(SUMIFS(I:I, A:A, A98)+SUMIFS(D:D, A:A, A98))/SUMIFS(D:D, A:A, A98)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -4202,7 +4205,7 @@
         <v>1.61</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.29838709677419373</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -4213,7 +4216,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f>IF(NOT(A99=A100),(SUMIFS(I:I, A:A, A99)+SUMIFS(D:D, A:A, A99))/SUMIFS(D:D, A:A, A99)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4237,7 +4240,7 @@
         <v>1.67</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24626865671641784</v>
       </c>
       <c r="H100" s="2" t="s">
@@ -4248,7 +4251,7 @@
         <v>-1</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f>IF(NOT(A100=A101),(SUMIFS(I:I, A:A, A100)+SUMIFS(D:D, A:A, A100))/SUMIFS(D:D, A:A, A100)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4272,7 +4275,7 @@
         <v>2.25</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.46103896103896091</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -4283,7 +4286,7 @@
         <v>1.25</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f>IF(NOT(A101=A102),(SUMIFS(I:I, A:A, A101)+SUMIFS(D:D, A:A, A101))/SUMIFS(D:D, A:A, A101)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4307,7 +4310,7 @@
         <v>1.83</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.31654676258992831</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -4318,7 +4321,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="J102" s="2" t="str">
-        <f>IF(NOT(A102=A103),(SUMIFS(I:I, A:A, A102)+SUMIFS(D:D, A:A, A102))/SUMIFS(D:D, A:A, A102)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4342,7 +4345,7 @@
         <v>1.54</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2520325203252034</v>
       </c>
       <c r="H103" s="2" t="s">
@@ -4353,7 +4356,7 @@
         <v>-1</v>
       </c>
       <c r="J103" s="2" t="str">
-        <f>IF(NOT(A103=A104),(SUMIFS(I:I, A:A, A103)+SUMIFS(D:D, A:A, A103))/SUMIFS(D:D, A:A, A103)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4377,7 +4380,7 @@
         <v>1.57</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.29752066115702491</v>
       </c>
       <c r="H104" s="2" t="s">
@@ -4388,7 +4391,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="J104" s="2" t="str">
-        <f>IF(NOT(A104=A105),(SUMIFS(I:I, A:A, A104)+SUMIFS(D:D, A:A, A104))/SUMIFS(D:D, A:A, A104)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4412,7 +4415,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.37583892617449655</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -4423,7 +4426,7 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="J105" s="2" t="str">
-        <f>IF(NOT(A105=A106),(SUMIFS(I:I, A:A, A105)+SUMIFS(D:D, A:A, A105))/SUMIFS(D:D, A:A, A105)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4447,7 +4450,7 @@
         <v>1.51</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15267175572519087</v>
       </c>
       <c r="H106" s="2" t="s">
@@ -4458,7 +4461,7 @@
         <v>-1</v>
       </c>
       <c r="J106" s="2" t="str">
-        <f>IF(NOT(A106=A107),(SUMIFS(I:I, A:A, A106)+SUMIFS(D:D, A:A, A106))/SUMIFS(D:D, A:A, A106)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4482,7 +4485,7 @@
         <v>1.71</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16326530612244894</v>
       </c>
       <c r="H107" s="2" t="s">
@@ -4493,7 +4496,7 @@
         <v>0.71</v>
       </c>
       <c r="J107" s="2" t="str">
-        <f>IF(NOT(A107=A108),(SUMIFS(I:I, A:A, A107)+SUMIFS(D:D, A:A, A107))/SUMIFS(D:D, A:A, A107)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4517,7 +4520,7 @@
         <v>3.3</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49999999999999978</v>
       </c>
       <c r="H108" s="2" t="s">
@@ -4528,7 +4531,7 @@
         <v>-1</v>
       </c>
       <c r="J108" s="2">
-        <f>IF(NOT(A108=A109),(SUMIFS(I:I, A:A, A108)+SUMIFS(D:D, A:A, A108))/SUMIFS(D:D, A:A, A108)-1,"")</f>
+        <f t="shared" si="6"/>
         <v>-9.4390243902438997E-2</v>
       </c>
     </row>
@@ -4552,7 +4555,7 @@
         <v>2.1</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3125</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -4563,7 +4566,7 @@
         <v>-1</v>
       </c>
       <c r="J109" s="2" t="str">
-        <f>IF(NOT(A109=A110),(SUMIFS(I:I, A:A, A109)+SUMIFS(D:D, A:A, A109))/SUMIFS(D:D, A:A, A109)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4587,7 +4590,7 @@
         <v>1.63</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.25384615384615361</v>
       </c>
       <c r="H110" s="2" t="s">
@@ -4598,7 +4601,7 @@
         <v>-1</v>
       </c>
       <c r="J110" s="2" t="str">
-        <f>IF(NOT(A110=A111),(SUMIFS(I:I, A:A, A110)+SUMIFS(D:D, A:A, A110))/SUMIFS(D:D, A:A, A110)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4622,7 +4625,7 @@
         <v>1.77</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.36153846153846159</v>
       </c>
       <c r="H111" s="2" t="s">
@@ -4633,7 +4636,7 @@
         <v>-1</v>
       </c>
       <c r="J111" s="2" t="str">
-        <f>IF(NOT(A111=A112),(SUMIFS(I:I, A:A, A111)+SUMIFS(D:D, A:A, A111))/SUMIFS(D:D, A:A, A111)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4657,7 +4660,7 @@
         <v>1.86</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32857142857142874</v>
       </c>
       <c r="H112" s="2" t="s">
@@ -4668,7 +4671,7 @@
         <v>-1</v>
       </c>
       <c r="J112" s="2" t="str">
-        <f>IF(NOT(A112=A113),(SUMIFS(I:I, A:A, A112)+SUMIFS(D:D, A:A, A112))/SUMIFS(D:D, A:A, A112)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4692,7 +4695,7 @@
         <v>1.71</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22142857142857153</v>
       </c>
       <c r="H113" s="2" t="s">
@@ -4703,7 +4706,7 @@
         <v>0.71</v>
       </c>
       <c r="J113" s="2" t="str">
-        <f>IF(NOT(A113=A114),(SUMIFS(I:I, A:A, A113)+SUMIFS(D:D, A:A, A113))/SUMIFS(D:D, A:A, A113)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4727,7 +4730,7 @@
         <v>2.8</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H114" s="2" t="s">
@@ -4738,7 +4741,7 @@
         <v>-1</v>
       </c>
       <c r="J114" s="2" t="str">
-        <f>IF(NOT(A114=A115),(SUMIFS(I:I, A:A, A114)+SUMIFS(D:D, A:A, A114))/SUMIFS(D:D, A:A, A114)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4762,7 +4765,7 @@
         <v>2.75</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="H115" s="2" t="s">
@@ -4773,7 +4776,7 @@
         <v>-1</v>
       </c>
       <c r="J115" s="2" t="str">
-        <f>IF(NOT(A115=A116),(SUMIFS(I:I, A:A, A115)+SUMIFS(D:D, A:A, A115))/SUMIFS(D:D, A:A, A115)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4797,7 +4800,7 @@
         <v>1.57</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20769230769230762</v>
       </c>
       <c r="H116" s="2" t="s">
@@ -4808,7 +4811,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="J116" s="2" t="str">
-        <f>IF(NOT(A116=A117),(SUMIFS(I:I, A:A, A116)+SUMIFS(D:D, A:A, A116))/SUMIFS(D:D, A:A, A116)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4832,7 +4835,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.28124999999999978</v>
       </c>
       <c r="H117" s="2" t="s">
@@ -4843,7 +4846,7 @@
         <v>-1</v>
       </c>
       <c r="J117" s="2" t="str">
-        <f>IF(NOT(A117=A118),(SUMIFS(I:I, A:A, A117)+SUMIFS(D:D, A:A, A117))/SUMIFS(D:D, A:A, A117)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4867,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H118" s="2" t="s">
@@ -4878,7 +4881,7 @@
         <v>-1</v>
       </c>
       <c r="J118" s="2" t="str">
-        <f>IF(NOT(A118=A119),(SUMIFS(I:I, A:A, A118)+SUMIFS(D:D, A:A, A118))/SUMIFS(D:D, A:A, A118)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4902,7 +4905,7 @@
         <v>1.87</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.33571428571428585</v>
       </c>
       <c r="H119" s="2" t="s">
@@ -4913,7 +4916,7 @@
         <v>-1</v>
       </c>
       <c r="J119" s="2" t="str">
-        <f>IF(NOT(A119=A120),(SUMIFS(I:I, A:A, A119)+SUMIFS(D:D, A:A, A119))/SUMIFS(D:D, A:A, A119)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4937,7 +4940,7 @@
         <v>1.8</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.38461538461538458</v>
       </c>
       <c r="H120" s="2" t="s">
@@ -4948,7 +4951,7 @@
         <v>0.51</v>
       </c>
       <c r="J120" s="2" t="str">
-        <f>IF(NOT(A120=A121),(SUMIFS(I:I, A:A, A120)+SUMIFS(D:D, A:A, A120))/SUMIFS(D:D, A:A, A120)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4972,7 +4975,7 @@
         <v>1.51</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2583333333333333</v>
       </c>
       <c r="H121" s="2" t="s">
@@ -4983,7 +4986,7 @@
         <v>-1</v>
       </c>
       <c r="J121" s="2" t="str">
-        <f>IF(NOT(A121=A122),(SUMIFS(I:I, A:A, A121)+SUMIFS(D:D, A:A, A121))/SUMIFS(D:D, A:A, A121)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5007,7 +5010,7 @@
         <v>2.75</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="H122" s="2" t="s">
@@ -5018,7 +5021,7 @@
         <v>-1</v>
       </c>
       <c r="J122" s="2" t="str">
-        <f>IF(NOT(A122=A123),(SUMIFS(I:I, A:A, A122)+SUMIFS(D:D, A:A, A122))/SUMIFS(D:D, A:A, A122)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5042,7 +5045,7 @@
         <v>1.69</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24264705882352922</v>
       </c>
       <c r="H123" s="2" t="s">
@@ -5053,7 +5056,7 @@
         <v>-1</v>
       </c>
       <c r="J123" s="2" t="str">
-        <f>IF(NOT(A123=A124),(SUMIFS(I:I, A:A, A123)+SUMIFS(D:D, A:A, A123))/SUMIFS(D:D, A:A, A123)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5077,7 +5080,7 @@
         <v>2.1</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H124" s="2" t="s">
@@ -5088,7 +5091,7 @@
         <v>-1</v>
       </c>
       <c r="J124" s="2" t="str">
-        <f>IF(NOT(A124=A125),(SUMIFS(I:I, A:A, A124)+SUMIFS(D:D, A:A, A124))/SUMIFS(D:D, A:A, A124)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5112,7 +5115,7 @@
         <v>2.65</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32499999999999996</v>
       </c>
       <c r="H125" s="2" t="s">
@@ -5123,7 +5126,7 @@
         <v>1.65</v>
       </c>
       <c r="J125" s="2" t="str">
-        <f>IF(NOT(A125=A126),(SUMIFS(I:I, A:A, A125)+SUMIFS(D:D, A:A, A125))/SUMIFS(D:D, A:A, A125)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5147,7 +5150,7 @@
         <v>1.95</v>
       </c>
       <c r="G126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.19631901840490795</v>
       </c>
       <c r="H126" s="2" t="s">
@@ -5158,7 +5161,7 @@
         <v>0.95</v>
       </c>
       <c r="J126" s="2" t="str">
-        <f>IF(NOT(A126=A127),(SUMIFS(I:I, A:A, A126)+SUMIFS(D:D, A:A, A126))/SUMIFS(D:D, A:A, A126)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5182,7 +5185,7 @@
         <v>1.37</v>
       </c>
       <c r="G127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13223140495867791</v>
       </c>
       <c r="H127" s="2" t="s">
@@ -5193,7 +5196,7 @@
         <v>0.37000000000000011</v>
       </c>
       <c r="J127" s="2" t="str">
-        <f>IF(NOT(A127=A128),(SUMIFS(I:I, A:A, A127)+SUMIFS(D:D, A:A, A127))/SUMIFS(D:D, A:A, A127)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5217,7 +5220,7 @@
         <v>1.59</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32500000000000018</v>
       </c>
       <c r="H128" s="2" t="s">
@@ -5228,7 +5231,7 @@
         <v>0.59000000000000008</v>
       </c>
       <c r="J128" s="2" t="str">
-        <f>IF(NOT(A128=A129),(SUMIFS(I:I, A:A, A128)+SUMIFS(D:D, A:A, A128))/SUMIFS(D:D, A:A, A128)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5252,7 +5255,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22500000000000009</v>
       </c>
       <c r="H129" s="2" t="s">
@@ -5263,7 +5266,7 @@
         <v>-1</v>
       </c>
       <c r="J129" s="2">
-        <f>IF(NOT(A129=A130),(SUMIFS(I:I, A:A, A129)+SUMIFS(D:D, A:A, A129))/SUMIFS(D:D, A:A, A129)-1,"")</f>
+        <f t="shared" si="6"/>
         <v>-0.411904761904762</v>
       </c>
     </row>
@@ -5287,7 +5290,7 @@
         <v>1.51</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1796875</v>
       </c>
       <c r="H130" s="2" t="s">
@@ -5298,7 +5301,7 @@
         <v>0.51</v>
       </c>
       <c r="J130" s="2" t="str">
-        <f>IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
+        <f t="shared" ref="J130:J161" si="7">IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -5322,7 +5325,7 @@
         <v>1.8</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.139240506329114</v>
       </c>
       <c r="H131" s="2" t="s">
@@ -5333,7 +5336,7 @@
         <v>-1</v>
       </c>
       <c r="J131" s="2" t="str">
-        <f>IF(NOT(A131=A132),(SUMIFS(I:I, A:A, A131)+SUMIFS(D:D, A:A, A131))/SUMIFS(D:D, A:A, A131)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5357,7 +5360,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.8085106382978724</v>
       </c>
       <c r="H132" s="2" t="s">
@@ -5368,7 +5371,7 @@
         <v>-1</v>
       </c>
       <c r="J132" s="2" t="str">
-        <f>IF(NOT(A132=A133),(SUMIFS(I:I, A:A, A132)+SUMIFS(D:D, A:A, A132))/SUMIFS(D:D, A:A, A132)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5392,7 +5395,7 @@
         <v>2.1</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3125</v>
       </c>
       <c r="H133" s="2" t="s">
@@ -5403,7 +5406,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J133" s="2" t="str">
-        <f>IF(NOT(A133=A134),(SUMIFS(I:I, A:A, A133)+SUMIFS(D:D, A:A, A133))/SUMIFS(D:D, A:A, A133)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5427,7 +5430,7 @@
         <v>1.51</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.37272727272727257</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -5438,7 +5441,7 @@
         <v>0.51</v>
       </c>
       <c r="J134" s="2" t="str">
-        <f>IF(NOT(A134=A135),(SUMIFS(I:I, A:A, A134)+SUMIFS(D:D, A:A, A134))/SUMIFS(D:D, A:A, A134)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5462,7 +5465,7 @@
         <v>1.95</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="H135" s="2" t="s">
@@ -5473,7 +5476,7 @@
         <v>-1</v>
       </c>
       <c r="J135" s="2" t="str">
-        <f>IF(NOT(A135=A136),(SUMIFS(I:I, A:A, A135)+SUMIFS(D:D, A:A, A135))/SUMIFS(D:D, A:A, A135)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5497,7 +5500,7 @@
         <v>2.65</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.365979381443299</v>
       </c>
       <c r="H136" s="2" t="s">
@@ -5508,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="str">
-        <f>IF(NOT(A136=A137),(SUMIFS(I:I, A:A, A136)+SUMIFS(D:D, A:A, A136))/SUMIFS(D:D, A:A, A136)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5532,7 +5535,7 @@
         <v>1.83</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2534246575342467</v>
       </c>
       <c r="H137" s="2" t="s">
@@ -5543,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="str">
-        <f>IF(NOT(A137=A138),(SUMIFS(I:I, A:A, A137)+SUMIFS(D:D, A:A, A137))/SUMIFS(D:D, A:A, A137)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5567,7 +5570,7 @@
         <v>1.31</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11965811965811968</v>
       </c>
       <c r="H138" s="2" t="s">
@@ -5578,7 +5581,7 @@
         <v>-1</v>
       </c>
       <c r="J138" s="2" t="str">
-        <f>IF(NOT(A138=A139),(SUMIFS(I:I, A:A, A138)+SUMIFS(D:D, A:A, A138))/SUMIFS(D:D, A:A, A138)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5602,7 +5605,7 @@
         <v>1.67</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.35772357723577231</v>
       </c>
       <c r="H139" s="2" t="s">
@@ -5613,7 +5616,7 @@
         <v>-1</v>
       </c>
       <c r="J139" s="2" t="str">
-        <f>IF(NOT(A139=A140),(SUMIFS(I:I, A:A, A139)+SUMIFS(D:D, A:A, A139))/SUMIFS(D:D, A:A, A139)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5637,7 +5640,7 @@
         <v>1.71</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24817518248175174</v>
       </c>
       <c r="H140" s="2" t="s">
@@ -5648,7 +5651,7 @@
         <v>0.71</v>
       </c>
       <c r="J140" s="2" t="str">
-        <f>IF(NOT(A140=A141),(SUMIFS(I:I, A:A, A140)+SUMIFS(D:D, A:A, A140))/SUMIFS(D:D, A:A, A140)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5672,7 +5675,7 @@
         <v>1.54</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.14925373134328357</v>
       </c>
       <c r="H141" s="2" t="s">
@@ -5683,7 +5686,7 @@
         <v>0.54</v>
       </c>
       <c r="J141" s="2" t="str">
-        <f>IF(NOT(A141=A142),(SUMIFS(I:I, A:A, A141)+SUMIFS(D:D, A:A, A141))/SUMIFS(D:D, A:A, A141)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5707,7 +5710,7 @@
         <v>3.7</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.56779661016949179</v>
       </c>
       <c r="H142" s="2" t="s">
@@ -5718,7 +5721,7 @@
         <v>2.7</v>
       </c>
       <c r="J142" s="2" t="str">
-        <f>IF(NOT(A142=A143),(SUMIFS(I:I, A:A, A142)+SUMIFS(D:D, A:A, A142))/SUMIFS(D:D, A:A, A142)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5742,7 +5745,7 @@
         <v>1.63</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3813559322033897</v>
       </c>
       <c r="H143" s="2" t="s">
@@ -5753,7 +5756,7 @@
         <v>0.62999999999999989</v>
       </c>
       <c r="J143" s="2" t="str">
-        <f>IF(NOT(A143=A144),(SUMIFS(I:I, A:A, A143)+SUMIFS(D:D, A:A, A143))/SUMIFS(D:D, A:A, A143)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5777,7 +5780,7 @@
         <v>2.34</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.481012658227848</v>
       </c>
       <c r="H144" s="2" t="s">
@@ -5788,7 +5791,7 @@
         <v>-1</v>
       </c>
       <c r="J144" s="2" t="str">
-        <f>IF(NOT(A144=A145),(SUMIFS(I:I, A:A, A144)+SUMIFS(D:D, A:A, A144))/SUMIFS(D:D, A:A, A144)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5812,7 +5815,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.37583892617449655</v>
       </c>
       <c r="H145" s="2" t="s">
@@ -5823,7 +5826,7 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="J145" s="2" t="str">
-        <f>IF(NOT(A145=A146),(SUMIFS(I:I, A:A, A145)+SUMIFS(D:D, A:A, A145))/SUMIFS(D:D, A:A, A145)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5847,7 +5850,7 @@
         <v>1.91</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18633540372670798</v>
       </c>
       <c r="H146" s="2" t="s">
@@ -5858,7 +5861,7 @@
         <v>-1</v>
       </c>
       <c r="J146" s="2" t="str">
-        <f>IF(NOT(A146=A147),(SUMIFS(I:I, A:A, A146)+SUMIFS(D:D, A:A, A146))/SUMIFS(D:D, A:A, A146)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5882,7 +5885,7 @@
         <v>1.83</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15822784810126578</v>
       </c>
       <c r="H147" s="2" t="s">
@@ -5893,7 +5896,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="J147" s="2" t="str">
-        <f>IF(NOT(A147=A148),(SUMIFS(I:I, A:A, A147)+SUMIFS(D:D, A:A, A147))/SUMIFS(D:D, A:A, A147)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5917,7 +5920,7 @@
         <v>3.2</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15523465703971118</v>
       </c>
       <c r="H148" s="2" t="s">
@@ -5928,7 +5931,7 @@
         <v>-1</v>
       </c>
       <c r="J148" s="2" t="str">
-        <f>IF(NOT(A148=A149),(SUMIFS(I:I, A:A, A148)+SUMIFS(D:D, A:A, A148))/SUMIFS(D:D, A:A, A148)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5952,7 +5955,7 @@
         <v>1.74</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13725490196078427</v>
       </c>
       <c r="H149" s="2" t="s">
@@ -5963,7 +5966,7 @@
         <v>0.74</v>
       </c>
       <c r="J149" s="2" t="str">
-        <f>IF(NOT(A149=A150),(SUMIFS(I:I, A:A, A149)+SUMIFS(D:D, A:A, A149))/SUMIFS(D:D, A:A, A149)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5987,7 +5990,7 @@
         <v>2.1</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="H150" s="2" t="s">
@@ -5998,7 +6001,7 @@
         <v>-1</v>
       </c>
       <c r="J150" s="2" t="str">
-        <f>IF(NOT(A150=A151),(SUMIFS(I:I, A:A, A150)+SUMIFS(D:D, A:A, A150))/SUMIFS(D:D, A:A, A150)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6022,7 +6025,7 @@
         <v>2.7</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" ref="G151:G172" si="3">F151/E151-1</f>
+        <f t="shared" ref="G151:G176" si="8">F151/E151-1</f>
         <v>0.73076923076923084</v>
       </c>
       <c r="H151" s="2" t="s">
@@ -6033,7 +6036,7 @@
         <v>-1</v>
       </c>
       <c r="J151" s="2" t="str">
-        <f>IF(NOT(A151=A152),(SUMIFS(I:I, A:A, A151)+SUMIFS(D:D, A:A, A151))/SUMIFS(D:D, A:A, A151)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6057,7 +6060,7 @@
         <v>3.9</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.91176470588235281</v>
       </c>
       <c r="H152" s="2" t="s">
@@ -6068,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="str">
-        <f>IF(NOT(A152=A153),(SUMIFS(I:I, A:A, A152)+SUMIFS(D:D, A:A, A152))/SUMIFS(D:D, A:A, A152)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6092,7 +6095,7 @@
         <v>1.61</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.13380281690140849</v>
       </c>
       <c r="H153" s="2" t="s">
@@ -6103,7 +6106,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="J153" s="2">
-        <f>IF(NOT(A153=A154),(SUMIFS(I:I, A:A, A153)+SUMIFS(D:D, A:A, A153))/SUMIFS(D:D, A:A, A153)-1,"")</f>
+        <f t="shared" si="7"/>
         <v>-2.9166666666666785E-3</v>
       </c>
     </row>
@@ -6127,7 +6130,7 @@
         <v>1.83</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.27083333333333348</v>
       </c>
       <c r="H154" s="2" t="s">
@@ -6138,7 +6141,7 @@
         <v>-2</v>
       </c>
       <c r="J154" s="2" t="str">
-        <f>IF(NOT(A154=A155),(SUMIFS(I:I, A:A, A154)+SUMIFS(D:D, A:A, A154))/SUMIFS(D:D, A:A, A154)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6162,7 +6165,7 @@
         <v>1.61</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.34166666666666679</v>
       </c>
       <c r="H155" s="2" t="s">
@@ -6173,7 +6176,7 @@
         <v>1.2200000000000002</v>
       </c>
       <c r="J155" s="2" t="str">
-        <f>IF(NOT(A155=A156),(SUMIFS(I:I, A:A, A155)+SUMIFS(D:D, A:A, A155))/SUMIFS(D:D, A:A, A155)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6197,7 +6200,7 @@
         <v>2.25</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.51006711409395966</v>
       </c>
       <c r="H156" s="2" t="s">
@@ -6208,7 +6211,7 @@
         <v>2.5</v>
       </c>
       <c r="J156" s="2" t="str">
-        <f>IF(NOT(A156=A157),(SUMIFS(I:I, A:A, A156)+SUMIFS(D:D, A:A, A156))/SUMIFS(D:D, A:A, A156)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6232,7 +6235,7 @@
         <v>3.7</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.6444444444444446</v>
       </c>
       <c r="H157" s="2" t="s">
@@ -6243,7 +6246,7 @@
         <v>5.4</v>
       </c>
       <c r="J157" s="2" t="str">
-        <f>IF(NOT(A157=A158),(SUMIFS(I:I, A:A, A157)+SUMIFS(D:D, A:A, A157))/SUMIFS(D:D, A:A, A157)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6267,7 +6270,7 @@
         <v>1.43</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.15322580645161277</v>
       </c>
       <c r="H158" s="2" t="s">
@@ -6278,7 +6281,7 @@
         <v>-2</v>
       </c>
       <c r="J158" s="2">
-        <f>IF(NOT(A158=A159),(SUMIFS(I:I, A:A, A158)+SUMIFS(D:D, A:A, A158))/SUMIFS(D:D, A:A, A158)-1,"")</f>
+        <f t="shared" si="7"/>
         <v>0.51200000000000001</v>
       </c>
     </row>
@@ -6302,7 +6305,7 @@
         <v>1.87</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.14723926380368102</v>
       </c>
       <c r="H159" s="2" t="s">
@@ -6313,7 +6316,7 @@
         <v>-2</v>
       </c>
       <c r="J159" s="2" t="str">
-        <f>IF(NOT(A159=A160),(SUMIFS(I:I, A:A, A159)+SUMIFS(D:D, A:A, A159))/SUMIFS(D:D, A:A, A159)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6337,7 +6340,7 @@
         <v>1.26</v>
       </c>
       <c r="G160" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H160" s="2" t="s">
@@ -6348,7 +6351,7 @@
         <v>0.52</v>
       </c>
       <c r="J160" s="2" t="str">
-        <f>IF(NOT(A160=A161),(SUMIFS(I:I, A:A, A160)+SUMIFS(D:D, A:A, A160))/SUMIFS(D:D, A:A, A160)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6372,7 +6375,7 @@
         <v>1.38</v>
       </c>
       <c r="G161" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.14049586776859502</v>
       </c>
       <c r="H161" s="2" t="s">
@@ -6383,7 +6386,7 @@
         <v>-2</v>
       </c>
       <c r="J161" s="2">
-        <f>IF(NOT(A161=A162),(SUMIFS(I:I, A:A, A161)+SUMIFS(D:D, A:A, A161))/SUMIFS(D:D, A:A, A161)-1,"")</f>
+        <f t="shared" si="7"/>
         <v>-0.58000000000000007</v>
       </c>
     </row>
@@ -6407,7 +6410,7 @@
         <v>1.57</v>
       </c>
       <c r="G162" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.38938053097345149</v>
       </c>
       <c r="H162" s="2" t="s">
@@ -6418,7 +6421,7 @@
         <v>-1</v>
       </c>
       <c r="J162" s="2" t="str">
-        <f>IF(NOT(A162=A163),(SUMIFS(I:I, A:A, A162)+SUMIFS(D:D, A:A, A162))/SUMIFS(D:D, A:A, A162)-1,"")</f>
+        <f t="shared" ref="J162:J193" si="9">IF(NOT(A162=A163),(SUMIFS(I:I, A:A, A162)+SUMIFS(D:D, A:A, A162))/SUMIFS(D:D, A:A, A162)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6442,7 +6445,7 @@
         <v>1.65</v>
       </c>
       <c r="G163" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.18705035971223016</v>
       </c>
       <c r="H163" s="2" t="s">
@@ -6453,7 +6456,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="J163" s="2" t="str">
-        <f>IF(NOT(A163=A164),(SUMIFS(I:I, A:A, A163)+SUMIFS(D:D, A:A, A163))/SUMIFS(D:D, A:A, A163)-1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6477,7 +6480,7 @@
         <v>1.45</v>
       </c>
       <c r="G164" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.23931623931623935</v>
       </c>
       <c r="H164" s="2" t="s">
@@ -6488,7 +6491,7 @@
         <v>-1</v>
       </c>
       <c r="J164" s="2">
-        <f>IF(NOT(A164=A165),(SUMIFS(I:I, A:A, A164)+SUMIFS(D:D, A:A, A164))/SUMIFS(D:D, A:A, A164)-1,"")</f>
+        <f t="shared" si="9"/>
         <v>-0.45000000000000007</v>
       </c>
     </row>
@@ -6512,7 +6515,7 @@
         <v>1.51</v>
       </c>
       <c r="G165" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.26890756302521024</v>
       </c>
       <c r="H165" s="2" t="s">
@@ -6523,7 +6526,7 @@
         <v>-1</v>
       </c>
       <c r="J165" s="2" t="str">
-        <f>IF(NOT(A165=A166),(SUMIFS(I:I, A:A, A165)+SUMIFS(D:D, A:A, A165))/SUMIFS(D:D, A:A, A165)-1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6547,7 +6550,7 @@
         <v>1.95</v>
       </c>
       <c r="G166" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.32653061224489788</v>
       </c>
       <c r="H166" s="2" t="s">
@@ -6558,7 +6561,7 @@
         <v>0.95</v>
       </c>
       <c r="J166" s="2" t="str">
-        <f>IF(NOT(A166=A167),(SUMIFS(I:I, A:A, A166)+SUMIFS(D:D, A:A, A166))/SUMIFS(D:D, A:A, A166)-1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6582,7 +6585,7 @@
         <v>3.4</v>
       </c>
       <c r="G167" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.53153153153153143</v>
       </c>
       <c r="H167" s="2" t="s">
@@ -6593,7 +6596,7 @@
         <v>-2</v>
       </c>
       <c r="J167" s="2" t="str">
-        <f>IF(NOT(A167=A168),(SUMIFS(I:I, A:A, A167)+SUMIFS(D:D, A:A, A167))/SUMIFS(D:D, A:A, A167)-1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6617,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="G168" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.60427807486631013</v>
       </c>
       <c r="H168" s="2" t="s">
@@ -6628,7 +6631,7 @@
         <v>2</v>
       </c>
       <c r="J168" s="2">
-        <f>IF(NOT(A168=A169),(SUMIFS(I:I, A:A, A168)+SUMIFS(D:D, A:A, A168))/SUMIFS(D:D, A:A, A168)-1,"")</f>
+        <f t="shared" si="9"/>
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
@@ -6652,7 +6655,7 @@
         <v>1.48</v>
       </c>
       <c r="G169" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.34545454545454524</v>
       </c>
       <c r="H169" s="2" t="s">
@@ -6663,7 +6666,7 @@
         <v>0.48</v>
       </c>
       <c r="J169" s="2" t="str">
-        <f t="shared" ref="J169:J172" si="4">IF(NOT(A169=A170),(SUMIFS(I:I, A:A, A169)+SUMIFS(D:D, A:A, A169))/SUMIFS(D:D, A:A, A169)-1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6687,7 +6690,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G170" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.43356643356643354</v>
       </c>
       <c r="H170" s="2" t="s">
@@ -6698,7 +6701,7 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="J170" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6722,7 +6725,7 @@
         <v>1.8</v>
       </c>
       <c r="G171" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17647058823529416</v>
       </c>
       <c r="H171" s="2" t="s">
@@ -6733,7 +6736,7 @@
         <v>0.8</v>
       </c>
       <c r="J171" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6757,7 +6760,7 @@
         <v>2.4</v>
       </c>
       <c r="G172" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.31868131868131866</v>
       </c>
       <c r="H172" s="2" t="s">
@@ -6768,7 +6771,7 @@
         <v>-1</v>
       </c>
       <c r="J172" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.33250000000000002</v>
       </c>
     </row>
@@ -6776,15 +6779,141 @@
       <c r="A173" s="1">
         <v>45404</v>
       </c>
+      <c r="B173" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1.47</v>
+      </c>
+      <c r="F173">
+        <v>1.87</v>
+      </c>
+      <c r="G173" s="2">
+        <f t="shared" si="8"/>
+        <v>0.27210884353741505</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I173" cm="1">
+        <f t="array" ref="I173">_xlfn.IFS(H173="Yes",F173*D173-D173,H173="no",-D173,H173="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J173" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B174" t="s">
+        <v>83</v>
+      </c>
+      <c r="C174" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1.26</v>
+      </c>
+      <c r="F174">
+        <v>1.71</v>
+      </c>
+      <c r="G174" s="2">
+        <f t="shared" si="8"/>
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I174" cm="1">
+        <f t="array" ref="I174">_xlfn.IFS(H174="Yes",F174*D174-D174,H174="no",-D174,H174="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J174" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B175" t="s">
+        <v>47</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1.19</v>
+      </c>
+      <c r="F175">
+        <v>1.51</v>
+      </c>
+      <c r="G175" s="2">
+        <f t="shared" si="8"/>
+        <v>0.26890756302521024</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I175" cm="1">
+        <f t="array" ref="I175">_xlfn.IFS(H175="Yes",F175*D175-D175,H175="no",-D175,H175="push",0)</f>
+        <v>0.51</v>
+      </c>
+      <c r="J175" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B176" t="s">
+        <v>110</v>
+      </c>
+      <c r="C176" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>1.27</v>
+      </c>
+      <c r="F176">
+        <v>1.59</v>
+      </c>
+      <c r="G176" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25196850393700787</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I176" cm="1">
+        <f t="array" ref="I176">_xlfn.IFS(H176="Yes",F176*D176-D176,H176="no",-D176,H176="push",0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J176" s="2">
+        <f t="shared" si="9"/>
+        <v>-0.62250000000000005</v>
+      </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
@@ -6798,27 +6927,45 @@
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
     </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+    </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D183">
-        <f>SUM(D2:D182)</f>
-        <v>187</v>
-      </c>
-      <c r="I183">
-        <f>SUM(I2:I182)+D183</f>
-        <v>180.91</v>
-      </c>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I184" s="3">
-        <f>I183/D183-1</f>
-        <v>-3.256684491978612E-2</v>
-      </c>
-      <c r="J184" t="s">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <f>SUM(D2:D188)</f>
+        <v>191</v>
+      </c>
+      <c r="I189">
+        <f>SUM(I2:I188)+D189</f>
+        <v>182.42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I190" s="3">
+        <f>I189/D189-1</f>
+        <v>-4.4921465968586483E-2</v>
+      </c>
+      <c r="J190" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I159" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I176" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1FDD44-0EE2-4BB8-A734-521B96A7657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FFCACC-53EF-498F-8EE5-B4BA92063E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
   </si>
 </sst>
 </file>
@@ -743,8 +746,8 @@
   <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6025,7 +6028,7 @@
         <v>2.7</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" ref="G151:G176" si="8">F151/E151-1</f>
+        <f t="shared" ref="G151:G180" si="8">F151/E151-1</f>
         <v>0.73076923076923084</v>
       </c>
       <c r="H151" s="2" t="s">
@@ -6421,7 +6424,7 @@
         <v>-1</v>
       </c>
       <c r="J162" s="2" t="str">
-        <f t="shared" ref="J162:J193" si="9">IF(NOT(A162=A163),(SUMIFS(I:I, A:A, A162)+SUMIFS(D:D, A:A, A162))/SUMIFS(D:D, A:A, A162)-1,"")</f>
+        <f t="shared" ref="J162:J176" si="9">IF(NOT(A162=A163),(SUMIFS(I:I, A:A, A162)+SUMIFS(D:D, A:A, A162))/SUMIFS(D:D, A:A, A162)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -6916,16 +6919,100 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B177" t="s">
+        <v>66</v>
+      </c>
+      <c r="C177" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1.22</v>
+      </c>
+      <c r="F177">
+        <v>1.48</v>
+      </c>
+      <c r="G177" s="2">
+        <f t="shared" si="8"/>
+        <v>0.21311475409836067</v>
+      </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B178" t="s">
+        <v>108</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>1.43</v>
+      </c>
+      <c r="F178">
+        <v>1.6</v>
+      </c>
+      <c r="G178" s="2">
+        <f t="shared" si="8"/>
+        <v>0.11888111888111896</v>
+      </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B179" t="s">
+        <v>111</v>
+      </c>
+      <c r="C179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1.51</v>
+      </c>
+      <c r="F179">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G179" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7152317880794699</v>
+      </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B180" t="s">
+        <v>37</v>
+      </c>
+      <c r="C180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1.35</v>
+      </c>
+      <c r="F180">
+        <v>1.74</v>
+      </c>
+      <c r="G180" s="2">
+        <f t="shared" si="8"/>
+        <v>0.28888888888888875</v>
+      </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
@@ -6948,17 +7035,17 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D189">
         <f>SUM(D2:D188)</f>
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I189">
         <f>SUM(I2:I188)+D189</f>
-        <v>182.42</v>
+        <v>186.42</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I190" s="3">
         <f>I189/D189-1</f>
-        <v>-4.4921465968586483E-2</v>
+        <v>-4.4000000000000039E-2</v>
       </c>
       <c r="J190" t="s">
         <v>26</v>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0D26FD-6BFE-4C54-A175-D8CD9AE167A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97FEF55-2870-495F-8BE2-460AFC4219BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3990" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15509,7 +15509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97FEF55-2870-495F-8BE2-460AFC4219BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E9B8D-5C7D-47CD-80D6-FADC1B8D1139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="5026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="5032">
   <si>
     <t>Date</t>
   </si>
@@ -15142,6 +15142,24 @@
   </si>
   <si>
     <t>E(X) Payout</t>
+  </si>
+  <si>
+    <t>cam thomas</t>
+  </si>
+  <si>
+    <t>j murray</t>
+  </si>
+  <si>
+    <t>c braun</t>
+  </si>
+  <si>
+    <t>daniel gafford</t>
+  </si>
+  <si>
+    <t>klay t</t>
+  </si>
+  <si>
+    <t>mike conley</t>
   </si>
 </sst>
 </file>
@@ -15509,7 +15527,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16087,28 +16105,60 @@
       <c r="A17" s="1">
         <v>45594</v>
       </c>
-      <c r="G17" s="2" t="e">
+      <c r="B17" t="s">
+        <v>5026</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1.71</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.71</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="e">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="G18" s="2" t="e">
+      <c r="A18" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5027</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.29</v>
+      </c>
+      <c r="F18">
+        <v>1.77</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.37209302325581395</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16116,14 +16166,31 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="G19" s="2" t="e">
+      <c r="A19" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5027</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.75</v>
+      </c>
+      <c r="F19">
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.5714285714285716</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16131,14 +16198,31 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="G20" s="2" t="e">
+      <c r="A20" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5028</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1.39</v>
+      </c>
+      <c r="F20">
+        <v>2.65</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.90647482014388503</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J20" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16146,14 +16230,31 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="G21" s="2" t="e">
+      <c r="A21" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5029</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1.02</v>
+      </c>
+      <c r="F21">
+        <v>1.87</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.83333333333333348</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16161,14 +16262,31 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="G22" s="2" t="e">
+      <c r="A22" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1.27</v>
+      </c>
+      <c r="F22">
+        <v>2.65</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.0866141732283463</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16176,18 +16294,35 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="G23" s="2" t="e">
+      <c r="A23" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3.7</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -17791,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="str">
-        <f t="shared" ref="J130:J176" si="9">IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
+        <f t="shared" ref="J130:J186" si="9">IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -18495,6 +18630,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J177" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
@@ -18506,6 +18645,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J178" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
@@ -18517,6 +18660,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J179" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
@@ -18528,6 +18675,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J180" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
@@ -18539,6 +18690,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J181" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
@@ -18550,6 +18705,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J182" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
@@ -18561,6 +18720,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J183" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
@@ -18572,6 +18735,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J184" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
@@ -18583,6 +18750,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J185" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
@@ -18594,11 +18765,15 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="J186" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D189">
         <f>SUM(D2:D188)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I189">
         <f>SUM(I2:I188)+D189</f>
@@ -18608,7 +18783,7 @@
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I190" s="3">
         <f>I189/D189-1</f>
-        <v>0.59666666666666668</v>
+        <v>8.8636363636363624E-2</v>
       </c>
       <c r="J190" t="s">
         <v>26</v>
@@ -18632,7 +18807,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="0"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
@@ -24977,8 +25152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557B8856-A6EC-40CA-B22E-FADBC4FDEE8D}">
   <dimension ref="A1:A4900"/>
   <sheetViews>
-    <sheetView topLeftCell="A4313" workbookViewId="0">
-      <selection activeCell="A4331" sqref="A4331"/>
+    <sheetView topLeftCell="A1604" workbookViewId="0">
+      <selection activeCell="A1624" sqref="A1624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E9B8D-5C7D-47CD-80D6-FADC1B8D1139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE84A29F-AA0B-48F1-8519-4DE1EBB5B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="5032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="5032">
   <si>
     <t>Date</t>
   </si>
@@ -15527,7 +15527,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16124,6 +16124,9 @@
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I17">
         <f t="shared" si="1"/>
         <v>-1</v>
@@ -16156,6 +16159,9 @@
         <f t="shared" si="0"/>
         <v>0.37209302325581395</v>
       </c>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I18">
         <f t="shared" si="1"/>
         <v>-1</v>
@@ -16188,6 +16194,9 @@
         <f t="shared" si="0"/>
         <v>1.5714285714285716</v>
       </c>
+      <c r="H19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I19">
         <f t="shared" si="1"/>
         <v>-1</v>
@@ -16220,6 +16229,9 @@
         <f t="shared" si="0"/>
         <v>0.90647482014388503</v>
       </c>
+      <c r="H20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I20">
         <f t="shared" si="1"/>
         <v>-1</v>
@@ -16252,9 +16264,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333348</v>
       </c>
+      <c r="H21" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.87000000000000011</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16284,6 +16299,9 @@
         <f t="shared" si="0"/>
         <v>1.0866141732283463</v>
       </c>
+      <c r="H22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I22">
         <f t="shared" si="1"/>
         <v>-1</v>
@@ -16316,13 +16334,16 @@
         <f t="shared" si="0"/>
         <v>0.85000000000000009</v>
       </c>
+      <c r="H23" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>2.7</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-0.20428571428571429</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -18777,13 +18798,13 @@
       </c>
       <c r="I189">
         <f>SUM(I2:I188)+D189</f>
-        <v>23.95</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I190" s="3">
         <f>I189/D189-1</f>
-        <v>8.8636363636363624E-2</v>
+        <v>0.3418181818181818</v>
       </c>
       <c r="J190" t="s">
         <v>26</v>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE84A29F-AA0B-48F1-8519-4DE1EBB5B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB15C0FD-24C1-4FB8-996B-A4DA57B0FED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="5032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="5047">
   <si>
     <t>Date</t>
   </si>
@@ -15160,6 +15160,51 @@
   </si>
   <si>
     <t>mike conley</t>
+  </si>
+  <si>
+    <t>Trae Y</t>
+  </si>
+  <si>
+    <t>R Hachimura</t>
+  </si>
+  <si>
+    <t>A Reaves</t>
+  </si>
+  <si>
+    <t>jaylen brown</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Gueschon Y</t>
+  </si>
+  <si>
+    <t>t maxey</t>
+  </si>
+  <si>
+    <t>jaden ivey</t>
+  </si>
+  <si>
+    <t>keldon johnson</t>
+  </si>
+  <si>
+    <t>j champagnie</t>
+  </si>
+  <si>
+    <t>h barnes</t>
+  </si>
+  <si>
+    <t>j hawkins</t>
+  </si>
+  <si>
+    <t>Kris Dunn</t>
+  </si>
+  <si>
+    <t>Jerami G</t>
   </si>
 </sst>
 </file>
@@ -15526,8 +15571,8 @@
   <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16347,14 +16392,34 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="G24" s="2" t="e">
+      <c r="A24" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1.29</v>
+      </c>
+      <c r="F24">
+        <v>1.83</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.41860465116279078</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="J24" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16362,14 +16427,34 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="G25" s="2" t="e">
+      <c r="A25" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F25">
+        <v>1.77</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.58035714285714279</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16377,14 +16462,34 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="G26" s="2" t="e">
+      <c r="A26" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5034</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1.22</v>
+      </c>
+      <c r="F26">
+        <v>2.65</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.1721311475409837</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16392,14 +16497,34 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="G27" s="2" t="e">
+      <c r="A27" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1.24</v>
+      </c>
+      <c r="F27">
+        <v>1.53</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.2338709677419355</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J27" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16407,14 +16532,34 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="G28" s="2" t="e">
+      <c r="A28" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5035</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1.06</v>
+      </c>
+      <c r="F28">
+        <v>1.69</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.59433962264150941</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="J28" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16422,14 +16567,34 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="G29" s="2" t="e">
+      <c r="A29" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1.17</v>
+      </c>
+      <c r="F29">
+        <v>1.54</v>
+      </c>
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.31623931623931645</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16437,14 +16602,34 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="G30" s="2" t="e">
+      <c r="A30" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5037</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1.22</v>
+      </c>
+      <c r="F30">
+        <v>1.8</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.47540983606557385</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J30" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16452,14 +16637,34 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="G31" s="2" t="e">
+      <c r="A31" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5038</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1.08</v>
+      </c>
+      <c r="F31">
+        <v>1.71</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16467,14 +16672,34 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="G32" s="2" t="e">
+      <c r="A32" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5039</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1.45</v>
+      </c>
+      <c r="F32">
+        <v>1.87</v>
+      </c>
+      <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.28965517241379324</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16482,14 +16707,34 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="G33" s="2" t="e">
+      <c r="A33" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5040</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1.91</v>
+      </c>
+      <c r="G33" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16497,14 +16742,34 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="G34" s="2" t="e">
+      <c r="A34" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5041</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F34">
+        <v>1.48</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="J34" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16512,14 +16777,34 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="G35" s="2" t="e">
+      <c r="A35" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5042</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1.8</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16527,14 +16812,34 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="G36" s="2" t="e">
+      <c r="A36" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5043</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1.4</v>
+      </c>
+      <c r="F36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G36" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.57142857142857162</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J36" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16542,14 +16847,34 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="G37" s="2" t="e">
+      <c r="A37" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1.04</v>
+      </c>
+      <c r="F37">
+        <v>1.67</v>
+      </c>
+      <c r="G37" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.60576923076923062</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16557,14 +16882,34 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="G38" s="2" t="e">
+      <c r="A38" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5044</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1.21</v>
+      </c>
+      <c r="F38">
+        <v>1.57</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.29752066115702491</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16572,14 +16917,34 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="G39" s="2" t="e">
+      <c r="A39" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5045</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F39">
+        <v>2.1</v>
+      </c>
+      <c r="G39" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16587,18 +16952,38 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="G40" s="2" t="e">
+      <c r="A40" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5046</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1.23</v>
+      </c>
+      <c r="F40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.78861788617886197</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="2">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-0.27411764705882358</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -18794,17 +19179,17 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D189">
         <f>SUM(D2:D188)</f>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I189">
         <f>SUM(I2:I188)+D189</f>
-        <v>29.52</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I190" s="3">
         <f>I189/D189-1</f>
-        <v>0.3418181818181818</v>
+        <v>7.333333333333325E-2</v>
       </c>
       <c r="J190" t="s">
         <v>26</v>
@@ -25173,8 +25558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557B8856-A6EC-40CA-B22E-FADBC4FDEE8D}">
   <dimension ref="A1:A4900"/>
   <sheetViews>
-    <sheetView topLeftCell="A1604" workbookViewId="0">
-      <selection activeCell="A1624" sqref="A1624"/>
+    <sheetView topLeftCell="A3956" workbookViewId="0">
+      <selection activeCell="A3976" sqref="A3976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB15C0FD-24C1-4FB8-996B-A4DA57B0FED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DE9506-46CB-43C5-8AD1-4B758158CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15360" yWindow="-1740" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="5047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5549" uniqueCount="5060">
   <si>
     <t>Date</t>
   </si>
@@ -15205,6 +15205,45 @@
   </si>
   <si>
     <t>Jerami G</t>
+  </si>
+  <si>
+    <t>J Suggs</t>
+  </si>
+  <si>
+    <t>M Wagner</t>
+  </si>
+  <si>
+    <t>T Rozier</t>
+  </si>
+  <si>
+    <t>T herro</t>
+  </si>
+  <si>
+    <t>J Ivey</t>
+  </si>
+  <si>
+    <t>k kuzma</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Julian Champagnie</t>
+  </si>
+  <si>
+    <t>H Barnes</t>
+  </si>
+  <si>
+    <t>D Jones Jr</t>
+  </si>
+  <si>
+    <t>F Vanvleet</t>
+  </si>
+  <si>
+    <t>D brooks</t>
+  </si>
+  <si>
+    <t>B ingram</t>
   </si>
 </sst>
 </file>
@@ -15238,7 +15277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15257,6 +15296,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -15271,7 +15334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -15287,6 +15350,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15571,8 +15638,8 @@
   <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16987,14 +17054,31 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="G41" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A41" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5047</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1.18</v>
+      </c>
+      <c r="F41">
+        <v>1.56</v>
+      </c>
+      <c r="G41" s="2">
+        <f>F41/E41-1</f>
+        <v>0.32203389830508478</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H41="Yes",F40*D40-D40,-D40)</f>
+        <v>-1</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17002,14 +17086,31 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="G42" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A42" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5048</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1.27</v>
+      </c>
+      <c r="F42">
+        <v>1.61</v>
+      </c>
+      <c r="G42" s="2">
+        <f>F42/E42-1</f>
+        <v>0.26771653543307083</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H42="Yes",F41*D41-D41,-D41)</f>
+        <v>-1</v>
       </c>
       <c r="J42" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17017,14 +17118,31 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="G43" s="2" t="e">
+      <c r="A43" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1.21</v>
+      </c>
+      <c r="F43">
+        <v>1.67</v>
+      </c>
+      <c r="G43" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.38016528925619841</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H43="Yes",F42*D42-D42,-D42)</f>
+        <v>-1</v>
       </c>
       <c r="J43" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17032,14 +17150,31 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="G44" s="2" t="e">
+      <c r="A44" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5050</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1.75</v>
+      </c>
+      <c r="F44">
+        <v>2.15</v>
+      </c>
+      <c r="G44" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.22857142857142843</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J44" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17047,14 +17182,31 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="G45" s="2" t="e">
+      <c r="A45" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1.22</v>
+      </c>
+      <c r="F45">
+        <v>1.51</v>
+      </c>
+      <c r="G45" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.23770491803278682</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J45" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17062,14 +17214,31 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="G46" s="2" t="e">
+      <c r="A46" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>5051</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F46">
+        <v>1.53</v>
+      </c>
+      <c r="G46" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.34210526315789491</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J46" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17077,14 +17246,31 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="G47" s="2" t="e">
+      <c r="A47" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1.48</v>
+      </c>
+      <c r="F47">
+        <v>1.95</v>
+      </c>
+      <c r="G47" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.31756756756756754</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J47" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17092,14 +17278,31 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="G48" s="2" t="e">
+      <c r="A48" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1.58</v>
+      </c>
+      <c r="F48">
+        <v>1.91</v>
+      </c>
+      <c r="G48" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.20886075949367089</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J48" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17107,14 +17310,31 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="G49" s="2" t="e">
+      <c r="A49" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>5053</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1.74</v>
+      </c>
+      <c r="F49">
+        <v>2.6</v>
+      </c>
+      <c r="G49" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.49425287356321834</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J49" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17122,14 +17342,31 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="G50" s="2" t="e">
+      <c r="A50" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>5054</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1.03</v>
+      </c>
+      <c r="F50">
+        <v>1.57</v>
+      </c>
+      <c r="G50" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.52427184466019416</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J50" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17137,14 +17374,31 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="G51" s="2" t="e">
+      <c r="A51" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>5055</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1.47</v>
+      </c>
+      <c r="F51">
+        <v>2.15</v>
+      </c>
+      <c r="G51" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.46258503401360551</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17152,14 +17406,31 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="G52" s="2" t="e">
+      <c r="A52" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5054</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1.65</v>
+      </c>
+      <c r="F52">
+        <v>3.3</v>
+      </c>
+      <c r="G52" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17167,14 +17438,31 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="G53" s="2" t="e">
+      <c r="A53" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>5056</v>
+      </c>
+      <c r="C53" s="12">
+        <v>4</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12">
+        <v>1.71</v>
+      </c>
+      <c r="F53" s="12">
+        <v>2.15</v>
+      </c>
+      <c r="G53" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.25730994152046782</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17182,14 +17470,31 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="G54" s="2" t="e">
+      <c r="A54" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5057</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1.4</v>
+      </c>
+      <c r="F54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G54" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.64285714285714279</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17197,14 +17502,31 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="G55" s="2" t="e">
+      <c r="A55" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5058</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1.44</v>
+      </c>
+      <c r="F55">
+        <v>2.75</v>
+      </c>
+      <c r="G55" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.90972222222222232</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J55" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17212,18 +17534,35 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="G56" s="2" t="e">
+      <c r="A56" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5059</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1.32</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J56" s="2">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -19179,7 +19518,7 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D189">
         <f>SUM(D2:D188)</f>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I189">
         <f>SUM(I2:I188)+D189</f>
@@ -19189,7 +19528,7 @@
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I190" s="3">
         <f>I189/D189-1</f>
-        <v>7.333333333333325E-2</v>
+        <v>-0.23890909090909096</v>
       </c>
       <c r="J190" t="s">
         <v>26</v>
@@ -25558,8 +25897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557B8856-A6EC-40CA-B22E-FADBC4FDEE8D}">
   <dimension ref="A1:A4900"/>
   <sheetViews>
-    <sheetView topLeftCell="A3956" workbookViewId="0">
-      <selection activeCell="A3976" sqref="A3976"/>
+    <sheetView topLeftCell="A4494" workbookViewId="0">
+      <selection activeCell="A4514" sqref="A4514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DE9506-46CB-43C5-8AD1-4B758158CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60585211-FEB4-4FF8-9483-B6D4A66018A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15360" yWindow="-1740" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13575" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2023'!$A$1:$I$180</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024'!$A$1:$I$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024'!$A$1:$J$180</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5549" uniqueCount="5060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="5066">
   <si>
     <t>Date</t>
   </si>
@@ -15244,6 +15244,24 @@
   </si>
   <si>
     <t>B ingram</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Green / Yellow /Red</t>
+  </si>
+  <si>
+    <t>Kyrie</t>
+  </si>
+  <si>
+    <t>D'aaron fox</t>
   </si>
 </sst>
 </file>
@@ -15277,7 +15295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15296,30 +15314,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -15334,7 +15328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -15350,16 +15344,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -15635,11 +15669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAA2F51-0A68-4FF9-B218-8013E5644C35}">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15650,13 +15684,13 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -15679,16 +15713,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>5063</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45593</v>
       </c>
@@ -15711,19 +15748,19 @@
         <f t="shared" ref="G2:G65" si="0">F2/E2-1</f>
         <v>0.21582733812949639</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I65" si="1">IF(H2="Yes",F2*D2-D2,-D2)</f>
+      <c r="J2">
+        <f>IF(I2="Yes",F2*D2-D2,-D2)</f>
         <v>0.69</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J7" si="2">IF(NOT(A2=A3),(SUMIFS(I:I, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K7" si="1">IF(NOT(A2=A3),(SUMIFS(J:J, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45593</v>
       </c>
@@ -15746,19 +15783,19 @@
         <f t="shared" si="0"/>
         <v>0.27611940298507442</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <f>IF(I3="Yes",F3*D3-D3,-D3)</f>
+        <v>0.71</v>
+      </c>
+      <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.71</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45593</v>
       </c>
@@ -15781,19 +15818,19 @@
         <f t="shared" si="0"/>
         <v>0.21301775147928992</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <f>IF(I4="Yes",F4*D4-D4,-D4)</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="K4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45593</v>
       </c>
@@ -15816,19 +15853,19 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <f>IF(I5="Yes",F5*D5-D5,-D5)</f>
+        <v>-1</v>
+      </c>
+      <c r="K5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45593</v>
       </c>
@@ -15851,19 +15888,19 @@
         <f t="shared" si="0"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <f>IF(I6="Yes",F6*D6-D6,-D6)</f>
+        <v>-1</v>
+      </c>
+      <c r="K6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45593</v>
       </c>
@@ -15886,19 +15923,19 @@
         <f t="shared" si="0"/>
         <v>0.40410958904109573</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7">
+      <c r="J7">
+        <f>IF(I7="Yes",F7*D7-D7,-D7)</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="K7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45593</v>
       </c>
@@ -15921,19 +15958,19 @@
         <f t="shared" si="0"/>
         <v>1.5925925925925921</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
+      <c r="J8">
+        <f>IF(I8="Yes",F8*D8-D8,-D8)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" ref="J8:J65" si="3">IF(NOT(A8=A9),(SUMIFS(I:I, A:A, A8)+SUMIFS(D:D, A:A, A8))/SUMIFS(D:D, A:A, A8)-1,"")</f>
+      <c r="K8" s="2" t="str">
+        <f t="shared" ref="K8:K65" si="2">IF(NOT(A8=A9),(SUMIFS(J:J, A:A, A8)+SUMIFS(D:D, A:A, A8))/SUMIFS(D:D, A:A, A8)-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45593</v>
       </c>
@@ -15956,19 +15993,19 @@
         <f t="shared" si="0"/>
         <v>0.29411764705882359</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
+      <c r="J9">
+        <f>IF(I9="Yes",F9*D9-D9,-D9)</f>
         <v>0.54</v>
       </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45593</v>
       </c>
@@ -15991,19 +16028,19 @@
         <f t="shared" si="0"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
+      <c r="J10">
+        <f>IF(I10="Yes",F10*D10-D10,-D10)</f>
         <v>0.83000000000000007</v>
       </c>
-      <c r="J10" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45593</v>
       </c>
@@ -16026,19 +16063,19 @@
         <f t="shared" si="0"/>
         <v>2.4090909090909087</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
+      <c r="J11">
+        <f>IF(I11="Yes",F11*D11-D11,-D11)</f>
         <v>-1</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45593</v>
       </c>
@@ -16061,19 +16098,19 @@
         <f t="shared" si="0"/>
         <v>0.65289256198347112</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
+      <c r="J12">
+        <f>IF(I12="Yes",F12*D12-D12,-D12)</f>
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45593</v>
       </c>
@@ -16096,19 +16133,19 @@
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
+      <c r="J13">
+        <f>IF(I13="Yes",F13*D13-D13,-D13)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J13" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45593</v>
       </c>
@@ -16131,19 +16168,19 @@
         <f t="shared" si="0"/>
         <v>0.2338709677419355</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
+      <c r="J14">
+        <f>IF(I14="Yes",F14*D14-D14,-D14)</f>
         <v>-1</v>
       </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45593</v>
       </c>
@@ -16166,19 +16203,19 @@
         <f t="shared" si="0"/>
         <v>0.36885245901639352</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
+      <c r="J15">
+        <f>IF(I15="Yes",F15*D15-D15,-D15)</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45593</v>
       </c>
@@ -16201,19 +16238,19 @@
         <f t="shared" si="0"/>
         <v>0.62857142857142856</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
+      <c r="J16">
+        <f>IF(I16="Yes",F16*D16-D16,-D16)</f>
         <v>0.71</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="3"/>
+      <c r="K16" s="2">
+        <f t="shared" si="2"/>
         <v>0.59666666666666668</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45594</v>
       </c>
@@ -16236,19 +16273,19 @@
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
+      <c r="J17">
+        <f>IF(I17="Yes",F17*D17-D17,-D17)</f>
         <v>-1</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45594</v>
       </c>
@@ -16271,19 +16308,19 @@
         <f t="shared" si="0"/>
         <v>0.37209302325581395</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
+      <c r="J18">
+        <f>IF(I18="Yes",F18*D18-D18,-D18)</f>
         <v>-1</v>
       </c>
-      <c r="J18" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45594</v>
       </c>
@@ -16306,19 +16343,19 @@
         <f t="shared" si="0"/>
         <v>1.5714285714285716</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
+      <c r="J19">
+        <f>IF(I19="Yes",F19*D19-D19,-D19)</f>
         <v>-1</v>
       </c>
-      <c r="J19" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45594</v>
       </c>
@@ -16341,19 +16378,19 @@
         <f t="shared" si="0"/>
         <v>0.90647482014388503</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
+      <c r="J20">
+        <f>IF(I20="Yes",F20*D20-D20,-D20)</f>
         <v>-1</v>
       </c>
-      <c r="J20" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45594</v>
       </c>
@@ -16376,19 +16413,19 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333348</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
+      <c r="J21">
+        <f>IF(I21="Yes",F21*D21-D21,-D21)</f>
         <v>0.87000000000000011</v>
       </c>
-      <c r="J21" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45594</v>
       </c>
@@ -16411,19 +16448,19 @@
         <f t="shared" si="0"/>
         <v>1.0866141732283463</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
+      <c r="J22">
+        <f>IF(I22="Yes",F22*D22-D22,-D22)</f>
         <v>-1</v>
       </c>
-      <c r="J22" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45594</v>
       </c>
@@ -16446,19 +16483,19 @@
         <f t="shared" si="0"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
+      <c r="J23">
+        <f>IF(I23="Yes",F23*D23-D23,-D23)</f>
         <v>2.7</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="3"/>
+      <c r="K23" s="2">
+        <f t="shared" si="2"/>
         <v>-0.20428571428571429</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45595</v>
       </c>
@@ -16481,19 +16518,19 @@
         <f t="shared" si="0"/>
         <v>0.41860465116279078</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
+      <c r="J24">
+        <f>IF(I24="Yes",F24*D24-D24,-D24)</f>
         <v>0.83000000000000007</v>
       </c>
-      <c r="J24" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45595</v>
       </c>
@@ -16516,19 +16553,19 @@
         <f t="shared" si="0"/>
         <v>0.58035714285714279</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
+      <c r="J25">
+        <f>IF(I25="Yes",F25*D25-D25,-D25)</f>
         <v>0.77</v>
       </c>
-      <c r="J25" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45595</v>
       </c>
@@ -16551,19 +16588,19 @@
         <f t="shared" si="0"/>
         <v>1.1721311475409837</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
+      <c r="J26">
+        <f>IF(I26="Yes",F26*D26-D26,-D26)</f>
         <v>-1</v>
       </c>
-      <c r="J26" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45595</v>
       </c>
@@ -16586,19 +16623,19 @@
         <f t="shared" si="0"/>
         <v>0.2338709677419355</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
+      <c r="J27">
+        <f>IF(I27="Yes",F27*D27-D27,-D27)</f>
         <v>-1</v>
       </c>
-      <c r="J27" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45595</v>
       </c>
@@ -16621,19 +16658,19 @@
         <f t="shared" si="0"/>
         <v>0.59433962264150941</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
+      <c r="J28">
+        <f>IF(I28="Yes",F28*D28-D28,-D28)</f>
         <v>0.69</v>
       </c>
-      <c r="J28" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45595</v>
       </c>
@@ -16656,19 +16693,19 @@
         <f t="shared" si="0"/>
         <v>0.31623931623931645</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
+      <c r="J29">
+        <f>IF(I29="Yes",F29*D29-D29,-D29)</f>
         <v>-1</v>
       </c>
-      <c r="J29" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45595</v>
       </c>
@@ -16691,19 +16728,19 @@
         <f t="shared" si="0"/>
         <v>0.47540983606557385</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
+      <c r="J30">
+        <f>IF(I30="Yes",F30*D30-D30,-D30)</f>
         <v>0.8</v>
       </c>
-      <c r="J30" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45595</v>
       </c>
@@ -16726,19 +16763,19 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
+      <c r="J31">
+        <f>IF(I31="Yes",F31*D31-D31,-D31)</f>
         <v>-1</v>
       </c>
-      <c r="J31" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K31" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45595</v>
       </c>
@@ -16761,19 +16798,19 @@
         <f t="shared" si="0"/>
         <v>0.28965517241379324</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
+      <c r="J32">
+        <f>IF(I32="Yes",F32*D32-D32,-D32)</f>
         <v>-1</v>
       </c>
-      <c r="J32" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K32" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45595</v>
       </c>
@@ -16796,19 +16833,19 @@
         <f t="shared" si="0"/>
         <v>0.90999999999999992</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
+      <c r="J33">
+        <f>IF(I33="Yes",F33*D33-D33,-D33)</f>
         <v>-1</v>
       </c>
-      <c r="J33" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K33" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45595</v>
       </c>
@@ -16831,19 +16868,19 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
+      <c r="J34">
+        <f>IF(I34="Yes",F34*D34-D34,-D34)</f>
         <v>0.48</v>
       </c>
-      <c r="J34" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K34" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45595</v>
       </c>
@@ -16866,19 +16903,19 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
+      <c r="J35">
+        <f>IF(I35="Yes",F35*D35-D35,-D35)</f>
         <v>-1</v>
       </c>
-      <c r="J35" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K35" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45595</v>
       </c>
@@ -16901,19 +16938,19 @@
         <f t="shared" si="0"/>
         <v>0.57142857142857162</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
+      <c r="J36">
+        <f>IF(I36="Yes",F36*D36-D36,-D36)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="J36" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K36" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45595</v>
       </c>
@@ -16936,19 +16973,19 @@
         <f t="shared" si="0"/>
         <v>0.60576923076923062</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
+      <c r="J37">
+        <f>IF(I37="Yes",F37*D37-D37,-D37)</f>
         <v>-1</v>
       </c>
-      <c r="J37" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K37" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45595</v>
       </c>
@@ -16971,19 +17008,19 @@
         <f t="shared" si="0"/>
         <v>0.29752066115702491</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
+      <c r="J38">
+        <f>IF(I38="Yes",F38*D38-D38,-D38)</f>
         <v>0.57000000000000006</v>
       </c>
-      <c r="J38" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K38" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45595</v>
       </c>
@@ -17006,19 +17043,19 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090895</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
+      <c r="J39">
+        <f>IF(I39="Yes",F39*D39-D39,-D39)</f>
         <v>-1</v>
       </c>
-      <c r="J39" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K39" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45595</v>
       </c>
@@ -17041,19 +17078,19 @@
         <f t="shared" si="0"/>
         <v>0.78861788617886197</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
+      <c r="J40">
+        <f>IF(I40="Yes",F40*D40-D40,-D40)</f>
         <v>-1</v>
       </c>
-      <c r="J40" s="2">
-        <f t="shared" si="3"/>
+      <c r="K40" s="2">
+        <f t="shared" si="2"/>
         <v>-0.27411764705882358</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45611</v>
       </c>
@@ -17076,16 +17113,19 @@
         <f>F41/E41-1</f>
         <v>0.32203389830508478</v>
       </c>
-      <c r="I41">
-        <f>IF(H41="Yes",F40*D40-D40,-D40)</f>
-        <v>-1</v>
-      </c>
-      <c r="J41" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="I41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <f>IF(I41="Yes",F41*D41-D41,-D41)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45611</v>
       </c>
@@ -17108,16 +17148,19 @@
         <f>F42/E42-1</f>
         <v>0.26771653543307083</v>
       </c>
-      <c r="I42">
-        <f>IF(H42="Yes",F41*D41-D41,-D41)</f>
-        <v>-1</v>
-      </c>
-      <c r="J42" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="I42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <f>IF(I42="Yes",F42*D42-D42,-D42)</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="K42" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45611</v>
       </c>
@@ -17140,16 +17183,19 @@
         <f t="shared" si="0"/>
         <v>0.38016528925619841</v>
       </c>
-      <c r="I43">
-        <f>IF(H43="Yes",F42*D42-D42,-D42)</f>
+      <c r="I43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43">
+        <f>IF(I43="Yes",F43*D43-D43,-D43)</f>
         <v>-1</v>
       </c>
-      <c r="J43" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K43" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45611</v>
       </c>
@@ -17172,304 +17218,352 @@
         <f t="shared" si="0"/>
         <v>0.22857142857142843</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
+      <c r="I44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <f>IF(I44="Yes",F44*D44-D44,-D44)</f>
         <v>-1</v>
       </c>
-      <c r="J44" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K44" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45611</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>5036</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="9">
         <v>4</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="9">
         <v>1</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="9">
         <v>1.22</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="9">
         <v>1.51</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="0"/>
         <v>0.23770491803278682</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
+      <c r="H45" s="2" t="s">
+        <v>5062</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <f>IF(I45="Yes",F45*D45-D45,-D45)</f>
         <v>-1</v>
       </c>
-      <c r="J45" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K45" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45611</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>5051</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="9">
         <v>4</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="9">
         <v>1</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="9">
         <v>1.53</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="0"/>
         <v>0.34210526315789491</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
+      <c r="H46" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <f>IF(I46="Yes",F46*D46-D46,-D46)</f>
         <v>-1</v>
       </c>
-      <c r="J46" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K46" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45611</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="9" t="s">
         <v>5016</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="9">
         <v>4</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="9">
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="9">
         <v>1.48</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="9">
         <v>1.95</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="0"/>
         <v>0.31756756756756754</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
+      <c r="I47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <f>IF(I47="Yes",F47*D47-D47,-D47)</f>
         <v>-1</v>
       </c>
-      <c r="J47" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K47" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45611</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="9" t="s">
         <v>5052</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="9">
         <v>6</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="9">
         <v>1</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="9">
         <v>1.58</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="9">
         <v>1.91</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="0"/>
         <v>0.20886075949367089</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J48" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="I48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <f>IF(I48="Yes",F48*D48-D48,-D48)</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="K48" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45611</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>5053</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="9">
         <v>6</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="9">
         <v>1</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="9">
         <v>1.74</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="9">
         <v>2.6</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="0"/>
         <v>0.49425287356321834</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
+      <c r="I49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49">
+        <f>IF(I49="Yes",F49*D49-D49,-D49)</f>
         <v>-1</v>
       </c>
-      <c r="J49" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K49" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45611</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>5054</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="9">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="9">
         <v>1</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="9">
         <v>1.03</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="9">
         <v>1.57</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="0"/>
         <v>0.52427184466019416</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J50" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="H50" s="2" t="s">
+        <v>5062</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <f>IF(I50="Yes",F50*D50-D50,-D50)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="K50" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45611</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>5055</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="9">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="9">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="9">
         <v>1.47</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="9">
         <v>2.15</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="0"/>
         <v>0.46258503401360551</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J51" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="H51" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <f>IF(I51="Yes",F51*D51-D51,-D51)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K51" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45611</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="9" t="s">
         <v>5054</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="9">
         <v>6</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="9">
         <v>1</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="9">
         <v>1.65</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="9">
         <v>3.3</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J52" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="H52" s="2" t="s">
+        <v>5062</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <f>IF(I52="Yes",F52*D52-D52,-D52)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K52" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45611</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="9" t="s">
         <v>5056</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="9">
         <v>4</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="9">
         <v>1</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="9">
         <v>1.71</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="9">
         <v>2.15</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="0"/>
         <v>0.25730994152046782</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J53" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="H53" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <f>IF(I53="Yes",F53*D53-D53,-D53)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K53" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45611</v>
       </c>
@@ -17492,16 +17586,19 @@
         <f t="shared" si="0"/>
         <v>0.64285714285714279</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J54" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="I54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54">
+        <f>IF(I54="Yes",F54*D54-D54,-D54)</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45611</v>
       </c>
@@ -17524,16 +17621,19 @@
         <f t="shared" si="0"/>
         <v>0.90972222222222232</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
+      <c r="I55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55">
+        <f>IF(I55="Yes",F55*D55-D55,-D55)</f>
         <v>-1</v>
       </c>
-      <c r="J55" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K55" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45611</v>
       </c>
@@ -17556,1988 +17656,2091 @@
         <f t="shared" si="0"/>
         <v>0.51515151515151514</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="1"/>
+      <c r="I56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <f>IF(I56="Yes",F56*D56-D56,-D56)</f>
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15937500000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1.25</v>
+      </c>
+      <c r="F57">
+        <v>1.61</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J57">
+        <f>IF(I57="Yes",F57*D57-D57,-D57)</f>
         <v>-1</v>
       </c>
-      <c r="J56" s="2">
-        <f t="shared" si="3"/>
+      <c r="K57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5035</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1.21</v>
+      </c>
+      <c r="F58">
+        <v>1.8</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48760330578512412</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>5062</v>
+      </c>
+      <c r="J58">
+        <f>IF(I58="Yes",F58*D58-D58,-D58)</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="G57" s="2" t="e">
+      <c r="K58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5064</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1.26</v>
+      </c>
+      <c r="F59">
+        <v>1.63</v>
+      </c>
+      <c r="G59" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="str">
-        <f t="shared" si="3"/>
+        <v>0.2936507936507935</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J59">
+        <f>IF(I59="Yes",F59*D59-D59,-D59)</f>
+        <v>-1</v>
+      </c>
+      <c r="K59" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="G58" s="2" t="e">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1.59</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="str">
-        <f t="shared" si="3"/>
+        <v>0.25786163522012573</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J60">
+        <f>IF(I60="Yes",F60*D60-D60,-D60)</f>
+        <v>-1</v>
+      </c>
+      <c r="K60" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="G59" s="2" t="e">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5065</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1.91</v>
+      </c>
+      <c r="F61">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G61" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="G60" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="G61" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.28272251308900542</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J61">
+        <f>IF(I61="Yes",F61*D61-D61,-D61)</f>
+        <v>-1</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="G62" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="1"/>
+      <c r="J62">
+        <f>IF(I62="Yes",F62*D62-D62,-D62)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K62" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="G63" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="1"/>
+      <c r="J63">
+        <f>IF(I63="Yes",F63*D63-D63,-D63)</f>
         <v>0</v>
       </c>
-      <c r="J63" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K63" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="G64" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="1"/>
+      <c r="J64">
+        <f>IF(I64="Yes",F64*D64-D64,-D64)</f>
         <v>0</v>
       </c>
-      <c r="J64" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K64" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="G65" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="1"/>
+      <c r="J65">
+        <f>IF(I65="Yes",F65*D65-D65,-D65)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="K65" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="G66" s="2" t="e">
-        <f t="shared" ref="G66:G129" si="4">F66/E66-1</f>
+        <f t="shared" ref="G66:G129" si="3">F66/E66-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66">
-        <f t="shared" ref="I66:I129" si="5">IF(H66="Yes",F66*D66-D66,-D66)</f>
+      <c r="J66">
+        <f t="shared" ref="J66:J129" si="4">IF(I66="Yes",F66*D66-D66,-D66)</f>
         <v>0</v>
       </c>
-      <c r="J66" s="2" t="str">
-        <f t="shared" ref="J66:J129" si="6">IF(NOT(A66=A67),(SUMIFS(I:I, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
+      <c r="K66" s="2" t="str">
+        <f t="shared" ref="K66:K129" si="5">IF(NOT(A66=A67),(SUMIFS(J:J, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="G67" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J67">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="G68" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="G69" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="G70" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="G71" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="G72" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="G73" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="G74" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="G75" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="G76" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="G77" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="G78" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="G79" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="G80" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="G81" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J81">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="G82" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="G83" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="G84" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="G85" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J85">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="G86" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="G87" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J87">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="G88" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="G89" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J89">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="G90" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J90">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="G91" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J91">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="G92" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J92">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="G93" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="G94" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="G95" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="G96" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="G97" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="G98" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="G99" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="K99" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="G100" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="G101" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="G102" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="G103" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="G104" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="G105" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="K105" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="G106" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J106">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="K106" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="G107" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="G108" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J108">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="K108" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="G109" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="G110" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J110">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="G111" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="K111" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="G112" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="G113" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J113">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="K113" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="G114" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J114">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="K114" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="G115" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J115">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="K115" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="G116" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="G117" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="G118" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J118">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="G119" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J119">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="G120" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J120">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="K120" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="G121" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="K121" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="G122" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="G123" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J123">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="K123" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="G124" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J124">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="G125" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J125">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="K125" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="G126" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J126">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="K126" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="G127" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J127">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="K127" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="G128" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J128">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="G129" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J129">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="G130" s="2" t="e">
-        <f t="shared" ref="G130:G186" si="7">F130/E130-1</f>
+        <f t="shared" ref="G130:G186" si="6">F130/E130-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I130">
-        <f t="shared" ref="I130:I186" si="8">IF(H130="Yes",F130*D130-D130,-D130)</f>
+      <c r="J130">
+        <f t="shared" ref="J130:J186" si="7">IF(I130="Yes",F130*D130-D130,-D130)</f>
         <v>0</v>
       </c>
-      <c r="J130" s="2" t="str">
-        <f t="shared" ref="J130:J186" si="9">IF(NOT(A130=A131),(SUMIFS(I:I, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
+      <c r="K130" s="2" t="str">
+        <f t="shared" ref="K130:K186" si="8">IF(NOT(A130=A131),(SUMIFS(J:J, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="G131" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J131">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="G132" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J132">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="K132" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="G133" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J133">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="K133" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="G134" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J134">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="K134" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="G135" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J135">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="K135" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="G136" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J136">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="K136" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="G137" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J137">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="K137" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="G138" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J138">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="K138" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="G139" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J139">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="K139" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="G140" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J140">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="K140" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="G141" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J141">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="K141" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="G142" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J142">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="K142" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="G143" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J143">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="G144" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J144">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="G145" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J145">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="G146" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J146">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="K146" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="G147" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J147">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="G148" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J148">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="K148" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="G149" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J149">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="G150" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J150">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="G151" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J151">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="K151" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="G152" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J152">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="K152" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="G153" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J153">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="G154" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J154">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="K154" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="G155" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J155">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="G156" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J156">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="K156" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J156" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="G157" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J157">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="K157" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="G158" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J158">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="K158" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="G159" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J159">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="G160" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J160">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="G161" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J161">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="G162" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J162">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="G163" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J163">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="G164" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J164">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J164" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="G165" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J165">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="K165" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J165" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="G166" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J166">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J166" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="G167" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J167">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J167" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="G168" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J168">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="K168" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="G169" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J169">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="K169" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="G170" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J170">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="K170" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="G171" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J171">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="K171" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="G172" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J172">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="K172" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="G173" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J173">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="K173" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="G174" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J174">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="K174" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="G175" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J175">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="K175" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="G176" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J176">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="K176" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="G177" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J177">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="K177" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="G178" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J178">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="K178" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="G179" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J179">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="K179" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="G180" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J180">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="K180" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="G181" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J181">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="K181" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="G182" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J182">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="K182" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="G183" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J183">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="K183" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="G184" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J184">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="K184" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="G185" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J185">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="K185" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="G186" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J186">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="K186" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D189">
         <f>SUM(D2:D188)</f>
-        <v>55</v>
-      </c>
-      <c r="I189">
-        <f>SUM(I2:I188)+D189</f>
-        <v>41.86</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I190" s="3">
-        <f>I189/D189-1</f>
-        <v>-0.23890909090909096</v>
-      </c>
-      <c r="J190" t="s">
+        <v>60</v>
+      </c>
+      <c r="J189">
+        <f>SUM(J2:J188)+D189</f>
+        <v>60.41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J190" s="3">
+        <f>J189/D189-1</f>
+        <v>6.8333333333332469E-3</v>
+      </c>
+      <c r="K190" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I180" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="J2:J7">
-    <cfRule type="colorScale" priority="1">
+  <autoFilter ref="A1:J180" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="K2:K7">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19548,8 +19751,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J1048576 J1">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="K8:K1048576 K1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -19558,6 +19761,17 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60585211-FEB4-4FF8-9483-B6D4A66018A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9448D0D-BD11-4ED0-A12F-EF4BCD7C5442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13575" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="5066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="5073">
   <si>
     <t>Date</t>
   </si>
@@ -15262,6 +15262,27 @@
   </si>
   <si>
     <t>D'aaron fox</t>
+  </si>
+  <si>
+    <t>D booker</t>
+  </si>
+  <si>
+    <t>Royce O'neale</t>
+  </si>
+  <si>
+    <t>Josh Okogie</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>D bane</t>
+  </si>
+  <si>
+    <t>S Pippen Jr</t>
+  </si>
+  <si>
+    <t>S Henderson</t>
   </si>
 </sst>
 </file>
@@ -15328,7 +15349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -15344,34 +15365,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -15389,7 +15388,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15672,8 +15671,8 @@
   <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15752,11 +15751,11 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <f>IF(I2="Yes",F2*D2-D2,-D2)</f>
+        <f t="shared" ref="J2:J33" si="1">IF(I2="Yes",F2*D2-D2,-D2)</f>
         <v>0.69</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K7" si="1">IF(NOT(A2=A3),(SUMIFS(J:J, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
+        <f t="shared" ref="K2:K7" si="2">IF(NOT(A2=A3),(SUMIFS(J:J, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -15787,11 +15786,11 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <f>IF(I3="Yes",F3*D3-D3,-D3)</f>
+        <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -15822,11 +15821,11 @@
         <v>8</v>
       </c>
       <c r="J4">
-        <f>IF(I4="Yes",F4*D4-D4,-D4)</f>
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -15857,11 +15856,11 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <f>IF(I5="Yes",F5*D5-D5,-D5)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -15892,11 +15891,11 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <f>IF(I6="Yes",F6*D6-D6,-D6)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -15927,11 +15926,11 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <f>IF(I7="Yes",F7*D7-D7,-D7)</f>
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -15962,11 +15961,11 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <f>IF(I8="Yes",F8*D8-D8,-D8)</f>
+        <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f t="shared" ref="K8:K65" si="2">IF(NOT(A8=A9),(SUMIFS(J:J, A:A, A8)+SUMIFS(D:D, A:A, A8))/SUMIFS(D:D, A:A, A8)-1,"")</f>
+        <f t="shared" ref="K8:K65" si="3">IF(NOT(A8=A9),(SUMIFS(J:J, A:A, A8)+SUMIFS(D:D, A:A, A8))/SUMIFS(D:D, A:A, A8)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -15997,11 +15996,11 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <f>IF(I9="Yes",F9*D9-D9,-D9)</f>
+        <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16032,11 +16031,11 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <f>IF(I10="Yes",F10*D10-D10,-D10)</f>
+        <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16067,11 +16066,11 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <f>IF(I11="Yes",F11*D11-D11,-D11)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16102,11 +16101,11 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <f>IF(I12="Yes",F12*D12-D12,-D12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16137,11 +16136,11 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <f>IF(I13="Yes",F13*D13-D13,-D13)</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16172,11 +16171,11 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <f>IF(I14="Yes",F14*D14-D14,-D14)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16207,11 +16206,11 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <f>IF(I15="Yes",F15*D15-D15,-D15)</f>
+        <f t="shared" si="1"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="K15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16242,11 +16241,11 @@
         <v>8</v>
       </c>
       <c r="J16">
-        <f>IF(I16="Yes",F16*D16-D16,-D16)</f>
+        <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59666666666666668</v>
       </c>
     </row>
@@ -16277,11 +16276,11 @@
         <v>9</v>
       </c>
       <c r="J17">
-        <f>IF(I17="Yes",F17*D17-D17,-D17)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16312,11 +16311,11 @@
         <v>9</v>
       </c>
       <c r="J18">
-        <f>IF(I18="Yes",F18*D18-D18,-D18)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16347,11 +16346,11 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <f>IF(I19="Yes",F19*D19-D19,-D19)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16382,11 +16381,11 @@
         <v>9</v>
       </c>
       <c r="J20">
-        <f>IF(I20="Yes",F20*D20-D20,-D20)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16417,11 +16416,11 @@
         <v>8</v>
       </c>
       <c r="J21">
-        <f>IF(I21="Yes",F21*D21-D21,-D21)</f>
+        <f t="shared" si="1"/>
         <v>0.87000000000000011</v>
       </c>
       <c r="K21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16452,11 +16451,11 @@
         <v>9</v>
       </c>
       <c r="J22">
-        <f>IF(I22="Yes",F22*D22-D22,-D22)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16487,11 +16486,11 @@
         <v>8</v>
       </c>
       <c r="J23">
-        <f>IF(I23="Yes",F23*D23-D23,-D23)</f>
+        <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.20428571428571429</v>
       </c>
     </row>
@@ -16522,11 +16521,11 @@
         <v>8</v>
       </c>
       <c r="J24">
-        <f>IF(I24="Yes",F24*D24-D24,-D24)</f>
+        <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="K24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16557,11 +16556,11 @@
         <v>8</v>
       </c>
       <c r="J25">
-        <f>IF(I25="Yes",F25*D25-D25,-D25)</f>
+        <f t="shared" si="1"/>
         <v>0.77</v>
       </c>
       <c r="K25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16592,11 +16591,11 @@
         <v>9</v>
       </c>
       <c r="J26">
-        <f>IF(I26="Yes",F26*D26-D26,-D26)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16627,11 +16626,11 @@
         <v>9</v>
       </c>
       <c r="J27">
-        <f>IF(I27="Yes",F27*D27-D27,-D27)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16662,11 +16661,11 @@
         <v>8</v>
       </c>
       <c r="J28">
-        <f>IF(I28="Yes",F28*D28-D28,-D28)</f>
+        <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
       <c r="K28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16697,11 +16696,11 @@
         <v>9</v>
       </c>
       <c r="J29">
-        <f>IF(I29="Yes",F29*D29-D29,-D29)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16732,11 +16731,11 @@
         <v>8</v>
       </c>
       <c r="J30">
-        <f>IF(I30="Yes",F30*D30-D30,-D30)</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="K30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16767,11 +16766,11 @@
         <v>9</v>
       </c>
       <c r="J31">
-        <f>IF(I31="Yes",F31*D31-D31,-D31)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16802,11 +16801,11 @@
         <v>9</v>
       </c>
       <c r="J32">
-        <f>IF(I32="Yes",F32*D32-D32,-D32)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16837,11 +16836,11 @@
         <v>9</v>
       </c>
       <c r="J33">
-        <f>IF(I33="Yes",F33*D33-D33,-D33)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16872,11 +16871,11 @@
         <v>8</v>
       </c>
       <c r="J34">
-        <f>IF(I34="Yes",F34*D34-D34,-D34)</f>
+        <f t="shared" ref="J34:J65" si="4">IF(I34="Yes",F34*D34-D34,-D34)</f>
         <v>0.48</v>
       </c>
       <c r="K34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16907,11 +16906,11 @@
         <v>9</v>
       </c>
       <c r="J35">
-        <f>IF(I35="Yes",F35*D35-D35,-D35)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16942,11 +16941,11 @@
         <v>8</v>
       </c>
       <c r="J36">
-        <f>IF(I36="Yes",F36*D36-D36,-D36)</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="K36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -16977,11 +16976,11 @@
         <v>9</v>
       </c>
       <c r="J37">
-        <f>IF(I37="Yes",F37*D37-D37,-D37)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17012,11 +17011,11 @@
         <v>8</v>
       </c>
       <c r="J38">
-        <f>IF(I38="Yes",F38*D38-D38,-D38)</f>
+        <f t="shared" si="4"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="K38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17047,11 +17046,11 @@
         <v>9</v>
       </c>
       <c r="J39">
-        <f>IF(I39="Yes",F39*D39-D39,-D39)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17082,11 +17081,11 @@
         <v>9</v>
       </c>
       <c r="J40">
-        <f>IF(I40="Yes",F40*D40-D40,-D40)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.27411764705882358</v>
       </c>
     </row>
@@ -17113,15 +17112,18 @@
         <f>F41/E41-1</f>
         <v>0.32203389830508478</v>
       </c>
+      <c r="H41" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J41">
-        <f>IF(I41="Yes",F41*D41-D41,-D41)</f>
+        <f t="shared" si="4"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="K41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17148,15 +17150,18 @@
         <f>F42/E42-1</f>
         <v>0.26771653543307083</v>
       </c>
+      <c r="H42" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J42">
-        <f>IF(I42="Yes",F42*D42-D42,-D42)</f>
+        <f t="shared" si="4"/>
         <v>0.6100000000000001</v>
       </c>
       <c r="K42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17183,15 +17188,18 @@
         <f t="shared" si="0"/>
         <v>0.38016528925619841</v>
       </c>
+      <c r="H43" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J43">
-        <f>IF(I43="Yes",F43*D43-D43,-D43)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17218,15 +17226,18 @@
         <f t="shared" si="0"/>
         <v>0.22857142857142843</v>
       </c>
+      <c r="H44" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J44">
-        <f>IF(I44="Yes",F44*D44-D44,-D44)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17234,19 +17245,19 @@
       <c r="A45" s="1">
         <v>45611</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" t="s">
         <v>5036</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45">
         <v>1.22</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45">
         <v>1.51</v>
       </c>
       <c r="G45" s="2">
@@ -17260,11 +17271,11 @@
         <v>9</v>
       </c>
       <c r="J45">
-        <f>IF(I45="Yes",F45*D45-D45,-D45)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17272,19 +17283,19 @@
       <c r="A46" s="1">
         <v>45611</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" t="s">
         <v>5051</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46">
         <v>1.53</v>
       </c>
       <c r="G46" s="2">
@@ -17298,11 +17309,11 @@
         <v>9</v>
       </c>
       <c r="J46">
-        <f>IF(I46="Yes",F46*D46-D46,-D46)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17310,34 +17321,37 @@
       <c r="A47" s="1">
         <v>45611</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" t="s">
         <v>5016</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47">
         <v>1.48</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47">
         <v>1.95</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="0"/>
         <v>0.31756756756756754</v>
       </c>
+      <c r="H47" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J47">
-        <f>IF(I47="Yes",F47*D47-D47,-D47)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17345,34 +17359,37 @@
       <c r="A48" s="1">
         <v>45611</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" t="s">
         <v>5052</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48">
         <v>6</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48">
         <v>1.58</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48">
         <v>1.91</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="0"/>
         <v>0.20886075949367089</v>
       </c>
+      <c r="H48" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J48">
-        <f>IF(I48="Yes",F48*D48-D48,-D48)</f>
+        <f t="shared" si="4"/>
         <v>0.90999999999999992</v>
       </c>
       <c r="K48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17380,34 +17397,37 @@
       <c r="A49" s="1">
         <v>45611</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" t="s">
         <v>5053</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49">
         <v>6</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49">
         <v>1.74</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49">
         <v>2.6</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="0"/>
         <v>0.49425287356321834</v>
       </c>
+      <c r="H49" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J49">
-        <f>IF(I49="Yes",F49*D49-D49,-D49)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17415,19 +17435,19 @@
       <c r="A50" s="1">
         <v>45611</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" t="s">
         <v>5054</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50">
         <v>4</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50">
         <v>1.03</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50">
         <v>1.57</v>
       </c>
       <c r="G50" s="2">
@@ -17441,11 +17461,11 @@
         <v>8</v>
       </c>
       <c r="J50">
-        <f>IF(I50="Yes",F50*D50-D50,-D50)</f>
+        <f t="shared" si="4"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="K50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17453,19 +17473,19 @@
       <c r="A51" s="1">
         <v>45611</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" t="s">
         <v>5055</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51">
         <v>1.47</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51">
         <v>2.15</v>
       </c>
       <c r="G51" s="2">
@@ -17479,11 +17499,11 @@
         <v>8</v>
       </c>
       <c r="J51">
-        <f>IF(I51="Yes",F51*D51-D51,-D51)</f>
+        <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="K51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17491,19 +17511,19 @@
       <c r="A52" s="1">
         <v>45611</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" t="s">
         <v>5054</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52">
         <v>6</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52">
         <v>1.65</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52">
         <v>3.3</v>
       </c>
       <c r="G52" s="2">
@@ -17517,11 +17537,11 @@
         <v>8</v>
       </c>
       <c r="J52">
-        <f>IF(I52="Yes",F52*D52-D52,-D52)</f>
+        <f t="shared" si="4"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="K52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17529,19 +17549,19 @@
       <c r="A53" s="1">
         <v>45611</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" t="s">
         <v>5056</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53">
         <v>4</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53">
         <v>1.71</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53">
         <v>2.15</v>
       </c>
       <c r="G53" s="2">
@@ -17555,11 +17575,11 @@
         <v>8</v>
       </c>
       <c r="J53">
-        <f>IF(I53="Yes",F53*D53-D53,-D53)</f>
+        <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="K53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17586,15 +17606,18 @@
         <f t="shared" si="0"/>
         <v>0.64285714285714279</v>
       </c>
+      <c r="H54" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J54">
-        <f>IF(I54="Yes",F54*D54-D54,-D54)</f>
+        <f t="shared" si="4"/>
         <v>1.2999999999999998</v>
       </c>
       <c r="K54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17621,15 +17644,18 @@
         <f t="shared" si="0"/>
         <v>0.90972222222222232</v>
       </c>
+      <c r="H55" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J55">
-        <f>IF(I55="Yes",F55*D55-D55,-D55)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17656,15 +17682,18 @@
         <f t="shared" si="0"/>
         <v>0.51515151515151514</v>
       </c>
+      <c r="H56" s="2" t="s">
+        <v>5061</v>
+      </c>
       <c r="I56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J56">
-        <f>IF(I56="Yes",F56*D56-D56,-D56)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15937500000000004</v>
       </c>
     </row>
@@ -17694,12 +17723,15 @@
       <c r="H57" s="2" t="s">
         <v>5061</v>
       </c>
+      <c r="I57" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J57">
-        <f>IF(I57="Yes",F57*D57-D57,-D57)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0.6100000000000001</v>
       </c>
       <c r="K57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17729,12 +17761,15 @@
       <c r="H58" s="2" t="s">
         <v>5062</v>
       </c>
+      <c r="I58" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J58">
-        <f>IF(I58="Yes",F58*D58-D58,-D58)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0.8</v>
       </c>
       <c r="K58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17764,12 +17799,15 @@
       <c r="H59" s="2" t="s">
         <v>5061</v>
       </c>
+      <c r="I59" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J59">
-        <f>IF(I59="Yes",F59*D59-D59,-D59)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0.62999999999999989</v>
       </c>
       <c r="K59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17799,12 +17837,15 @@
       <c r="H60" s="2" t="s">
         <v>5061</v>
       </c>
+      <c r="I60" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="J60">
-        <f>IF(I60="Yes",F60*D60-D60,-D60)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17834,1904 +17875,2127 @@
       <c r="H61" s="2" t="s">
         <v>5061</v>
       </c>
+      <c r="I61" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="J61">
-        <f>IF(I61="Yes",F61*D61-D61,-D61)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5066</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1.6</v>
+      </c>
+      <c r="F62">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28124999999999978</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="G62" s="2" t="e">
+      <c r="K62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1.9</v>
+      </c>
+      <c r="F63">
+        <v>2.8</v>
+      </c>
+      <c r="G63" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J62">
-        <f>IF(I62="Yes",F62*D62-D62,-D62)</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <v>0.47368421052631571</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K63" s="2" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="G63" s="2" t="e">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5067</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1.34</v>
+      </c>
+      <c r="F64">
+        <v>2.15</v>
+      </c>
+      <c r="G64" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J63">
-        <f>IF(I63="Yes",F63*D63-D63,-D63)</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <v>0.60447761194029836</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>5062</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K64" s="2" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="G64" s="2" t="e">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5068</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>2.09</v>
+      </c>
+      <c r="F65">
+        <v>3.1</v>
+      </c>
+      <c r="G65" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J64">
-        <f>IF(I64="Yes",F64*D64-D64,-D64)</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <v>0.4832535885167466</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>5062</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K65" s="2" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="G65" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J65">
-        <f>IF(I65="Yes",F65*D65-D65,-D65)</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="2" t="str">
-        <f t="shared" si="2"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5050</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1.06</v>
+      </c>
+      <c r="F66">
+        <v>1.4</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" ref="G66:G129" si="5">F66/E66-1</f>
+        <v>0.320754716981132</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J129" si="6">IF(I66="Yes",F66*D66-D66,-D66)</f>
+        <v>-1</v>
+      </c>
+      <c r="K66" s="2" t="str">
+        <f t="shared" ref="K66:K129" si="7">IF(NOT(A66=A67),(SUMIFS(J:J, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="G66" s="2" t="e">
-        <f t="shared" ref="G66:G129" si="3">F66/E66-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J66">
-        <f t="shared" ref="J66:J129" si="4">IF(I66="Yes",F66*D66-D66,-D66)</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="2" t="str">
-        <f t="shared" ref="K66:K129" si="5">IF(NOT(A66=A67),(SUMIFS(J:J, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F67">
+        <v>1.71</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5688073394495412</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>5069</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="G67" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="2" t="str">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1.3</v>
+      </c>
+      <c r="F68">
+        <v>1.74</v>
+      </c>
+      <c r="G68" s="2">
         <f t="shared" si="5"/>
+        <v>0.33846153846153837</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>5069</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="K68" s="2" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="G68" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="2" t="str">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5070</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1.07</v>
+      </c>
+      <c r="F69">
+        <v>1.71</v>
+      </c>
+      <c r="G69" s="2">
         <f t="shared" si="5"/>
+        <v>0.59813084112149517</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>5062</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="K69" s="2" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="G69" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="2" t="str">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5071</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1.53</v>
+      </c>
+      <c r="F70">
+        <v>2.5</v>
+      </c>
+      <c r="G70" s="2">
         <f t="shared" si="5"/>
+        <v>0.63398692810457513</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="K70" s="2" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="G70" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="2" t="str">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1.53</v>
+      </c>
+      <c r="F71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G71" s="2">
         <f t="shared" si="5"/>
+        <v>0.50326797385620892</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="K71" s="2" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="G71" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="2" t="str">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5072</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1.9</v>
+      </c>
+      <c r="F72">
+        <v>2.4</v>
+      </c>
+      <c r="G72" s="2">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="G72" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.26315789473684204</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>5061</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="G73" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K73" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="G74" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="G75" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="G76" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="G77" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="G78" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="G79" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="G80" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="G81" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="G82" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="G83" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K83" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="G84" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K84" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="G85" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K85" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="G86" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="G87" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="G88" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="G89" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K89" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="G90" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K90" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="G91" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K91" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="G92" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K92" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="G93" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K93" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="G94" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K94" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="G95" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K95" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="G96" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K96" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="G97" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K97" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="G98" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K98" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="G99" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K99" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="G100" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K100" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="G101" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K101" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="G102" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K102" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="G103" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K103" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="G104" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K104" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="G105" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K105" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="G106" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K106" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="G107" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K107" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="G108" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K108" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="G109" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K109" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="G110" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K110" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="G111" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K111" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="G112" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K112" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="G113" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K113" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="G114" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K114" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="G115" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K115" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="G116" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K116" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="G117" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K117" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="G118" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K118" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="G119" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K119" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="G120" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K120" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="G121" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K121" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="G122" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K122" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="G123" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K123" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="G124" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K124" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="G125" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K125" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="G126" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K126" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="G127" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K127" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="G128" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K128" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="G129" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K129" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="G130" s="2" t="e">
-        <f t="shared" ref="G130:G186" si="6">F130/E130-1</f>
+        <f t="shared" ref="G130:G186" si="8">F130/E130-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J130">
-        <f t="shared" ref="J130:J186" si="7">IF(I130="Yes",F130*D130-D130,-D130)</f>
+        <f t="shared" ref="J130:J186" si="9">IF(I130="Yes",F130*D130-D130,-D130)</f>
         <v>0</v>
       </c>
       <c r="K130" s="2" t="str">
-        <f t="shared" ref="K130:K186" si="8">IF(NOT(A130=A131),(SUMIFS(J:J, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
+        <f t="shared" ref="K130:K186" si="10">IF(NOT(A130=A131),(SUMIFS(J:J, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="G131" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K131" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="G132" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K132" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="G133" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K133" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="G134" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K134" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="G135" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K135" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="G136" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K136" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="G137" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K137" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="G138" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K138" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="G139" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K139" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="G140" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K140" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="G141" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K141" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="G142" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K142" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="G143" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K143" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="G144" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K144" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="G145" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K145" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="G146" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K146" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="G147" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K147" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="G148" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K148" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="G149" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K149" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="G150" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K150" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="G151" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K151" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="G152" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K152" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="G153" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K153" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="G154" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K154" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="G155" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K155" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="G156" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K156" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="G157" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K157" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="G158" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K158" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="G159" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K159" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="G160" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K160" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="G161" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K161" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="G162" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K162" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="G163" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K163" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="G164" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K164" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="G165" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K165" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="G166" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K166" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="G167" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K167" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="G168" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K168" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="G169" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K169" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="G170" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K170" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="G171" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K171" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="G172" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K172" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="G173" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K173" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="G174" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K174" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="G175" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K175" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="G176" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K176" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="G177" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K177" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="G178" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K178" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="G179" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K179" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="G180" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K180" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="G181" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K181" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="G182" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K182" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="G183" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K183" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="G184" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K184" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="G185" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K185" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="G186" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K186" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D189">
         <f>SUM(D2:D188)</f>
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J189">
         <f>SUM(J2:J188)+D189</f>
-        <v>60.41</v>
+        <v>65.45</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J190" s="3">
         <f>J189/D189-1</f>
-        <v>6.8333333333332469E-3</v>
+        <v>-7.8169014084507049E-2</v>
       </c>
       <c r="K190" t="s">
         <v>26</v>
@@ -19739,6 +20003,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J180" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K2:K7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -19761,17 +20036,6 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26111,8 +26375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557B8856-A6EC-40CA-B22E-FADBC4FDEE8D}">
   <dimension ref="A1:A4900"/>
   <sheetViews>
-    <sheetView topLeftCell="A4494" workbookViewId="0">
-      <selection activeCell="A4514" sqref="A4514"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9448D0D-BD11-4ED0-A12F-EF4BCD7C5442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77500F8B-C4C4-468C-8771-1D8A98D77E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2023'!$A$1:$I$180</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024'!$A$1:$J$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024'!$A$1:$K$180</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="5073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="5109">
   <si>
     <t>Date</t>
   </si>
@@ -15174,9 +15174,6 @@
     <t>jaylen brown</t>
   </si>
   <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
     <t>Cody Martin</t>
   </si>
   <si>
@@ -15283,6 +15280,117 @@
   </si>
   <si>
     <t>S Henderson</t>
+  </si>
+  <si>
+    <t>b simmons</t>
+  </si>
+  <si>
+    <t>Dame</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>J Kuminga</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>B podziemski</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Buddy hield</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>D Derozan</t>
+  </si>
+  <si>
+    <t>j jackson jr</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Grizzlies</t>
+  </si>
+  <si>
+    <t>d bane</t>
+  </si>
+  <si>
+    <t>k dunn</t>
+  </si>
+  <si>
+    <t>clippers</t>
+  </si>
+  <si>
+    <t>j harden</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>timberwolves</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>t haliburton</t>
+  </si>
+  <si>
+    <t>pacers</t>
+  </si>
+  <si>
+    <t>B mathurin</t>
+  </si>
+  <si>
+    <t>O agbaji</t>
+  </si>
+  <si>
+    <t>raptors</t>
+  </si>
+  <si>
+    <t>j jacquez jr</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>bulls</t>
+  </si>
+  <si>
+    <t>j williams</t>
+  </si>
+  <si>
+    <t>thunder</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>coming off eye injuiry</t>
+  </si>
+  <si>
+    <t>kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curious </t>
+  </si>
+  <si>
+    <t>m monk</t>
+  </si>
+  <si>
+    <t>regular all time:</t>
+  </si>
+  <si>
+    <t>all time Greens:</t>
   </si>
 </sst>
 </file>
@@ -15668,28 +15776,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAA2F51-0A68-4FF9-B218-8013E5644C35}">
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -15697,4313 +15806,5060 @@
         <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>5083</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>5024</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>5025</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>5063</v>
-      </c>
       <c r="I1" s="7" t="s">
+        <v>5062</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45593</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.39</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.69</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:G65" si="0">F2/E2-1</f>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H65" si="0">G2/F2-1</f>
         <v>0.21582733812949639</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J33" si="1">IF(I2="Yes",F2*D2-D2,-D2)</f>
+      <c r="K2">
+        <f t="shared" ref="K2:K33" si="1">IF(J2="Yes",G2*E2-E2,-E2)</f>
         <v>0.69</v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K7" si="2">IF(NOT(A2=A3),(SUMIFS(J:J, A:A, A2)+SUMIFS(D:D, A:A, A2))/SUMIFS(D:D, A:A, A2)-1,"")</f>
+      <c r="L2" s="2" t="str">
+        <f t="shared" ref="L2:L7" si="2">IF(NOT(A2=A3),(SUMIFS(K:K, A:A, A2)+SUMIFS(E:E, A:A, A2))/SUMIFS(E:E, A:A, A2)-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45593</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.34</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.71</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>0.27611940298507442</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="L3" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45593</v>
       </c>
       <c r="B4" t="s">
         <v>5014</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.69</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>0.21301775147928992</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45593</v>
       </c>
       <c r="B5" t="s">
         <v>5013</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.8</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45593</v>
       </c>
       <c r="B6" t="s">
         <v>5015</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45593</v>
       </c>
       <c r="B7" t="s">
         <v>5016</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.46</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>0.40410958904109573</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45593</v>
       </c>
       <c r="B8" t="s">
         <v>5016</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.16</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5.6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>1.5925925925925921</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="K8" s="2" t="str">
-        <f t="shared" ref="K8:K65" si="3">IF(NOT(A8=A9),(SUMIFS(J:J, A:A, A8)+SUMIFS(D:D, A:A, A8))/SUMIFS(D:D, A:A, A8)-1,"")</f>
+      <c r="L8" s="2" t="str">
+        <f t="shared" ref="L8:L65" si="3">IF(NOT(A8=A9),(SUMIFS(K:K, A:A, A8)+SUMIFS(E:E, A:A, A8))/SUMIFS(E:E, A:A, A8)-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45593</v>
       </c>
       <c r="B9" t="s">
         <v>5017</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.19</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.54</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>0.29411764705882359</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45593</v>
       </c>
       <c r="B10" t="s">
         <v>5018</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>1.83</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45593</v>
       </c>
       <c r="B11" t="s">
         <v>5018</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.32</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4.5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>2.4090909090909087</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45593</v>
       </c>
       <c r="B12" t="s">
         <v>5019</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.21</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>0.65289256198347112</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="L12" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45593</v>
       </c>
       <c r="B13" t="s">
         <v>5020</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>2.1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="L13" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45593</v>
       </c>
       <c r="B14" t="s">
         <v>5021</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.24</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.53</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>0.2338709677419355</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="L14" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45593</v>
       </c>
       <c r="B15" t="s">
         <v>5022</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.22</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.67</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>0.36885245901639352</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="L15" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45593</v>
       </c>
       <c r="B16" t="s">
         <v>5023</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.05</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.71</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>0.62857142857142856</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <f t="shared" si="3"/>
         <v>0.59666666666666668</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45594</v>
       </c>
       <c r="B17" t="s">
         <v>5026</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>1.71</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="L17" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45594</v>
       </c>
       <c r="B18" t="s">
         <v>5027</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.29</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.77</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>0.37209302325581395</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45594</v>
       </c>
       <c r="B19" t="s">
         <v>5027</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.75</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4.5</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>1.5714285714285716</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="L19" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45594</v>
       </c>
       <c r="B20" t="s">
         <v>5028</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.39</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.65</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>0.90647482014388503</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="L20" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45594</v>
       </c>
       <c r="B21" t="s">
         <v>5029</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.02</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.87</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>0.83333333333333348</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>0.87000000000000011</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="L21" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45594</v>
       </c>
       <c r="B22" t="s">
         <v>5030</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.27</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2.65</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <f t="shared" si="0"/>
         <v>1.0866141732283463</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45594</v>
       </c>
       <c r="B23" t="s">
         <v>5031</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3.7</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <f t="shared" si="0"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <f t="shared" si="3"/>
         <v>-0.20428571428571429</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45595</v>
       </c>
       <c r="B24" t="s">
         <v>5032</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.29</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.83</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
         <v>0.41860465116279078</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45595</v>
       </c>
       <c r="B25" t="s">
         <v>5033</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.77</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <f t="shared" si="0"/>
         <v>0.58035714285714279</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>0.77</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45595</v>
       </c>
       <c r="B26" t="s">
         <v>5034</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>6</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.22</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.65</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <f t="shared" si="0"/>
         <v>1.1721311475409837</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45595</v>
       </c>
       <c r="B27" t="s">
         <v>5021</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.24</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.53</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <f t="shared" si="0"/>
         <v>0.2338709677419355</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45595</v>
       </c>
       <c r="B28" t="s">
         <v>5035</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.06</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.69</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <f t="shared" si="0"/>
         <v>0.59433962264150941</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45595</v>
       </c>
       <c r="B29" t="s">
-        <v>5036</v>
-      </c>
-      <c r="C29">
+        <v>5095</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.17</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.54</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <f t="shared" si="0"/>
         <v>0.31623931623931645</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45595</v>
       </c>
       <c r="B30" t="s">
-        <v>5037</v>
-      </c>
-      <c r="C30">
+        <v>5036</v>
+      </c>
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.22</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.8</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <f t="shared" si="0"/>
         <v>0.47540983606557385</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="L30" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45595</v>
       </c>
       <c r="B31" t="s">
-        <v>5038</v>
-      </c>
-      <c r="C31">
+        <v>5037</v>
+      </c>
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.08</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.71</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45595</v>
       </c>
       <c r="B32" t="s">
-        <v>5039</v>
-      </c>
-      <c r="C32">
+        <v>5038</v>
+      </c>
+      <c r="D32">
         <v>4</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.45</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.87</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <f t="shared" si="0"/>
         <v>0.28965517241379324</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="L32" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45595</v>
       </c>
       <c r="B33" t="s">
-        <v>5040</v>
-      </c>
-      <c r="C33">
+        <v>5039</v>
+      </c>
+      <c r="D33">
         <v>4</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>1.91</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <f t="shared" si="0"/>
         <v>0.90999999999999992</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="L33" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45595</v>
       </c>
       <c r="B34" t="s">
-        <v>5041</v>
-      </c>
-      <c r="C34">
+        <v>5040</v>
+      </c>
+      <c r="D34">
         <v>4</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1.48</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <f t="shared" si="0"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J34">
-        <f t="shared" ref="J34:J65" si="4">IF(I34="Yes",F34*D34-D34,-D34)</f>
+      <c r="K34">
+        <f t="shared" ref="K34:K65" si="4">IF(J34="Yes",G34*E34-E34,-E34)</f>
         <v>0.48</v>
       </c>
-      <c r="K34" s="2" t="str">
+      <c r="L34" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45595</v>
       </c>
       <c r="B35" t="s">
-        <v>5042</v>
-      </c>
-      <c r="C35">
+        <v>5041</v>
+      </c>
+      <c r="D35">
         <v>4</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>1.8</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K35" s="2" t="str">
+      <c r="L35" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45595</v>
       </c>
       <c r="B36" t="s">
-        <v>5043</v>
-      </c>
-      <c r="C36">
+        <v>5042</v>
+      </c>
+      <c r="D36">
         <v>4</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1.4</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <f t="shared" si="0"/>
         <v>0.57142857142857162</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f t="shared" si="4"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="K36" s="2" t="str">
+      <c r="L36" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45595</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>6</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.04</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.67</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <f t="shared" si="0"/>
         <v>0.60576923076923062</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K37" s="2" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45595</v>
       </c>
       <c r="B38" t="s">
-        <v>5044</v>
-      </c>
-      <c r="C38">
+        <v>5043</v>
+      </c>
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1.21</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.57</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <f t="shared" si="0"/>
         <v>0.29752066115702491</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f t="shared" si="4"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="K38" s="2" t="str">
+      <c r="L38" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45595</v>
       </c>
       <c r="B39" t="s">
-        <v>5045</v>
-      </c>
-      <c r="C39">
+        <v>5044</v>
+      </c>
+      <c r="D39">
         <v>4</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2.1</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <f t="shared" si="0"/>
         <v>0.90909090909090895</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K39" s="2" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45595</v>
       </c>
       <c r="B40" t="s">
-        <v>5046</v>
-      </c>
-      <c r="C40">
+        <v>5045</v>
+      </c>
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1.23</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
         <v>0.78861788617886197</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <f t="shared" si="3"/>
         <v>-0.27411764705882358</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45611</v>
       </c>
       <c r="B41" t="s">
-        <v>5047</v>
-      </c>
-      <c r="C41">
+        <v>5046</v>
+      </c>
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1.18</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1.56</v>
       </c>
-      <c r="G41" s="2">
-        <f>F41/E41-1</f>
+      <c r="H41" s="2">
+        <f>G41/F41-1</f>
         <v>0.32203389830508478</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I41" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <f t="shared" si="4"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="K41" s="2" t="str">
+      <c r="L41" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45611</v>
       </c>
       <c r="B42" t="s">
-        <v>5048</v>
-      </c>
-      <c r="C42">
+        <v>5047</v>
+      </c>
+      <c r="D42">
         <v>4</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1.27</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1.61</v>
       </c>
-      <c r="G42" s="2">
-        <f>F42/E42-1</f>
+      <c r="H42" s="2">
+        <f>G42/F42-1</f>
         <v>0.26771653543307083</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I42" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <f t="shared" si="4"/>
         <v>0.6100000000000001</v>
       </c>
-      <c r="K42" s="2" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45611</v>
       </c>
       <c r="B43" t="s">
-        <v>5049</v>
-      </c>
-      <c r="C43">
+        <v>5048</v>
+      </c>
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1.21</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.67</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <f t="shared" si="0"/>
         <v>0.38016528925619841</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I43" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K43" s="2" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45611</v>
       </c>
       <c r="B44" t="s">
-        <v>5050</v>
-      </c>
-      <c r="C44">
+        <v>5049</v>
+      </c>
+      <c r="D44">
         <v>6</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1.75</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2.15</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <f t="shared" si="0"/>
         <v>0.22857142857142843</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I44" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K44" s="2" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45611</v>
       </c>
       <c r="B45" t="s">
-        <v>5036</v>
-      </c>
-      <c r="C45">
+        <v>5095</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1.22</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1.51</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <f t="shared" si="0"/>
         <v>0.23770491803278682</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>5062</v>
-      </c>
       <c r="I45" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K45" s="2" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45611</v>
       </c>
       <c r="B46" t="s">
-        <v>5051</v>
-      </c>
-      <c r="C46">
+        <v>5050</v>
+      </c>
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1.53</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <f t="shared" si="0"/>
         <v>0.34210526315789491</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I46" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K46" s="2" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45611</v>
       </c>
       <c r="B47" t="s">
         <v>5016</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1.48</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1.95</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <f t="shared" si="0"/>
         <v>0.31756756756756754</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I47" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K47" s="2" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45611</v>
       </c>
       <c r="B48" t="s">
-        <v>5052</v>
-      </c>
-      <c r="C48">
+        <v>5051</v>
+      </c>
+      <c r="D48">
         <v>6</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1.58</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>1.91</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <f t="shared" si="0"/>
         <v>0.20886075949367089</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I48" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <f t="shared" si="4"/>
         <v>0.90999999999999992</v>
       </c>
-      <c r="K48" s="2" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45611</v>
       </c>
       <c r="B49" t="s">
-        <v>5053</v>
-      </c>
-      <c r="C49">
+        <v>5052</v>
+      </c>
+      <c r="D49">
         <v>6</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>1</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1.74</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>2.6</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <f t="shared" si="0"/>
         <v>0.49425287356321834</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I49" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K49" s="2" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45611</v>
       </c>
       <c r="B50" t="s">
-        <v>5054</v>
-      </c>
-      <c r="C50">
+        <v>5053</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>1.03</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1.57</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <f t="shared" si="0"/>
         <v>0.52427184466019416</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>5062</v>
-      </c>
       <c r="I50" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <f t="shared" si="4"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="K50" s="2" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45611</v>
       </c>
       <c r="B51" t="s">
-        <v>5055</v>
-      </c>
-      <c r="C51">
+        <v>5054</v>
+      </c>
+      <c r="D51">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>1.47</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>2.15</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <f t="shared" si="0"/>
         <v>0.46258503401360551</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I51" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="K51" s="2" t="str">
+      <c r="L51" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45611</v>
       </c>
       <c r="B52" t="s">
-        <v>5054</v>
-      </c>
-      <c r="C52">
+        <v>5053</v>
+      </c>
+      <c r="D52">
         <v>6</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1.65</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>3.3</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>5062</v>
-      </c>
       <c r="I52" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <f t="shared" si="4"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="K52" s="2" t="str">
+      <c r="L52" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45611</v>
       </c>
       <c r="B53" t="s">
-        <v>5056</v>
-      </c>
-      <c r="C53">
+        <v>5055</v>
+      </c>
+      <c r="D53">
         <v>4</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>1</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>1.71</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>2.15</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <f t="shared" si="0"/>
         <v>0.25730994152046782</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>5060</v>
-      </c>
       <c r="I53" s="2" t="s">
+        <v>5059</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="K53" s="2" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45611</v>
       </c>
       <c r="B54" t="s">
-        <v>5057</v>
-      </c>
-      <c r="C54">
+        <v>5056</v>
+      </c>
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>1.4</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <f t="shared" si="0"/>
         <v>0.64285714285714279</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I54" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <f t="shared" si="4"/>
         <v>1.2999999999999998</v>
       </c>
-      <c r="K54" s="2" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45611</v>
       </c>
       <c r="B55" t="s">
-        <v>5058</v>
-      </c>
-      <c r="C55">
+        <v>5057</v>
+      </c>
+      <c r="D55">
         <v>4</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>1.44</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>2.75</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <f t="shared" si="0"/>
         <v>0.90972222222222232</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I55" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K55" s="2" t="str">
+      <c r="L55" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45611</v>
       </c>
       <c r="B56" t="s">
-        <v>5059</v>
-      </c>
-      <c r="C56">
+        <v>5058</v>
+      </c>
+      <c r="D56">
         <v>6</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1.32</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>2</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <f t="shared" si="0"/>
         <v>0.51515151515151514</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I56" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L56" s="2">
         <f t="shared" si="3"/>
         <v>0.15937500000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45612</v>
       </c>
       <c r="B57" t="s">
-        <v>5036</v>
-      </c>
-      <c r="C57">
+        <v>5095</v>
+      </c>
+      <c r="D57">
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>1.25</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1.61</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <f t="shared" si="0"/>
         <v>0.28800000000000003</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I57" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <f t="shared" si="4"/>
         <v>0.6100000000000001</v>
       </c>
-      <c r="K57" s="2" t="str">
+      <c r="L57" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45612</v>
       </c>
       <c r="B58" t="s">
         <v>5035</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>1</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1.21</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>1.8</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <f t="shared" si="0"/>
         <v>0.48760330578512412</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>5062</v>
-      </c>
       <c r="I58" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="K58" s="2" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45612</v>
       </c>
       <c r="B59" t="s">
-        <v>5064</v>
-      </c>
-      <c r="C59">
+        <v>5063</v>
+      </c>
+      <c r="D59">
         <v>4</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>1</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1.26</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>1.63</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <f t="shared" si="0"/>
         <v>0.2936507936507935</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I59" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <f t="shared" si="4"/>
         <v>0.62999999999999989</v>
       </c>
-      <c r="K59" s="2" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45612</v>
       </c>
       <c r="B60" t="s">
         <v>5030</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>4</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>1.59</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>2</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <f t="shared" si="0"/>
         <v>0.25786163522012573</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I60" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K60" s="2" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45612</v>
       </c>
       <c r="B61" t="s">
-        <v>5065</v>
-      </c>
-      <c r="C61">
+        <v>5064</v>
+      </c>
+      <c r="D61">
         <v>6</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>1</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>1.91</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <f t="shared" si="0"/>
         <v>0.28272251308900542</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>5061</v>
-      </c>
       <c r="I61" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K61" s="2">
+      <c r="L61" s="2">
         <f t="shared" si="3"/>
         <v>8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45613</v>
       </c>
       <c r="B62" t="s">
-        <v>5066</v>
-      </c>
-      <c r="C62">
+        <v>5065</v>
+      </c>
+      <c r="D62">
         <v>4</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>1</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>1.6</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <f t="shared" si="0"/>
         <v>0.28124999999999978</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="L62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5031</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1.9</v>
+      </c>
+      <c r="G63">
+        <v>2.8</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631571</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5066</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1.34</v>
+      </c>
+      <c r="G64">
+        <v>2.15</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60447761194029836</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>5061</v>
       </c>
-      <c r="J62">
+      <c r="J64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5067</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2.09</v>
+      </c>
+      <c r="G65">
+        <v>3.1</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4832535885167466</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K62" s="2" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>45613</v>
-      </c>
-      <c r="B63" t="s">
-        <v>5031</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1.9</v>
-      </c>
-      <c r="F63">
-        <v>2.8</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="0"/>
-        <v>0.47368421052631571</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>5061</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="K63" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>45613</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5067</v>
-      </c>
-      <c r="C64">
-        <v>6</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1.34</v>
-      </c>
-      <c r="F64">
-        <v>2.15</v>
-      </c>
-      <c r="G64" s="2">
-        <f t="shared" si="0"/>
-        <v>0.60447761194029836</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>5062</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="K64" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>45613</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5068</v>
-      </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>2.09</v>
-      </c>
-      <c r="F65">
-        <v>3.1</v>
-      </c>
-      <c r="G65" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4832535885167466</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>5062</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="K65" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45613</v>
       </c>
       <c r="B66" t="s">
-        <v>5050</v>
-      </c>
-      <c r="C66">
+        <v>5049</v>
+      </c>
+      <c r="D66">
         <v>4</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>1</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>1.06</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>1.4</v>
       </c>
-      <c r="G66" s="2">
-        <f t="shared" ref="G66:G129" si="5">F66/E66-1</f>
+      <c r="H66" s="2">
+        <f t="shared" ref="H66:H129" si="5">G66/F66-1</f>
         <v>0.320754716981132</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>5061</v>
-      </c>
-      <c r="J66">
-        <f t="shared" ref="J66:J129" si="6">IF(I66="Yes",F66*D66-D66,-D66)</f>
-        <v>-1</v>
-      </c>
-      <c r="K66" s="2" t="str">
-        <f t="shared" ref="K66:K129" si="7">IF(NOT(A66=A67),(SUMIFS(J:J, A:A, A66)+SUMIFS(D:D, A:A, A66))/SUMIFS(D:D, A:A, A66)-1,"")</f>
+      <c r="I66" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66:K129" si="6">IF(J66="Yes",G66*E66-E66,-E66)</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L66" s="2" t="str">
+        <f t="shared" ref="L66:L129" si="7">IF(NOT(A66=A67),(SUMIFS(K:K, A:A, A66)+SUMIFS(E:E, A:A, A66))/SUMIFS(E:E, A:A, A66)-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45613</v>
       </c>
       <c r="B67" t="s">
         <v>5020</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>4</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>1.71</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <f t="shared" si="5"/>
         <v>0.5688073394495412</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>5069</v>
-      </c>
-      <c r="J67">
+      <c r="I67" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="K67" s="2" t="str">
+      <c r="L67" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45613</v>
       </c>
       <c r="B68" t="s">
-        <v>5049</v>
-      </c>
-      <c r="C68">
+        <v>5048</v>
+      </c>
+      <c r="D68">
         <v>4</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1.3</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>1.74</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
         <f t="shared" si="5"/>
         <v>0.33846153846153837</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="6"/>
+        <v>0.74</v>
+      </c>
+      <c r="L68" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B69" t="s">
         <v>5069</v>
       </c>
-      <c r="J68">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1.07</v>
+      </c>
+      <c r="G69">
+        <v>1.71</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="5"/>
+        <v>0.59813084112149517</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>5061</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+      <c r="L69" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5070</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1.53</v>
+      </c>
+      <c r="G70">
+        <v>2.5</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="5"/>
+        <v>0.63398692810457513</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="K68" s="2" t="str">
+      <c r="L70" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>45613</v>
       </c>
-      <c r="B69" t="s">
-        <v>5070</v>
-      </c>
-      <c r="C69">
+      <c r="B71" t="s">
+        <v>5032</v>
+      </c>
+      <c r="D71">
         <v>4</v>
       </c>
-      <c r="D69">
+      <c r="E71">
         <v>1</v>
       </c>
-      <c r="E69">
-        <v>1.07</v>
-      </c>
-      <c r="F69">
-        <v>1.71</v>
-      </c>
-      <c r="G69" s="2">
+      <c r="F71">
+        <v>1.53</v>
+      </c>
+      <c r="G71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H71" s="2">
         <f t="shared" si="5"/>
-        <v>0.59813084112149517</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>5062</v>
-      </c>
-      <c r="J69">
+        <v>0.50326797385620892</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>5059</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="6"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="L71" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5071</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1.9</v>
+      </c>
+      <c r="G72">
+        <v>2.4</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="5"/>
+        <v>0.26315789473684204</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="K69" s="2" t="str">
+      <c r="L72" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28636363636363615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5042</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1.41</v>
+      </c>
+      <c r="G73">
+        <v>1.74</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23404255319148937</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="6"/>
+        <v>0.74</v>
+      </c>
+      <c r="L73" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>45613</v>
-      </c>
-      <c r="B70" t="s">
-        <v>5071</v>
-      </c>
-      <c r="C70">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5041</v>
+      </c>
+      <c r="D74">
         <v>4</v>
       </c>
-      <c r="D70">
+      <c r="E74">
         <v>1</v>
       </c>
-      <c r="E70">
-        <v>1.53</v>
-      </c>
-      <c r="F70">
-        <v>2.5</v>
-      </c>
-      <c r="G70" s="2">
+      <c r="F74">
+        <v>1.68</v>
+      </c>
+      <c r="G74">
+        <v>2.35</v>
+      </c>
+      <c r="H74" s="2">
         <f t="shared" si="5"/>
-        <v>0.63398692810457513</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>5061</v>
-      </c>
-      <c r="J70">
+        <v>0.39880952380952395</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="K70" s="2" t="str">
+      <c r="L74" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1.29</v>
+      </c>
+      <c r="G75">
+        <v>1.74</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="5"/>
+        <v>0.34883720930232553</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L75" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>45613</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5032</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5051</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76">
         <v>1</v>
       </c>
-      <c r="E71">
-        <v>1.53</v>
-      </c>
-      <c r="F71">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G71" s="2">
+      <c r="F76">
+        <v>1.37</v>
+      </c>
+      <c r="G76">
+        <v>1.69</v>
+      </c>
+      <c r="H76" s="2">
         <f t="shared" si="5"/>
-        <v>0.50326797385620892</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>5060</v>
-      </c>
-      <c r="J71">
+        <v>0.23357664233576636</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>5076</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="K71" s="2" t="str">
+      <c r="L76" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>45613</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5072</v>
-      </c>
-      <c r="C72">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5073</v>
+      </c>
+      <c r="D77">
         <v>4</v>
       </c>
-      <c r="D72">
+      <c r="E77">
         <v>1</v>
       </c>
-      <c r="E72">
-        <v>1.9</v>
-      </c>
-      <c r="F72">
-        <v>2.4</v>
-      </c>
-      <c r="G72" s="2">
+      <c r="F77">
+        <v>1.27</v>
+      </c>
+      <c r="G77">
+        <v>1.65</v>
+      </c>
+      <c r="H77" s="2">
         <f t="shared" si="5"/>
-        <v>0.26315789473684204</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>5061</v>
-      </c>
-      <c r="J72">
+        <v>0.29921259842519676</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>5076</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="6"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="L77" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5023</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1.28</v>
+      </c>
+      <c r="G78">
+        <v>1.77</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3828125</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="K72" s="2">
+      <c r="L78" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5074</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1.23</v>
+      </c>
+      <c r="G79">
+        <v>1.54</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2520325203252034</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>5076</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="6"/>
+        <v>0.54</v>
+      </c>
+      <c r="L79" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5075</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1.24</v>
+      </c>
+      <c r="G80">
+        <v>1.83</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="5"/>
+        <v>0.47580645161290325</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>5076</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="6"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="L80" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5077</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1.32</v>
+      </c>
+      <c r="G81">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H81" s="2">
+        <f>G81/F81-1</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>5078</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L81" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5079</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1.57</v>
+      </c>
+      <c r="G82">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" si="5"/>
+        <v>0.62420382165605082</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>5078</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="6"/>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="L82" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5080</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1.39</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" si="5"/>
+        <v>0.43884892086330951</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>5078</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L83" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5016</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1.52</v>
+      </c>
+      <c r="G84">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="5"/>
+        <v>0.44736842105263164</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L84" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5056</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1.32</v>
+      </c>
+      <c r="G85">
+        <v>1.83</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" si="5"/>
+        <v>0.38636363636363624</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L85" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5081</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1.53</v>
+      </c>
+      <c r="G86">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" si="5"/>
+        <v>0.33986928104575154</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="6"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="L86" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5044</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1.59</v>
+      </c>
+      <c r="G87">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="5"/>
+        <v>0.28930817610062864</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="6"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="7"/>
+        <v>6.6923076923076863E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5082</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5084</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1.41</v>
+      </c>
+      <c r="G88">
+        <v>1.74</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23404255319148937</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L88" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5085</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5084</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>1.29</v>
+      </c>
+      <c r="G89">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" si="5"/>
+        <v>0.70542635658914743</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>5076</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="L89" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5086</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5087</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1.54</v>
+      </c>
+      <c r="G90">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="5"/>
+        <v>0.49350649350649345</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L90" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5055</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5087</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1.59</v>
+      </c>
+      <c r="G91">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="5"/>
+        <v>0.54088050314465419</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L91" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5088</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5087</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1.31</v>
+      </c>
+      <c r="G92">
+        <v>1.95</v>
+      </c>
+      <c r="H92" s="2">
+        <f t="shared" si="5"/>
+        <v>0.48854961832061061</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L92" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5089</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5090</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1.73</v>
+      </c>
+      <c r="G93">
+        <v>2.25</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="5"/>
+        <v>0.300578034682081</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L93" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5046</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5091</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1.37</v>
+      </c>
+      <c r="G94">
+        <v>1.75</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" si="5"/>
+        <v>0.27737226277372251</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L94" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5092</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5093</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1.67</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19760479041916179</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L95" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5094</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5093</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>1.37</v>
+      </c>
+      <c r="G96">
+        <v>1.69</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23357664233576636</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>5076</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="L96" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5095</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5096</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>1.36</v>
+      </c>
+      <c r="G97">
+        <v>2.1</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="5"/>
+        <v>0.54411764705882359</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>5076</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="L97" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5097</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5098</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G98">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" si="5"/>
+        <v>0.91304347826086985</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L98" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5098</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1.67</v>
+      </c>
+      <c r="G99">
+        <v>2.15</v>
+      </c>
+      <c r="H99" s="2">
+        <f t="shared" si="5"/>
+        <v>0.28742514970059885</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L99" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5099</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1.49</v>
+      </c>
+      <c r="G100">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H100" s="2">
+        <f t="shared" si="5"/>
+        <v>0.47651006711409405</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>5078</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L100" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5101</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1.35</v>
+      </c>
+      <c r="G101">
+        <v>1.91</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="5"/>
+        <v>0.41481481481481475</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L101" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M101" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5104</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1.83</v>
+      </c>
+      <c r="G102">
+        <v>1.8</v>
+      </c>
+      <c r="H102" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.6393442622950838E-2</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>5078</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="G73" s="2" t="e">
+      <c r="M102" t="s">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="H103" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J73">
+      <c r="K103">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K73" s="2" t="str">
+      <c r="L103" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="G74" s="2" t="e">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="H104" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J74">
+      <c r="K104">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K74" s="2" t="str">
+      <c r="L104" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="G75" s="2" t="e">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="H105" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J75">
+      <c r="K105">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K75" s="2" t="str">
+      <c r="L105" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="G76" s="2" t="e">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="H106" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J76">
+      <c r="K106">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K76" s="2" t="str">
+      <c r="L106" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="G77" s="2" t="e">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="H107" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J77">
+      <c r="K107">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K77" s="2" t="str">
+      <c r="L107" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="G78" s="2" t="e">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="H108" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J78">
+      <c r="K108">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K78" s="2" t="str">
+      <c r="L108" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="G79" s="2" t="e">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="H109" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J79">
+      <c r="K109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K79" s="2" t="str">
+      <c r="L109" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="G80" s="2" t="e">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="H110" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J80">
+      <c r="K110">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K80" s="2" t="str">
+      <c r="L110" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="G81" s="2" t="e">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="H111" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J81">
+      <c r="K111">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K81" s="2" t="str">
+      <c r="L111" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="G82" s="2" t="e">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="H112" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J82">
+      <c r="K112">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K82" s="2" t="str">
+      <c r="L112" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="G83" s="2" t="e">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="H113" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J83">
+      <c r="K113">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K83" s="2" t="str">
+      <c r="L113" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="G84" s="2" t="e">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="H114" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J84">
+      <c r="K114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K84" s="2" t="str">
+      <c r="L114" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="G85" s="2" t="e">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="H115" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J85">
+      <c r="K115">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K85" s="2" t="str">
+      <c r="L115" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="G86" s="2" t="e">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="H116" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J86">
+      <c r="K116">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K86" s="2" t="str">
+      <c r="L116" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="G87" s="2" t="e">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="H117" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J87">
+      <c r="K117">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K87" s="2" t="str">
+      <c r="L117" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="G88" s="2" t="e">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="H118" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J88">
+      <c r="K118">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K88" s="2" t="str">
+      <c r="L118" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="G89" s="2" t="e">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="H119" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J89">
+      <c r="K119">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K89" s="2" t="str">
+      <c r="L119" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="G90" s="2" t="e">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="H120" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J90">
+      <c r="K120">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K90" s="2" t="str">
+      <c r="L120" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="G91" s="2" t="e">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="H121" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J91">
+      <c r="K121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K91" s="2" t="str">
+      <c r="L121" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="G92" s="2" t="e">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="H122" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J92">
+      <c r="K122">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K92" s="2" t="str">
+      <c r="L122" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="G93" s="2" t="e">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="H123" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J93">
+      <c r="K123">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K93" s="2" t="str">
+      <c r="L123" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="G94" s="2" t="e">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="H124" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J94">
+      <c r="K124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K94" s="2" t="str">
+      <c r="L124" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="G95" s="2" t="e">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="H125" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J95">
+      <c r="K125">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K95" s="2" t="str">
+      <c r="L125" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="G96" s="2" t="e">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="H126" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J96">
+      <c r="K126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K96" s="2" t="str">
+      <c r="L126" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="G97" s="2" t="e">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="H127" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J97">
+      <c r="K127">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K97" s="2" t="str">
+      <c r="L127" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="G98" s="2" t="e">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="H128" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J98">
+      <c r="K128">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K98" s="2" t="str">
+      <c r="L128" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="G99" s="2" t="e">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="H129" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J99">
+      <c r="K129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K99" s="2" t="str">
+      <c r="L129" s="2" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="G100" s="2" t="e">
-        <f t="shared" si="5"/>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="H130" s="2" t="e">
+        <f t="shared" ref="H130:H186" si="8">G130/F130-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="6"/>
+      <c r="K130">
+        <f t="shared" ref="K130:K186" si="9">IF(J130="Yes",G130*E130-E130,-E130)</f>
         <v>0</v>
       </c>
-      <c r="K100" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="L130" s="2" t="str">
+        <f t="shared" ref="L130:L186" si="10">IF(NOT(A130=A131),(SUMIFS(K:K, A:A, A130)+SUMIFS(E:E, A:A, A130))/SUMIFS(E:E, A:A, A130)-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="G101" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="G102" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="G103" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="G104" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K104" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="G105" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K105" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="G106" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K106" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="G107" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="G108" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="G109" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K109" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="G110" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K110" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="G111" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K111" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="G112" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K112" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="G113" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="G114" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="G115" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="G116" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K116" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="G117" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="G118" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K118" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="G119" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="G120" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="G121" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K121" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="G122" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K122" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="G123" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K123" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="G124" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K124" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="G125" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K125" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="G126" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J126">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K126" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="G127" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J127">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K127" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="G128" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J128">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K128" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="G129" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J129">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K129" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="G130" s="2" t="e">
-        <f t="shared" ref="G130:G186" si="8">F130/E130-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J130">
-        <f t="shared" ref="J130:J186" si="9">IF(I130="Yes",F130*D130-D130,-D130)</f>
-        <v>0</v>
-      </c>
-      <c r="K130" s="2" t="str">
-        <f t="shared" ref="K130:K186" si="10">IF(NOT(A130=A131),(SUMIFS(J:J, A:A, A130)+SUMIFS(D:D, A:A, A130))/SUMIFS(D:D, A:A, A130)-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="G131" s="2" t="e">
+      <c r="H131" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K131" s="2" t="str">
+      <c r="L131" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="G132" s="2" t="e">
+      <c r="H132" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K132" s="2" t="str">
+      <c r="L132" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="G133" s="2" t="e">
+      <c r="H133" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K133" s="2" t="str">
+      <c r="L133" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="G134" s="2" t="e">
+      <c r="H134" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K134" s="2" t="str">
+      <c r="L134" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="G135" s="2" t="e">
+      <c r="H135" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K135" s="2" t="str">
+      <c r="L135" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="G136" s="2" t="e">
+      <c r="H136" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K136" s="2" t="str">
+      <c r="L136" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="G137" s="2" t="e">
+      <c r="H137" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K137" s="2" t="str">
+      <c r="L137" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="G138" s="2" t="e">
+      <c r="H138" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K138" s="2" t="str">
+      <c r="L138" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="G139" s="2" t="e">
+      <c r="H139" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K139" s="2" t="str">
+      <c r="L139" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="G140" s="2" t="e">
+      <c r="H140" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K140" s="2" t="str">
+      <c r="L140" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="G141" s="2" t="e">
+      <c r="H141" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K141" s="2" t="str">
+      <c r="L141" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="G142" s="2" t="e">
+      <c r="H142" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K142" s="2" t="str">
+      <c r="L142" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="G143" s="2" t="e">
+      <c r="H143" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K143" s="2" t="str">
+      <c r="L143" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="G144" s="2" t="e">
+      <c r="H144" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K144" s="2" t="str">
+      <c r="L144" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="G145" s="2" t="e">
+      <c r="H145" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K145" s="2" t="str">
+      <c r="L145" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="G146" s="2" t="e">
+      <c r="H146" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K146" s="2" t="str">
+      <c r="L146" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="G147" s="2" t="e">
+      <c r="H147" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K147" s="2" t="str">
+      <c r="L147" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="G148" s="2" t="e">
+      <c r="H148" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K148" s="2" t="str">
+      <c r="L148" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="G149" s="2" t="e">
+      <c r="H149" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K149" s="2" t="str">
+      <c r="L149" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="G150" s="2" t="e">
+      <c r="H150" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K150" s="2" t="str">
+      <c r="L150" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="G151" s="2" t="e">
+      <c r="H151" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K151" s="2" t="str">
+      <c r="L151" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="G152" s="2" t="e">
+      <c r="H152" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K152" s="2" t="str">
+      <c r="L152" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="G153" s="2" t="e">
+      <c r="H153" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K153" s="2" t="str">
+      <c r="L153" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="G154" s="2" t="e">
+      <c r="H154" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K154" s="2" t="str">
+      <c r="L154" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="G155" s="2" t="e">
+      <c r="H155" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K155" s="2" t="str">
+      <c r="L155" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="G156" s="2" t="e">
+      <c r="H156" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K156" s="2" t="str">
+      <c r="L156" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="G157" s="2" t="e">
+      <c r="H157" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K157" s="2" t="str">
+      <c r="L157" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="G158" s="2" t="e">
+      <c r="H158" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K158" s="2" t="str">
+      <c r="L158" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="G159" s="2" t="e">
+      <c r="H159" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K159" s="2" t="str">
+      <c r="L159" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="G160" s="2" t="e">
+      <c r="H160" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K160" s="2" t="str">
+      <c r="L160" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="G161" s="2" t="e">
+      <c r="H161" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K161" s="2" t="str">
+      <c r="L161" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="G162" s="2" t="e">
+      <c r="H162" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K162" s="2" t="str">
+      <c r="L162" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="G163" s="2" t="e">
+      <c r="H163" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K163" s="2" t="str">
+      <c r="L163" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="G164" s="2" t="e">
+      <c r="H164" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J164">
+      <c r="K164">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K164" s="2" t="str">
+      <c r="L164" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="G165" s="2" t="e">
+      <c r="H165" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J165">
+      <c r="K165">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K165" s="2" t="str">
+      <c r="L165" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="G166" s="2" t="e">
+      <c r="H166" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J166">
+      <c r="K166">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K166" s="2" t="str">
+      <c r="L166" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="G167" s="2" t="e">
+      <c r="H167" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J167">
+      <c r="K167">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K167" s="2" t="str">
+      <c r="L167" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="G168" s="2" t="e">
+      <c r="H168" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J168">
+      <c r="K168">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K168" s="2" t="str">
+      <c r="L168" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="G169" s="2" t="e">
+      <c r="H169" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J169">
+      <c r="K169">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K169" s="2" t="str">
+      <c r="L169" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="G170" s="2" t="e">
+      <c r="H170" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J170">
+      <c r="K170">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K170" s="2" t="str">
+      <c r="L170" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="G171" s="2" t="e">
+      <c r="H171" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J171">
+      <c r="K171">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K171" s="2" t="str">
+      <c r="L171" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="G172" s="2" t="e">
+      <c r="H172" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J172">
+      <c r="K172">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K172" s="2" t="str">
+      <c r="L172" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="G173" s="2" t="e">
+      <c r="H173" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J173">
+      <c r="K173">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K173" s="2" t="str">
+      <c r="L173" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="G174" s="2" t="e">
+      <c r="H174" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K174" s="2" t="str">
+      <c r="L174" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="G175" s="2" t="e">
+      <c r="H175" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J175">
+      <c r="K175">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K175" s="2" t="str">
+      <c r="L175" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="G176" s="2" t="e">
+      <c r="H176" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J176">
+      <c r="K176">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K176" s="2" t="str">
+      <c r="L176" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="G177" s="2" t="e">
+      <c r="H177" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K177" s="2" t="str">
+      <c r="L177" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="G178" s="2" t="e">
+      <c r="H178" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J178">
+      <c r="K178">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K178" s="2" t="str">
+      <c r="L178" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="G179" s="2" t="e">
+      <c r="H179" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J179">
+      <c r="K179">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K179" s="2" t="str">
+      <c r="L179" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="G180" s="2" t="e">
+      <c r="H180" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J180">
+      <c r="K180">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K180" s="2" t="str">
+      <c r="L180" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="G181" s="2" t="e">
+      <c r="H181" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K181" s="2" t="str">
+      <c r="L181" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="G182" s="2" t="e">
+      <c r="H182" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J182">
+      <c r="K182">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K182" s="2" t="str">
+      <c r="L182" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="G183" s="2" t="e">
+      <c r="H183" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J183">
+      <c r="K183">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K183" s="2" t="str">
+      <c r="L183" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="G184" s="2" t="e">
+      <c r="H184" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J184">
+      <c r="K184">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K184" s="2" t="str">
+      <c r="L184" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="G185" s="2" t="e">
+      <c r="H185" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J185">
+      <c r="K185">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K185" s="2" t="str">
+      <c r="L185" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="G186" s="2" t="e">
+      <c r="H186" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J186">
+      <c r="K186">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K186" s="2" t="str">
+      <c r="L186" s="2" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D189">
-        <f>SUM(D2:D188)</f>
-        <v>71</v>
-      </c>
-      <c r="J189">
-        <f>SUM(J2:J188)+D189</f>
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J190" s="3">
-        <f>J189/D189-1</f>
-        <v>-7.8169014084507049E-2</v>
-      </c>
-      <c r="K190" t="s">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>5107</v>
+      </c>
+      <c r="E189">
+        <f>SUM(E2:E188)</f>
+        <v>103</v>
+      </c>
+      <c r="K189">
+        <f>SUM(K2:K188)+E189</f>
+        <v>95.210000000000008</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K190" s="3">
+        <f>K189/E189-1</f>
+        <v>-7.5631067961164922E-2</v>
+      </c>
+      <c r="L190" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>5108</v>
+      </c>
+      <c r="E191" cm="1">
+        <f t="array" ref="E191">SUMIF(E2:E186,I="G")</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J180" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="H1:H1048576">
+  <autoFilter ref="A1:K180" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
@@ -20014,7 +20870,7 @@
       <formula>"G"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K7">
+  <conditionalFormatting sqref="L2:L7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -20026,7 +20882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K1048576 K1">
+  <conditionalFormatting sqref="L8:L1048576 L1:M1">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -26375,8 +27231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557B8856-A6EC-40CA-B22E-FADBC4FDEE8D}">
   <dimension ref="A1:A4900"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+    <sheetView topLeftCell="A3002" workbookViewId="0">
+      <selection activeCell="A3022" sqref="A3022"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bet Stamps.xlsx
+++ b/Bet Stamps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\.spyder-py3\beating-the-books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77500F8B-C4C4-468C-8771-1D8A98D77E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C159CC-AB3D-40A7-92A5-529FA38A237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="5109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5859" uniqueCount="5133">
   <si>
     <t>Date</t>
   </si>
@@ -15105,21 +15105,9 @@
     <t>{'id': 78650, 'full_name': 'Matt Zunic', 'first_name': 'Matt', 'last_name': 'Zunic', 'is_active': False}</t>
   </si>
   <si>
-    <t>Mathurin</t>
-  </si>
-  <si>
-    <t>Nesmith</t>
-  </si>
-  <si>
-    <t>McConnell</t>
-  </si>
-  <si>
     <t>trae y</t>
   </si>
   <si>
-    <t>isaiah stewart</t>
-  </si>
-  <si>
     <t>t rozier</t>
   </si>
   <si>
@@ -15144,18 +15132,12 @@
     <t>E(X) Payout</t>
   </si>
   <si>
-    <t>cam thomas</t>
-  </si>
-  <si>
     <t>j murray</t>
   </si>
   <si>
     <t>c braun</t>
   </si>
   <si>
-    <t>daniel gafford</t>
-  </si>
-  <si>
     <t>klay t</t>
   </si>
   <si>
@@ -15174,9 +15156,6 @@
     <t>jaylen brown</t>
   </si>
   <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
     <t>Gueschon Y</t>
   </si>
   <si>
@@ -15252,9 +15231,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>Green / Yellow /Red</t>
-  </si>
-  <si>
     <t>Kyrie</t>
   </si>
   <si>
@@ -15391,6 +15367,102 @@
   </si>
   <si>
     <t>all time Greens:</t>
+  </si>
+  <si>
+    <t>all time Yellows:</t>
+  </si>
+  <si>
+    <t>all time Reds:</t>
+  </si>
+  <si>
+    <t>all time 6+'s</t>
+  </si>
+  <si>
+    <t>all time 4+'s</t>
+  </si>
+  <si>
+    <t>B Mathurin</t>
+  </si>
+  <si>
+    <t>A Nesmith</t>
+  </si>
+  <si>
+    <t>tj McConnell</t>
+  </si>
+  <si>
+    <t>i stewart</t>
+  </si>
+  <si>
+    <t>d white</t>
+  </si>
+  <si>
+    <t>t prince</t>
+  </si>
+  <si>
+    <t>c thomas</t>
+  </si>
+  <si>
+    <t>d gafford</t>
+  </si>
+  <si>
+    <t>c martin</t>
+  </si>
+  <si>
+    <t>moritz wagner</t>
+  </si>
+  <si>
+    <t>j suggs</t>
+  </si>
+  <si>
+    <t>d schroder</t>
+  </si>
+  <si>
+    <t>nets</t>
+  </si>
+  <si>
+    <t>G / Y / R</t>
+  </si>
+  <si>
+    <t>o toppin</t>
+  </si>
+  <si>
+    <t>s aldama</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Raptors</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>nuggets</t>
+  </si>
+  <si>
+    <t>m porter jr</t>
+  </si>
+  <si>
+    <t>M brogdon</t>
+  </si>
+  <si>
+    <t>wizards</t>
+  </si>
+  <si>
+    <t>bucks</t>
+  </si>
+  <si>
+    <t>C cunningham</t>
+  </si>
+  <si>
+    <t>pistons</t>
+  </si>
+  <si>
+    <t>M wagner</t>
+  </si>
+  <si>
+    <t>Magic</t>
   </si>
 </sst>
 </file>
@@ -15489,19 +15561,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF71"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF5D5D"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF71"/>
+      <color rgb="FFFF5D5D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -15776,29 +15854,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAA2F51-0A68-4FF9-B218-8013E5644C35}">
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="3" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -15806,16 +15886,16 @@
         <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>5083</v>
+        <v>5075</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>5024</v>
+        <v>5020</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5025</v>
+        <v>5021</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -15824,7 +15904,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>5062</v>
+        <v>5118</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>7</v>
@@ -15836,7 +15916,7 @@
         <v>64</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>5102</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -15844,7 +15924,7 @@
         <v>45593</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>5040</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -15862,6 +15942,9 @@
         <f t="shared" ref="H2:H65" si="0">G2/F2-1</f>
         <v>0.21582733812949639</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
@@ -15870,7 +15953,7 @@
         <v>0.69</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f t="shared" ref="L2:L7" si="2">IF(NOT(A2=A3),(SUMIFS(K:K, A:A, A2)+SUMIFS(E:E, A:A, A2))/SUMIFS(E:E, A:A, A2)-1,"")</f>
+        <f t="shared" ref="L2:L33" si="2">IF(NOT(A2=A3),(SUMIFS(K:K, A:A, A2)+SUMIFS(E:E, A:A, A2))/SUMIFS(E:E, A:A, A2)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -15897,6 +15980,9 @@
         <f t="shared" si="0"/>
         <v>0.27611940298507442</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
@@ -15914,7 +16000,7 @@
         <v>45593</v>
       </c>
       <c r="B4" t="s">
-        <v>5014</v>
+        <v>5106</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -15932,6 +16018,9 @@
         <f t="shared" si="0"/>
         <v>0.21301775147928992</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
@@ -15949,7 +16038,7 @@
         <v>45593</v>
       </c>
       <c r="B5" t="s">
-        <v>5013</v>
+        <v>5105</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -15967,6 +16056,9 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
@@ -15984,7 +16076,7 @@
         <v>45593</v>
       </c>
       <c r="B6" t="s">
-        <v>5015</v>
+        <v>5107</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -16002,6 +16094,9 @@
         <f t="shared" si="0"/>
         <v>0.35000000000000009</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
@@ -16019,7 +16114,7 @@
         <v>45593</v>
       </c>
       <c r="B7" t="s">
-        <v>5016</v>
+        <v>5013</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -16037,6 +16132,9 @@
         <f t="shared" si="0"/>
         <v>0.40410958904109573</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
@@ -16054,7 +16152,7 @@
         <v>45593</v>
       </c>
       <c r="B8" t="s">
-        <v>5016</v>
+        <v>5013</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -16072,6 +16170,9 @@
         <f t="shared" si="0"/>
         <v>1.5925925925925921</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
@@ -16080,7 +16181,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f t="shared" ref="L8:L65" si="3">IF(NOT(A8=A9),(SUMIFS(K:K, A:A, A8)+SUMIFS(E:E, A:A, A8))/SUMIFS(E:E, A:A, A8)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16089,7 +16190,7 @@
         <v>45593</v>
       </c>
       <c r="B9" t="s">
-        <v>5017</v>
+        <v>5108</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -16107,6 +16208,9 @@
         <f t="shared" si="0"/>
         <v>0.29411764705882359</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
@@ -16115,7 +16219,7 @@
         <v>0.54</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16124,7 +16228,7 @@
         <v>45593</v>
       </c>
       <c r="B10" t="s">
-        <v>5018</v>
+        <v>5014</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -16142,6 +16246,9 @@
         <f t="shared" si="0"/>
         <v>0.83000000000000007</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -16150,7 +16257,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16159,7 +16266,7 @@
         <v>45593</v>
       </c>
       <c r="B11" t="s">
-        <v>5018</v>
+        <v>5014</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -16177,6 +16284,9 @@
         <f t="shared" si="0"/>
         <v>2.4090909090909087</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>9</v>
       </c>
@@ -16185,7 +16295,7 @@
         <v>-1</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16194,7 +16304,7 @@
         <v>45593</v>
       </c>
       <c r="B12" t="s">
-        <v>5019</v>
+        <v>5015</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -16212,6 +16322,9 @@
         <f t="shared" si="0"/>
         <v>0.65289256198347112</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J12" s="2" t="s">
         <v>8</v>
       </c>
@@ -16220,7 +16333,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16229,7 +16342,7 @@
         <v>45593</v>
       </c>
       <c r="B13" t="s">
-        <v>5020</v>
+        <v>5016</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -16247,6 +16360,9 @@
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>8</v>
       </c>
@@ -16255,7 +16371,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16264,7 +16380,7 @@
         <v>45593</v>
       </c>
       <c r="B14" t="s">
-        <v>5021</v>
+        <v>5109</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -16282,6 +16398,9 @@
         <f t="shared" si="0"/>
         <v>0.2338709677419355</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J14" s="2" t="s">
         <v>9</v>
       </c>
@@ -16290,7 +16409,7 @@
         <v>-1</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16299,7 +16418,7 @@
         <v>45593</v>
       </c>
       <c r="B15" t="s">
-        <v>5022</v>
+        <v>5018</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -16317,6 +16436,9 @@
         <f t="shared" si="0"/>
         <v>0.36885245901639352</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J15" s="2" t="s">
         <v>8</v>
       </c>
@@ -16325,7 +16447,7 @@
         <v>0.66999999999999993</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16334,7 +16456,7 @@
         <v>45593</v>
       </c>
       <c r="B16" t="s">
-        <v>5023</v>
+        <v>5110</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -16352,6 +16474,9 @@
         <f t="shared" si="0"/>
         <v>0.62857142857142856</v>
       </c>
+      <c r="I16" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J16" s="2" t="s">
         <v>8</v>
       </c>
@@ -16360,7 +16485,7 @@
         <v>0.71</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.59666666666666668</v>
       </c>
     </row>
@@ -16369,7 +16494,7 @@
         <v>45594</v>
       </c>
       <c r="B17" t="s">
-        <v>5026</v>
+        <v>5111</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -16387,6 +16512,9 @@
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>9</v>
       </c>
@@ -16395,7 +16523,7 @@
         <v>-1</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16404,7 +16532,7 @@
         <v>45594</v>
       </c>
       <c r="B18" t="s">
-        <v>5027</v>
+        <v>5022</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -16422,6 +16550,9 @@
         <f t="shared" si="0"/>
         <v>0.37209302325581395</v>
       </c>
+      <c r="I18" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J18" s="2" t="s">
         <v>9</v>
       </c>
@@ -16430,7 +16561,7 @@
         <v>-1</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16439,7 +16570,7 @@
         <v>45594</v>
       </c>
       <c r="B19" t="s">
-        <v>5027</v>
+        <v>5022</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -16457,6 +16588,9 @@
         <f t="shared" si="0"/>
         <v>1.5714285714285716</v>
       </c>
+      <c r="I19" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
@@ -16465,7 +16599,7 @@
         <v>-1</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16474,7 +16608,7 @@
         <v>45594</v>
       </c>
       <c r="B20" t="s">
-        <v>5028</v>
+        <v>5023</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -16492,6 +16626,9 @@
         <f t="shared" si="0"/>
         <v>0.90647482014388503</v>
       </c>
+      <c r="I20" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
@@ -16500,7 +16637,7 @@
         <v>-1</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16509,7 +16646,7 @@
         <v>45594</v>
       </c>
       <c r="B21" t="s">
-        <v>5029</v>
+        <v>5112</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -16527,6 +16664,9 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333348</v>
       </c>
+      <c r="I21" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J21" s="2" t="s">
         <v>8</v>
       </c>
@@ -16535,7 +16675,7 @@
         <v>0.87000000000000011</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16544,7 +16684,7 @@
         <v>45594</v>
       </c>
       <c r="B22" t="s">
-        <v>5030</v>
+        <v>5024</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -16562,6 +16702,9 @@
         <f t="shared" si="0"/>
         <v>1.0866141732283463</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
@@ -16570,7 +16713,7 @@
         <v>-1</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16579,7 +16722,7 @@
         <v>45594</v>
       </c>
       <c r="B23" t="s">
-        <v>5031</v>
+        <v>5025</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -16597,6 +16740,9 @@
         <f t="shared" si="0"/>
         <v>0.85000000000000009</v>
       </c>
+      <c r="I23" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J23" s="2" t="s">
         <v>8</v>
       </c>
@@ -16605,7 +16751,7 @@
         <v>2.7</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.20428571428571429</v>
       </c>
     </row>
@@ -16614,7 +16760,7 @@
         <v>45595</v>
       </c>
       <c r="B24" t="s">
-        <v>5032</v>
+        <v>5026</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -16632,6 +16778,9 @@
         <f t="shared" si="0"/>
         <v>0.41860465116279078</v>
       </c>
+      <c r="I24" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J24" s="2" t="s">
         <v>8</v>
       </c>
@@ -16640,7 +16789,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="L24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16649,7 +16798,7 @@
         <v>45595</v>
       </c>
       <c r="B25" t="s">
-        <v>5033</v>
+        <v>5027</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -16667,6 +16816,9 @@
         <f t="shared" si="0"/>
         <v>0.58035714285714279</v>
       </c>
+      <c r="I25" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J25" s="2" t="s">
         <v>8</v>
       </c>
@@ -16675,7 +16827,7 @@
         <v>0.77</v>
       </c>
       <c r="L25" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16684,7 +16836,7 @@
         <v>45595</v>
       </c>
       <c r="B26" t="s">
-        <v>5034</v>
+        <v>5028</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -16702,6 +16854,9 @@
         <f t="shared" si="0"/>
         <v>1.1721311475409837</v>
       </c>
+      <c r="I26" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
       </c>
@@ -16710,7 +16865,7 @@
         <v>-1</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16719,7 +16874,7 @@
         <v>45595</v>
       </c>
       <c r="B27" t="s">
-        <v>5021</v>
+        <v>5017</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -16737,6 +16892,9 @@
         <f t="shared" si="0"/>
         <v>0.2338709677419355</v>
       </c>
+      <c r="I27" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
       </c>
@@ -16745,7 +16903,7 @@
         <v>-1</v>
       </c>
       <c r="L27" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16754,7 +16912,7 @@
         <v>45595</v>
       </c>
       <c r="B28" t="s">
-        <v>5035</v>
+        <v>5029</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -16772,6 +16930,9 @@
         <f t="shared" si="0"/>
         <v>0.59433962264150941</v>
       </c>
+      <c r="I28" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J28" s="2" t="s">
         <v>8</v>
       </c>
@@ -16780,7 +16941,7 @@
         <v>0.69</v>
       </c>
       <c r="L28" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16789,7 +16950,7 @@
         <v>45595</v>
       </c>
       <c r="B29" t="s">
-        <v>5095</v>
+        <v>5087</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -16807,6 +16968,9 @@
         <f t="shared" si="0"/>
         <v>0.31623931623931645</v>
       </c>
+      <c r="I29" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
@@ -16815,7 +16979,7 @@
         <v>-1</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16824,7 +16988,7 @@
         <v>45595</v>
       </c>
       <c r="B30" t="s">
-        <v>5036</v>
+        <v>5113</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -16842,6 +17006,9 @@
         <f t="shared" si="0"/>
         <v>0.47540983606557385</v>
       </c>
+      <c r="I30" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J30" s="2" t="s">
         <v>8</v>
       </c>
@@ -16850,7 +17017,7 @@
         <v>0.8</v>
       </c>
       <c r="L30" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16859,7 +17026,7 @@
         <v>45595</v>
       </c>
       <c r="B31" t="s">
-        <v>5037</v>
+        <v>5030</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -16877,6 +17044,9 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
+      <c r="I31" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
@@ -16885,7 +17055,7 @@
         <v>-1</v>
       </c>
       <c r="L31" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16894,7 +17064,7 @@
         <v>45595</v>
       </c>
       <c r="B32" t="s">
-        <v>5038</v>
+        <v>5031</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -16912,6 +17082,9 @@
         <f t="shared" si="0"/>
         <v>0.28965517241379324</v>
       </c>
+      <c r="I32" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J32" s="2" t="s">
         <v>9</v>
       </c>
@@ -16920,7 +17093,7 @@
         <v>-1</v>
       </c>
       <c r="L32" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16929,7 +17102,7 @@
         <v>45595</v>
       </c>
       <c r="B33" t="s">
-        <v>5039</v>
+        <v>5032</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -16947,6 +17120,9 @@
         <f t="shared" si="0"/>
         <v>0.90999999999999992</v>
       </c>
+      <c r="I33" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
@@ -16955,7 +17131,7 @@
         <v>-1</v>
       </c>
       <c r="L33" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16964,7 +17140,7 @@
         <v>45595</v>
       </c>
       <c r="B34" t="s">
-        <v>5040</v>
+        <v>5033</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -16982,15 +17158,18 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333326</v>
       </c>
+      <c r="I34" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="4">IF(J34="Yes",G34*E34-E34,-E34)</f>
+        <f t="shared" ref="K34:K65" si="3">IF(J34="Yes",G34*E34-E34,-E34)</f>
         <v>0.48</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L34:L65" si="4">IF(NOT(A34=A35),(SUMIFS(K:K, A:A, A34)+SUMIFS(E:E, A:A, A34))/SUMIFS(E:E, A:A, A34)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -16999,7 +17178,7 @@
         <v>45595</v>
       </c>
       <c r="B35" t="s">
-        <v>5041</v>
+        <v>5034</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -17017,15 +17196,18 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
+      <c r="I35" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K35">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L35" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L35" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17034,7 +17216,7 @@
         <v>45595</v>
       </c>
       <c r="B36" t="s">
-        <v>5042</v>
+        <v>5035</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -17052,15 +17234,18 @@
         <f t="shared" si="0"/>
         <v>0.57142857142857162</v>
       </c>
+      <c r="I36" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K36">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L36" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="L36" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17087,15 +17272,18 @@
         <f t="shared" si="0"/>
         <v>0.60576923076923062</v>
       </c>
+      <c r="I37" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K37">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L37" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L37" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17104,7 +17292,7 @@
         <v>45595</v>
       </c>
       <c r="B38" t="s">
-        <v>5043</v>
+        <v>5036</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -17122,15 +17310,18 @@
         <f t="shared" si="0"/>
         <v>0.29752066115702491</v>
       </c>
+      <c r="I38" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="L38" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="L38" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17139,7 +17330,7 @@
         <v>45595</v>
       </c>
       <c r="B39" t="s">
-        <v>5044</v>
+        <v>5037</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -17157,15 +17348,18 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090895</v>
       </c>
+      <c r="I39" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K39">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L39" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17174,7 +17368,7 @@
         <v>45595</v>
       </c>
       <c r="B40" t="s">
-        <v>5045</v>
+        <v>5038</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -17192,15 +17386,18 @@
         <f t="shared" si="0"/>
         <v>0.78861788617886197</v>
       </c>
+      <c r="I40" s="2" t="s">
+        <v>5060</v>
+      </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K40">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L40" s="2">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="3"/>
         <v>-0.27411764705882358</v>
       </c>
     </row>
@@ -17209,7 +17406,7 @@
         <v>45611</v>
       </c>
       <c r="B41" t="s">
-        <v>5046</v>
+        <v>5039</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -17234,11 +17431,11 @@
         <v>8</v>
       </c>
       <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L41" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L41" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17247,7 +17444,7 @@
         <v>45611</v>
       </c>
       <c r="B42" t="s">
-        <v>5047</v>
+        <v>5040</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -17266,17 +17463,17 @@
         <v>0.26771653543307083</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K42">
+        <f t="shared" si="3"/>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="L42" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0.6100000000000001</v>
-      </c>
-      <c r="L42" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17285,7 +17482,7 @@
         <v>45611</v>
       </c>
       <c r="B43" t="s">
-        <v>5048</v>
+        <v>5041</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -17304,17 +17501,17 @@
         <v>0.38016528925619841</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L43" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L43" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17323,7 +17520,7 @@
         <v>45611</v>
       </c>
       <c r="B44" t="s">
-        <v>5049</v>
+        <v>5042</v>
       </c>
       <c r="D44">
         <v>6</v>
@@ -17342,17 +17539,17 @@
         <v>0.22857142857142843</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L44" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L44" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17361,7 +17558,7 @@
         <v>45611</v>
       </c>
       <c r="B45" t="s">
-        <v>5095</v>
+        <v>5087</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -17380,17 +17577,17 @@
         <v>0.23770491803278682</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>5061</v>
+        <v>5054</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L45" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L45" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17399,7 +17596,7 @@
         <v>45611</v>
       </c>
       <c r="B46" t="s">
-        <v>5050</v>
+        <v>5043</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -17418,17 +17615,17 @@
         <v>0.34210526315789491</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L46" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L46" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17437,7 +17634,7 @@
         <v>45611</v>
       </c>
       <c r="B47" t="s">
-        <v>5016</v>
+        <v>5013</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -17456,17 +17653,17 @@
         <v>0.31756756756756754</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L47" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L47" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17475,7 +17672,7 @@
         <v>45611</v>
       </c>
       <c r="B48" t="s">
-        <v>5051</v>
+        <v>5044</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -17494,17 +17691,17 @@
         <v>0.20886075949367089</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K48">
+        <f t="shared" si="3"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="L48" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="L48" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17513,7 +17710,7 @@
         <v>45611</v>
       </c>
       <c r="B49" t="s">
-        <v>5052</v>
+        <v>5045</v>
       </c>
       <c r="D49">
         <v>6</v>
@@ -17532,17 +17729,17 @@
         <v>0.49425287356321834</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L49" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L49" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17551,7 +17748,7 @@
         <v>45611</v>
       </c>
       <c r="B50" t="s">
-        <v>5053</v>
+        <v>5046</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -17570,17 +17767,17 @@
         <v>0.52427184466019416</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>5061</v>
+        <v>5054</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K50">
+        <f t="shared" si="3"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="L50" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="L50" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17589,7 +17786,7 @@
         <v>45611</v>
       </c>
       <c r="B51" t="s">
-        <v>5054</v>
+        <v>5047</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -17608,17 +17805,17 @@
         <v>0.46258503401360551</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K51">
+        <f t="shared" si="3"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L51" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L51" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17627,7 +17824,7 @@
         <v>45611</v>
       </c>
       <c r="B52" t="s">
-        <v>5053</v>
+        <v>5046</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -17646,17 +17843,17 @@
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>5061</v>
+        <v>5054</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K52">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L52" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L52" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17665,7 +17862,7 @@
         <v>45611</v>
       </c>
       <c r="B53" t="s">
-        <v>5055</v>
+        <v>5048</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -17684,17 +17881,17 @@
         <v>0.25730994152046782</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>5059</v>
+        <v>5052</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K53">
+        <f t="shared" si="3"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L53" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L53" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17703,7 +17900,7 @@
         <v>45611</v>
       </c>
       <c r="B54" t="s">
-        <v>5056</v>
+        <v>5049</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -17722,17 +17919,17 @@
         <v>0.64285714285714279</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K54">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="L54" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>1.2999999999999998</v>
-      </c>
-      <c r="L54" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17741,7 +17938,7 @@
         <v>45611</v>
       </c>
       <c r="B55" t="s">
-        <v>5057</v>
+        <v>5050</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -17760,17 +17957,17 @@
         <v>0.90972222222222232</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K55">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L55" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L55" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17779,7 +17976,7 @@
         <v>45611</v>
       </c>
       <c r="B56" t="s">
-        <v>5058</v>
+        <v>5051</v>
       </c>
       <c r="D56">
         <v>6</v>
@@ -17798,17 +17995,17 @@
         <v>0.51515151515151514</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L56" s="2">
-        <f t="shared" si="3"/>
         <v>0.15937500000000004</v>
       </c>
     </row>
@@ -17817,7 +18014,7 @@
         <v>45612</v>
       </c>
       <c r="B57" t="s">
-        <v>5095</v>
+        <v>5087</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -17836,17 +18033,17 @@
         <v>0.28800000000000003</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K57">
+        <f t="shared" si="3"/>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="L57" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0.6100000000000001</v>
-      </c>
-      <c r="L57" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17855,7 +18052,7 @@
         <v>45612</v>
       </c>
       <c r="B58" t="s">
-        <v>5035</v>
+        <v>5029</v>
       </c>
       <c r="D58">
         <v>6</v>
@@ -17874,17 +18071,17 @@
         <v>0.48760330578512412</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>5061</v>
+        <v>5054</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K58">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="L58" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="L58" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17893,7 +18090,7 @@
         <v>45612</v>
       </c>
       <c r="B59" t="s">
-        <v>5063</v>
+        <v>5055</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -17912,17 +18109,17 @@
         <v>0.2936507936507935</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K59">
+        <f t="shared" si="3"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="L59" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0.62999999999999989</v>
-      </c>
-      <c r="L59" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17931,7 +18128,7 @@
         <v>45612</v>
       </c>
       <c r="B60" t="s">
-        <v>5030</v>
+        <v>5024</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -17950,17 +18147,17 @@
         <v>0.25786163522012573</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K60">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L60" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L60" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17969,7 +18166,7 @@
         <v>45612</v>
       </c>
       <c r="B61" t="s">
-        <v>5064</v>
+        <v>5056</v>
       </c>
       <c r="D61">
         <v>6</v>
@@ -17988,17 +18185,17 @@
         <v>0.28272251308900542</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K61">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L61" s="2">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L61" s="2">
-        <f t="shared" si="3"/>
         <v>8.0000000000000071E-3</v>
       </c>
     </row>
@@ -18007,7 +18204,7 @@
         <v>45613</v>
       </c>
       <c r="B62" t="s">
-        <v>5065</v>
+        <v>5057</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -18026,17 +18223,17 @@
         <v>0.28124999999999978</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K62">
+        <f t="shared" si="3"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="L62" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="L62" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -18045,7 +18242,7 @@
         <v>45613</v>
       </c>
       <c r="B63" t="s">
-        <v>5031</v>
+        <v>5025</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -18064,17 +18261,17 @@
         <v>0.47368421052631571</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K63">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L63" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="L63" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -18083,7 +18280,7 @@
         <v>45613</v>
       </c>
       <c r="B64" t="s">
-        <v>5066</v>
+        <v>5058</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -18102,17 +18299,17 @@
         <v>0.60447761194029836</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>5061</v>
+        <v>5054</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K64">
+        <f t="shared" si="3"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L64" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L64" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -18121,7 +18318,7 @@
         <v>45613</v>
       </c>
       <c r="B65" t="s">
-        <v>5067</v>
+        <v>5059</v>
       </c>
       <c r="D65">
         <v>6</v>
@@ -18140,17 +18337,17 @@
         <v>0.4832535885167466</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>5061</v>
+        <v>5054</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K65">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="L65" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L65" s="2" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -18159,7 +18356,7 @@
         <v>45613</v>
       </c>
       <c r="B66" t="s">
-        <v>5049</v>
+        <v>5042</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -18178,7 +18375,7 @@
         <v>0.320754716981132</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>8</v>
@@ -18188,7 +18385,7 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="L66" s="2" t="str">
-        <f t="shared" ref="L66:L129" si="7">IF(NOT(A66=A67),(SUMIFS(K:K, A:A, A66)+SUMIFS(E:E, A:A, A66))/SUMIFS(E:E, A:A, A66)-1,"")</f>
+        <f t="shared" ref="L66:L97" si="7">IF(NOT(A66=A67),(SUMIFS(K:K, A:A, A66)+SUMIFS(E:E, A:A, A66))/SUMIFS(E:E, A:A, A66)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -18197,7 +18394,7 @@
         <v>45613</v>
       </c>
       <c r="B67" t="s">
-        <v>5020</v>
+        <v>5016</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -18216,7 +18413,7 @@
         <v>0.5688073394495412</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
@@ -18235,7 +18432,7 @@
         <v>45613</v>
       </c>
       <c r="B68" t="s">
-        <v>5048</v>
+        <v>5041</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -18254,7 +18451,7 @@
         <v>0.33846153846153837</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>8</v>
@@ -18273,7 +18470,7 @@
         <v>45613</v>
       </c>
       <c r="B69" t="s">
-        <v>5069</v>
+        <v>5061</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -18292,7 +18489,7 @@
         <v>0.59813084112149517</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>5061</v>
+        <v>5054</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>8</v>
@@ -18311,7 +18508,7 @@
         <v>45613</v>
       </c>
       <c r="B70" t="s">
-        <v>5070</v>
+        <v>5062</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -18330,7 +18527,7 @@
         <v>0.63398692810457513</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>9</v>
@@ -18349,7 +18546,7 @@
         <v>45613</v>
       </c>
       <c r="B71" t="s">
-        <v>5032</v>
+        <v>5026</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -18368,7 +18565,7 @@
         <v>0.50326797385620892</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>5059</v>
+        <v>5052</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>8</v>
@@ -18387,7 +18584,7 @@
         <v>45613</v>
       </c>
       <c r="B72" t="s">
-        <v>5071</v>
+        <v>5063</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -18406,7 +18603,7 @@
         <v>0.26315789473684204</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>9</v>
@@ -18425,7 +18622,7 @@
         <v>45617</v>
       </c>
       <c r="B73" t="s">
-        <v>5042</v>
+        <v>5035</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -18444,7 +18641,7 @@
         <v>0.23404255319148937</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>8</v>
@@ -18463,7 +18660,7 @@
         <v>45617</v>
       </c>
       <c r="B74" t="s">
-        <v>5041</v>
+        <v>5034</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -18482,7 +18679,7 @@
         <v>0.39880952380952395</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>9</v>
@@ -18501,7 +18698,7 @@
         <v>45618</v>
       </c>
       <c r="B75" t="s">
-        <v>5072</v>
+        <v>5064</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -18520,7 +18717,7 @@
         <v>0.34883720930232553</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>9</v>
@@ -18539,7 +18736,7 @@
         <v>45618</v>
       </c>
       <c r="B76" t="s">
-        <v>5051</v>
+        <v>5044</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -18558,7 +18755,7 @@
         <v>0.23357664233576636</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>5076</v>
+        <v>5068</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>9</v>
@@ -18577,7 +18774,7 @@
         <v>45618</v>
       </c>
       <c r="B77" t="s">
-        <v>5073</v>
+        <v>5065</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -18596,7 +18793,7 @@
         <v>0.29921259842519676</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>5076</v>
+        <v>5068</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>8</v>
@@ -18615,7 +18812,7 @@
         <v>45618</v>
       </c>
       <c r="B78" t="s">
-        <v>5023</v>
+        <v>5019</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -18634,7 +18831,7 @@
         <v>0.3828125</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>9</v>
@@ -18653,7 +18850,7 @@
         <v>45618</v>
       </c>
       <c r="B79" t="s">
-        <v>5074</v>
+        <v>5066</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -18672,7 +18869,7 @@
         <v>0.2520325203252034</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>5076</v>
+        <v>5068</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>8</v>
@@ -18691,7 +18888,7 @@
         <v>45618</v>
       </c>
       <c r="B80" t="s">
-        <v>5075</v>
+        <v>5067</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -18710,7 +18907,7 @@
         <v>0.47580645161290325</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>5076</v>
+        <v>5068</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>8</v>
@@ -18729,7 +18926,7 @@
         <v>45618</v>
       </c>
       <c r="B81" t="s">
-        <v>5077</v>
+        <v>5069</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -18748,7 +18945,7 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>5078</v>
+        <v>5070</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>8</v>
@@ -18767,7 +18964,7 @@
         <v>45618</v>
       </c>
       <c r="B82" t="s">
-        <v>5079</v>
+        <v>5071</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -18786,7 +18983,7 @@
         <v>0.62420382165605082</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>5078</v>
+        <v>5070</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>8</v>
@@ -18805,7 +19002,7 @@
         <v>45618</v>
       </c>
       <c r="B83" t="s">
-        <v>5080</v>
+        <v>5072</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -18824,7 +19021,7 @@
         <v>0.43884892086330951</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>5078</v>
+        <v>5070</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>9</v>
@@ -18843,7 +19040,7 @@
         <v>45618</v>
       </c>
       <c r="B84" t="s">
-        <v>5016</v>
+        <v>5013</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -18862,7 +19059,7 @@
         <v>0.44736842105263164</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>9</v>
@@ -18881,7 +19078,7 @@
         <v>45618</v>
       </c>
       <c r="B85" t="s">
-        <v>5056</v>
+        <v>5049</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -18900,7 +19097,7 @@
         <v>0.38636363636363624</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>9</v>
@@ -18919,7 +19116,7 @@
         <v>45618</v>
       </c>
       <c r="B86" t="s">
-        <v>5081</v>
+        <v>5073</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -18938,7 +19135,7 @@
         <v>0.33986928104575154</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>8</v>
@@ -18957,7 +19154,7 @@
         <v>45618</v>
       </c>
       <c r="B87" t="s">
-        <v>5044</v>
+        <v>5037</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -18976,7 +19173,7 @@
         <v>0.28930817610062864</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>8</v>
@@ -18995,10 +19192,10 @@
         <v>45625</v>
       </c>
       <c r="B88" t="s">
-        <v>5082</v>
+        <v>5074</v>
       </c>
       <c r="C88" t="s">
-        <v>5084</v>
+        <v>5076</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -19017,11 +19214,14 @@
         <v>0.23404255319148937</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K88">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0.74</v>
       </c>
       <c r="L88" s="2" t="str">
         <f t="shared" si="7"/>
@@ -19033,10 +19233,10 @@
         <v>45625</v>
       </c>
       <c r="B89" t="s">
-        <v>5085</v>
+        <v>5077</v>
       </c>
       <c r="C89" t="s">
-        <v>5084</v>
+        <v>5076</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -19055,7 +19255,10 @@
         <v>0.70542635658914743</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>5076</v>
+        <v>5068</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K89">
         <f t="shared" si="6"/>
@@ -19071,10 +19274,10 @@
         <v>45625</v>
       </c>
       <c r="B90" t="s">
-        <v>5086</v>
+        <v>5078</v>
       </c>
       <c r="C90" t="s">
-        <v>5087</v>
+        <v>5079</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -19093,11 +19296,14 @@
         <v>0.49350649350649345</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K90">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="L90" s="2" t="str">
         <f t="shared" si="7"/>
@@ -19109,10 +19315,10 @@
         <v>45625</v>
       </c>
       <c r="B91" t="s">
-        <v>5055</v>
+        <v>5048</v>
       </c>
       <c r="C91" t="s">
-        <v>5087</v>
+        <v>5079</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -19131,7 +19337,10 @@
         <v>0.54088050314465419</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K91">
         <f t="shared" si="6"/>
@@ -19147,10 +19356,10 @@
         <v>45625</v>
       </c>
       <c r="B92" t="s">
-        <v>5088</v>
+        <v>5080</v>
       </c>
       <c r="C92" t="s">
-        <v>5087</v>
+        <v>5079</v>
       </c>
       <c r="D92">
         <v>6</v>
@@ -19169,11 +19378,14 @@
         <v>0.48854961832061061</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K92">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="L92" s="2" t="str">
         <f t="shared" si="7"/>
@@ -19185,10 +19397,10 @@
         <v>45625</v>
       </c>
       <c r="B93" t="s">
-        <v>5089</v>
+        <v>5081</v>
       </c>
       <c r="C93" t="s">
-        <v>5090</v>
+        <v>5082</v>
       </c>
       <c r="D93">
         <v>6</v>
@@ -19207,7 +19419,10 @@
         <v>0.300578034682081</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K93">
         <f t="shared" si="6"/>
@@ -19223,10 +19438,10 @@
         <v>45625</v>
       </c>
       <c r="B94" t="s">
-        <v>5046</v>
+        <v>5039</v>
       </c>
       <c r="C94" t="s">
-        <v>5091</v>
+        <v>5083</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -19245,7 +19460,10 @@
         <v>0.27737226277372251</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K94">
         <f t="shared" si="6"/>
@@ -19261,10 +19479,10 @@
         <v>45625</v>
       </c>
       <c r="B95" t="s">
-        <v>5092</v>
+        <v>5084</v>
       </c>
       <c r="C95" t="s">
-        <v>5093</v>
+        <v>5085</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -19283,7 +19501,10 @@
         <v>0.19760479041916179</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K95">
         <f t="shared" si="6"/>
@@ -19299,10 +19520,10 @@
         <v>45625</v>
       </c>
       <c r="B96" t="s">
-        <v>5094</v>
+        <v>5086</v>
       </c>
       <c r="C96" t="s">
-        <v>5093</v>
+        <v>5085</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -19321,7 +19542,10 @@
         <v>0.23357664233576636</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>5076</v>
+        <v>5068</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K96">
         <f t="shared" si="6"/>
@@ -19337,10 +19561,10 @@
         <v>45625</v>
       </c>
       <c r="B97" t="s">
-        <v>5095</v>
+        <v>5087</v>
       </c>
       <c r="C97" t="s">
-        <v>5096</v>
+        <v>5088</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -19359,11 +19583,14 @@
         <v>0.54411764705882359</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>5076</v>
+        <v>5068</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K97">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L97" s="2" t="str">
         <f t="shared" si="7"/>
@@ -19375,10 +19602,10 @@
         <v>45625</v>
       </c>
       <c r="B98" t="s">
-        <v>5097</v>
+        <v>5089</v>
       </c>
       <c r="C98" t="s">
-        <v>5098</v>
+        <v>5090</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -19397,14 +19624,17 @@
         <v>0.91304347826086985</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K98">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="L98" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L98:L129" si="8">IF(NOT(A98=A99),(SUMIFS(K:K, A:A, A98)+SUMIFS(E:E, A:A, A98))/SUMIFS(E:E, A:A, A98)-1,"")</f>
         <v/>
       </c>
     </row>
@@ -19413,10 +19643,10 @@
         <v>45625</v>
       </c>
       <c r="B99" t="s">
-        <v>5049</v>
+        <v>5042</v>
       </c>
       <c r="C99" t="s">
-        <v>5098</v>
+        <v>5090</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -19435,14 +19665,17 @@
         <v>0.28742514970059885</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K99">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="L99" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19451,10 +19684,10 @@
         <v>45625</v>
       </c>
       <c r="B100" t="s">
-        <v>5080</v>
+        <v>5072</v>
       </c>
       <c r="C100" t="s">
-        <v>5099</v>
+        <v>5091</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -19473,14 +19706,17 @@
         <v>0.47651006711409405</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>5078</v>
+        <v>5070</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K100">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="L100" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19489,10 +19725,10 @@
         <v>45625</v>
       </c>
       <c r="B101" t="s">
-        <v>5100</v>
+        <v>5092</v>
       </c>
       <c r="C101" t="s">
-        <v>5101</v>
+        <v>5093</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -19511,18 +19747,21 @@
         <v>0.41481481481481475</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>5068</v>
+        <v>5060</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K101">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="L101" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M101" t="s">
-        <v>5103</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -19530,10 +19769,10 @@
         <v>45625</v>
       </c>
       <c r="B102" t="s">
-        <v>5106</v>
+        <v>5098</v>
       </c>
       <c r="C102" t="s">
-        <v>5104</v>
+        <v>5096</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -19552,317 +19791,820 @@
         <v>-1.6393442622950838E-2</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>5078</v>
+        <v>5070</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K102">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L102" s="2">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="8"/>
+        <v>-0.27117647058823524</v>
       </c>
       <c r="M102" t="s">
-        <v>5105</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="H103" s="2" t="e">
+      <c r="A103" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5083</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1.24</v>
+      </c>
+      <c r="G103">
+        <v>1.51</v>
+      </c>
+      <c r="H103" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.217741935483871</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K103">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="L103" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="H104" s="2" t="e">
+      <c r="A104" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5083</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1.38</v>
+      </c>
+      <c r="G104">
+        <v>1.83</v>
+      </c>
+      <c r="H104" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.32608695652173925</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K104">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L104" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="H105" s="2" t="e">
+      <c r="A105" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5117</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1.85</v>
+      </c>
+      <c r="G105">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H105" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.24324324324324298</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K105">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L105" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="H106" s="2" t="e">
+      <c r="A106" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5064</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5117</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1.4</v>
+      </c>
+      <c r="G106">
+        <v>1.77</v>
+      </c>
+      <c r="H106" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.26428571428571446</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K106">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L106" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="H107" s="2" t="e">
+      <c r="A107" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5077</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5076</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1.08</v>
+      </c>
+      <c r="G107">
+        <v>1.43</v>
+      </c>
+      <c r="H107" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.32407407407407396</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.42999999999999994</v>
       </c>
       <c r="L107" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="H108" s="2" t="e">
+      <c r="A108" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5084</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1.73</v>
+      </c>
+      <c r="G108">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H108" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.27167630057803471</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>5070</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K108">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L108" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="H109" s="2" t="e">
+      <c r="A109" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5119</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1.91</v>
+      </c>
+      <c r="G109">
+        <v>2.4</v>
+      </c>
+      <c r="H109" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.25654450261780104</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K109">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L109" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="H110" s="2" t="e">
+      <c r="A110" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5074</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5076</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1.37</v>
+      </c>
+      <c r="G110">
+        <v>1.69</v>
+      </c>
+      <c r="H110" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.23357664233576636</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K110">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="L110" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="H111" s="2" t="e">
+      <c r="A111" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5120</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5076</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1.34</v>
+      </c>
+      <c r="G111">
+        <v>1.71</v>
+      </c>
+      <c r="H111" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.27611940298507442</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K111">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L111" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="H112" s="2" t="e">
+      <c r="A112" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5121</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5122</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1.24</v>
+      </c>
+      <c r="G112">
+        <v>1.75</v>
+      </c>
+      <c r="H112" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.41129032258064524</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K112">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L112" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="H113" s="2" t="e">
+      <c r="A113" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5123</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5088</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1.34</v>
+      </c>
+      <c r="G113">
+        <v>1.87</v>
+      </c>
+      <c r="H113" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.39552238805970141</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K113">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.87000000000000011</v>
       </c>
       <c r="L113" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="H114" s="2" t="e">
+      <c r="A114" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5089</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5090</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G114">
+        <v>1.91</v>
+      </c>
+      <c r="H114" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.64655172413793105</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K114">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L114" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="H115" s="2" t="e">
+      <c r="A115" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5022</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5124</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1.34</v>
+      </c>
+      <c r="G115">
+        <v>1.91</v>
+      </c>
+      <c r="H115" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.42537313432835799</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K115">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L115" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="H116" s="2" t="e">
+      <c r="A116" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5048</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5079</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1.66</v>
+      </c>
+      <c r="G116">
+        <v>2.35</v>
+      </c>
+      <c r="H116" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.4156626506024097</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K116">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L116" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="H117" s="2" t="e">
+      <c r="A117" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5125</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5124</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1.2</v>
+      </c>
+      <c r="G117">
+        <v>1.74</v>
+      </c>
+      <c r="H117" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K117">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="L117" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="H118" s="2" t="e">
+      <c r="A118" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5079</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1.31</v>
+      </c>
+      <c r="G118">
+        <v>1.83</v>
+      </c>
+      <c r="H118" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.39694656488549618</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K118">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="L118" s="2">
+        <f t="shared" si="8"/>
+        <v>-7.3749999999999982E-2</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="H119" s="2" t="e">
+      <c r="B119" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5127</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1.57</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.27388535031847128</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>5068</v>
       </c>
       <c r="K119">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L119" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="H120" s="2" t="e">
+      <c r="B120" t="s">
+        <v>5065</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5128</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1.24</v>
+      </c>
+      <c r="G120">
+        <v>1.69</v>
+      </c>
+      <c r="H120" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.36290322580645151</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>5060</v>
       </c>
       <c r="K120">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L120" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="H121" s="2" t="e">
+      <c r="B121" t="s">
+        <v>5129</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5130</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1.18</v>
+      </c>
+      <c r="G121">
+        <v>1.67</v>
+      </c>
+      <c r="H121" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.4152542372881356</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>5060</v>
       </c>
       <c r="K121">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L121" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="H122" s="2" t="e">
+      <c r="B122" t="s">
+        <v>5131</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5132</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1.22</v>
+      </c>
+      <c r="G122">
+        <v>1.61</v>
+      </c>
+      <c r="H122" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.31967213114754101</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>5060</v>
       </c>
       <c r="K122">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L122" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19877,7 +20619,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19892,7 +20634,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19907,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19922,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19937,7 +20679,7 @@
         <v>0</v>
       </c>
       <c r="L127" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19952,7 +20694,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19967,894 +20709,965 @@
         <v>0</v>
       </c>
       <c r="L129" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="H130" s="2" t="e">
-        <f t="shared" ref="H130:H186" si="8">G130/F130-1</f>
+        <f t="shared" ref="H130:H186" si="9">G130/F130-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K130">
-        <f t="shared" ref="K130:K186" si="9">IF(J130="Yes",G130*E130-E130,-E130)</f>
+        <f t="shared" ref="K130:K186" si="10">IF(J130="Yes",G130*E130-E130,-E130)</f>
         <v>0</v>
       </c>
       <c r="L130" s="2" t="str">
-        <f t="shared" ref="L130:L186" si="10">IF(NOT(A130=A131),(SUMIFS(K:K, A:A, A130)+SUMIFS(E:E, A:A, A130))/SUMIFS(E:E, A:A, A130)-1,"")</f>
+        <f t="shared" ref="L130:L161" si="11">IF(NOT(A130=A131),(SUMIFS(K:K, A:A, A130)+SUMIFS(E:E, A:A, A130))/SUMIFS(E:E, A:A, A130)-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="H131" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L131" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="H132" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L132" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="H133" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L133" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="H134" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L134" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="H135" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L135" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="H136" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L136" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="H137" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L137" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="H138" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L138" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="H139" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L139" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="H140" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L140" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="H141" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L141" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="H142" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L142" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="H143" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L143" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="H144" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L144" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="H145" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L145" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="H146" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L146" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="H147" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L147" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="H148" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L148" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="H149" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L149" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="H150" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L150" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="H151" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L151" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="H152" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L152" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="H153" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L153" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="H154" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L154" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="H155" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L155" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="H156" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L156" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="H157" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L157" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="H158" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L158" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="H159" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L159" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="H160" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L160" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="H161" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L161" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="H162" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L162" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="L162:L186" si="12">IF(NOT(A162=A163),(SUMIFS(K:K, A:A, A162)+SUMIFS(E:E, A:A, A162))/SUMIFS(E:E, A:A, A162)-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="H163" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L163" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="H164" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L164" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="H165" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L165" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="H166" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L166" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="H167" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L167" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="H168" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L168" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="H169" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L169" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="H170" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L170" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="H171" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L171" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="H172" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L172" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="H173" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L173" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="H174" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L174" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="H175" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L175" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="H176" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L176" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="H177" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L177" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="H178" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L178" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="H179" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L179" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="H180" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L180" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="H181" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L181" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="H182" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L182" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="H183" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L183" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="H184" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L184" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="H185" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L185" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="H186" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L186" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>5107</v>
+        <v>5099</v>
       </c>
       <c r="E189">
         <f>SUM(E2:E188)</f>
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="K189">
-        <f>SUM(K2:K188)+E189</f>
-        <v>95.210000000000008</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K190" s="3">
-        <f>K189/E189-1</f>
-        <v>-7.5631067961164922E-2</v>
-      </c>
-      <c r="L190" t="s">
-        <v>26</v>
+        <f>SUM(K2:K188)</f>
+        <v>-0.58000000000000096</v>
+      </c>
+      <c r="L189" s="3">
+        <f>K189/E189</f>
+        <v>-4.7154471544715521E-3</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>5108</v>
-      </c>
-      <c r="E191" cm="1">
-        <f t="array" ref="E191">SUMIF(E2:E186,I="G")</f>
-        <v>0</v>
+        <v>5100</v>
+      </c>
+      <c r="E191">
+        <f>SUMIF($I$2:$I$186,"G",$E$2:$E$186)</f>
+        <v>18</v>
+      </c>
+      <c r="K191">
+        <f>SUMIF($I$2:$I$186,"G",$K$2:$K$186)</f>
+        <v>1.75</v>
+      </c>
+      <c r="L191" s="3">
+        <f>K191/E191</f>
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>5101</v>
+      </c>
+      <c r="E192">
+        <f>SUMIF($I$2:$I$186,"Y",$E$2:$E$186)</f>
+        <v>98</v>
+      </c>
+      <c r="K192">
+        <f>SUMIF($I$2:$I$186,"Y",$K$2:$K$186)</f>
+        <v>-4.5300000000000029</v>
+      </c>
+      <c r="L192" s="3">
+        <f>K192/E192</f>
+        <v>-4.6224489795918394E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>5102</v>
+      </c>
+      <c r="E193">
+        <f>SUMIF($I$2:$I$186,"R",$E$2:$E$186)</f>
+        <v>7</v>
+      </c>
+      <c r="K193">
+        <f>SUMIF($I$2:$I$186,"R",$K$2:$K$186)</f>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="L193" s="3">
+        <f>K193/E193</f>
+        <v>0.31428571428571417</v>
+      </c>
+    </row>
+    <row r="195" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>5104</v>
+      </c>
+      <c r="E195">
+        <f>SUMIF($D$2:D$186,"4",$E$2:$E$186)</f>
+        <v>88</v>
+      </c>
+      <c r="K195">
+        <f>SUMIF($D$2:$D$186,"4",$K$2:$K$186)</f>
+        <v>1.6399999999999988</v>
+      </c>
+      <c r="L195" s="3">
+        <f>K195/E195</f>
+        <v>1.8636363636363621E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>5103</v>
+      </c>
+      <c r="E196">
+        <f>SUMIF($D$2:D$186,"6",$E$2:$E$186)</f>
+        <v>35</v>
+      </c>
+      <c r="K196">
+        <f>SUMIF($D$2:$D$186,"6",$K$2:$K$186)</f>
+        <v>-2.2199999999999998</v>
+      </c>
+      <c r="L196" s="3">
+        <f>K196/E196</f>
+        <v>-6.3428571428571418E-2</v>
       </c>
     </row>
   </sheetData>
@@ -20882,7 +21695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L1048576 L1:M1">
+  <conditionalFormatting sqref="L8:L188 L194 M189 L1:M1 L197:L1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -27231,8 +28044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557B8856-A6EC-40CA-B22E-FADBC4FDEE8D}">
   <dimension ref="A1:A4900"/>
   <sheetViews>
-    <sheetView topLeftCell="A3002" workbookViewId="0">
-      <selection activeCell="A3022" sqref="A3022"/>
+    <sheetView topLeftCell="A3477" workbookViewId="0">
+      <selection activeCell="A3495" sqref="A3495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
